--- a/hw8/MidtermProject_YaoQuaziLee_v19/hw8 data version 3.xlsx
+++ b/hw8/MidtermProject_YaoQuaziLee_v19/hw8 data version 3.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ML\Documents\processing-3.3.6\ProcessingCode\MidtermProject_YaoQuaziLee\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="36" windowWidth="11340" windowHeight="3240" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="11340" windowHeight="3240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="raw cities" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'city data'!$A$3:$CC$23</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1405,13 +1399,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1560,7 +1554,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1592,10 +1586,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1627,7 +1620,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1803,176 +1795,176 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B288" sqref="B288"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="120">
       <c r="A38" s="2" t="s">
         <v>32</v>
       </c>
@@ -1989,7 +1981,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="30">
       <c r="A39" s="2" t="s">
         <v>37</v>
       </c>
@@ -2006,7 +1998,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="30">
       <c r="A40" s="2" t="s">
         <v>40</v>
       </c>
@@ -2023,7 +2015,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="30">
       <c r="A41" s="2" t="s">
         <v>43</v>
       </c>
@@ -2040,7 +2032,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="30">
       <c r="A42" s="2" t="s">
         <v>45</v>
       </c>
@@ -2057,7 +2049,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="30">
       <c r="A43" s="2" t="s">
         <v>47</v>
       </c>
@@ -2074,7 +2066,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="30">
       <c r="A44" s="2" t="s">
         <v>49</v>
       </c>
@@ -2091,7 +2083,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="30">
       <c r="A45" s="2" t="s">
         <v>52</v>
       </c>
@@ -2108,7 +2100,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="30">
       <c r="A46" s="2" t="s">
         <v>54</v>
       </c>
@@ -2125,1022 +2117,1022 @@
         <v>137</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1">
       <c r="A50" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1">
       <c r="A51" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1">
       <c r="A52" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1">
       <c r="A53" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1">
       <c r="A54" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1">
       <c r="A55" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1">
       <c r="A56" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1">
       <c r="A57" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1">
       <c r="A58" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1">
       <c r="A59" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1">
       <c r="A61" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:1" ht="23.25">
       <c r="A63" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:1" ht="23.25">
       <c r="A74" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1">
       <c r="A75" s="1"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:1" ht="23.25">
       <c r="A85" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1">
       <c r="A86" s="1"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:1" ht="23.25">
       <c r="A96" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1">
       <c r="A97" s="1"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1">
       <c r="A103" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:1" ht="23.25">
       <c r="A107" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1">
       <c r="A108" s="1"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1">
       <c r="A113" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1">
       <c r="A116" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:1" ht="23.25">
       <c r="A118" s="5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1">
       <c r="A119" s="1"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1">
       <c r="A120" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1">
       <c r="A121" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1">
       <c r="A126" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="129" spans="1:1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:1" ht="23.25">
       <c r="A129" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1">
       <c r="A130" s="1"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1">
       <c r="A131" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1">
       <c r="A133" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1">
       <c r="A134" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1">
       <c r="A135" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1">
       <c r="A137" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1">
       <c r="A138" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="140" spans="1:1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:1" ht="23.25">
       <c r="A140" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1">
       <c r="A141" s="1"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1">
       <c r="A142" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:1">
       <c r="A143" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1">
       <c r="A144" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:1">
       <c r="A145" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:1">
       <c r="A146" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:1">
       <c r="A147" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1">
       <c r="A148" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:1">
       <c r="A149" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="151" spans="1:1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:1" ht="23.25">
       <c r="A151" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:1">
       <c r="A152" s="1"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:1">
       <c r="A153" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:1">
       <c r="A154" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:1">
       <c r="A155" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:1">
       <c r="A156" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:1">
       <c r="A157" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:1">
       <c r="A158" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:1">
       <c r="A159" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:1">
       <c r="A160" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="162" spans="1:1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:1" ht="23.25">
       <c r="A162" s="5" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:1">
       <c r="A163" s="1"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1">
       <c r="A164" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:1">
       <c r="A165" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:1">
       <c r="A166" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:1">
       <c r="A167" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:1">
       <c r="A168" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:1">
       <c r="A169" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:1">
       <c r="A170" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:1">
       <c r="A171" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="173" spans="1:1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:1" ht="23.25">
       <c r="A173" s="5" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:1">
       <c r="A174" s="1"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:1">
       <c r="A175" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:1">
       <c r="A176" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:1">
       <c r="A177" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:1">
       <c r="A178" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:1">
       <c r="A179" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:1">
       <c r="A180" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:1">
       <c r="A181" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:1">
       <c r="A182" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="184" spans="1:1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:1" ht="23.25">
       <c r="A184" s="5" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:1">
       <c r="A185" s="1"/>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:1">
       <c r="A186" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:1">
       <c r="A187" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:1">
       <c r="A188" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:1">
       <c r="A189" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:1">
       <c r="A190" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:1">
       <c r="A191" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:1">
       <c r="A192" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:1">
       <c r="A193" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="195" spans="1:1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:1" ht="23.25">
       <c r="A195" s="5" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:1">
       <c r="A196" s="1"/>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:1">
       <c r="A197" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:1">
       <c r="A198" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:1">
       <c r="A199" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:1">
       <c r="A200" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:1">
       <c r="A201" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:1">
       <c r="A202" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:1">
       <c r="A203" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:1">
       <c r="A204" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="206" spans="1:1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:1" ht="23.25">
       <c r="A206" s="5" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:1">
       <c r="A207" s="1"/>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:1">
       <c r="A208" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:1">
       <c r="A209" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:1">
       <c r="A210" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:1">
       <c r="A211" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:1">
       <c r="A212" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:1">
       <c r="A213" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:1">
       <c r="A214" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:1">
       <c r="A215" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="217" spans="1:1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:1" ht="23.25">
       <c r="A217" s="5" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:1">
       <c r="A218" s="1"/>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:1">
       <c r="A219" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:1">
       <c r="A220" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:1">
       <c r="A221" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:1">
       <c r="A222" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:1">
       <c r="A223" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:1">
       <c r="A224" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:1">
       <c r="A225" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:1">
       <c r="A226" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="228" spans="1:1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:1" ht="23.25">
       <c r="A228" s="5" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:1">
       <c r="A229" s="1"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:1">
       <c r="A230" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:1">
       <c r="A231" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:1">
       <c r="A232" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:1">
       <c r="A233" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:1">
       <c r="A234" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:1">
       <c r="A235" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:1">
       <c r="A236" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:1">
       <c r="A237" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="239" spans="1:1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:1" ht="23.25">
       <c r="A239" s="5" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:1">
       <c r="A240" s="1"/>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:1">
       <c r="A241" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:1">
       <c r="A242" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:1">
       <c r="A243" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:1">
       <c r="A244" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:1">
       <c r="A245" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:1">
       <c r="A246" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:1">
       <c r="A247" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:1">
       <c r="A248" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="250" spans="1:1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:1" ht="23.25">
       <c r="A250" s="5" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:1">
       <c r="A251" s="1"/>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:1">
       <c r="A252" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:1">
       <c r="A253" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:1">
       <c r="A254" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:1">
       <c r="A255" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:1">
       <c r="A256" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:1">
       <c r="A257" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:1">
       <c r="A258" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:1">
       <c r="A259" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="261" spans="1:1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:1" ht="23.25">
       <c r="A261" s="5" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:1">
       <c r="A262" s="1"/>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:1">
       <c r="A263" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:1">
       <c r="A264" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:1">
       <c r="A265" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:1">
       <c r="A266" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:1">
       <c r="A267" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:1">
       <c r="A268" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:1">
       <c r="A269" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:1">
       <c r="A270" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="272" spans="1:1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:1" ht="23.25">
       <c r="A272" s="5" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:1">
       <c r="A273" s="1"/>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:1">
       <c r="A274" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:1">
       <c r="A275" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:1">
       <c r="A276" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:1">
       <c r="A277" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:1">
       <c r="A278" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:1">
       <c r="A279" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:1">
       <c r="A280" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:1">
       <c r="A281" s="1" t="s">
         <v>280</v>
       </c>
@@ -3151,68 +3143,68 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CG73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="AD22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="BI4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="27" width="10.88671875" customWidth="1"/>
-    <col min="28" max="28" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="31" width="15.33203125" customWidth="1"/>
-    <col min="32" max="32" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="14.33203125" customWidth="1"/>
-    <col min="36" max="36" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="27" width="10.85546875" customWidth="1"/>
+    <col min="28" max="28" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="15.28515625" customWidth="1"/>
+    <col min="32" max="32" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="14.28515625" customWidth="1"/>
+    <col min="36" max="36" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="10" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="18" customWidth="1"/>
-    <col min="46" max="49" width="14.5546875" customWidth="1"/>
+    <col min="46" max="49" width="14.5703125" customWidth="1"/>
     <col min="50" max="50" width="19" customWidth="1"/>
     <col min="51" max="51" width="20" customWidth="1"/>
-    <col min="52" max="52" width="19.109375" customWidth="1"/>
-    <col min="53" max="53" width="25.44140625" customWidth="1"/>
-    <col min="54" max="54" width="21.5546875" customWidth="1"/>
-    <col min="55" max="55" width="24.44140625" customWidth="1"/>
+    <col min="52" max="52" width="19.140625" customWidth="1"/>
+    <col min="53" max="53" width="25.42578125" customWidth="1"/>
+    <col min="54" max="54" width="21.5703125" customWidth="1"/>
+    <col min="55" max="55" width="24.42578125" customWidth="1"/>
     <col min="56" max="56" width="21" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="20.33203125" customWidth="1"/>
-    <col min="61" max="65" width="20.44140625" customWidth="1"/>
-    <col min="66" max="66" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="67" max="69" width="16.88671875" customWidth="1"/>
-    <col min="70" max="70" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="14.5546875" customWidth="1"/>
-    <col min="73" max="73" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="12.33203125" customWidth="1"/>
-    <col min="81" max="81" width="15.109375" customWidth="1"/>
-    <col min="82" max="82" width="17.6640625" customWidth="1"/>
+    <col min="57" max="57" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="20.28515625" customWidth="1"/>
+    <col min="61" max="65" width="20.42578125" customWidth="1"/>
+    <col min="66" max="66" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="67" max="69" width="16.85546875" customWidth="1"/>
+    <col min="70" max="70" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="14.5703125" customWidth="1"/>
+    <col min="73" max="73" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="12.28515625" customWidth="1"/>
+    <col min="81" max="81" width="15.140625" customWidth="1"/>
+    <col min="82" max="82" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:85">
       <c r="A1" s="4" t="s">
         <v>78</v>
       </c>
@@ -3344,7 +3336,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="2" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:85">
       <c r="B2" t="s">
         <v>389</v>
       </c>
@@ -3574,7 +3566,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="3" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:85">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -3820,7 +3812,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="4" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:85">
       <c r="A4" s="8" t="s">
         <v>52</v>
       </c>
@@ -4090,7 +4082,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:85">
       <c r="A5" s="7" t="s">
         <v>47</v>
       </c>
@@ -4360,7 +4352,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="6" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:85">
       <c r="A6" s="8" t="s">
         <v>37</v>
       </c>
@@ -4630,7 +4622,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="7" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:85">
       <c r="A7" s="8" t="s">
         <v>45</v>
       </c>
@@ -4894,7 +4886,7 @@
       </c>
       <c r="CD7" s="11"/>
     </row>
-    <row r="8" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:85">
       <c r="A8" s="7" t="s">
         <v>85</v>
       </c>
@@ -5164,7 +5156,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="9" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:85">
       <c r="A9" s="7" t="s">
         <v>86</v>
       </c>
@@ -5434,7 +5426,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="10" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:85">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -5704,7 +5696,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="11" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:85">
       <c r="A11" t="s">
         <v>92</v>
       </c>
@@ -5974,7 +5966,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="12" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:85">
       <c r="A12" s="7" t="s">
         <v>81</v>
       </c>
@@ -6244,7 +6236,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="13" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:85">
       <c r="A13" s="7" t="s">
         <v>82</v>
       </c>
@@ -6514,7 +6506,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="14" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:85">
       <c r="A14" s="7" t="s">
         <v>49</v>
       </c>
@@ -6784,7 +6776,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="15" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:85">
       <c r="A15" s="7" t="s">
         <v>91</v>
       </c>
@@ -7054,7 +7046,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="16" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:85">
       <c r="A16" s="7" t="s">
         <v>90</v>
       </c>
@@ -7324,7 +7316,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="17" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:85">
       <c r="A17" s="2" t="s">
         <v>87</v>
       </c>
@@ -7594,7 +7586,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="18" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:85">
       <c r="A18" s="7" t="s">
         <v>83</v>
       </c>
@@ -7864,7 +7856,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="19" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:85">
       <c r="A19" s="7" t="s">
         <v>89</v>
       </c>
@@ -8134,7 +8126,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="20" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:85">
       <c r="A20" t="s">
         <v>88</v>
       </c>
@@ -8398,7 +8390,7 @@
       </c>
       <c r="CD20" s="11"/>
     </row>
-    <row r="21" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:85">
       <c r="A21" s="8" t="s">
         <v>54</v>
       </c>
@@ -8662,7 +8654,7 @@
       </c>
       <c r="CD21" s="11"/>
     </row>
-    <row r="22" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:85">
       <c r="A22" s="7" t="s">
         <v>84</v>
       </c>
@@ -8926,7 +8918,7 @@
       </c>
       <c r="CD22" s="11"/>
     </row>
-    <row r="23" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:85">
       <c r="A23" s="7" t="s">
         <v>43</v>
       </c>
@@ -9190,7 +9182,7 @@
       </c>
       <c r="CD23" s="11"/>
     </row>
-    <row r="24" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:85">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="4"/>
@@ -9216,7 +9208,7 @@
       <c r="BP24" s="4"/>
       <c r="BQ24" s="4"/>
     </row>
-    <row r="25" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:85">
       <c r="A25" s="4" t="s">
         <v>337</v>
       </c>
@@ -9325,7 +9317,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:85" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:85" s="17" customFormat="1">
       <c r="A26" s="21"/>
       <c r="B26" s="21"/>
       <c r="F26" s="17" t="s">
@@ -9349,7 +9341,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="27" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:85">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="E27">
@@ -9532,7 +9524,7 @@
         <v>20522.306260142883</v>
       </c>
     </row>
-    <row r="28" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:85">
       <c r="E28">
         <v>2</v>
       </c>
@@ -9713,7 +9705,7 @@
         <v>22721.5050708747</v>
       </c>
     </row>
-    <row r="29" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:85">
       <c r="E29">
         <v>3</v>
       </c>
@@ -9894,7 +9886,7 @@
         <v>10079.174281436979</v>
       </c>
     </row>
-    <row r="30" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:85">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="E30">
@@ -10077,7 +10069,7 @@
         <v>17860.418657645117</v>
       </c>
     </row>
-    <row r="31" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:85">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="E31">
@@ -10260,7 +10252,7 @@
         <v>40252.52159498445</v>
       </c>
     </row>
-    <row r="32" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:85">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="E32">
@@ -10443,7 +10435,7 @@
         <v>31437.43043591443</v>
       </c>
     </row>
-    <row r="33" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:66">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="E33">
@@ -10626,7 +10618,7 @@
         <v>16391.274829848087</v>
       </c>
     </row>
-    <row r="34" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:66">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="E34">
@@ -10809,7 +10801,7 @@
         <v>49580.285202770479</v>
       </c>
     </row>
-    <row r="35" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:66">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="E35">
@@ -10992,7 +10984,7 @@
         <v>40830.894322857333</v>
       </c>
     </row>
-    <row r="36" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:66">
       <c r="E36">
         <v>10</v>
       </c>
@@ -11173,7 +11165,7 @@
         <v>26780.363964103381</v>
       </c>
     </row>
-    <row r="37" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:66">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="E37">
@@ -11356,7 +11348,7 @@
         <v>23069.15890388158</v>
       </c>
     </row>
-    <row r="38" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:66">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="E38">
@@ -11539,7 +11531,7 @@
         <v>53678.992131533596</v>
       </c>
     </row>
-    <row r="39" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:66">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="E39">
@@ -11722,7 +11714,7 @@
         <v>43555.624869193183</v>
       </c>
     </row>
-    <row r="40" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:66">
       <c r="E40">
         <v>14</v>
       </c>
@@ -11903,7 +11895,7 @@
         <v>4242.850830269781</v>
       </c>
     </row>
-    <row r="41" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:66">
       <c r="E41">
         <v>15</v>
       </c>
@@ -12084,7 +12076,7 @@
         <v>45966.848470355144</v>
       </c>
     </row>
-    <row r="42" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:66">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="E42">
@@ -12267,7 +12259,7 @@
         <v>41015.658347144767</v>
       </c>
     </row>
-    <row r="43" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:66">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="E43">
@@ -12450,7 +12442,7 @@
         <v>48549.310631649416</v>
       </c>
     </row>
-    <row r="44" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:66">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="E44">
@@ -12633,7 +12625,7 @@
         <v>46183.989938246013</v>
       </c>
     </row>
-    <row r="45" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:66">
       <c r="E45">
         <v>19</v>
       </c>
@@ -12814,7 +12806,7 @@
         <v>50057.531636136599</v>
       </c>
     </row>
-    <row r="46" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:66">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="E46">
@@ -12997,31 +12989,31 @@
         <v>38981.330949461713</v>
       </c>
     </row>
-    <row r="47" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:66">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="F47" s="18"/>
     </row>
-    <row r="48" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:66">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="F48" s="18"/>
     </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="6:6">
       <c r="F49" s="18"/>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="6:6">
       <c r="F50" s="18"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
     </row>
-    <row r="72" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:2" ht="23.25">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
     </row>
@@ -13037,9 +13029,9 @@
   <conditionalFormatting sqref="C4:C25">
     <cfRule type="colorScale" priority="55">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13049,9 +13041,9 @@
   <conditionalFormatting sqref="D4:D23">
     <cfRule type="colorScale" priority="3">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13061,9 +13053,9 @@
   <conditionalFormatting sqref="E4:E23">
     <cfRule type="colorScale" priority="52">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -13073,9 +13065,9 @@
   <conditionalFormatting sqref="AJ4:AJ25">
     <cfRule type="colorScale" priority="49">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13085,9 +13077,9 @@
   <conditionalFormatting sqref="AK4:AK23">
     <cfRule type="colorScale" priority="48">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -13097,9 +13089,9 @@
   <conditionalFormatting sqref="AL4:AL23">
     <cfRule type="colorScale" priority="47">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13109,9 +13101,9 @@
   <conditionalFormatting sqref="AM4:AM25">
     <cfRule type="colorScale" priority="46">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13121,9 +13113,9 @@
   <conditionalFormatting sqref="AN4:AN25">
     <cfRule type="colorScale" priority="45">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13133,9 +13125,9 @@
   <conditionalFormatting sqref="AO4:AO23">
     <cfRule type="colorScale" priority="44">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13145,9 +13137,9 @@
   <conditionalFormatting sqref="AP4:AP25">
     <cfRule type="colorScale" priority="42">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -13157,9 +13149,9 @@
   <conditionalFormatting sqref="AQ4:AQ23">
     <cfRule type="colorScale" priority="40">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -13169,9 +13161,9 @@
   <conditionalFormatting sqref="AR4:AR23">
     <cfRule type="colorScale" priority="39">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -13181,9 +13173,9 @@
   <conditionalFormatting sqref="AS4:AS25">
     <cfRule type="colorScale" priority="37">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -13193,9 +13185,9 @@
   <conditionalFormatting sqref="AX4:AX25">
     <cfRule type="colorScale" priority="35">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -13205,9 +13197,9 @@
   <conditionalFormatting sqref="AY4:AY25">
     <cfRule type="colorScale" priority="34">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -13217,9 +13209,9 @@
   <conditionalFormatting sqref="AZ4:AZ25">
     <cfRule type="colorScale" priority="33">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -13229,9 +13221,9 @@
   <conditionalFormatting sqref="BA4:BA25">
     <cfRule type="colorScale" priority="32">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -13241,9 +13233,9 @@
   <conditionalFormatting sqref="BB4:BB25">
     <cfRule type="colorScale" priority="31">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -13253,9 +13245,9 @@
   <conditionalFormatting sqref="BC4:BC25">
     <cfRule type="colorScale" priority="30">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -13265,9 +13257,9 @@
   <conditionalFormatting sqref="BD4:BD25">
     <cfRule type="colorScale" priority="28">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -13277,9 +13269,9 @@
   <conditionalFormatting sqref="BE4:BE25">
     <cfRule type="colorScale" priority="27">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -13289,9 +13281,9 @@
   <conditionalFormatting sqref="BF4:BF25">
     <cfRule type="colorScale" priority="26">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -13301,9 +13293,9 @@
   <conditionalFormatting sqref="BG4:BG23">
     <cfRule type="colorScale" priority="24">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -13313,9 +13305,9 @@
   <conditionalFormatting sqref="BH4:BH25">
     <cfRule type="colorScale" priority="22">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -13325,9 +13317,9 @@
   <conditionalFormatting sqref="BR4:BR23">
     <cfRule type="colorScale" priority="20">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -13337,9 +13329,9 @@
   <conditionalFormatting sqref="BS4:BS25">
     <cfRule type="colorScale" priority="19">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13349,9 +13341,9 @@
   <conditionalFormatting sqref="BT4:BT25">
     <cfRule type="colorScale" priority="18">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13361,9 +13353,9 @@
   <conditionalFormatting sqref="BU4:BU25">
     <cfRule type="colorScale" priority="17">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13373,9 +13365,9 @@
   <conditionalFormatting sqref="BV4:BV25">
     <cfRule type="colorScale" priority="16">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13385,9 +13377,9 @@
   <conditionalFormatting sqref="BW4:BW25">
     <cfRule type="colorScale" priority="15">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13397,9 +13389,9 @@
   <conditionalFormatting sqref="BX4:BX25">
     <cfRule type="colorScale" priority="14">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13409,9 +13401,9 @@
   <conditionalFormatting sqref="BY4:BY25">
     <cfRule type="colorScale" priority="13">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -13421,9 +13413,9 @@
   <conditionalFormatting sqref="BZ4:BZ25">
     <cfRule type="colorScale" priority="12">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13433,9 +13425,9 @@
   <conditionalFormatting sqref="CA4:CA25">
     <cfRule type="colorScale" priority="11">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13445,9 +13437,9 @@
   <conditionalFormatting sqref="CB4:CB25">
     <cfRule type="colorScale" priority="10">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13457,9 +13449,9 @@
   <conditionalFormatting sqref="CC4:CC25">
     <cfRule type="colorScale" priority="9">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13469,9 +13461,9 @@
   <conditionalFormatting sqref="AF4:AI23">
     <cfRule type="colorScale" priority="8">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13481,9 +13473,9 @@
   <conditionalFormatting sqref="AT4:AW23">
     <cfRule type="colorScale" priority="6">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13493,9 +13485,9 @@
   <conditionalFormatting sqref="BI4:BM23">
     <cfRule type="colorScale" priority="5">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13505,9 +13497,9 @@
   <conditionalFormatting sqref="BN4:BQ23">
     <cfRule type="colorScale" priority="4">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13517,9 +13509,9 @@
   <conditionalFormatting sqref="AB4:AE23">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -13532,34 +13524,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>298</v>
       </c>
@@ -13603,7 +13595,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>309</v>
       </c>
@@ -13647,7 +13639,7 @@
         <v>133.15</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>312</v>
       </c>
@@ -13691,7 +13683,7 @@
         <v>297.89999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>307</v>
       </c>
@@ -13735,7 +13727,7 @@
         <v>48.28</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>308</v>
       </c>
@@ -13779,7 +13771,7 @@
         <v>227.63</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>315</v>
       </c>
@@ -13823,7 +13815,7 @@
         <v>77.94</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>311</v>
       </c>
@@ -13867,7 +13859,7 @@
         <v>340.52</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>300</v>
       </c>
@@ -13911,7 +13903,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>299</v>
       </c>
@@ -13955,7 +13947,7 @@
         <v>17.38</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>301</v>
       </c>
@@ -13999,7 +13991,7 @@
         <v>468.67</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>316</v>
       </c>
@@ -14043,7 +14035,7 @@
         <v>302.64</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>313</v>
       </c>
@@ -14087,7 +14079,7 @@
         <v>55.37</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>314</v>
       </c>
@@ -14131,7 +14123,7 @@
         <v>133.43</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
         <v>305</v>
       </c>
@@ -14175,7 +14167,7 @@
         <v>142.9</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
         <v>304</v>
       </c>
@@ -14219,7 +14211,7 @@
         <v>325.19</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
         <v>303</v>
       </c>
@@ -14263,7 +14255,7 @@
         <v>46.87</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
         <v>302</v>
       </c>
@@ -14307,7 +14299,7 @@
         <v>176.53</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
         <v>318</v>
       </c>
@@ -14351,7 +14343,7 @@
         <v>83.94</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
         <v>306</v>
       </c>
@@ -14395,7 +14387,7 @@
         <v>61.91</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
         <v>310</v>
       </c>
@@ -14439,7 +14431,7 @@
         <v>113.41</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
         <v>317</v>
       </c>
@@ -14483,7 +14475,7 @@
         <v>61.05</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
         <v>319</v>
       </c>
@@ -14542,21 +14534,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V78"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="22" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22">
       <c r="B1" s="4" t="s">
         <v>374</v>
       </c>
@@ -14621,7 +14613,7 @@
         <v>131112</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22">
       <c r="B2" t="s">
         <v>390</v>
       </c>
@@ -14686,7 +14678,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22">
       <c r="B3" t="s">
         <v>344</v>
       </c>
@@ -14751,7 +14743,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>404</v>
       </c>
@@ -14819,7 +14811,7 @@
         <v>25381</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>404</v>
       </c>
@@ -14887,7 +14879,7 @@
         <v>9788</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
         <v>404</v>
       </c>
@@ -14955,7 +14947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
         <v>404</v>
       </c>
@@ -15023,7 +15015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22">
       <c r="A8" s="17" t="s">
         <v>415</v>
       </c>
@@ -15091,7 +15083,7 @@
         <v>3056</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22">
       <c r="A9" s="17" t="s">
         <v>415</v>
       </c>
@@ -15159,7 +15151,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22">
       <c r="A10" s="17" t="s">
         <v>415</v>
       </c>
@@ -15227,7 +15219,7 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
         <v>406</v>
       </c>
@@ -15295,7 +15287,7 @@
         <v>21676</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
         <v>406</v>
       </c>
@@ -15363,7 +15355,7 @@
         <v>9862</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
         <v>406</v>
       </c>
@@ -15431,7 +15423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22">
       <c r="A14" t="s">
         <v>406</v>
       </c>
@@ -15499,7 +15491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
         <v>405</v>
       </c>
@@ -15567,7 +15559,7 @@
         <v>17806</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22">
       <c r="A16" t="s">
         <v>405</v>
       </c>
@@ -15635,7 +15627,7 @@
         <v>9788</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22">
       <c r="A17" t="s">
         <v>405</v>
       </c>
@@ -15703,7 +15695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22">
       <c r="A18" t="s">
         <v>405</v>
       </c>
@@ -15771,7 +15763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22">
       <c r="A19" s="17" t="s">
         <v>403</v>
       </c>
@@ -15839,7 +15831,7 @@
         <v>3310</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22">
       <c r="A20" s="17" t="s">
         <v>403</v>
       </c>
@@ -15907,7 +15899,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22">
       <c r="A21" s="17" t="s">
         <v>403</v>
       </c>
@@ -15975,7 +15967,7 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22">
       <c r="A22" t="s">
         <v>407</v>
       </c>
@@ -16043,7 +16035,7 @@
         <v>14344</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22">
       <c r="A23" t="s">
         <v>407</v>
       </c>
@@ -16111,7 +16103,7 @@
         <v>9862</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22">
       <c r="A24" t="s">
         <v>407</v>
       </c>
@@ -16179,7 +16171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22">
       <c r="A25" t="s">
         <v>407</v>
       </c>
@@ -16247,7 +16239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22">
       <c r="A26" t="s">
         <v>404</v>
       </c>
@@ -16315,7 +16307,7 @@
         <v>40923</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22">
       <c r="A27" t="s">
         <v>405</v>
       </c>
@@ -16383,7 +16375,7 @@
         <v>33832</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22">
       <c r="A28" t="s">
         <v>406</v>
       </c>
@@ -16451,7 +16443,7 @@
         <v>37292</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22">
       <c r="A29" t="s">
         <v>407</v>
       </c>
@@ -16519,7 +16511,7 @@
         <v>30444</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22">
       <c r="A30" t="s">
         <v>404</v>
       </c>
@@ -16587,7 +16579,7 @@
         <v>90189</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22">
       <c r="A31" t="s">
         <v>405</v>
       </c>
@@ -16655,7 +16647,7 @@
         <v>97280</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22">
       <c r="A32" t="s">
         <v>406</v>
       </c>
@@ -16723,7 +16715,7 @@
         <v>93820</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22">
       <c r="A33" t="s">
         <v>407</v>
       </c>
@@ -16791,7 +16783,7 @@
         <v>100668</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22">
       <c r="B34" t="s">
         <v>354</v>
       </c>
@@ -16856,7 +16848,7 @@
         <v>74458</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22">
       <c r="B35" t="s">
         <v>79</v>
       </c>
@@ -16921,7 +16913,7 @@
         <v>704352</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22">
       <c r="B36" t="s">
         <v>336</v>
       </c>
@@ -16986,7 +16978,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22">
       <c r="B37" t="s">
         <v>364</v>
       </c>
@@ -17051,7 +17043,7 @@
         <v>1.6899999999999998E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22">
       <c r="B38" t="s">
         <v>353</v>
       </c>
@@ -17116,7 +17108,7 @@
         <v>0.60399999999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22">
       <c r="B39" t="s">
         <v>340</v>
       </c>
@@ -17181,7 +17173,7 @@
         <v>141.69</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22">
       <c r="B40" t="s">
         <v>363</v>
       </c>
@@ -17246,7 +17238,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22">
       <c r="B41" t="s">
         <v>351</v>
       </c>
@@ -17311,7 +17303,7 @@
         <v>5.98</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22">
       <c r="B42" t="s">
         <v>352</v>
       </c>
@@ -17376,7 +17368,7 @@
         <v>55.22</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22">
       <c r="B43" t="s">
         <v>283</v>
       </c>
@@ -17441,7 +17433,7 @@
         <v>121.4</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22">
       <c r="A44" t="s">
         <v>404</v>
       </c>
@@ -17509,7 +17501,7 @@
         <v>74290.774299835248</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22">
       <c r="A45" t="s">
         <v>405</v>
       </c>
@@ -17577,7 +17569,7 @@
         <v>80131.795716639201</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22">
       <c r="A46" t="s">
         <v>406</v>
       </c>
@@ -17645,7 +17637,7 @@
         <v>77281.713344316304</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22">
       <c r="A47" t="s">
         <v>407</v>
       </c>
@@ -17713,7 +17705,7 @@
         <v>82922.570016474463</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22">
       <c r="B48" t="s">
         <v>284</v>
       </c>
@@ -17778,7 +17770,7 @@
         <v>115.1</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22">
       <c r="B49" t="s">
         <v>285</v>
       </c>
@@ -17843,7 +17835,7 @@
         <v>140.30000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:22">
       <c r="B50" t="s">
         <v>286</v>
       </c>
@@ -17908,7 +17900,7 @@
         <v>85.7</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:22">
       <c r="B51" t="s">
         <v>287</v>
       </c>
@@ -17973,7 +17965,7 @@
         <v>118.8</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22">
       <c r="B52" t="s">
         <v>288</v>
       </c>
@@ -18038,7 +18030,7 @@
         <v>119.9</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:22">
       <c r="B53" t="s">
         <v>289</v>
       </c>
@@ -18103,7 +18095,7 @@
         <v>119.1</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:22">
       <c r="B54" t="s">
         <v>355</v>
       </c>
@@ -18168,7 +18160,7 @@
         <v>484600</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:22">
       <c r="B55" t="s">
         <v>356</v>
       </c>
@@ -18233,7 +18225,7 @@
         <v>2315</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:22">
       <c r="B56" t="s">
         <v>357</v>
       </c>
@@ -18298,7 +18290,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:22">
       <c r="B57" t="s">
         <v>360</v>
       </c>
@@ -18363,7 +18355,7 @@
         <v>3.1070000000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:22">
       <c r="B58" t="s">
         <v>362</v>
       </c>
@@ -18428,7 +18420,7 @@
         <v>53.8</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:22">
       <c r="A59" t="s">
         <v>404</v>
       </c>
@@ -18496,7 +18488,7 @@
         <v>66761.330949461713</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:22">
       <c r="A60" t="s">
         <v>405</v>
       </c>
@@ -18564,7 +18556,7 @@
         <v>72010.359076646098</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:22">
       <c r="A61" t="s">
         <v>406</v>
       </c>
@@ -18632,7 +18624,7 @@
         <v>69449.135367711133</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:22">
       <c r="A62" t="s">
         <v>407</v>
       </c>
@@ -18700,7 +18692,7 @@
         <v>74518.285644817137</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:22">
       <c r="A63" t="s">
         <v>404</v>
       </c>
@@ -18768,7 +18760,7 @@
         <v>38981.330949461713</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:22">
       <c r="A64" t="s">
         <v>405</v>
       </c>
@@ -18836,7 +18828,7 @@
         <v>44230.359076646098</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:22">
       <c r="A65" t="s">
         <v>406</v>
       </c>
@@ -18904,7 +18896,7 @@
         <v>41669.135367711133</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:22">
       <c r="A66" t="s">
         <v>407</v>
       </c>
@@ -18972,7 +18964,7 @@
         <v>46738.285644817137</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:22">
       <c r="B67" t="s">
         <v>381</v>
       </c>
@@ -19037,7 +19029,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:22">
       <c r="B68" t="s">
         <v>380</v>
       </c>
@@ -19102,7 +19094,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:22">
       <c r="B69" t="s">
         <v>379</v>
       </c>
@@ -19167,7 +19159,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:22">
       <c r="B70" t="s">
         <v>378</v>
       </c>
@@ -19232,7 +19224,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:22">
       <c r="B71" t="s">
         <v>376</v>
       </c>
@@ -19297,7 +19289,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:22">
       <c r="B72" t="s">
         <v>377</v>
       </c>
@@ -19362,7 +19354,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:22">
       <c r="B73" t="s">
         <v>366</v>
       </c>
@@ -19427,7 +19419,7 @@
         <v>92.160700000000006</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:22">
       <c r="B74" t="s">
         <v>369</v>
       </c>
@@ -19492,7 +19484,7 @@
         <v>74.761399999999995</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:22">
       <c r="B75" t="s">
         <v>370</v>
       </c>
@@ -19557,7 +19549,7 @@
         <v>36.982399999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:22">
       <c r="B76" t="s">
         <v>371</v>
       </c>
@@ -19622,7 +19614,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:22">
       <c r="B77" t="s">
         <v>367</v>
       </c>
@@ -19687,7 +19679,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:22">
       <c r="B78" t="s">
         <v>368</v>
       </c>
@@ -19756,9 +19748,9 @@
   <conditionalFormatting sqref="C1:V1">
     <cfRule type="colorScale" priority="79">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -19768,9 +19760,9 @@
   <conditionalFormatting sqref="C2:V2">
     <cfRule type="colorScale" priority="78">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -19780,9 +19772,9 @@
   <conditionalFormatting sqref="C3:V3">
     <cfRule type="colorScale" priority="77">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>

--- a/hw8/MidtermProject_YaoQuaziLee_v19/hw8 data version 3.xlsx
+++ b/hw8/MidtermProject_YaoQuaziLee_v19/hw8 data version 3.xlsx
@@ -15,12 +15,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'city data'!$A$3:$CC$23</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="419">
   <si>
     <t>https://www.datasciencecentral.com/profiles/blogs/the-10-best-cities-to-find-a-big-data-job</t>
   </si>
@@ -1395,6 +1395,9 @@
   <si>
     <t>yearly mortgage</t>
   </si>
+  <si>
+    <t>Miami</t>
+  </si>
 </sst>
 </file>
 
@@ -1405,7 +1408,7 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1428,6 +1431,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1453,10 +1463,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -1494,8 +1508,13 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="6" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3144,13 +3163,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CG73"/>
+  <dimension ref="A1:CG74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="BI4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C32" sqref="C32"/>
+      <selection pane="bottomRight" activeCell="AT22" sqref="AT22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4348,7 +4367,7 @@
       <c r="CF5" t="s">
         <v>290</v>
       </c>
-      <c r="CG5" t="s">
+      <c r="CG5" s="25" t="s">
         <v>281</v>
       </c>
     </row>
@@ -9183,97 +9202,284 @@
       <c r="CD23" s="11"/>
     </row>
     <row r="24" spans="1:85">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="4"/>
-      <c r="AF24" s="13"/>
-      <c r="AG24" s="13"/>
-      <c r="AH24" s="13"/>
-      <c r="AI24" s="13"/>
-      <c r="AQ24" s="13"/>
-      <c r="AR24" s="13"/>
-      <c r="AS24" s="4"/>
-      <c r="AT24" s="6"/>
-      <c r="AU24" s="6"/>
-      <c r="AV24" s="6"/>
-      <c r="AW24" s="6"/>
-      <c r="BH24" s="4"/>
-      <c r="BI24" s="4"/>
-      <c r="BJ24" s="4"/>
-      <c r="BK24" s="4"/>
-      <c r="BL24" s="4"/>
+      <c r="A24" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="B24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="6">
+        <v>99897</v>
+      </c>
+      <c r="D24" s="2">
+        <v>119</v>
+      </c>
+      <c r="E24">
+        <v>9.6</v>
+      </c>
+      <c r="F24" s="10">
+        <v>18113</v>
+      </c>
+      <c r="G24" s="10">
+        <v>7642</v>
+      </c>
+      <c r="H24" s="9">
+        <v>0</v>
+      </c>
+      <c r="I24" s="9">
+        <v>0</v>
+      </c>
+      <c r="J24" s="10">
+        <v>1816</v>
+      </c>
+      <c r="K24">
+        <v>257</v>
+      </c>
+      <c r="L24" s="10">
+        <v>2789</v>
+      </c>
+      <c r="M24" s="10">
+        <v>15385</v>
+      </c>
+      <c r="N24" s="10">
+        <v>7642</v>
+      </c>
+      <c r="O24" s="9">
+        <v>0</v>
+      </c>
+      <c r="P24" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="9">
+        <v>11252</v>
+      </c>
+      <c r="R24" s="9">
+        <v>7642</v>
+      </c>
+      <c r="S24" s="9">
+        <v>0</v>
+      </c>
+      <c r="T24" s="9">
+        <v>0</v>
+      </c>
+      <c r="U24" s="9">
+        <v>1985</v>
+      </c>
+      <c r="V24" s="9">
+        <v>515</v>
+      </c>
+      <c r="W24" s="9">
+        <v>2789</v>
+      </c>
+      <c r="X24" s="9">
+        <v>8727</v>
+      </c>
+      <c r="Y24" s="9">
+        <v>7642</v>
+      </c>
+      <c r="Z24" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="9">
+        <f>SUM(F24:L24)</f>
+        <v>30617</v>
+      </c>
+      <c r="AC24" s="9">
+        <f t="shared" ref="AC24" si="18">SUM(Q24:W24)</f>
+        <v>24183</v>
+      </c>
+      <c r="AD24" s="9">
+        <f t="shared" ref="AD24" si="19">SUM(J24:P24)</f>
+        <v>27889</v>
+      </c>
+      <c r="AE24" s="9">
+        <f t="shared" ref="AE24" si="20">SUM(U24:AA24)</f>
+        <v>21658</v>
+      </c>
+      <c r="AF24" s="16">
+        <f>$C24-AB24</f>
+        <v>69280</v>
+      </c>
+      <c r="AG24" s="16">
+        <f t="shared" ref="AG24" si="21">$C24-AC24</f>
+        <v>75714</v>
+      </c>
+      <c r="AH24" s="16">
+        <f t="shared" ref="AH24" si="22">$C24-AD24</f>
+        <v>72008</v>
+      </c>
+      <c r="AI24" s="16">
+        <f t="shared" ref="AI24" si="23">$C24-AE24</f>
+        <v>78239</v>
+      </c>
+      <c r="AJ24" s="9">
+        <v>31642</v>
+      </c>
+      <c r="AK24" s="10">
+        <v>704353</v>
+      </c>
+      <c r="AL24" s="11">
+        <v>0.157</v>
+      </c>
+      <c r="AM24" s="11">
+        <v>1.6899999999999998E-2</v>
+      </c>
+      <c r="AN24" s="11">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="AO24">
+        <v>141.69</v>
+      </c>
+      <c r="AP24" s="11">
+        <v>0.13</v>
+      </c>
+      <c r="AQ24" s="13">
+        <v>5.98</v>
+      </c>
+      <c r="AR24" s="13">
+        <v>55.22</v>
+      </c>
+      <c r="AS24">
+        <v>122</v>
+      </c>
+      <c r="AT24" s="6">
+        <f t="shared" ref="AT24" si="24">AF24/$AS24*100</f>
+        <v>56786.885245901634</v>
+      </c>
+      <c r="AU24" s="6">
+        <f t="shared" ref="AU24" si="25">AG24/$AS24*100</f>
+        <v>62060.655737704918</v>
+      </c>
+      <c r="AV24" s="6">
+        <f t="shared" ref="AV24" si="26">AH24/$AS24*100</f>
+        <v>59022.950819672129</v>
+      </c>
+      <c r="AW24" s="6">
+        <f t="shared" ref="AW24" si="27">AI24/$AS24*100</f>
+        <v>64130.327868852466</v>
+      </c>
+      <c r="AX24" s="2">
+        <v>110.9</v>
+      </c>
+      <c r="AY24" s="2">
+        <v>107.7</v>
+      </c>
+      <c r="AZ24" s="2">
+        <v>91.9</v>
+      </c>
+      <c r="BA24" s="2">
+        <v>108.8</v>
+      </c>
+      <c r="BB24" s="2">
+        <v>105.7</v>
+      </c>
+      <c r="BC24" s="2">
+        <v>106.2</v>
+      </c>
+      <c r="BD24" s="10">
+        <v>183994</v>
+      </c>
+      <c r="BE24" s="26">
+        <v>1796</v>
+      </c>
+      <c r="BF24" s="9">
+        <v>995</v>
+      </c>
+      <c r="BG24">
+        <v>2.6829999999999998</v>
+      </c>
+      <c r="BH24" s="4">
+        <v>52.4</v>
+      </c>
+      <c r="BI24" s="4">
+        <f>AT24/(2087+$BH24/60*262.5)*2087</f>
+        <v>51166.423964682872</v>
+      </c>
+      <c r="BJ24" s="4">
+        <f t="shared" ref="BJ24" si="28">AU24/(2087+$BH24/60*262.5)*2087</f>
+        <v>55918.224943158195</v>
+      </c>
+      <c r="BK24" s="4">
+        <f t="shared" ref="BK24" si="29">AV24/(2087+$BH24/60*262.5)*2087</f>
+        <v>53181.175762830324</v>
+      </c>
+      <c r="BL24" s="4">
+        <f t="shared" ref="BL24" si="30">AW24/(2087+$BH24/60*262.5)*2087</f>
+        <v>57783.05202905347</v>
+      </c>
       <c r="BM24" s="4"/>
-      <c r="BN24" s="4"/>
-      <c r="BO24" s="4"/>
-      <c r="BP24" s="4"/>
-      <c r="BQ24" s="4"/>
+      <c r="BN24" s="14">
+        <f t="shared" ref="BN24" si="31">BI24-$BE24*12</f>
+        <v>29614.423964682872</v>
+      </c>
+      <c r="BO24" s="14">
+        <f t="shared" ref="BO24" si="32">BJ24-$BE24*12</f>
+        <v>34366.224943158195</v>
+      </c>
+      <c r="BP24" s="14">
+        <f t="shared" ref="BP24" si="33">BK24-$BE24*12</f>
+        <v>31629.175762830324</v>
+      </c>
+      <c r="BQ24" s="14">
+        <f t="shared" ref="BQ24" si="34">BL24-$BE24*12</f>
+        <v>36231.05202905347</v>
+      </c>
+      <c r="BR24" s="2">
+        <v>78</v>
+      </c>
+      <c r="BS24" s="2">
+        <v>17</v>
+      </c>
+      <c r="BT24" s="2">
+        <v>27</v>
+      </c>
+      <c r="BU24" s="2">
+        <v>162</v>
+      </c>
+      <c r="BV24" s="2">
+        <v>73</v>
+      </c>
+      <c r="BW24" s="2">
+        <v>11</v>
+      </c>
+      <c r="BX24">
+        <v>92.160700000000006</v>
+      </c>
+      <c r="BY24">
+        <v>74.761399999999995</v>
+      </c>
+      <c r="BZ24">
+        <v>36.982399999999998</v>
+      </c>
+      <c r="CA24">
+        <v>79</v>
+      </c>
+      <c r="CB24">
+        <v>52.7</v>
+      </c>
+      <c r="CC24">
+        <v>50</v>
+      </c>
     </row>
     <row r="25" spans="1:85">
-      <c r="A25" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="6">
-        <v>120931</v>
-      </c>
-      <c r="D25" s="2">
-        <v>22660</v>
-      </c>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="4"/>
       <c r="AF25" s="13"/>
       <c r="AG25" s="13"/>
       <c r="AH25" s="13"/>
       <c r="AI25" s="13"/>
-      <c r="AJ25" s="9">
-        <v>55322</v>
-      </c>
-      <c r="AM25" s="11">
-        <v>1.5900000000000001E-2</v>
-      </c>
-      <c r="AN25" s="11">
-        <v>0.30299999999999999</v>
-      </c>
-      <c r="AP25" s="11">
-        <v>0.127</v>
-      </c>
       <c r="AQ25" s="13"/>
       <c r="AR25" s="13"/>
-      <c r="AS25" s="6">
-        <v>100</v>
-      </c>
+      <c r="AS25" s="4"/>
       <c r="AT25" s="6"/>
       <c r="AU25" s="6"/>
       <c r="AV25" s="6"/>
       <c r="AW25" s="6"/>
-      <c r="AX25" s="2">
-        <v>100</v>
-      </c>
-      <c r="AY25" s="2">
-        <v>100</v>
-      </c>
-      <c r="AZ25" s="2">
-        <v>100</v>
-      </c>
-      <c r="BA25" s="2">
-        <v>100</v>
-      </c>
-      <c r="BB25" s="2">
-        <v>100</v>
-      </c>
-      <c r="BC25" s="2">
-        <v>100</v>
-      </c>
-      <c r="BD25" s="9">
-        <v>184700</v>
-      </c>
-      <c r="BE25" s="9">
-        <v>1491</v>
-      </c>
-      <c r="BF25" s="9">
-        <v>949</v>
-      </c>
-      <c r="BH25" s="4">
-        <v>52.2</v>
-      </c>
+      <c r="BH25" s="4"/>
       <c r="BI25" s="4"/>
       <c r="BJ25" s="4"/>
       <c r="BK25" s="4"/>
@@ -9283,3739 +9489,3805 @@
       <c r="BO25" s="4"/>
       <c r="BP25" s="4"/>
       <c r="BQ25" s="4"/>
-      <c r="BS25" s="2">
+    </row>
+    <row r="26" spans="1:85">
+      <c r="A26" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="6">
+        <v>120931</v>
+      </c>
+      <c r="D26" s="2">
+        <v>22660</v>
+      </c>
+      <c r="AF26" s="13"/>
+      <c r="AG26" s="13"/>
+      <c r="AH26" s="13"/>
+      <c r="AI26" s="13"/>
+      <c r="AJ26" s="9">
+        <v>55322</v>
+      </c>
+      <c r="AM26" s="11">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="AN26" s="11">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="AP26" s="11">
+        <v>0.127</v>
+      </c>
+      <c r="AQ26" s="13"/>
+      <c r="AR26" s="13"/>
+      <c r="AS26" s="6">
         <v>100</v>
       </c>
-      <c r="BT25" s="2">
+      <c r="AT26" s="6"/>
+      <c r="AU26" s="6"/>
+      <c r="AV26" s="6"/>
+      <c r="AW26" s="6"/>
+      <c r="AX26" s="2">
         <v>100</v>
       </c>
-      <c r="BU25" s="2">
+      <c r="AY26" s="2">
         <v>100</v>
       </c>
-      <c r="BV25" s="2">
+      <c r="AZ26" s="2">
         <v>100</v>
       </c>
-      <c r="BW25" s="2">
+      <c r="BA26" s="2">
         <v>100</v>
       </c>
-      <c r="BX25">
+      <c r="BB26" s="2">
+        <v>100</v>
+      </c>
+      <c r="BC26" s="2">
+        <v>100</v>
+      </c>
+      <c r="BD26" s="9">
+        <v>184700</v>
+      </c>
+      <c r="BE26" s="9">
+        <v>1491</v>
+      </c>
+      <c r="BF26" s="9">
+        <v>949</v>
+      </c>
+      <c r="BH26" s="4">
+        <v>52.2</v>
+      </c>
+      <c r="BI26" s="4"/>
+      <c r="BJ26" s="4"/>
+      <c r="BK26" s="4"/>
+      <c r="BL26" s="4"/>
+      <c r="BM26" s="4"/>
+      <c r="BN26" s="4"/>
+      <c r="BO26" s="4"/>
+      <c r="BP26" s="4"/>
+      <c r="BQ26" s="4"/>
+      <c r="BS26" s="2"/>
+      <c r="BT26" s="2"/>
+      <c r="BU26" s="2"/>
+      <c r="BV26" s="2"/>
+      <c r="BW26" s="2"/>
+      <c r="BX26">
         <v>102</v>
       </c>
-      <c r="BY25">
+      <c r="BY26">
         <v>86.1</v>
       </c>
-      <c r="BZ25">
+      <c r="BZ26">
         <v>22.6</v>
       </c>
-      <c r="CA25">
+      <c r="CA26">
         <v>54</v>
       </c>
-      <c r="CB25">
+      <c r="CB26">
         <v>58.4</v>
       </c>
-      <c r="CC25">
+      <c r="CC26">
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:85" s="17" customFormat="1">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="F26" s="17" t="s">
+    <row r="27" spans="1:85" s="17" customFormat="1">
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="F27" s="17" t="s">
         <v>416</v>
       </c>
-      <c r="AF26" t="s">
+      <c r="AF27" t="s">
         <v>404</v>
       </c>
-      <c r="AG26" t="s">
+      <c r="AG27" t="s">
         <v>405</v>
       </c>
-      <c r="AH26" t="s">
+      <c r="AH27" t="s">
         <v>406</v>
       </c>
-      <c r="AI26" t="s">
+      <c r="AI27" t="s">
         <v>407</v>
       </c>
-      <c r="AQ26" s="22"/>
-      <c r="AR26" s="22"/>
-      <c r="BM26" s="17" t="s">
+      <c r="AQ27" s="22"/>
+      <c r="AR27" s="22"/>
+      <c r="BM27" s="17" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="27" spans="1:85">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="E27">
+    <row r="28" spans="1:85">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="E28">
         <v>1</v>
       </c>
-      <c r="F27" s="19">
-        <f t="shared" ref="F27:F46" si="18">F4/$C4</f>
+      <c r="F28" s="19">
+        <f t="shared" ref="F28:F47" si="35">F4/$C4</f>
         <v>0.18281252587477437</v>
       </c>
-      <c r="G27" s="19">
-        <f t="shared" ref="G27:AE37" si="19">G4/$C4</f>
+      <c r="G28" s="19">
+        <f t="shared" ref="G28:AE38" si="36">G4/$C4</f>
         <v>7.6498252935234407E-2</v>
       </c>
-      <c r="H27" s="19">
-        <f t="shared" si="19"/>
+      <c r="H28" s="19">
+        <f t="shared" si="36"/>
         <v>6.4633116399225005E-2</v>
       </c>
-      <c r="I27" s="19">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="19">
-        <f t="shared" si="19"/>
+      <c r="I28" s="19">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="19">
+        <f t="shared" si="36"/>
         <v>1.9987745706857435E-2</v>
       </c>
-      <c r="K27" s="19">
-        <f t="shared" si="19"/>
+      <c r="K28" s="19">
+        <f t="shared" si="36"/>
         <v>2.1113815887525461E-3</v>
       </c>
-      <c r="L27" s="19">
-        <f t="shared" si="19"/>
+      <c r="L28" s="19">
+        <f t="shared" si="36"/>
         <v>1.5905741301935845E-2</v>
       </c>
-      <c r="M27" s="19">
-        <f t="shared" si="19"/>
+      <c r="M28" s="19">
+        <f t="shared" si="36"/>
         <v>0.15893321410237302</v>
       </c>
-      <c r="N27" s="19">
-        <f t="shared" si="19"/>
+      <c r="N28" s="19">
+        <f t="shared" si="36"/>
         <v>7.6498252935234407E-2</v>
       </c>
-      <c r="O27" s="19">
-        <f t="shared" si="19"/>
+      <c r="O28" s="19">
+        <f t="shared" si="36"/>
         <v>6.4144600659082257E-2</v>
       </c>
-      <c r="P27" s="19">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="19">
-        <f t="shared" si="19"/>
+      <c r="P28" s="19">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="19">
+        <f t="shared" si="36"/>
         <v>0.12602878102902942</v>
       </c>
-      <c r="R27" s="19">
-        <f t="shared" si="19"/>
+      <c r="R28" s="19">
+        <f t="shared" si="36"/>
         <v>7.6498252935234407E-2</v>
       </c>
-      <c r="S27" s="19">
-        <f t="shared" si="19"/>
+      <c r="S28" s="19">
+        <f t="shared" si="36"/>
         <v>4.0124530114097404E-2</v>
       </c>
-      <c r="T27" s="19">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="U27" s="19">
-        <f t="shared" si="19"/>
+      <c r="T28" s="19">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U28" s="19">
+        <f t="shared" si="36"/>
         <v>2.2554523324556611E-2</v>
       </c>
-      <c r="V27" s="19">
-        <f t="shared" si="19"/>
+      <c r="V28" s="19">
+        <f t="shared" si="36"/>
         <v>4.2310431053041216E-3</v>
       </c>
-      <c r="W27" s="19">
-        <f t="shared" si="19"/>
+      <c r="W28" s="19">
+        <f t="shared" si="36"/>
         <v>1.5905741301935845E-2</v>
       </c>
-      <c r="X27" s="19">
-        <f t="shared" si="19"/>
+      <c r="X28" s="19">
+        <f t="shared" si="36"/>
         <v>9.9930448606488156E-2</v>
       </c>
-      <c r="Y27" s="19">
-        <f t="shared" si="19"/>
+      <c r="Y28" s="19">
+        <f t="shared" si="36"/>
         <v>7.6498252935234407E-2</v>
       </c>
-      <c r="Z27" s="19">
-        <f t="shared" si="19"/>
+      <c r="Z28" s="19">
+        <f t="shared" si="36"/>
         <v>3.9147498633811915E-2</v>
       </c>
-      <c r="AA27" s="19">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AB27" s="19">
-        <f t="shared" si="19"/>
+      <c r="AA28" s="19">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AB28" s="19">
+        <f t="shared" si="36"/>
         <v>0.36194876380677959</v>
       </c>
-      <c r="AC27" s="19">
-        <f t="shared" si="19"/>
+      <c r="AC28" s="19">
+        <f t="shared" si="36"/>
         <v>0.28534287181015783</v>
       </c>
-      <c r="AD27" s="19">
-        <f t="shared" si="19"/>
+      <c r="AD28" s="19">
+        <f t="shared" si="36"/>
         <v>0.33758093629423552</v>
       </c>
-      <c r="AE27" s="19">
-        <f t="shared" si="19"/>
+      <c r="AE28" s="19">
+        <f t="shared" si="36"/>
         <v>0.25826750790733105</v>
       </c>
-      <c r="AF27" s="20">
-        <f t="shared" ref="AF27:AI36" si="20">AF4/$C4</f>
+      <c r="AF28" s="20">
+        <f t="shared" ref="AF28:AI37" si="37">AF4/$C4</f>
         <v>0.63805123619322035</v>
       </c>
-      <c r="AG27" s="20">
-        <f t="shared" si="20"/>
+      <c r="AG28" s="20">
+        <f t="shared" si="37"/>
         <v>0.71465712818984217</v>
       </c>
-      <c r="AH27" s="20">
-        <f t="shared" si="20"/>
+      <c r="AH28" s="20">
+        <f t="shared" si="37"/>
         <v>0.66241906370576453</v>
       </c>
-      <c r="AI27" s="20">
-        <f t="shared" si="20"/>
+      <c r="AI28" s="20">
+        <f t="shared" si="37"/>
         <v>0.741732492092669</v>
       </c>
-      <c r="AJ27" s="24">
-        <f>AG27/AF27</f>
+      <c r="AJ28" s="24">
+        <f>AG28/AF28</f>
         <v>1.1200622891253569</v>
       </c>
-      <c r="AK27" s="24">
-        <f>AI27/AH27</f>
+      <c r="AK28" s="24">
+        <f>AI28/AH28</f>
         <v>1.1197330100121246</v>
       </c>
-      <c r="AS27" s="17">
+      <c r="AS28" s="17">
         <f>100/AS4</f>
         <v>0.73313782991202348</v>
       </c>
-      <c r="AT27">
-        <f>$AS27*AF4</f>
+      <c r="AT28">
+        <f>$AS28*AF4</f>
         <v>56495.601173020528</v>
       </c>
-      <c r="AU27">
-        <f t="shared" ref="AU27:AW42" si="21">$AS27*AG4</f>
+      <c r="AU28">
+        <f>$AS28*AG4</f>
         <v>63278.59237536657</v>
       </c>
-      <c r="AV27">
-        <f t="shared" si="21"/>
+      <c r="AV28">
+        <f>$AS28*AH4</f>
         <v>58653.225806451614</v>
       </c>
-      <c r="AW27">
-        <f t="shared" si="21"/>
+      <c r="AW28">
+        <f>$AS28*AI4</f>
         <v>65675.953079178886</v>
       </c>
-      <c r="BH27" s="17">
+      <c r="BH28" s="17">
         <f>1/(2087+$BH4/60*262.5)*2087</f>
         <v>0.88662312144867506</v>
       </c>
-      <c r="BI27">
-        <f>$BH27*AT4</f>
+      <c r="BI28">
+        <f>$BH28*AT4</f>
         <v>50090.306260142883</v>
       </c>
-      <c r="BJ27">
-        <f t="shared" ref="BJ27:BL42" si="22">$BH27*AU4</f>
+      <c r="BJ28">
+        <f>$BH28*AU4</f>
         <v>56104.263092725829</v>
       </c>
-      <c r="BK27">
-        <f t="shared" si="22"/>
+      <c r="BK28">
+        <f>$BH28*AV4</f>
         <v>52003.306147550102</v>
       </c>
-      <c r="BL27">
-        <f t="shared" si="22"/>
+      <c r="BL28">
+        <f>$BH28*AW4</f>
         <v>58229.818523178306</v>
       </c>
-      <c r="BM27" s="23">
-        <f t="shared" ref="BM27:BM46" si="23">BE4*12</f>
+      <c r="BM28" s="23">
+        <f t="shared" ref="BM28:BM47" si="38">BE4*12</f>
         <v>29568</v>
       </c>
-      <c r="BN27" s="9">
-        <f>BI27-BM27</f>
+      <c r="BN28" s="9">
+        <f>BI28-BM28</f>
         <v>20522.306260142883</v>
-      </c>
-    </row>
-    <row r="28" spans="1:85">
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28" s="19">
-        <f t="shared" si="18"/>
-        <v>0.17873524983367764</v>
-      </c>
-      <c r="G28" s="19">
-        <f t="shared" ref="G28:U28" si="24">G5/$C5</f>
-        <v>7.6499527294373051E-2</v>
-      </c>
-      <c r="H28" s="19">
-        <f t="shared" si="24"/>
-        <v>6.3009909310550088E-2</v>
-      </c>
-      <c r="I28" s="19">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="19">
-        <f t="shared" si="24"/>
-        <v>1.7866521937042613E-2</v>
-      </c>
-      <c r="K28" s="19">
-        <f t="shared" si="24"/>
-        <v>2.38103575055149E-3</v>
-      </c>
-      <c r="L28" s="19">
-        <f t="shared" si="24"/>
-        <v>1.6719773101299067E-2</v>
-      </c>
-      <c r="M28" s="19">
-        <f t="shared" si="24"/>
-        <v>0.15429461815889911</v>
-      </c>
-      <c r="N28" s="19">
-        <f t="shared" si="24"/>
-        <v>7.6499527294373051E-2</v>
-      </c>
-      <c r="O28" s="19">
-        <f t="shared" si="24"/>
-        <v>6.2493434644070173E-2</v>
-      </c>
-      <c r="P28" s="19">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="19">
-        <f t="shared" si="24"/>
-        <v>0.11893798802479079</v>
-      </c>
-      <c r="R28" s="19">
-        <f t="shared" si="24"/>
-        <v>7.6499527294373051E-2</v>
-      </c>
-      <c r="S28" s="19">
-        <f t="shared" si="24"/>
-        <v>3.7580097342343917E-2</v>
-      </c>
-      <c r="T28" s="19">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="U28" s="19">
-        <f t="shared" si="24"/>
-        <v>2.0247557687594103E-2</v>
-      </c>
-      <c r="V28" s="19">
-        <f t="shared" si="19"/>
-        <v>4.76207150110298E-3</v>
-      </c>
-      <c r="W28" s="19">
-        <f t="shared" si="19"/>
-        <v>1.6719773101299067E-2</v>
-      </c>
-      <c r="X28" s="19">
-        <f t="shared" si="19"/>
-        <v>9.3061731853356214E-2</v>
-      </c>
-      <c r="Y28" s="19">
-        <f t="shared" si="19"/>
-        <v>7.6499527294373051E-2</v>
-      </c>
-      <c r="Z28" s="19">
-        <f t="shared" si="19"/>
-        <v>3.6801008438670825E-2</v>
-      </c>
-      <c r="AA28" s="19">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AB28" s="19">
-        <f t="shared" si="19"/>
-        <v>0.35521201722749396</v>
-      </c>
-      <c r="AC28" s="19">
-        <f t="shared" si="19"/>
-        <v>0.27474701495150389</v>
-      </c>
-      <c r="AD28" s="19">
-        <f t="shared" si="19"/>
-        <v>0.33025491088623549</v>
-      </c>
-      <c r="AE28" s="19">
-        <f t="shared" si="19"/>
-        <v>0.24809166987639622</v>
-      </c>
-      <c r="AF28" s="20">
-        <f t="shared" si="20"/>
-        <v>0.64478798277250604</v>
-      </c>
-      <c r="AG28" s="20">
-        <f t="shared" si="20"/>
-        <v>0.72525298504849611</v>
-      </c>
-      <c r="AH28" s="20">
-        <f t="shared" si="20"/>
-        <v>0.66974508911376451</v>
-      </c>
-      <c r="AI28" s="20">
-        <f t="shared" si="20"/>
-        <v>0.75190833012360381</v>
-      </c>
-      <c r="AJ28" s="24">
-        <f t="shared" ref="AJ28:AJ46" si="25">AG28/AF28</f>
-        <v>1.1247929620679356</v>
-      </c>
-      <c r="AK28" s="24">
-        <f t="shared" ref="AK28:AK46" si="26">AI28/AH28</f>
-        <v>1.1226783777071978</v>
-      </c>
-      <c r="AS28" s="17">
-        <f t="shared" ref="AS28:AS46" si="27">100/AS5</f>
-        <v>0.7558578987150415</v>
-      </c>
-      <c r="AT28">
-        <f t="shared" ref="AT28:AT46" si="28">$AS28*AF5</f>
-        <v>55674.981103552527</v>
-      </c>
-      <c r="AU28">
-        <f t="shared" si="21"/>
-        <v>62622.826908541188</v>
-      </c>
-      <c r="AV28">
-        <f t="shared" si="21"/>
-        <v>57829.931972789112</v>
-      </c>
-      <c r="AW28">
-        <f t="shared" si="21"/>
-        <v>64924.414210128489</v>
-      </c>
-      <c r="BH28" s="17">
-        <f t="shared" ref="BH28:BH46" si="29">1/(2087+$BH5/60*262.5)*2087</f>
-        <v>0.91031023390218635</v>
-      </c>
-      <c r="BI28">
-        <f t="shared" ref="BI28:BI46" si="30">$BH28*AT5</f>
-        <v>50681.5050708747</v>
-      </c>
-      <c r="BJ28">
-        <f t="shared" si="22"/>
-        <v>57006.200210730261</v>
-      </c>
-      <c r="BK28">
-        <f t="shared" si="22"/>
-        <v>52643.178900697181</v>
-      </c>
-      <c r="BL28">
-        <f t="shared" si="22"/>
-        <v>59101.358685584499</v>
-      </c>
-      <c r="BM28" s="23">
-        <f t="shared" si="23"/>
-        <v>27960</v>
-      </c>
-      <c r="BN28" s="9">
-        <f t="shared" ref="BN28:BN46" si="31">BI28-BM28</f>
-        <v>22721.5050708747</v>
       </c>
     </row>
     <row r="29" spans="1:85">
       <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29" s="19">
+        <f t="shared" si="35"/>
+        <v>0.17873524983367764</v>
+      </c>
+      <c r="G29" s="19">
+        <f t="shared" ref="G29:U29" si="39">G5/$C5</f>
+        <v>7.6499527294373051E-2</v>
+      </c>
+      <c r="H29" s="19">
+        <f t="shared" si="39"/>
+        <v>6.3009909310550088E-2</v>
+      </c>
+      <c r="I29" s="19">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="19">
+        <f t="shared" si="39"/>
+        <v>1.7866521937042613E-2</v>
+      </c>
+      <c r="K29" s="19">
+        <f t="shared" si="39"/>
+        <v>2.38103575055149E-3</v>
+      </c>
+      <c r="L29" s="19">
+        <f t="shared" si="39"/>
+        <v>1.6719773101299067E-2</v>
+      </c>
+      <c r="M29" s="19">
+        <f t="shared" si="39"/>
+        <v>0.15429461815889911</v>
+      </c>
+      <c r="N29" s="19">
+        <f t="shared" si="39"/>
+        <v>7.6499527294373051E-2</v>
+      </c>
+      <c r="O29" s="19">
+        <f t="shared" si="39"/>
+        <v>6.2493434644070173E-2</v>
+      </c>
+      <c r="P29" s="19">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="19">
+        <f t="shared" si="39"/>
+        <v>0.11893798802479079</v>
+      </c>
+      <c r="R29" s="19">
+        <f t="shared" si="39"/>
+        <v>7.6499527294373051E-2</v>
+      </c>
+      <c r="S29" s="19">
+        <f t="shared" si="39"/>
+        <v>3.7580097342343917E-2</v>
+      </c>
+      <c r="T29" s="19">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="U29" s="19">
+        <f t="shared" si="39"/>
+        <v>2.0247557687594103E-2</v>
+      </c>
+      <c r="V29" s="19">
+        <f t="shared" si="36"/>
+        <v>4.76207150110298E-3</v>
+      </c>
+      <c r="W29" s="19">
+        <f t="shared" si="36"/>
+        <v>1.6719773101299067E-2</v>
+      </c>
+      <c r="X29" s="19">
+        <f t="shared" si="36"/>
+        <v>9.3061731853356214E-2</v>
+      </c>
+      <c r="Y29" s="19">
+        <f t="shared" si="36"/>
+        <v>7.6499527294373051E-2</v>
+      </c>
+      <c r="Z29" s="19">
+        <f t="shared" si="36"/>
+        <v>3.6801008438670825E-2</v>
+      </c>
+      <c r="AA29" s="19">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AB29" s="19">
+        <f t="shared" si="36"/>
+        <v>0.35521201722749396</v>
+      </c>
+      <c r="AC29" s="19">
+        <f t="shared" si="36"/>
+        <v>0.27474701495150389</v>
+      </c>
+      <c r="AD29" s="19">
+        <f t="shared" si="36"/>
+        <v>0.33025491088623549</v>
+      </c>
+      <c r="AE29" s="19">
+        <f t="shared" si="36"/>
+        <v>0.24809166987639622</v>
+      </c>
+      <c r="AF29" s="20">
+        <f t="shared" si="37"/>
+        <v>0.64478798277250604</v>
+      </c>
+      <c r="AG29" s="20">
+        <f t="shared" si="37"/>
+        <v>0.72525298504849611</v>
+      </c>
+      <c r="AH29" s="20">
+        <f t="shared" si="37"/>
+        <v>0.66974508911376451</v>
+      </c>
+      <c r="AI29" s="20">
+        <f t="shared" si="37"/>
+        <v>0.75190833012360381</v>
+      </c>
+      <c r="AJ29" s="24">
+        <f t="shared" ref="AJ29:AJ47" si="40">AG29/AF29</f>
+        <v>1.1247929620679356</v>
+      </c>
+      <c r="AK29" s="24">
+        <f t="shared" ref="AK29:AK47" si="41">AI29/AH29</f>
+        <v>1.1226783777071978</v>
+      </c>
+      <c r="AS29" s="17">
+        <f t="shared" ref="AS29:AS47" si="42">100/AS5</f>
+        <v>0.7558578987150415</v>
+      </c>
+      <c r="AT29">
+        <f>$AS29*AF5</f>
+        <v>55674.981103552527</v>
+      </c>
+      <c r="AU29">
+        <f>$AS29*AG5</f>
+        <v>62622.826908541188</v>
+      </c>
+      <c r="AV29">
+        <f>$AS29*AH5</f>
+        <v>57829.931972789112</v>
+      </c>
+      <c r="AW29">
+        <f>$AS29*AI5</f>
+        <v>64924.414210128489</v>
+      </c>
+      <c r="BH29" s="17">
+        <f t="shared" ref="BH29:BH47" si="43">1/(2087+$BH5/60*262.5)*2087</f>
+        <v>0.91031023390218635</v>
+      </c>
+      <c r="BI29">
+        <f>$BH29*AT5</f>
+        <v>50681.5050708747</v>
+      </c>
+      <c r="BJ29">
+        <f>$BH29*AU5</f>
+        <v>57006.200210730261</v>
+      </c>
+      <c r="BK29">
+        <f>$BH29*AV5</f>
+        <v>52643.178900697181</v>
+      </c>
+      <c r="BL29">
+        <f>$BH29*AW5</f>
+        <v>59101.358685584499</v>
+      </c>
+      <c r="BM29" s="23">
+        <f t="shared" si="38"/>
+        <v>27960</v>
+      </c>
+      <c r="BN29" s="9">
+        <f t="shared" ref="BN29:BN47" si="44">BI29-BM29</f>
+        <v>22721.5050708747</v>
+      </c>
+    </row>
+    <row r="30" spans="1:85">
+      <c r="E30">
         <v>3</v>
       </c>
-      <c r="F29" s="19">
-        <f t="shared" si="18"/>
+      <c r="F30" s="19">
+        <f t="shared" si="35"/>
         <v>0.19375179536043832</v>
       </c>
-      <c r="G29" s="19">
-        <f t="shared" si="19"/>
+      <c r="G30" s="19">
+        <f t="shared" si="36"/>
         <v>6.9754569849154693E-2</v>
       </c>
-      <c r="H29" s="19">
-        <f t="shared" si="19"/>
+      <c r="H30" s="19">
+        <f t="shared" si="36"/>
         <v>6.8997891108324161E-2</v>
       </c>
-      <c r="I29" s="19">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="19">
-        <f t="shared" si="19"/>
+      <c r="I30" s="19">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="19">
+        <f t="shared" si="36"/>
         <v>1.9372377022188903E-2</v>
       </c>
-      <c r="K29" s="19">
-        <f t="shared" si="19"/>
+      <c r="K30" s="19">
+        <f t="shared" si="36"/>
         <v>1.0859741187845497E-3</v>
       </c>
-      <c r="L29" s="19">
-        <f t="shared" si="19"/>
+      <c r="L30" s="19">
+        <f t="shared" si="36"/>
         <v>1.1665463921137259E-2</v>
       </c>
-      <c r="M29" s="19">
-        <f t="shared" si="19"/>
+      <c r="M30" s="19">
+        <f t="shared" si="36"/>
         <v>0.17140174736738856</v>
       </c>
-      <c r="N29" s="19">
-        <f t="shared" si="19"/>
+      <c r="N30" s="19">
+        <f t="shared" si="36"/>
         <v>7.0273034912316346E-2</v>
       </c>
-      <c r="O29" s="19">
-        <f t="shared" si="19"/>
+      <c r="O30" s="19">
+        <f t="shared" si="36"/>
         <v>6.85845203147223E-2</v>
       </c>
-      <c r="P29" s="19">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="19">
-        <f t="shared" si="19"/>
+      <c r="P30" s="19">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="19">
+        <f t="shared" si="36"/>
         <v>0.14510015483889049</v>
       </c>
-      <c r="R29" s="19">
-        <f t="shared" si="19"/>
+      <c r="R30" s="19">
+        <f t="shared" si="36"/>
         <v>6.9754569849154693E-2</v>
       </c>
-      <c r="S29" s="19">
-        <f t="shared" si="19"/>
+      <c r="S30" s="19">
+        <f t="shared" si="36"/>
         <v>4.8259288581857927E-2</v>
       </c>
-      <c r="T29" s="19">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="U29" s="19">
-        <f t="shared" si="19"/>
+      <c r="T30" s="19">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U30" s="19">
+        <f t="shared" si="36"/>
         <v>2.1495281267296766E-2</v>
       </c>
-      <c r="V29" s="19">
-        <f t="shared" si="19"/>
+      <c r="V30" s="19">
+        <f t="shared" si="36"/>
         <v>2.1719482375690993E-3</v>
       </c>
-      <c r="W29" s="19">
-        <f t="shared" si="19"/>
+      <c r="W30" s="19">
+        <f t="shared" si="36"/>
         <v>1.1665463921137259E-2</v>
       </c>
-      <c r="X29" s="19">
-        <f t="shared" si="19"/>
+      <c r="X30" s="19">
+        <f t="shared" si="36"/>
         <v>0.1183992040860652</v>
       </c>
-      <c r="Y29" s="19">
-        <f t="shared" si="19"/>
+      <c r="Y30" s="19">
+        <f t="shared" si="36"/>
         <v>7.0273034912316346E-2</v>
       </c>
-      <c r="Z29" s="19">
-        <f t="shared" si="19"/>
+      <c r="Z30" s="19">
+        <f t="shared" si="36"/>
         <v>4.7425540710016888E-2</v>
       </c>
-      <c r="AA29" s="19">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AB29" s="19">
-        <f t="shared" si="19"/>
+      <c r="AA30" s="19">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AB30" s="19">
+        <f t="shared" si="36"/>
         <v>0.3646280713800279</v>
       </c>
-      <c r="AC29" s="19">
-        <f t="shared" si="19"/>
+      <c r="AC30" s="19">
+        <f t="shared" si="36"/>
         <v>0.29844670669590623</v>
       </c>
-      <c r="AD29" s="19">
-        <f t="shared" si="19"/>
+      <c r="AD30" s="19">
+        <f t="shared" si="36"/>
         <v>0.34238311765653789</v>
       </c>
-      <c r="AE29" s="19">
-        <f t="shared" si="19"/>
+      <c r="AE30" s="19">
+        <f t="shared" si="36"/>
         <v>0.27143047313440155</v>
       </c>
-      <c r="AF29" s="20">
-        <f t="shared" si="20"/>
+      <c r="AF30" s="20">
+        <f t="shared" si="37"/>
         <v>0.63537192861997216</v>
       </c>
-      <c r="AG29" s="20">
-        <f t="shared" si="20"/>
+      <c r="AG30" s="20">
+        <f t="shared" si="37"/>
         <v>0.70155329330409377</v>
       </c>
-      <c r="AH29" s="20">
-        <f t="shared" si="20"/>
+      <c r="AH30" s="20">
+        <f t="shared" si="37"/>
         <v>0.65761688234346205</v>
       </c>
-      <c r="AI29" s="20">
-        <f t="shared" si="20"/>
+      <c r="AI30" s="20">
+        <f t="shared" si="37"/>
         <v>0.72856952686559839</v>
       </c>
-      <c r="AJ29" s="24">
-        <f t="shared" si="25"/>
+      <c r="AJ30" s="24">
+        <f t="shared" si="40"/>
         <v>1.1041616125973137</v>
       </c>
-      <c r="AK29" s="24">
-        <f t="shared" si="26"/>
+      <c r="AK30" s="24">
+        <f t="shared" si="41"/>
         <v>1.1078935873259395</v>
       </c>
-      <c r="AS29" s="17">
-        <f t="shared" si="27"/>
+      <c r="AS30" s="17">
+        <f t="shared" si="42"/>
         <v>0.6097560975609756</v>
       </c>
-      <c r="AT29">
-        <f t="shared" si="28"/>
+      <c r="AT30">
+        <f>$AS30*AF6</f>
         <v>55296.341463414632</v>
       </c>
-      <c r="AU29">
-        <f t="shared" si="21"/>
+      <c r="AU30">
+        <f>$AS30*AG6</f>
         <v>61056.097560975606</v>
       </c>
-      <c r="AV29">
-        <f t="shared" si="21"/>
+      <c r="AV30">
+        <f>$AS30*AH6</f>
         <v>57232.317073170729</v>
       </c>
-      <c r="AW29">
-        <f t="shared" si="21"/>
+      <c r="AW30">
+        <f>$AS30*AI6</f>
         <v>63407.317073170729</v>
       </c>
-      <c r="BH29" s="17">
-        <f t="shared" si="29"/>
+      <c r="BH30" s="17">
+        <f t="shared" si="43"/>
         <v>0.88040497785277372</v>
       </c>
-      <c r="BI29">
-        <f t="shared" si="30"/>
+      <c r="BI30">
+        <f>$BH30*AT6</f>
         <v>48683.174281436979</v>
       </c>
-      <c r="BJ29">
-        <f t="shared" si="22"/>
+      <c r="BJ30">
+        <f>$BH30*AU6</f>
         <v>53754.092220947517</v>
       </c>
-      <c r="BK29">
-        <f t="shared" si="22"/>
+      <c r="BK30">
+        <f>$BH30*AV6</f>
         <v>50387.616845267803</v>
       </c>
-      <c r="BL29">
-        <f t="shared" si="22"/>
+      <c r="BL30">
+        <f>$BH30*AW6</f>
         <v>55824.117583508683</v>
       </c>
-      <c r="BM29" s="23">
-        <f t="shared" si="23"/>
+      <c r="BM30" s="23">
+        <f t="shared" si="38"/>
         <v>38604</v>
       </c>
-      <c r="BN29" s="9">
-        <f t="shared" si="31"/>
+      <c r="BN30" s="9">
+        <f t="shared" si="44"/>
         <v>10079.174281436979</v>
-      </c>
-    </row>
-    <row r="30" spans="1:85">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="E30">
-        <v>4</v>
-      </c>
-      <c r="F30" s="19">
-        <f t="shared" si="18"/>
-        <v>0.19315439756009539</v>
-      </c>
-      <c r="G30" s="19">
-        <f t="shared" si="19"/>
-        <v>7.0302935952503948E-2</v>
-      </c>
-      <c r="H30" s="19">
-        <f t="shared" si="19"/>
-        <v>6.8760304846550657E-2</v>
-      </c>
-      <c r="I30" s="19">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="19">
-        <f t="shared" si="19"/>
-        <v>1.9367804298138228E-2</v>
-      </c>
-      <c r="K30" s="19">
-        <f t="shared" si="19"/>
-        <v>1.9813610535179774E-3</v>
-      </c>
-      <c r="L30" s="19">
-        <f t="shared" si="19"/>
-        <v>1.3636009821889793E-2</v>
-      </c>
-      <c r="M30" s="19">
-        <f t="shared" si="19"/>
-        <v>0.17072255991848115</v>
-      </c>
-      <c r="N30" s="19">
-        <f t="shared" si="19"/>
-        <v>7.0833657663267685E-2</v>
-      </c>
-      <c r="O30" s="19">
-        <f t="shared" si="19"/>
-        <v>6.8342803767416513E-2</v>
-      </c>
-      <c r="P30" s="19">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="19">
-        <f t="shared" si="19"/>
-        <v>0.1440520248802338</v>
-      </c>
-      <c r="R30" s="19">
-        <f t="shared" si="19"/>
-        <v>7.0302935952503948E-2</v>
-      </c>
-      <c r="S30" s="19">
-        <f t="shared" si="19"/>
-        <v>4.78144879950749E-2</v>
-      </c>
-      <c r="T30" s="19">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="U30" s="19">
-        <f t="shared" si="19"/>
-        <v>2.1511920009623754E-2</v>
-      </c>
-      <c r="V30" s="19">
-        <f t="shared" si="19"/>
-        <v>3.9556458175591044E-3</v>
-      </c>
-      <c r="W30" s="19">
-        <f t="shared" si="19"/>
-        <v>1.3636009821889793E-2</v>
-      </c>
-      <c r="X30" s="19">
-        <f t="shared" si="19"/>
-        <v>0.11738856613146331</v>
-      </c>
-      <c r="Y30" s="19">
-        <f t="shared" si="19"/>
-        <v>7.0833657663267685E-2</v>
-      </c>
-      <c r="Z30" s="19">
-        <f t="shared" si="19"/>
-        <v>4.6972409547329765E-2</v>
-      </c>
-      <c r="AA30" s="19">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AB30" s="19">
-        <f t="shared" si="19"/>
-        <v>0.36720281353269602</v>
-      </c>
-      <c r="AC30" s="19">
-        <f t="shared" si="19"/>
-        <v>0.30127302447688531</v>
-      </c>
-      <c r="AD30" s="19">
-        <f t="shared" si="19"/>
-        <v>0.34488419652271135</v>
-      </c>
-      <c r="AE30" s="19">
-        <f t="shared" si="19"/>
-        <v>0.27429820899113339</v>
-      </c>
-      <c r="AF30" s="20">
-        <f t="shared" si="20"/>
-        <v>0.63279718646730398</v>
-      </c>
-      <c r="AG30" s="20">
-        <f t="shared" si="20"/>
-        <v>0.69872697552311469</v>
-      </c>
-      <c r="AH30" s="20">
-        <f t="shared" si="20"/>
-        <v>0.65511580347728859</v>
-      </c>
-      <c r="AI30" s="20">
-        <f t="shared" si="20"/>
-        <v>0.72570179100886656</v>
-      </c>
-      <c r="AJ30" s="24">
-        <f t="shared" si="25"/>
-        <v>1.1041878669275931</v>
-      </c>
-      <c r="AK30" s="24">
-        <f t="shared" si="26"/>
-        <v>1.1077458170859482</v>
-      </c>
-      <c r="AS30" s="17">
-        <f t="shared" si="27"/>
-        <v>0.64061499039077519</v>
-      </c>
-      <c r="AT30">
-        <f t="shared" si="28"/>
-        <v>57286.995515695075</v>
-      </c>
-      <c r="AU30">
-        <f t="shared" si="21"/>
-        <v>63255.605381165922</v>
-      </c>
-      <c r="AV30">
-        <f t="shared" si="21"/>
-        <v>59307.495195387579</v>
-      </c>
-      <c r="AW30">
-        <f t="shared" si="21"/>
-        <v>65697.629724535553</v>
-      </c>
-      <c r="BH30" s="17">
-        <f t="shared" si="29"/>
-        <v>0.89326413782034131</v>
-      </c>
-      <c r="BI30">
-        <f t="shared" si="30"/>
-        <v>51172.418657645117</v>
-      </c>
-      <c r="BJ30">
-        <f t="shared" si="22"/>
-        <v>56503.963803110921</v>
-      </c>
-      <c r="BK30">
-        <f t="shared" si="22"/>
-        <v>52977.258561991912</v>
-      </c>
-      <c r="BL30">
-        <f t="shared" si="22"/>
-        <v>58685.336572727276</v>
-      </c>
-      <c r="BM30" s="23">
-        <f t="shared" si="23"/>
-        <v>33312</v>
-      </c>
-      <c r="BN30" s="9">
-        <f t="shared" si="31"/>
-        <v>17860.418657645117</v>
       </c>
     </row>
     <row r="31" spans="1:85">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="F31" s="19">
+        <f t="shared" si="35"/>
+        <v>0.19315439756009539</v>
+      </c>
+      <c r="G31" s="19">
+        <f t="shared" si="36"/>
+        <v>7.0302935952503948E-2</v>
+      </c>
+      <c r="H31" s="19">
+        <f t="shared" si="36"/>
+        <v>6.8760304846550657E-2</v>
+      </c>
+      <c r="I31" s="19">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="19">
+        <f t="shared" si="36"/>
+        <v>1.9367804298138228E-2</v>
+      </c>
+      <c r="K31" s="19">
+        <f t="shared" si="36"/>
+        <v>1.9813610535179774E-3</v>
+      </c>
+      <c r="L31" s="19">
+        <f t="shared" si="36"/>
+        <v>1.3636009821889793E-2</v>
+      </c>
+      <c r="M31" s="19">
+        <f t="shared" si="36"/>
+        <v>0.17072255991848115</v>
+      </c>
+      <c r="N31" s="19">
+        <f t="shared" si="36"/>
+        <v>7.0833657663267685E-2</v>
+      </c>
+      <c r="O31" s="19">
+        <f t="shared" si="36"/>
+        <v>6.8342803767416513E-2</v>
+      </c>
+      <c r="P31" s="19">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="19">
+        <f t="shared" si="36"/>
+        <v>0.1440520248802338</v>
+      </c>
+      <c r="R31" s="19">
+        <f t="shared" si="36"/>
+        <v>7.0302935952503948E-2</v>
+      </c>
+      <c r="S31" s="19">
+        <f t="shared" si="36"/>
+        <v>4.78144879950749E-2</v>
+      </c>
+      <c r="T31" s="19">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U31" s="19">
+        <f t="shared" si="36"/>
+        <v>2.1511920009623754E-2</v>
+      </c>
+      <c r="V31" s="19">
+        <f t="shared" si="36"/>
+        <v>3.9556458175591044E-3</v>
+      </c>
+      <c r="W31" s="19">
+        <f t="shared" si="36"/>
+        <v>1.3636009821889793E-2</v>
+      </c>
+      <c r="X31" s="19">
+        <f t="shared" si="36"/>
+        <v>0.11738856613146331</v>
+      </c>
+      <c r="Y31" s="19">
+        <f t="shared" si="36"/>
+        <v>7.0833657663267685E-2</v>
+      </c>
+      <c r="Z31" s="19">
+        <f t="shared" si="36"/>
+        <v>4.6972409547329765E-2</v>
+      </c>
+      <c r="AA31" s="19">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AB31" s="19">
+        <f t="shared" si="36"/>
+        <v>0.36720281353269602</v>
+      </c>
+      <c r="AC31" s="19">
+        <f t="shared" si="36"/>
+        <v>0.30127302447688531</v>
+      </c>
+      <c r="AD31" s="19">
+        <f t="shared" si="36"/>
+        <v>0.34488419652271135</v>
+      </c>
+      <c r="AE31" s="19">
+        <f t="shared" si="36"/>
+        <v>0.27429820899113339</v>
+      </c>
+      <c r="AF31" s="20">
+        <f t="shared" si="37"/>
+        <v>0.63279718646730398</v>
+      </c>
+      <c r="AG31" s="20">
+        <f t="shared" si="37"/>
+        <v>0.69872697552311469</v>
+      </c>
+      <c r="AH31" s="20">
+        <f t="shared" si="37"/>
+        <v>0.65511580347728859</v>
+      </c>
+      <c r="AI31" s="20">
+        <f t="shared" si="37"/>
+        <v>0.72570179100886656</v>
+      </c>
+      <c r="AJ31" s="24">
+        <f t="shared" si="40"/>
+        <v>1.1041878669275931</v>
+      </c>
+      <c r="AK31" s="24">
+        <f t="shared" si="41"/>
+        <v>1.1077458170859482</v>
+      </c>
+      <c r="AS31" s="17">
+        <f t="shared" si="42"/>
+        <v>0.64061499039077519</v>
+      </c>
+      <c r="AT31">
+        <f>$AS31*AF7</f>
+        <v>57286.995515695075</v>
+      </c>
+      <c r="AU31">
+        <f>$AS31*AG7</f>
+        <v>63255.605381165922</v>
+      </c>
+      <c r="AV31">
+        <f>$AS31*AH7</f>
+        <v>59307.495195387579</v>
+      </c>
+      <c r="AW31">
+        <f>$AS31*AI7</f>
+        <v>65697.629724535553</v>
+      </c>
+      <c r="BH31" s="17">
+        <f t="shared" si="43"/>
+        <v>0.89326413782034131</v>
+      </c>
+      <c r="BI31">
+        <f>$BH31*AT7</f>
+        <v>51172.418657645117</v>
+      </c>
+      <c r="BJ31">
+        <f>$BH31*AU7</f>
+        <v>56503.963803110921</v>
+      </c>
+      <c r="BK31">
+        <f>$BH31*AV7</f>
+        <v>52977.258561991912</v>
+      </c>
+      <c r="BL31">
+        <f>$BH31*AW7</f>
+        <v>58685.336572727276</v>
+      </c>
+      <c r="BM31" s="23">
+        <f t="shared" si="38"/>
+        <v>33312</v>
+      </c>
+      <c r="BN31" s="9">
+        <f t="shared" si="44"/>
+        <v>17860.418657645117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:85">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="E32">
         <v>5</v>
       </c>
-      <c r="F31" s="19">
-        <f t="shared" si="18"/>
+      <c r="F32" s="19">
+        <f t="shared" si="35"/>
         <v>0.16906636333702518</v>
       </c>
-      <c r="G31" s="19">
-        <f t="shared" si="19"/>
+      <c r="G32" s="19">
+        <f t="shared" si="36"/>
         <v>7.6500932938206562E-2</v>
       </c>
-      <c r="H31" s="19">
-        <f t="shared" si="19"/>
+      <c r="H32" s="19">
+        <f t="shared" si="36"/>
         <v>4.3992775965117088E-2</v>
       </c>
-      <c r="I31" s="19">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="19">
-        <f t="shared" si="19"/>
+      <c r="I32" s="19">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="19">
+        <f t="shared" si="36"/>
         <v>1.8499116951537102E-2</v>
       </c>
-      <c r="K31" s="19">
-        <f t="shared" si="19"/>
+      <c r="K32" s="19">
+        <f t="shared" si="36"/>
         <v>1.6463615409944023E-3</v>
       </c>
-      <c r="L31" s="19">
-        <f t="shared" si="19"/>
+      <c r="L32" s="19">
+        <f t="shared" si="36"/>
         <v>1.5994651819478952E-2</v>
       </c>
-      <c r="M31" s="19">
-        <f t="shared" si="19"/>
+      <c r="M32" s="19">
+        <f t="shared" si="36"/>
         <v>0.14231548278304945</v>
       </c>
-      <c r="N31" s="19">
-        <f t="shared" si="19"/>
+      <c r="N32" s="19">
+        <f t="shared" si="36"/>
         <v>7.6500932938206562E-2</v>
       </c>
-      <c r="O31" s="19">
-        <f t="shared" si="19"/>
+      <c r="O32" s="19">
+        <f t="shared" si="36"/>
         <v>4.3992775965117088E-2</v>
       </c>
-      <c r="P31" s="19">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="19">
-        <f t="shared" si="19"/>
+      <c r="P32" s="19">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="19">
+        <f t="shared" si="36"/>
         <v>0.10208439349038624</v>
       </c>
-      <c r="R31" s="19">
-        <f t="shared" si="19"/>
+      <c r="R32" s="19">
+        <f t="shared" si="36"/>
         <v>7.6500932938206562E-2</v>
       </c>
-      <c r="S31" s="19">
-        <f t="shared" si="19"/>
+      <c r="S32" s="19">
+        <f t="shared" si="36"/>
         <v>4.3992775965117088E-2</v>
       </c>
-      <c r="T31" s="19">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="U31" s="19">
-        <f t="shared" si="19"/>
+      <c r="T32" s="19">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U32" s="19">
+        <f t="shared" si="36"/>
         <v>2.037497131339739E-2</v>
       </c>
-      <c r="V31" s="19">
-        <f t="shared" si="19"/>
+      <c r="V32" s="19">
+        <f t="shared" si="36"/>
         <v>3.2827451332555053E-3</v>
       </c>
-      <c r="W31" s="19">
-        <f t="shared" si="19"/>
+      <c r="W32" s="19">
+        <f t="shared" si="36"/>
         <v>1.5994651819478952E-2</v>
       </c>
-      <c r="X31" s="19">
-        <f t="shared" si="19"/>
+      <c r="X32" s="19">
+        <f t="shared" si="36"/>
         <v>8.1479929356122971E-2</v>
       </c>
-      <c r="Y31" s="19">
-        <f t="shared" si="19"/>
+      <c r="Y32" s="19">
+        <f t="shared" si="36"/>
         <v>7.6500932938206562E-2</v>
       </c>
-      <c r="Z31" s="19">
-        <f t="shared" si="19"/>
+      <c r="Z32" s="19">
+        <f t="shared" si="36"/>
         <v>4.3992775965117088E-2</v>
       </c>
-      <c r="AA31" s="19">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AB31" s="19">
-        <f t="shared" si="19"/>
+      <c r="AA32" s="19">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AB32" s="19">
+        <f t="shared" si="36"/>
         <v>0.32570020255235926</v>
       </c>
-      <c r="AC31" s="19">
-        <f t="shared" si="19"/>
+      <c r="AC32" s="19">
+        <f t="shared" si="36"/>
         <v>0.26223047065984173</v>
       </c>
-      <c r="AD31" s="19">
-        <f t="shared" si="19"/>
+      <c r="AD32" s="19">
+        <f t="shared" si="36"/>
         <v>0.29894932199838359</v>
       </c>
-      <c r="AE31" s="19">
-        <f t="shared" si="19"/>
+      <c r="AE32" s="19">
+        <f t="shared" si="36"/>
         <v>0.24162600652557847</v>
       </c>
-      <c r="AF31" s="20">
-        <f t="shared" si="20"/>
+      <c r="AF32" s="20">
+        <f t="shared" si="37"/>
         <v>0.67429979744764068</v>
       </c>
-      <c r="AG31" s="20">
-        <f t="shared" si="20"/>
+      <c r="AG32" s="20">
+        <f t="shared" si="37"/>
         <v>0.73776952934015827</v>
       </c>
-      <c r="AH31" s="20">
-        <f t="shared" si="20"/>
+      <c r="AH32" s="20">
+        <f t="shared" si="37"/>
         <v>0.70105067800161647</v>
       </c>
-      <c r="AI31" s="20">
-        <f t="shared" si="20"/>
+      <c r="AI32" s="20">
+        <f t="shared" si="37"/>
         <v>0.75837399347442158</v>
       </c>
-      <c r="AJ31" s="24">
-        <f t="shared" si="25"/>
+      <c r="AJ32" s="24">
+        <f t="shared" si="40"/>
         <v>1.0941268737329644</v>
       </c>
-      <c r="AK31" s="24">
-        <f t="shared" si="26"/>
+      <c r="AK32" s="24">
+        <f t="shared" si="41"/>
         <v>1.0817677198975235</v>
       </c>
-      <c r="AS31" s="17">
-        <f t="shared" si="27"/>
+      <c r="AS32" s="17">
+        <f t="shared" si="42"/>
         <v>0.96899224806201545</v>
       </c>
-      <c r="AT31">
-        <f t="shared" si="28"/>
+      <c r="AT32">
+        <f>$AS32*AF8</f>
         <v>65483.527131782939</v>
       </c>
-      <c r="AU31">
-        <f t="shared" si="21"/>
+      <c r="AU32">
+        <f>$AS32*AG8</f>
         <v>71647.28682170542</v>
       </c>
-      <c r="AV31">
-        <f t="shared" si="21"/>
+      <c r="AV32">
+        <f>$AS32*AH8</f>
         <v>68081.395348837206</v>
       </c>
-      <c r="AW31">
-        <f t="shared" si="21"/>
+      <c r="AW32">
+        <f>$AS32*AI8</f>
         <v>73648.255813953481</v>
       </c>
-      <c r="BH31" s="17">
-        <f t="shared" si="29"/>
+      <c r="BH32" s="17">
+        <f t="shared" si="43"/>
         <v>0.90478512978919412</v>
       </c>
-      <c r="BI31">
-        <f t="shared" si="30"/>
+      <c r="BI32">
+        <f>$BH32*AT8</f>
         <v>59248.52159498445</v>
       </c>
-      <c r="BJ31">
-        <f t="shared" si="22"/>
+      <c r="BJ32">
+        <f>$BH32*AU8</f>
         <v>64825.399706020355</v>
       </c>
-      <c r="BK31">
-        <f t="shared" si="22"/>
+      <c r="BK32">
+        <f>$BH32*AV8</f>
         <v>61599.034126927108</v>
       </c>
-      <c r="BL31">
-        <f t="shared" si="22"/>
+      <c r="BL32">
+        <f>$BH32*AW8</f>
         <v>66635.846695375672</v>
       </c>
-      <c r="BM31" s="23">
-        <f t="shared" si="23"/>
+      <c r="BM32" s="23">
+        <f t="shared" si="38"/>
         <v>18996</v>
       </c>
-      <c r="BN31" s="9">
-        <f t="shared" si="31"/>
+      <c r="BN32" s="9">
+        <f t="shared" si="44"/>
         <v>40252.52159498445</v>
       </c>
     </row>
-    <row r="32" spans="1:85">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="E32">
+    <row r="33" spans="1:66">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="E33">
         <v>6</v>
       </c>
-      <c r="F32" s="19">
-        <f t="shared" si="18"/>
+      <c r="F33" s="19">
+        <f t="shared" si="35"/>
         <v>0.17284772621346295</v>
       </c>
-      <c r="G32" s="19">
-        <f t="shared" si="19"/>
+      <c r="G33" s="19">
+        <f t="shared" si="36"/>
         <v>7.6503096078300817E-2</v>
       </c>
-      <c r="H32" s="19">
-        <f t="shared" si="19"/>
+      <c r="H33" s="19">
+        <f t="shared" si="36"/>
         <v>4.8110488619177612E-2</v>
       </c>
-      <c r="I32" s="19">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="J32" s="19">
-        <f t="shared" si="19"/>
+      <c r="I33" s="19">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="19">
+        <f t="shared" si="36"/>
         <v>1.455299477804305E-2</v>
       </c>
-      <c r="K32" s="19">
-        <f t="shared" si="19"/>
+      <c r="K33" s="19">
+        <f t="shared" si="36"/>
         <v>1.9594228263247505E-3</v>
       </c>
-      <c r="L32" s="19">
-        <f t="shared" si="19"/>
+      <c r="L33" s="19">
+        <f t="shared" si="36"/>
         <v>5.0973528768322028E-2</v>
       </c>
-      <c r="M32" s="19">
-        <f t="shared" si="19"/>
+      <c r="M33" s="19">
+        <f t="shared" si="36"/>
         <v>0.14687110612272075</v>
       </c>
-      <c r="N32" s="19">
-        <f t="shared" si="19"/>
+      <c r="N33" s="19">
+        <f t="shared" si="36"/>
         <v>7.6503096078300817E-2</v>
       </c>
-      <c r="O32" s="19">
-        <f t="shared" si="19"/>
+      <c r="O33" s="19">
+        <f t="shared" si="36"/>
         <v>4.8015371006249224E-2</v>
       </c>
-      <c r="P32" s="19">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="19">
-        <f t="shared" si="19"/>
+      <c r="P33" s="19">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="19">
+        <f t="shared" si="36"/>
         <v>0.10758753198329735</v>
       </c>
-      <c r="R32" s="19">
-        <f t="shared" si="19"/>
+      <c r="R33" s="19">
+        <f t="shared" si="36"/>
         <v>7.6503096078300817E-2</v>
       </c>
-      <c r="S32" s="19">
-        <f t="shared" si="19"/>
+      <c r="S33" s="19">
+        <f t="shared" si="36"/>
         <v>4.3820684276107406E-2</v>
       </c>
-      <c r="T32" s="19">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="U32" s="19">
-        <f t="shared" si="19"/>
+      <c r="T33" s="19">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U33" s="19">
+        <f t="shared" si="36"/>
         <v>1.610341186877574E-2</v>
       </c>
-      <c r="V32" s="19">
-        <f t="shared" si="19"/>
+      <c r="V33" s="19">
+        <f t="shared" si="36"/>
         <v>3.92835741394234E-3</v>
       </c>
-      <c r="W32" s="19">
-        <f t="shared" si="19"/>
+      <c r="W33" s="19">
+        <f t="shared" si="36"/>
         <v>5.0973528768322028E-2</v>
       </c>
-      <c r="X32" s="19">
-        <f t="shared" si="19"/>
+      <c r="X33" s="19">
+        <f t="shared" si="36"/>
         <v>8.3275470118801903E-2</v>
       </c>
-      <c r="Y32" s="19">
-        <f t="shared" si="19"/>
+      <c r="Y33" s="19">
+        <f t="shared" si="36"/>
         <v>7.6503096078300817E-2</v>
       </c>
-      <c r="Z32" s="19">
-        <f t="shared" si="19"/>
+      <c r="Z33" s="19">
+        <f t="shared" si="36"/>
         <v>4.3744590185764695E-2</v>
       </c>
-      <c r="AA32" s="19">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AB32" s="19">
-        <f t="shared" si="19"/>
+      <c r="AA33" s="19">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AB33" s="19">
+        <f t="shared" si="36"/>
         <v>0.3649472572836312</v>
       </c>
-      <c r="AC32" s="19">
-        <f t="shared" si="19"/>
+      <c r="AC33" s="19">
+        <f t="shared" si="36"/>
         <v>0.29891661038874567</v>
       </c>
-      <c r="AD32" s="19">
-        <f t="shared" si="19"/>
+      <c r="AD33" s="19">
+        <f t="shared" si="36"/>
         <v>0.33887551957996065</v>
       </c>
-      <c r="AE32" s="19">
-        <f t="shared" si="19"/>
+      <c r="AE33" s="19">
+        <f t="shared" si="36"/>
         <v>0.27452845443390755</v>
       </c>
-      <c r="AF32" s="20">
-        <f t="shared" si="20"/>
+      <c r="AF33" s="20">
+        <f t="shared" si="37"/>
         <v>0.6350527427163688</v>
       </c>
-      <c r="AG32" s="20">
-        <f t="shared" si="20"/>
+      <c r="AG33" s="20">
+        <f t="shared" si="37"/>
         <v>0.70108338961125427</v>
       </c>
-      <c r="AH32" s="20">
-        <f t="shared" si="20"/>
+      <c r="AH33" s="20">
+        <f t="shared" si="37"/>
         <v>0.66112448042003935</v>
       </c>
-      <c r="AI32" s="20">
-        <f t="shared" si="20"/>
+      <c r="AI33" s="20">
+        <f t="shared" si="37"/>
         <v>0.7254715455660925</v>
       </c>
-      <c r="AJ32" s="24">
-        <f t="shared" si="25"/>
+      <c r="AJ33" s="24">
+        <f t="shared" si="40"/>
         <v>1.1039766344641653</v>
       </c>
-      <c r="AK32" s="24">
-        <f t="shared" si="26"/>
+      <c r="AK33" s="24">
+        <f t="shared" si="41"/>
         <v>1.0973297269300493</v>
       </c>
-      <c r="AS32" s="17">
-        <f t="shared" si="27"/>
+      <c r="AS33" s="17">
+        <f t="shared" si="42"/>
         <v>0.82101806239737274</v>
       </c>
-      <c r="AT32">
-        <f t="shared" si="28"/>
+      <c r="AT33">
+        <f>$AS33*AF9</f>
         <v>54815.270935960594</v>
       </c>
-      <c r="AU32">
-        <f t="shared" si="21"/>
+      <c r="AU33">
+        <f>$AS33*AG9</f>
         <v>60514.778325123152</v>
       </c>
-      <c r="AV32">
-        <f t="shared" si="21"/>
+      <c r="AV33">
+        <f>$AS33*AH9</f>
         <v>57065.681444991787</v>
       </c>
-      <c r="AW32">
-        <f t="shared" si="21"/>
+      <c r="AW33">
+        <f>$AS33*AI9</f>
         <v>62619.868637110019</v>
       </c>
-      <c r="BH32" s="17">
-        <f t="shared" si="29"/>
+      <c r="BH33" s="17">
+        <f t="shared" si="43"/>
         <v>0.9123995846767583</v>
       </c>
-      <c r="BI32">
-        <f t="shared" si="30"/>
+      <c r="BI33">
+        <f>$BH33*AT9</f>
         <v>50013.43043591443</v>
       </c>
-      <c r="BJ32">
-        <f t="shared" si="22"/>
+      <c r="BJ33">
+        <f>$BH33*AU9</f>
         <v>55213.658610648461</v>
       </c>
-      <c r="BK32">
-        <f t="shared" si="22"/>
+      <c r="BK33">
+        <f>$BH33*AV9</f>
         <v>52066.704049706699</v>
       </c>
-      <c r="BL32">
-        <f t="shared" si="22"/>
+      <c r="BL33">
+        <f>$BH33*AW9</f>
         <v>57134.342137012347</v>
       </c>
-      <c r="BM32" s="23">
-        <f t="shared" si="23"/>
+      <c r="BM33" s="23">
+        <f t="shared" si="38"/>
         <v>18576</v>
       </c>
-      <c r="BN32" s="9">
-        <f t="shared" si="31"/>
+      <c r="BN33" s="9">
+        <f t="shared" si="44"/>
         <v>31437.43043591443</v>
-      </c>
-    </row>
-    <row r="33" spans="1:66">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="E33">
-        <v>7</v>
-      </c>
-      <c r="F33" s="19">
-        <f t="shared" si="18"/>
-        <v>0.17317943813735051</v>
-      </c>
-      <c r="G33" s="19">
-        <f t="shared" si="19"/>
-        <v>7.64962646643879E-2</v>
-      </c>
-      <c r="H33" s="19">
-        <f t="shared" si="19"/>
-        <v>6.0210390766288244E-2</v>
-      </c>
-      <c r="I33" s="19">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="J33" s="19">
-        <f t="shared" si="19"/>
-        <v>1.2934013805118688E-2</v>
-      </c>
-      <c r="K33" s="19">
-        <f t="shared" si="19"/>
-        <v>8.6163635158550554E-4</v>
-      </c>
-      <c r="L33" s="19">
-        <f t="shared" si="19"/>
-        <v>1.315179002584909E-2</v>
-      </c>
-      <c r="M33" s="19">
-        <f t="shared" si="19"/>
-        <v>0.14730194199577704</v>
-      </c>
-      <c r="N33" s="19">
-        <f t="shared" si="19"/>
-        <v>7.64962646643879E-2</v>
-      </c>
-      <c r="O33" s="19">
-        <f t="shared" si="19"/>
-        <v>5.9793775387499644E-2</v>
-      </c>
-      <c r="P33" s="19">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="19">
-        <f t="shared" si="19"/>
-        <v>0.10823478170301004</v>
-      </c>
-      <c r="R33" s="19">
-        <f t="shared" si="19"/>
-        <v>7.64962646643879E-2</v>
-      </c>
-      <c r="S33" s="19">
-        <f t="shared" si="19"/>
-        <v>5.6252544667796577E-2</v>
-      </c>
-      <c r="T33" s="19">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="U33" s="19">
-        <f t="shared" si="19"/>
-        <v>1.4325887911526043E-2</v>
-      </c>
-      <c r="V33" s="19">
-        <f t="shared" si="19"/>
-        <v>1.7327412345071156E-3</v>
-      </c>
-      <c r="W33" s="19">
-        <f t="shared" si="19"/>
-        <v>1.315179002584909E-2</v>
-      </c>
-      <c r="X33" s="19">
-        <f t="shared" si="19"/>
-        <v>8.3446166665088584E-2</v>
-      </c>
-      <c r="Y33" s="19">
-        <f t="shared" si="19"/>
-        <v>7.64962646643879E-2</v>
-      </c>
-      <c r="Z33" s="19">
-        <f t="shared" si="19"/>
-        <v>5.575071250698304E-2</v>
-      </c>
-      <c r="AA33" s="19">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AB33" s="19">
-        <f t="shared" si="19"/>
-        <v>0.33683353375057995</v>
-      </c>
-      <c r="AC33" s="19">
-        <f t="shared" si="19"/>
-        <v>0.27019401020707678</v>
-      </c>
-      <c r="AD33" s="19">
-        <f t="shared" si="19"/>
-        <v>0.31053942223021785</v>
-      </c>
-      <c r="AE33" s="19">
-        <f t="shared" si="19"/>
-        <v>0.24490356300834176</v>
-      </c>
-      <c r="AF33" s="20">
-        <f t="shared" si="20"/>
-        <v>0.66316646624942011</v>
-      </c>
-      <c r="AG33" s="20">
-        <f t="shared" si="20"/>
-        <v>0.72980598979292322</v>
-      </c>
-      <c r="AH33" s="20">
-        <f t="shared" si="20"/>
-        <v>0.68946057776978209</v>
-      </c>
-      <c r="AI33" s="20">
-        <f t="shared" si="20"/>
-        <v>0.75509643699165818</v>
-      </c>
-      <c r="AJ33" s="24">
-        <f t="shared" si="25"/>
-        <v>1.1004868716001084</v>
-      </c>
-      <c r="AK33" s="24">
-        <f t="shared" si="26"/>
-        <v>1.0951988573939793</v>
-      </c>
-      <c r="AS33" s="17">
-        <f t="shared" si="27"/>
-        <v>0.7137758743754461</v>
-      </c>
-      <c r="AT33">
-        <f t="shared" si="28"/>
-        <v>49992.14846538187</v>
-      </c>
-      <c r="AU33">
-        <f t="shared" si="21"/>
-        <v>55015.70306923626</v>
-      </c>
-      <c r="AV33">
-        <f t="shared" si="21"/>
-        <v>51974.304068522484</v>
-      </c>
-      <c r="AW33">
-        <f t="shared" si="21"/>
-        <v>56922.198429693075</v>
-      </c>
-      <c r="BH33" s="17">
-        <f t="shared" si="29"/>
-        <v>0.88860503486082287</v>
-      </c>
-      <c r="BI33">
-        <f t="shared" si="30"/>
-        <v>44423.274829848087</v>
-      </c>
-      <c r="BJ33">
-        <f t="shared" si="22"/>
-        <v>48887.230743731365</v>
-      </c>
-      <c r="BK33">
-        <f t="shared" si="22"/>
-        <v>46184.628278676428</v>
-      </c>
-      <c r="BL33">
-        <f t="shared" si="22"/>
-        <v>50581.3521199721</v>
-      </c>
-      <c r="BM33" s="23">
-        <f t="shared" si="23"/>
-        <v>28032</v>
-      </c>
-      <c r="BN33" s="9">
-        <f t="shared" si="31"/>
-        <v>16391.274829848087</v>
       </c>
     </row>
     <row r="34" spans="1:66">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="E34">
+        <v>7</v>
+      </c>
+      <c r="F34" s="19">
+        <f t="shared" si="35"/>
+        <v>0.17317943813735051</v>
+      </c>
+      <c r="G34" s="19">
+        <f t="shared" si="36"/>
+        <v>7.64962646643879E-2</v>
+      </c>
+      <c r="H34" s="19">
+        <f t="shared" si="36"/>
+        <v>6.0210390766288244E-2</v>
+      </c>
+      <c r="I34" s="19">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="19">
+        <f t="shared" si="36"/>
+        <v>1.2934013805118688E-2</v>
+      </c>
+      <c r="K34" s="19">
+        <f t="shared" si="36"/>
+        <v>8.6163635158550554E-4</v>
+      </c>
+      <c r="L34" s="19">
+        <f t="shared" si="36"/>
+        <v>1.315179002584909E-2</v>
+      </c>
+      <c r="M34" s="19">
+        <f t="shared" si="36"/>
+        <v>0.14730194199577704</v>
+      </c>
+      <c r="N34" s="19">
+        <f t="shared" si="36"/>
+        <v>7.64962646643879E-2</v>
+      </c>
+      <c r="O34" s="19">
+        <f t="shared" si="36"/>
+        <v>5.9793775387499644E-2</v>
+      </c>
+      <c r="P34" s="19">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="19">
+        <f t="shared" si="36"/>
+        <v>0.10823478170301004</v>
+      </c>
+      <c r="R34" s="19">
+        <f t="shared" si="36"/>
+        <v>7.64962646643879E-2</v>
+      </c>
+      <c r="S34" s="19">
+        <f t="shared" si="36"/>
+        <v>5.6252544667796577E-2</v>
+      </c>
+      <c r="T34" s="19">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U34" s="19">
+        <f t="shared" si="36"/>
+        <v>1.4325887911526043E-2</v>
+      </c>
+      <c r="V34" s="19">
+        <f t="shared" si="36"/>
+        <v>1.7327412345071156E-3</v>
+      </c>
+      <c r="W34" s="19">
+        <f t="shared" si="36"/>
+        <v>1.315179002584909E-2</v>
+      </c>
+      <c r="X34" s="19">
+        <f t="shared" si="36"/>
+        <v>8.3446166665088584E-2</v>
+      </c>
+      <c r="Y34" s="19">
+        <f t="shared" si="36"/>
+        <v>7.64962646643879E-2</v>
+      </c>
+      <c r="Z34" s="19">
+        <f t="shared" si="36"/>
+        <v>5.575071250698304E-2</v>
+      </c>
+      <c r="AA34" s="19">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AB34" s="19">
+        <f t="shared" si="36"/>
+        <v>0.33683353375057995</v>
+      </c>
+      <c r="AC34" s="19">
+        <f t="shared" si="36"/>
+        <v>0.27019401020707678</v>
+      </c>
+      <c r="AD34" s="19">
+        <f t="shared" si="36"/>
+        <v>0.31053942223021785</v>
+      </c>
+      <c r="AE34" s="19">
+        <f t="shared" si="36"/>
+        <v>0.24490356300834176</v>
+      </c>
+      <c r="AF34" s="20">
+        <f t="shared" si="37"/>
+        <v>0.66316646624942011</v>
+      </c>
+      <c r="AG34" s="20">
+        <f t="shared" si="37"/>
+        <v>0.72980598979292322</v>
+      </c>
+      <c r="AH34" s="20">
+        <f t="shared" si="37"/>
+        <v>0.68946057776978209</v>
+      </c>
+      <c r="AI34" s="20">
+        <f t="shared" si="37"/>
+        <v>0.75509643699165818</v>
+      </c>
+      <c r="AJ34" s="24">
+        <f t="shared" si="40"/>
+        <v>1.1004868716001084</v>
+      </c>
+      <c r="AK34" s="24">
+        <f t="shared" si="41"/>
+        <v>1.0951988573939793</v>
+      </c>
+      <c r="AS34" s="17">
+        <f t="shared" si="42"/>
+        <v>0.7137758743754461</v>
+      </c>
+      <c r="AT34">
+        <f>$AS34*AF10</f>
+        <v>49992.14846538187</v>
+      </c>
+      <c r="AU34">
+        <f>$AS34*AG10</f>
+        <v>55015.70306923626</v>
+      </c>
+      <c r="AV34">
+        <f>$AS34*AH10</f>
+        <v>51974.304068522484</v>
+      </c>
+      <c r="AW34">
+        <f>$AS34*AI10</f>
+        <v>56922.198429693075</v>
+      </c>
+      <c r="BH34" s="17">
+        <f t="shared" si="43"/>
+        <v>0.88860503486082287</v>
+      </c>
+      <c r="BI34">
+        <f>$BH34*AT10</f>
+        <v>44423.274829848087</v>
+      </c>
+      <c r="BJ34">
+        <f>$BH34*AU10</f>
+        <v>48887.230743731365</v>
+      </c>
+      <c r="BK34">
+        <f>$BH34*AV10</f>
+        <v>46184.628278676428</v>
+      </c>
+      <c r="BL34">
+        <f>$BH34*AW10</f>
+        <v>50581.3521199721</v>
+      </c>
+      <c r="BM34" s="23">
+        <f t="shared" si="38"/>
+        <v>28032</v>
+      </c>
+      <c r="BN34" s="9">
+        <f t="shared" si="44"/>
+        <v>16391.274829848087</v>
+      </c>
+    </row>
+    <row r="35" spans="1:66">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="E35">
         <v>8</v>
       </c>
-      <c r="F34" s="19">
-        <f t="shared" si="18"/>
+      <c r="F35" s="19">
+        <f t="shared" si="35"/>
         <v>0.16586797776118165</v>
       </c>
-      <c r="G34" s="19">
-        <f t="shared" si="19"/>
+      <c r="G35" s="19">
+        <f t="shared" si="36"/>
         <v>7.6497801012364114E-2</v>
       </c>
-      <c r="H34" s="19">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="I34" s="19">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="J34" s="19">
-        <f t="shared" si="19"/>
+      <c r="H35" s="19">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="19">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="19">
+        <f t="shared" si="36"/>
         <v>1.7291096174591319E-2</v>
       </c>
-      <c r="K34" s="19">
-        <f t="shared" si="19"/>
+      <c r="K35" s="19">
+        <f t="shared" si="36"/>
         <v>2.8732055431084555E-3</v>
       </c>
-      <c r="L34" s="19">
-        <f t="shared" si="19"/>
+      <c r="L35" s="19">
+        <f t="shared" si="36"/>
         <v>2.7570326114015435E-2</v>
       </c>
-      <c r="M34" s="19">
-        <f t="shared" si="19"/>
+      <c r="M35" s="19">
+        <f t="shared" si="36"/>
         <v>0.13908596796946313</v>
       </c>
-      <c r="N34" s="19">
-        <f t="shared" si="19"/>
+      <c r="N35" s="19">
+        <f t="shared" si="36"/>
         <v>7.6497801012364114E-2</v>
       </c>
-      <c r="O34" s="19">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="P34" s="19">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="19">
-        <f t="shared" si="19"/>
+      <c r="O35" s="19">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="19">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="19">
+        <f t="shared" si="36"/>
         <v>0.10018878101402373</v>
       </c>
-      <c r="R34" s="19">
-        <f t="shared" si="19"/>
+      <c r="R35" s="19">
+        <f t="shared" si="36"/>
         <v>7.6497801012364114E-2</v>
       </c>
-      <c r="S34" s="19">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="T34" s="19">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="U34" s="19">
-        <f t="shared" si="19"/>
+      <c r="S35" s="19">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="T35" s="19">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U35" s="19">
+        <f t="shared" si="36"/>
         <v>1.8898846568749482E-2</v>
       </c>
-      <c r="V34" s="19">
-        <f t="shared" si="19"/>
+      <c r="V35" s="19">
+        <f t="shared" si="36"/>
         <v>5.7567836694050285E-3</v>
       </c>
-      <c r="W34" s="19">
-        <f t="shared" si="19"/>
+      <c r="W35" s="19">
+        <f t="shared" si="36"/>
         <v>2.7570326114015435E-2</v>
       </c>
-      <c r="X34" s="19">
-        <f t="shared" si="19"/>
+      <c r="X35" s="19">
+        <f t="shared" si="36"/>
         <v>7.9951871214007139E-2</v>
       </c>
-      <c r="Y34" s="19">
-        <f t="shared" si="19"/>
+      <c r="Y35" s="19">
+        <f t="shared" si="36"/>
         <v>7.6497801012364114E-2</v>
       </c>
-      <c r="Z34" s="19">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AA34" s="19">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AB34" s="19">
-        <f t="shared" si="19"/>
+      <c r="Z35" s="19">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AA35" s="19">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AB35" s="19">
+        <f t="shared" si="36"/>
         <v>0.29010040660526099</v>
       </c>
-      <c r="AC34" s="19">
-        <f t="shared" si="19"/>
+      <c r="AC35" s="19">
+        <f t="shared" si="36"/>
         <v>0.22891253837855779</v>
       </c>
-      <c r="AD34" s="19">
-        <f t="shared" si="19"/>
+      <c r="AD35" s="19">
+        <f t="shared" si="36"/>
         <v>0.26331839681354247</v>
       </c>
-      <c r="AE34" s="19">
-        <f t="shared" si="19"/>
+      <c r="AE35" s="19">
+        <f t="shared" si="36"/>
         <v>0.20867562857854119</v>
       </c>
-      <c r="AF34" s="20">
-        <f t="shared" si="20"/>
+      <c r="AF35" s="20">
+        <f t="shared" si="37"/>
         <v>0.70989959339473907</v>
       </c>
-      <c r="AG34" s="20">
-        <f t="shared" si="20"/>
+      <c r="AG35" s="20">
+        <f t="shared" si="37"/>
         <v>0.77108746162144215</v>
       </c>
-      <c r="AH34" s="20">
-        <f t="shared" si="20"/>
+      <c r="AH35" s="20">
+        <f t="shared" si="37"/>
         <v>0.73668160318645759</v>
       </c>
-      <c r="AI34" s="20">
-        <f t="shared" si="20"/>
+      <c r="AI35" s="20">
+        <f t="shared" si="37"/>
         <v>0.79132437142145884</v>
       </c>
-      <c r="AJ34" s="24">
-        <f t="shared" si="25"/>
+      <c r="AJ35" s="24">
+        <f t="shared" si="40"/>
         <v>1.0861922852133254</v>
       </c>
-      <c r="AK34" s="24">
-        <f t="shared" si="26"/>
+      <c r="AK35" s="24">
+        <f t="shared" si="41"/>
         <v>1.0741741995438032</v>
       </c>
-      <c r="AS34" s="17">
-        <f t="shared" si="27"/>
+      <c r="AS35" s="17">
+        <f t="shared" si="42"/>
         <v>1.0822510822510822</v>
       </c>
-      <c r="AT34">
-        <f t="shared" si="28"/>
+      <c r="AT35">
+        <f>$AS35*AF11</f>
         <v>74069.264069264071</v>
       </c>
-      <c r="AU34">
-        <f t="shared" si="21"/>
+      <c r="AU35">
+        <f>$AS35*AG11</f>
         <v>80453.463203463209</v>
       </c>
-      <c r="AV34">
-        <f t="shared" si="21"/>
+      <c r="AV35">
+        <f>$AS35*AH11</f>
         <v>76863.636363636368</v>
       </c>
-      <c r="AW34">
-        <f t="shared" si="21"/>
+      <c r="AW35">
+        <f>$AS35*AI11</f>
         <v>82564.935064935067</v>
       </c>
-      <c r="BH34" s="17">
-        <f t="shared" si="29"/>
+      <c r="BH35" s="17">
+        <f t="shared" si="43"/>
         <v>0.90996293873991707</v>
       </c>
-      <c r="BI34">
-        <f t="shared" si="30"/>
+      <c r="BI35">
+        <f>$BH35*AT11</f>
         <v>67400.285202770479</v>
       </c>
-      <c r="BJ34">
-        <f t="shared" si="22"/>
+      <c r="BJ35">
+        <f>$BH35*AU11</f>
         <v>73209.669808427148</v>
       </c>
-      <c r="BK34">
-        <f t="shared" si="22"/>
+      <c r="BK35">
+        <f>$BH35*AV11</f>
         <v>69943.0604276909</v>
       </c>
-      <c r="BL34">
-        <f t="shared" si="22"/>
+      <c r="BL35">
+        <f>$BH35*AW11</f>
         <v>75131.03094855872</v>
       </c>
-      <c r="BM34" s="23">
-        <f t="shared" si="23"/>
+      <c r="BM35" s="23">
+        <f t="shared" si="38"/>
         <v>17820</v>
       </c>
-      <c r="BN34" s="9">
-        <f t="shared" si="31"/>
+      <c r="BN35" s="9">
+        <f t="shared" si="44"/>
         <v>49580.285202770479</v>
       </c>
     </row>
-    <row r="35" spans="1:66">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="E35">
+    <row r="36" spans="1:66">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="E36">
         <v>9</v>
       </c>
-      <c r="F35" s="19">
-        <f t="shared" si="18"/>
+      <c r="F36" s="19">
+        <f t="shared" si="35"/>
         <v>0.16862961476725521</v>
       </c>
-      <c r="G35" s="19">
-        <f t="shared" si="19"/>
+      <c r="G36" s="19">
+        <f t="shared" si="36"/>
         <v>7.6504815409309798E-2</v>
       </c>
-      <c r="H35" s="19">
-        <f t="shared" si="19"/>
+      <c r="H36" s="19">
+        <f t="shared" si="36"/>
         <v>5.3461075441412521E-2</v>
       </c>
-      <c r="I35" s="19">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="J35" s="19">
-        <f t="shared" si="19"/>
+      <c r="I36" s="19">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="19">
+        <f t="shared" si="36"/>
         <v>1.5951043338683787E-2</v>
       </c>
-      <c r="K35" s="19">
-        <f t="shared" si="19"/>
+      <c r="K36" s="19">
+        <f t="shared" si="36"/>
         <v>2.3575441412520062E-3</v>
       </c>
-      <c r="L35" s="19">
-        <f t="shared" si="19"/>
+      <c r="L36" s="19">
+        <f t="shared" si="36"/>
         <v>2.6715489566613161E-2</v>
       </c>
-      <c r="M35" s="19">
-        <f t="shared" si="19"/>
+      <c r="M36" s="19">
+        <f t="shared" si="36"/>
         <v>0.14178370786516853</v>
       </c>
-      <c r="N35" s="19">
-        <f t="shared" si="19"/>
+      <c r="N36" s="19">
+        <f t="shared" si="36"/>
         <v>7.6504815409309798E-2</v>
       </c>
-      <c r="O35" s="19">
-        <f t="shared" si="19"/>
+      <c r="O36" s="19">
+        <f t="shared" si="36"/>
         <v>5.3390850722311395E-2</v>
       </c>
-      <c r="P35" s="19">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="Q35" s="19">
-        <f t="shared" si="19"/>
+      <c r="P36" s="19">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="19">
+        <f t="shared" si="36"/>
         <v>0.10182584269662921</v>
       </c>
-      <c r="R35" s="19">
-        <f t="shared" si="19"/>
+      <c r="R36" s="19">
+        <f t="shared" si="36"/>
         <v>7.6504815409309798E-2</v>
       </c>
-      <c r="S35" s="19">
-        <f t="shared" si="19"/>
+      <c r="S36" s="19">
+        <f t="shared" si="36"/>
         <v>5.2156902086677365E-2</v>
       </c>
-      <c r="T35" s="19">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="U35" s="19">
-        <f t="shared" si="19"/>
+      <c r="T36" s="19">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U36" s="19">
+        <f t="shared" si="36"/>
         <v>1.7626404494382023E-2</v>
       </c>
-      <c r="V35" s="19">
-        <f t="shared" si="19"/>
+      <c r="V36" s="19">
+        <f t="shared" si="36"/>
         <v>4.7150882825040125E-3</v>
       </c>
-      <c r="W35" s="19">
-        <f t="shared" si="19"/>
+      <c r="W36" s="19">
+        <f t="shared" si="36"/>
         <v>2.6715489566613161E-2</v>
       </c>
-      <c r="X35" s="19">
-        <f t="shared" si="19"/>
+      <c r="X36" s="19">
+        <f t="shared" si="36"/>
         <v>8.127006420545746E-2</v>
       </c>
-      <c r="Y35" s="19">
-        <f t="shared" si="19"/>
+      <c r="Y36" s="19">
+        <f t="shared" si="36"/>
         <v>7.6504815409309798E-2</v>
       </c>
-      <c r="Z35" s="19">
-        <f t="shared" si="19"/>
+      <c r="Z36" s="19">
+        <f t="shared" si="36"/>
         <v>5.2056581059390046E-2</v>
       </c>
-      <c r="AA35" s="19">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AB35" s="19">
-        <f t="shared" si="19"/>
+      <c r="AA36" s="19">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AB36" s="19">
+        <f t="shared" si="36"/>
         <v>0.34361958266452647</v>
       </c>
-      <c r="AC35" s="19">
-        <f t="shared" si="19"/>
+      <c r="AC36" s="19">
+        <f t="shared" si="36"/>
         <v>0.27954454253611555</v>
       </c>
-      <c r="AD35" s="19">
-        <f t="shared" si="19"/>
+      <c r="AD36" s="19">
+        <f t="shared" si="36"/>
         <v>0.31670345104333869</v>
       </c>
-      <c r="AE35" s="19">
-        <f t="shared" si="19"/>
+      <c r="AE36" s="19">
+        <f t="shared" si="36"/>
         <v>0.25888844301765651</v>
       </c>
-      <c r="AF35" s="20">
-        <f t="shared" si="20"/>
+      <c r="AF36" s="20">
+        <f t="shared" si="37"/>
         <v>0.65638041733547348</v>
       </c>
-      <c r="AG35" s="20">
-        <f t="shared" si="20"/>
+      <c r="AG36" s="20">
+        <f t="shared" si="37"/>
         <v>0.7204554574638844</v>
       </c>
-      <c r="AH35" s="20">
-        <f t="shared" si="20"/>
+      <c r="AH36" s="20">
+        <f t="shared" si="37"/>
         <v>0.68329654895666136</v>
       </c>
-      <c r="AI35" s="20">
-        <f t="shared" si="20"/>
+      <c r="AI36" s="20">
+        <f t="shared" si="37"/>
         <v>0.74111155698234354</v>
       </c>
-      <c r="AJ35" s="24">
-        <f t="shared" si="25"/>
+      <c r="AJ36" s="24">
+        <f t="shared" si="40"/>
         <v>1.0976187564956899</v>
       </c>
-      <c r="AK35" s="24">
-        <f t="shared" si="26"/>
+      <c r="AK36" s="24">
+        <f t="shared" si="41"/>
         <v>1.0846118835430401</v>
       </c>
-      <c r="AS35" s="17">
-        <f t="shared" si="27"/>
+      <c r="AS36" s="17">
+        <f t="shared" si="42"/>
         <v>1.0460251046025104</v>
       </c>
-      <c r="AT35">
-        <f t="shared" si="28"/>
+      <c r="AT36">
+        <f>$AS36*AF12</f>
         <v>68439.330543933058</v>
       </c>
-      <c r="AU35">
-        <f t="shared" si="21"/>
+      <c r="AU36">
+        <f>$AS36*AG12</f>
         <v>75120.292887029282</v>
       </c>
-      <c r="AV35">
-        <f t="shared" si="21"/>
+      <c r="AV36">
+        <f>$AS36*AH12</f>
         <v>71245.81589958159</v>
       </c>
-      <c r="AW35">
-        <f t="shared" si="21"/>
+      <c r="AW36">
+        <f>$AS36*AI12</f>
         <v>77274.058577405856</v>
       </c>
-      <c r="BH35" s="17">
-        <f t="shared" si="29"/>
+      <c r="BH36" s="17">
+        <f t="shared" si="43"/>
         <v>0.90238893092638639</v>
       </c>
-      <c r="BI35">
-        <f t="shared" si="30"/>
+      <c r="BI36">
+        <f>$BH36*AT12</f>
         <v>61758.894322857333</v>
       </c>
-      <c r="BJ35">
-        <f t="shared" si="22"/>
+      <c r="BJ36">
+        <f>$BH36*AU12</f>
         <v>67787.720789203391</v>
       </c>
-      <c r="BK35">
-        <f t="shared" si="22"/>
+      <c r="BK36">
+        <f>$BH36*AV12</f>
         <v>64291.435642601573</v>
       </c>
-      <c r="BL35">
-        <f t="shared" si="22"/>
+      <c r="BL36">
+        <f>$BH36*AW12</f>
         <v>69731.255108008248</v>
       </c>
-      <c r="BM35" s="23">
-        <f t="shared" si="23"/>
+      <c r="BM36" s="23">
+        <f t="shared" si="38"/>
         <v>20928</v>
       </c>
-      <c r="BN35" s="9">
-        <f t="shared" si="31"/>
+      <c r="BN36" s="9">
+        <f t="shared" si="44"/>
         <v>40830.894322857333</v>
       </c>
     </row>
-    <row r="36" spans="1:66">
-      <c r="E36">
+    <row r="37" spans="1:66">
+      <c r="E37">
         <v>10</v>
       </c>
-      <c r="F36" s="19">
-        <f t="shared" si="18"/>
+      <c r="F37" s="19">
+        <f t="shared" si="35"/>
         <v>0.17177026570863674</v>
       </c>
-      <c r="G36" s="19">
-        <f t="shared" si="19"/>
+      <c r="G37" s="19">
+        <f t="shared" si="36"/>
         <v>7.6500940348169941E-2</v>
       </c>
-      <c r="H36" s="19">
-        <f t="shared" si="19"/>
+      <c r="H37" s="19">
+        <f t="shared" si="36"/>
         <v>4.6072238028644449E-2</v>
       </c>
-      <c r="I36" s="19">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="J36" s="19">
-        <f t="shared" si="19"/>
+      <c r="I37" s="19">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="19">
+        <f t="shared" si="36"/>
         <v>2.128562472874572E-2</v>
       </c>
-      <c r="K36" s="19">
-        <f t="shared" si="19"/>
+      <c r="K37" s="19">
+        <f t="shared" si="36"/>
         <v>1.4466894922119883E-3</v>
       </c>
-      <c r="L36" s="19">
-        <f t="shared" si="19"/>
+      <c r="L37" s="19">
+        <f t="shared" si="36"/>
         <v>5.1511790519361528E-2</v>
       </c>
-      <c r="M36" s="19">
-        <f t="shared" si="19"/>
+      <c r="M37" s="19">
+        <f t="shared" si="36"/>
         <v>0.145575541302985</v>
       </c>
-      <c r="N36" s="19">
-        <f t="shared" si="19"/>
+      <c r="N37" s="19">
+        <f t="shared" si="36"/>
         <v>7.6500940348169941E-2</v>
       </c>
-      <c r="O36" s="19">
-        <f t="shared" si="19"/>
+      <c r="O37" s="19">
+        <f t="shared" si="36"/>
         <v>4.6052948835414956E-2</v>
       </c>
-      <c r="P36" s="19">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="Q36" s="19">
-        <f t="shared" si="19"/>
+      <c r="P37" s="19">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="19">
+        <f t="shared" si="36"/>
         <v>0.1055986883348604</v>
       </c>
-      <c r="R36" s="19">
-        <f t="shared" si="19"/>
+      <c r="R37" s="19">
+        <f t="shared" si="36"/>
         <v>7.6500940348169941E-2</v>
       </c>
-      <c r="S36" s="19">
-        <f t="shared" si="19"/>
+      <c r="S37" s="19">
+        <f t="shared" si="36"/>
         <v>4.5040266190866568E-2</v>
       </c>
-      <c r="T36" s="19">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="U36" s="19">
-        <f t="shared" si="19"/>
+      <c r="T37" s="19">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U37" s="19">
+        <f t="shared" si="36"/>
         <v>2.3455658967063704E-2</v>
       </c>
-      <c r="V36" s="19">
-        <f t="shared" si="19"/>
+      <c r="V37" s="19">
+        <f t="shared" si="36"/>
         <v>2.8933789844239766E-3</v>
       </c>
-      <c r="W36" s="19">
-        <f t="shared" si="19"/>
+      <c r="W37" s="19">
+        <f t="shared" si="36"/>
         <v>5.1511790519361528E-2</v>
       </c>
-      <c r="X36" s="19">
-        <f t="shared" si="19"/>
+      <c r="X37" s="19">
+        <f t="shared" si="36"/>
         <v>8.2760283551140471E-2</v>
       </c>
-      <c r="Y36" s="19">
-        <f t="shared" si="19"/>
+      <c r="Y37" s="19">
+        <f t="shared" si="36"/>
         <v>7.6500940348169941E-2</v>
       </c>
-      <c r="Z36" s="19">
-        <f t="shared" si="19"/>
+      <c r="Z37" s="19">
+        <f t="shared" si="36"/>
         <v>4.4992043207792834E-2</v>
       </c>
-      <c r="AA36" s="19">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AB36" s="19">
-        <f t="shared" si="19"/>
+      <c r="AA37" s="19">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AB37" s="19">
+        <f t="shared" si="36"/>
         <v>0.36858754882577038</v>
       </c>
-      <c r="AC36" s="19">
-        <f t="shared" si="19"/>
+      <c r="AC37" s="19">
+        <f t="shared" si="36"/>
         <v>0.30500072334474609</v>
       </c>
-      <c r="AD36" s="19">
-        <f t="shared" si="19"/>
+      <c r="AD37" s="19">
+        <f t="shared" si="36"/>
         <v>0.34237353522688913</v>
       </c>
-      <c r="AE36" s="19">
-        <f t="shared" si="19"/>
+      <c r="AE37" s="19">
+        <f t="shared" si="36"/>
         <v>0.28211409557795247</v>
       </c>
-      <c r="AF36" s="20">
-        <f t="shared" si="20"/>
+      <c r="AF37" s="20">
+        <f t="shared" si="37"/>
         <v>0.63141245117422962</v>
       </c>
-      <c r="AG36" s="20">
-        <f t="shared" si="20"/>
+      <c r="AG37" s="20">
+        <f t="shared" si="37"/>
         <v>0.69499927665525385</v>
       </c>
-      <c r="AH36" s="20">
-        <f t="shared" si="20"/>
+      <c r="AH37" s="20">
+        <f t="shared" si="37"/>
         <v>0.65762646477311082</v>
       </c>
-      <c r="AI36" s="20">
-        <f t="shared" si="20"/>
+      <c r="AI37" s="20">
+        <f t="shared" si="37"/>
         <v>0.71788590442204758</v>
       </c>
-      <c r="AJ36" s="24">
-        <f t="shared" si="25"/>
+      <c r="AJ37" s="24">
+        <f t="shared" si="40"/>
         <v>1.1007056882751878</v>
       </c>
-      <c r="AK36" s="24">
-        <f t="shared" si="26"/>
+      <c r="AK37" s="24">
+        <f t="shared" si="41"/>
         <v>1.0916317132549205</v>
       </c>
-      <c r="AS36" s="17">
-        <f t="shared" si="27"/>
+      <c r="AS37" s="17">
+        <f t="shared" si="42"/>
         <v>0.85543199315654406</v>
       </c>
-      <c r="AT36">
-        <f t="shared" si="28"/>
+      <c r="AT37">
+        <f>$AS37*AF13</f>
         <v>56003.421727972629</v>
       </c>
-      <c r="AU36">
-        <f t="shared" si="21"/>
+      <c r="AU37">
+        <f>$AS37*AG13</f>
         <v>61643.284858853724</v>
       </c>
-      <c r="AV36">
-        <f t="shared" si="21"/>
+      <c r="AV37">
+        <f>$AS37*AH13</f>
         <v>58328.485885372116</v>
       </c>
-      <c r="AW36">
-        <f t="shared" si="21"/>
+      <c r="AW37">
+        <f>$AS37*AI13</f>
         <v>63673.224978614198</v>
       </c>
-      <c r="BH36" s="17">
-        <f t="shared" si="29"/>
+      <c r="BH37" s="17">
+        <f t="shared" si="43"/>
         <v>0.87395309882747074</v>
       </c>
-      <c r="BI36">
-        <f t="shared" si="30"/>
+      <c r="BI37">
+        <f>$BH37*AT13</f>
         <v>48944.363964103381</v>
       </c>
-      <c r="BJ36">
-        <f t="shared" si="22"/>
+      <c r="BJ37">
+        <f>$BH37*AU13</f>
         <v>53873.339824299714</v>
       </c>
-      <c r="BK36">
-        <f t="shared" si="22"/>
+      <c r="BK37">
+        <f>$BH37*AV13</f>
         <v>50976.360989435343</v>
       </c>
-      <c r="BL36">
-        <f t="shared" si="22"/>
+      <c r="BL37">
+        <f>$BH37*AW13</f>
         <v>55647.412282398596</v>
       </c>
-      <c r="BM36" s="23">
-        <f t="shared" si="23"/>
+      <c r="BM37" s="23">
+        <f t="shared" si="38"/>
         <v>22164</v>
       </c>
-      <c r="BN36" s="9">
-        <f t="shared" si="31"/>
+      <c r="BN37" s="9">
+        <f t="shared" si="44"/>
         <v>26780.363964103381</v>
       </c>
     </row>
-    <row r="37" spans="1:66">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="E37">
+    <row r="38" spans="1:66">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="E38">
         <v>11</v>
       </c>
-      <c r="F37" s="19">
-        <f t="shared" si="18"/>
+      <c r="F38" s="19">
+        <f t="shared" si="35"/>
         <v>0.17925987836540172</v>
       </c>
-      <c r="G37" s="19">
-        <f t="shared" si="19"/>
+      <c r="G38" s="19">
+        <f t="shared" si="36"/>
         <v>7.6501760500764668E-2</v>
       </c>
-      <c r="H37" s="19">
-        <f t="shared" si="19"/>
+      <c r="H38" s="19">
+        <f t="shared" si="36"/>
         <v>4.673329302557172E-2</v>
       </c>
-      <c r="I37" s="19">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="J37" s="19">
-        <f t="shared" si="19"/>
+      <c r="I38" s="19">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="19">
+        <f t="shared" si="36"/>
         <v>1.428850873137248E-2</v>
       </c>
-      <c r="K37" s="19">
-        <f t="shared" si="19"/>
+      <c r="K38" s="19">
+        <f t="shared" si="36"/>
         <v>8.9803321833766046E-4</v>
       </c>
-      <c r="L37" s="19">
-        <f t="shared" si="19"/>
+      <c r="L38" s="19">
+        <f t="shared" si="36"/>
         <v>1.8627520717003947E-2</v>
       </c>
-      <c r="M37" s="19">
-        <f t="shared" si="19"/>
+      <c r="M38" s="19">
+        <f t="shared" si="36"/>
         <v>0.15295017249350926</v>
       </c>
-      <c r="N37" s="19">
-        <f t="shared" si="19"/>
+      <c r="N38" s="19">
+        <f t="shared" si="36"/>
         <v>7.6501760500764668E-2</v>
       </c>
-      <c r="O37" s="19">
-        <f t="shared" si="19"/>
+      <c r="O38" s="19">
+        <f t="shared" si="36"/>
         <v>4.6697727353558344E-2</v>
       </c>
-      <c r="P37" s="19">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="Q37" s="19">
-        <f t="shared" si="19"/>
+      <c r="P38" s="19">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="19">
+        <f t="shared" si="36"/>
         <v>0.11687768965394602</v>
       </c>
-      <c r="R37" s="19">
-        <f t="shared" si="19"/>
+      <c r="R38" s="19">
+        <f t="shared" si="36"/>
         <v>7.6501760500764668E-2</v>
       </c>
-      <c r="S37" s="19">
-        <f t="shared" si="19"/>
+      <c r="S38" s="19">
+        <f t="shared" si="36"/>
         <v>4.4741615392822849E-2</v>
       </c>
-      <c r="T37" s="19">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="U37" s="19">
-        <f t="shared" si="19"/>
+      <c r="T38" s="19">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U38" s="19">
+        <f t="shared" si="36"/>
         <v>1.5693352775900702E-2</v>
       </c>
-      <c r="V37" s="19">
-        <f t="shared" si="19"/>
+      <c r="V38" s="19">
+        <f t="shared" si="36"/>
         <v>1.7871750186719778E-3</v>
       </c>
-      <c r="W37" s="19">
-        <f t="shared" si="19"/>
+      <c r="W38" s="19">
+        <f t="shared" si="36"/>
         <v>1.8627520717003947E-2</v>
       </c>
-      <c r="X37" s="19">
-        <f t="shared" si="19"/>
+      <c r="X38" s="19">
+        <f t="shared" si="36"/>
         <v>9.1065903190240785E-2</v>
       </c>
-      <c r="Y37" s="19">
-        <f t="shared" si="19"/>
+      <c r="Y38" s="19">
+        <f t="shared" si="36"/>
         <v>7.6501760500764668E-2</v>
       </c>
-      <c r="Z37" s="19">
-        <f t="shared" si="19"/>
+      <c r="Z38" s="19">
+        <f t="shared" si="36"/>
         <v>4.4661592630792758E-2</v>
       </c>
-      <c r="AA37" s="19">
-        <f t="shared" ref="G37:AE46" si="32">AA14/$C14</f>
-        <v>0</v>
-      </c>
-      <c r="AB37" s="19">
-        <f t="shared" si="32"/>
+      <c r="AA38" s="19">
+        <f t="shared" ref="G38:AE47" si="45">AA14/$C14</f>
+        <v>0</v>
+      </c>
+      <c r="AB38" s="19">
+        <f t="shared" si="45"/>
         <v>0.3363089945584522</v>
       </c>
-      <c r="AC37" s="19">
-        <f t="shared" si="32"/>
+      <c r="AC38" s="19">
+        <f t="shared" si="45"/>
         <v>0.27422911405911016</v>
       </c>
-      <c r="AD37" s="19">
-        <f t="shared" si="32"/>
+      <c r="AD38" s="19">
+        <f t="shared" si="45"/>
         <v>0.30996372301454633</v>
       </c>
-      <c r="AE37" s="19">
-        <f t="shared" si="32"/>
+      <c r="AE38" s="19">
+        <f t="shared" si="45"/>
         <v>0.24833730483337482</v>
       </c>
-      <c r="AF37" s="20">
-        <f t="shared" ref="AF37:AI46" si="33">AF14/$C14</f>
+      <c r="AF38" s="20">
+        <f t="shared" ref="AF38:AI47" si="46">AF14/$C14</f>
         <v>0.6636910054415478</v>
       </c>
-      <c r="AG37" s="20">
-        <f t="shared" si="33"/>
+      <c r="AG38" s="20">
+        <f t="shared" si="46"/>
         <v>0.7257708859408899</v>
       </c>
-      <c r="AH37" s="20">
-        <f t="shared" si="33"/>
+      <c r="AH38" s="20">
+        <f t="shared" si="46"/>
         <v>0.69003627698545367</v>
       </c>
-      <c r="AI37" s="20">
-        <f t="shared" si="33"/>
+      <c r="AI38" s="20">
+        <f t="shared" si="46"/>
         <v>0.75166269516662521</v>
       </c>
-      <c r="AJ37" s="24">
-        <f t="shared" si="25"/>
+      <c r="AJ38" s="24">
+        <f t="shared" si="40"/>
         <v>1.0935373238304487</v>
       </c>
-      <c r="AK37" s="24">
-        <f t="shared" si="26"/>
+      <c r="AK38" s="24">
+        <f t="shared" si="41"/>
         <v>1.0893089540891929</v>
       </c>
-      <c r="AS37" s="17">
-        <f t="shared" si="27"/>
+      <c r="AS38" s="17">
+        <f t="shared" si="42"/>
         <v>0.75471698113207553</v>
       </c>
-      <c r="AT37">
-        <f t="shared" si="28"/>
+      <c r="AT38">
+        <f>$AS38*AF14</f>
         <v>56335.094339622643</v>
       </c>
-      <c r="AU37">
-        <f t="shared" si="21"/>
+      <c r="AU38">
+        <f>$AS38*AG14</f>
         <v>61604.528301886799</v>
       </c>
-      <c r="AV37">
-        <f t="shared" si="21"/>
+      <c r="AV38">
+        <f>$AS38*AH14</f>
         <v>58571.320754716988</v>
       </c>
-      <c r="AW37">
-        <f t="shared" si="21"/>
+      <c r="AW38">
+        <f>$AS38*AI14</f>
         <v>63802.264150943403</v>
       </c>
-      <c r="BH37" s="17">
-        <f t="shared" si="29"/>
+      <c r="BH38" s="17">
+        <f t="shared" si="43"/>
         <v>0.88728277621299889</v>
       </c>
-      <c r="BI37">
-        <f t="shared" si="30"/>
+      <c r="BI38">
+        <f>$BH38*AT14</f>
         <v>49985.15890388158</v>
       </c>
-      <c r="BJ37">
-        <f t="shared" si="22"/>
+      <c r="BJ38">
+        <f>$BH38*AU14</f>
         <v>54660.636898990379</v>
       </c>
-      <c r="BK37">
-        <f t="shared" si="22"/>
+      <c r="BK38">
+        <f>$BH38*AV14</f>
         <v>51969.324085707318</v>
       </c>
-      <c r="BL37">
-        <f t="shared" si="22"/>
+      <c r="BL38">
+        <f>$BH38*AW14</f>
         <v>56610.650064524147</v>
       </c>
-      <c r="BM37" s="23">
-        <f t="shared" si="23"/>
+      <c r="BM38" s="23">
+        <f t="shared" si="38"/>
         <v>26916</v>
       </c>
-      <c r="BN37" s="9">
-        <f t="shared" si="31"/>
+      <c r="BN38" s="9">
+        <f t="shared" si="44"/>
         <v>23069.15890388158</v>
       </c>
     </row>
-    <row r="38" spans="1:66">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="E38">
+    <row r="39" spans="1:66">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="E39">
         <v>12</v>
       </c>
-      <c r="F38" s="19">
-        <f t="shared" si="18"/>
+      <c r="F39" s="19">
+        <f t="shared" si="35"/>
         <v>0.17247641531976715</v>
       </c>
-      <c r="G38" s="19">
-        <f t="shared" si="32"/>
+      <c r="G39" s="19">
+        <f t="shared" si="45"/>
         <v>7.6503254542500218E-2</v>
       </c>
-      <c r="H38" s="19">
-        <f t="shared" si="32"/>
+      <c r="H39" s="19">
+        <f t="shared" si="45"/>
         <v>4.7293616126473148E-2</v>
       </c>
-      <c r="I38" s="19">
-        <f t="shared" si="32"/>
+      <c r="I39" s="19">
+        <f t="shared" si="45"/>
         <v>9.9978016306165943E-3</v>
       </c>
-      <c r="J38" s="19">
-        <f t="shared" si="32"/>
+      <c r="J39" s="19">
+        <f t="shared" si="45"/>
         <v>1.9622836278829704E-2</v>
       </c>
-      <c r="K38" s="19">
-        <f t="shared" si="32"/>
+      <c r="K39" s="19">
+        <f t="shared" si="45"/>
         <v>1.4623935463521406E-3</v>
       </c>
-      <c r="L38" s="19">
-        <f t="shared" si="32"/>
+      <c r="L39" s="19">
+        <f t="shared" si="45"/>
         <v>2.5195224759374135E-2</v>
       </c>
-      <c r="M38" s="19">
-        <f t="shared" si="32"/>
+      <c r="M39" s="19">
+        <f t="shared" si="45"/>
         <v>0.14642095906253882</v>
       </c>
-      <c r="N38" s="19">
-        <f t="shared" si="32"/>
+      <c r="N39" s="19">
+        <f t="shared" si="45"/>
         <v>7.6503254542500218E-2</v>
       </c>
-      <c r="O38" s="19">
-        <f t="shared" si="32"/>
+      <c r="O39" s="19">
+        <f t="shared" si="45"/>
         <v>4.7159802337918048E-2</v>
       </c>
-      <c r="P38" s="19">
-        <f t="shared" si="32"/>
+      <c r="P39" s="19">
+        <f t="shared" si="45"/>
         <v>9.9978016306165943E-3</v>
       </c>
-      <c r="Q38" s="19">
-        <f t="shared" si="32"/>
+      <c r="Q39" s="19">
+        <f t="shared" si="45"/>
         <v>0.10688854267226136</v>
       </c>
-      <c r="R38" s="19">
-        <f t="shared" si="32"/>
+      <c r="R39" s="19">
+        <f t="shared" si="45"/>
         <v>7.6503254542500218E-2</v>
       </c>
-      <c r="S38" s="19">
-        <f t="shared" si="32"/>
+      <c r="S39" s="19">
+        <f t="shared" si="45"/>
         <v>3.9608881412308956E-2</v>
       </c>
-      <c r="T38" s="19">
-        <f t="shared" si="32"/>
+      <c r="T39" s="19">
+        <f t="shared" si="45"/>
         <v>9.9978016306165943E-3</v>
       </c>
-      <c r="U38" s="19">
-        <f t="shared" si="32"/>
+      <c r="U39" s="19">
+        <f t="shared" si="45"/>
         <v>2.1849880045496688E-2</v>
       </c>
-      <c r="V38" s="19">
-        <f t="shared" si="32"/>
+      <c r="V39" s="19">
+        <f t="shared" si="45"/>
         <v>2.9343452204582164E-3</v>
       </c>
-      <c r="W38" s="19">
-        <f t="shared" si="32"/>
+      <c r="W39" s="19">
+        <f t="shared" si="45"/>
         <v>2.5195224759374135E-2</v>
       </c>
-      <c r="X38" s="19">
-        <f t="shared" si="32"/>
+      <c r="X39" s="19">
+        <f t="shared" si="45"/>
         <v>8.3098362692715755E-2</v>
       </c>
-      <c r="Y38" s="19">
-        <f t="shared" si="32"/>
+      <c r="Y39" s="19">
+        <f t="shared" si="45"/>
         <v>7.6503254542500218E-2</v>
       </c>
-      <c r="Z38" s="19">
-        <f t="shared" si="32"/>
+      <c r="Z39" s="19">
+        <f t="shared" si="45"/>
         <v>4.0125020311021477E-2</v>
       </c>
-      <c r="AA38" s="19">
-        <f t="shared" si="32"/>
+      <c r="AA39" s="19">
+        <f t="shared" si="45"/>
         <v>9.9978016306165943E-3</v>
       </c>
-      <c r="AB38" s="19">
-        <f t="shared" si="32"/>
+      <c r="AB39" s="19">
+        <f t="shared" si="45"/>
         <v>0.3525515422039131</v>
       </c>
-      <c r="AC38" s="19">
-        <f t="shared" si="32"/>
+      <c r="AC39" s="19">
+        <f t="shared" si="45"/>
         <v>0.28297793028301615</v>
       </c>
-      <c r="AD38" s="19">
-        <f t="shared" si="32"/>
+      <c r="AD39" s="19">
+        <f t="shared" si="45"/>
         <v>0.32636227215812968</v>
       </c>
-      <c r="AE38" s="19">
-        <f t="shared" si="32"/>
+      <c r="AE39" s="19">
+        <f t="shared" si="45"/>
         <v>0.25970388920218307</v>
       </c>
-      <c r="AF38" s="20">
-        <f t="shared" si="33"/>
+      <c r="AF39" s="20">
+        <f t="shared" si="46"/>
         <v>0.64744845779608695</v>
       </c>
-      <c r="AG38" s="20">
-        <f t="shared" si="33"/>
+      <c r="AG39" s="20">
+        <f t="shared" si="46"/>
         <v>0.71702206971698379</v>
       </c>
-      <c r="AH38" s="20">
-        <f t="shared" si="33"/>
+      <c r="AH39" s="20">
+        <f t="shared" si="46"/>
         <v>0.67363772784187037</v>
       </c>
-      <c r="AI38" s="20">
-        <f t="shared" si="33"/>
+      <c r="AI39" s="20">
+        <f t="shared" si="46"/>
         <v>0.74029611079781688</v>
       </c>
-      <c r="AJ38" s="24">
-        <f t="shared" si="25"/>
+      <c r="AJ39" s="24">
+        <f t="shared" si="40"/>
         <v>1.107458147568573</v>
       </c>
-      <c r="AK38" s="24">
-        <f t="shared" si="26"/>
+      <c r="AK39" s="24">
+        <f t="shared" si="41"/>
         <v>1.0989528647237434</v>
       </c>
-      <c r="AS38" s="17">
-        <f t="shared" si="27"/>
+      <c r="AS39" s="17">
+        <f t="shared" si="42"/>
         <v>1.1061946902654867</v>
       </c>
-      <c r="AT38">
-        <f t="shared" si="28"/>
+      <c r="AT39">
+        <f>$AS39*AF15</f>
         <v>74931.415929203533</v>
       </c>
-      <c r="AU38">
-        <f t="shared" si="21"/>
+      <c r="AU39">
+        <f>$AS39*AG15</f>
         <v>82983.407079646015</v>
       </c>
-      <c r="AV38">
-        <f t="shared" si="21"/>
+      <c r="AV39">
+        <f>$AS39*AH15</f>
         <v>77962.389380530964</v>
       </c>
-      <c r="AW38">
-        <f t="shared" si="21"/>
+      <c r="AW39">
+        <f>$AS39*AI15</f>
         <v>85676.991150442467</v>
       </c>
-      <c r="BH38" s="17">
-        <f t="shared" si="29"/>
+      <c r="BH39" s="17">
+        <f t="shared" si="43"/>
         <v>0.90823043028885375</v>
       </c>
-      <c r="BI38">
-        <f t="shared" si="30"/>
+      <c r="BI39">
+        <f>$BH39*AT15</f>
         <v>68054.992131533596</v>
       </c>
-      <c r="BJ38">
-        <f t="shared" si="22"/>
+      <c r="BJ39">
+        <f>$BH39*AU15</f>
         <v>75368.055518782014</v>
       </c>
-      <c r="BK38">
-        <f t="shared" si="22"/>
+      <c r="BK39">
+        <f>$BH39*AV15</f>
         <v>70807.814453426792</v>
       </c>
-      <c r="BL38">
-        <f t="shared" si="22"/>
+      <c r="BL39">
+        <f>$BH39*AW15</f>
         <v>77814.450538420671</v>
       </c>
-      <c r="BM38" s="23">
-        <f t="shared" si="23"/>
+      <c r="BM39" s="23">
+        <f t="shared" si="38"/>
         <v>14376</v>
       </c>
-      <c r="BN38" s="9">
-        <f t="shared" si="31"/>
+      <c r="BN39" s="9">
+        <f t="shared" si="44"/>
         <v>53678.992131533596</v>
       </c>
     </row>
-    <row r="39" spans="1:66">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="E39">
+    <row r="40" spans="1:66">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="E40">
         <v>13</v>
       </c>
-      <c r="F39" s="19">
-        <f t="shared" si="18"/>
+      <c r="F40" s="19">
+        <f t="shared" si="35"/>
         <v>0.16700944429096193</v>
       </c>
-      <c r="G39" s="19">
-        <f t="shared" si="32"/>
+      <c r="G40" s="19">
+        <f t="shared" si="45"/>
         <v>7.6495687141234614E-2</v>
       </c>
-      <c r="H39" s="19">
-        <f t="shared" si="32"/>
+      <c r="H40" s="19">
+        <f t="shared" si="45"/>
         <v>4.7538652014202251E-2</v>
       </c>
-      <c r="I39" s="19">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="J39" s="19">
-        <f t="shared" si="32"/>
+      <c r="I40" s="19">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="19">
+        <f t="shared" si="45"/>
         <v>1.5542663024014898E-2</v>
       </c>
-      <c r="K39" s="19">
-        <f t="shared" si="32"/>
+      <c r="K40" s="19">
+        <f t="shared" si="45"/>
         <v>2.8138461695879505E-3</v>
       </c>
-      <c r="L39" s="19">
-        <f t="shared" si="32"/>
+      <c r="L40" s="19">
+        <f t="shared" si="45"/>
         <v>2.2203804320021284E-2</v>
       </c>
-      <c r="M39" s="19">
-        <f t="shared" si="32"/>
+      <c r="M40" s="19">
+        <f t="shared" si="45"/>
         <v>0.140180700084927</v>
       </c>
-      <c r="N39" s="19">
-        <f t="shared" si="32"/>
+      <c r="N40" s="19">
+        <f t="shared" si="45"/>
         <v>7.6495687141234614E-2</v>
       </c>
-      <c r="O39" s="19">
-        <f t="shared" si="32"/>
+      <c r="O40" s="19">
+        <f t="shared" si="45"/>
         <v>4.7446562503197551E-2</v>
       </c>
-      <c r="P39" s="19">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="Q39" s="19">
-        <f t="shared" si="32"/>
+      <c r="P40" s="19">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="19">
+        <f t="shared" si="45"/>
         <v>0.10085847888592156</v>
       </c>
-      <c r="R39" s="19">
-        <f t="shared" si="32"/>
+      <c r="R40" s="19">
+        <f t="shared" si="45"/>
         <v>7.6495687141234614E-2</v>
       </c>
-      <c r="S39" s="19">
-        <f t="shared" si="32"/>
+      <c r="S40" s="19">
+        <f t="shared" si="45"/>
         <v>4.2893247792409779E-2</v>
       </c>
-      <c r="T39" s="19">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="U39" s="19">
-        <f t="shared" si="32"/>
+      <c r="T40" s="19">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="U40" s="19">
+        <f t="shared" si="45"/>
         <v>1.7210506389988847E-2</v>
       </c>
-      <c r="V39" s="19">
-        <f t="shared" si="32"/>
+      <c r="V40" s="19">
+        <f t="shared" si="45"/>
         <v>5.6379245070653115E-3</v>
       </c>
-      <c r="W39" s="19">
-        <f t="shared" si="32"/>
+      <c r="W40" s="19">
+        <f t="shared" si="45"/>
         <v>2.2203804320021284E-2</v>
       </c>
-      <c r="X39" s="19">
-        <f t="shared" si="32"/>
+      <c r="X40" s="19">
+        <f t="shared" si="45"/>
         <v>8.0496464785994204E-2</v>
       </c>
-      <c r="Y39" s="19">
-        <f t="shared" si="32"/>
+      <c r="Y40" s="19">
+        <f t="shared" si="45"/>
         <v>7.6495687141234614E-2</v>
       </c>
-      <c r="Z39" s="19">
-        <f t="shared" si="32"/>
+      <c r="Z40" s="19">
+        <f t="shared" si="45"/>
         <v>4.2709068770400385E-2</v>
       </c>
-      <c r="AA39" s="19">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AB39" s="19">
-        <f t="shared" si="32"/>
+      <c r="AA40" s="19">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AB40" s="19">
+        <f t="shared" si="45"/>
         <v>0.33160409696002291</v>
       </c>
-      <c r="AC39" s="19">
-        <f t="shared" si="32"/>
+      <c r="AC40" s="19">
+        <f t="shared" si="45"/>
         <v>0.26529964903664138</v>
       </c>
-      <c r="AD39" s="19">
-        <f t="shared" si="32"/>
+      <c r="AD40" s="19">
+        <f t="shared" si="45"/>
         <v>0.30468326324298328</v>
       </c>
-      <c r="AE39" s="19">
-        <f t="shared" si="32"/>
+      <c r="AE40" s="19">
+        <f t="shared" si="45"/>
         <v>0.24475345591470465</v>
       </c>
-      <c r="AF39" s="20">
-        <f t="shared" si="33"/>
+      <c r="AF40" s="20">
+        <f t="shared" si="46"/>
         <v>0.66839590303997709</v>
       </c>
-      <c r="AG39" s="20">
-        <f t="shared" si="33"/>
+      <c r="AG40" s="20">
+        <f t="shared" si="46"/>
         <v>0.73470035096335862</v>
       </c>
-      <c r="AH39" s="20">
-        <f t="shared" si="33"/>
+      <c r="AH40" s="20">
+        <f t="shared" si="46"/>
         <v>0.69531673675701666</v>
       </c>
-      <c r="AI39" s="20">
-        <f t="shared" si="33"/>
+      <c r="AI40" s="20">
+        <f t="shared" si="46"/>
         <v>0.75524654408529535</v>
       </c>
-      <c r="AJ39" s="24">
-        <f t="shared" si="25"/>
+      <c r="AJ40" s="24">
+        <f t="shared" si="40"/>
         <v>1.0991993631645822</v>
       </c>
-      <c r="AK39" s="24">
-        <f t="shared" si="26"/>
+      <c r="AK40" s="24">
+        <f t="shared" si="41"/>
         <v>1.0861906583865557</v>
       </c>
-      <c r="AS39" s="17">
-        <f t="shared" si="27"/>
+      <c r="AS40" s="17">
+        <f t="shared" si="42"/>
         <v>1.0183299389002036</v>
       </c>
-      <c r="AT39">
-        <f t="shared" si="28"/>
+      <c r="AT40">
+        <f>$AS40*AF16</f>
         <v>66520.366598777997</v>
       </c>
-      <c r="AU39">
-        <f t="shared" si="21"/>
+      <c r="AU40">
+        <f>$AS40*AG16</f>
         <v>73119.144602851316</v>
       </c>
-      <c r="AV39">
-        <f t="shared" si="21"/>
+      <c r="AV40">
+        <f>$AS40*AH16</f>
         <v>69199.59266802443</v>
       </c>
-      <c r="AW39">
-        <f t="shared" si="21"/>
+      <c r="AW40">
+        <f>$AS40*AI16</f>
         <v>75163.951120162936</v>
       </c>
-      <c r="BH39" s="17">
-        <f t="shared" si="29"/>
+      <c r="BH40" s="17">
+        <f t="shared" si="43"/>
         <v>0.91309816789718345</v>
       </c>
-      <c r="BI39">
-        <f t="shared" si="30"/>
+      <c r="BI40">
+        <f>$BH40*AT16</f>
         <v>60739.624869193183</v>
       </c>
-      <c r="BJ39">
-        <f t="shared" si="22"/>
+      <c r="BJ40">
+        <f>$BH40*AU16</f>
         <v>66764.956975072782</v>
       </c>
-      <c r="BK39">
-        <f t="shared" si="22"/>
+      <c r="BK40">
+        <f>$BH40*AV16</f>
         <v>63186.021284404473</v>
       </c>
-      <c r="BL39">
-        <f t="shared" si="22"/>
+      <c r="BL40">
+        <f>$BH40*AW16</f>
         <v>68632.066059734207</v>
       </c>
-      <c r="BM39" s="23">
-        <f t="shared" si="23"/>
+      <c r="BM40" s="23">
+        <f t="shared" si="38"/>
         <v>17184</v>
       </c>
-      <c r="BN39" s="9">
-        <f t="shared" si="31"/>
+      <c r="BN40" s="9">
+        <f t="shared" si="44"/>
         <v>43555.624869193183</v>
-      </c>
-    </row>
-    <row r="40" spans="1:66">
-      <c r="E40">
-        <v>14</v>
-      </c>
-      <c r="F40" s="19">
-        <f t="shared" si="18"/>
-        <v>0.17497145273842249</v>
-      </c>
-      <c r="G40" s="19">
-        <f t="shared" si="32"/>
-        <v>7.6498202579826605E-2</v>
-      </c>
-      <c r="H40" s="19">
-        <f t="shared" si="32"/>
-        <v>5.5039120321421019E-2</v>
-      </c>
-      <c r="I40" s="19">
-        <f t="shared" si="32"/>
-        <v>3.1482342990061321E-2</v>
-      </c>
-      <c r="J40" s="19">
-        <f t="shared" si="32"/>
-        <v>1.9251427363078874E-2</v>
-      </c>
-      <c r="K40" s="19">
-        <f t="shared" si="32"/>
-        <v>1.7762740537111439E-4</v>
-      </c>
-      <c r="L40" s="19">
-        <f t="shared" si="32"/>
-        <v>1.8540917741594418E-2</v>
-      </c>
-      <c r="M40" s="19">
-        <f t="shared" si="32"/>
-        <v>0.15719179530556143</v>
-      </c>
-      <c r="N40" s="19">
-        <f t="shared" si="32"/>
-        <v>7.6498202579826605E-2</v>
-      </c>
-      <c r="O40" s="19">
-        <f t="shared" si="32"/>
-        <v>5.4861492916049907E-2</v>
-      </c>
-      <c r="P40" s="19">
-        <f t="shared" si="32"/>
-        <v>3.1414675407062803E-2</v>
-      </c>
-      <c r="Q40" s="19">
-        <f t="shared" si="32"/>
-        <v>0.12335800380630155</v>
-      </c>
-      <c r="R40" s="19">
-        <f t="shared" si="32"/>
-        <v>7.6498202579826605E-2</v>
-      </c>
-      <c r="S40" s="19">
-        <f t="shared" si="32"/>
-        <v>4.7384224994713467E-2</v>
-      </c>
-      <c r="T40" s="19">
-        <f t="shared" si="32"/>
-        <v>2.8217382110382744E-2</v>
-      </c>
-      <c r="U40" s="19">
-        <f t="shared" si="32"/>
-        <v>2.1188411926411504E-2</v>
-      </c>
-      <c r="V40" s="19">
-        <f t="shared" si="32"/>
-        <v>3.6371325861704379E-4</v>
-      </c>
-      <c r="W40" s="19">
-        <f t="shared" si="32"/>
-        <v>1.8540917741594418E-2</v>
-      </c>
-      <c r="X40" s="19">
-        <f t="shared" si="32"/>
-        <v>9.7348276591245508E-2</v>
-      </c>
-      <c r="Y40" s="19">
-        <f t="shared" si="32"/>
-        <v>7.6498202579826605E-2</v>
-      </c>
-      <c r="Z40" s="19">
-        <f t="shared" si="32"/>
-        <v>4.7096637766969762E-2</v>
-      </c>
-      <c r="AA40" s="19">
-        <f t="shared" si="32"/>
-        <v>2.8082046944385704E-2</v>
-      </c>
-      <c r="AB40" s="19">
-        <f t="shared" si="32"/>
-        <v>0.37596109113977583</v>
-      </c>
-      <c r="AC40" s="19">
-        <f t="shared" si="32"/>
-        <v>0.3155508564178473</v>
-      </c>
-      <c r="AD40" s="19">
-        <f t="shared" si="32"/>
-        <v>0.35793613871854513</v>
-      </c>
-      <c r="AE40" s="19">
-        <f t="shared" si="32"/>
-        <v>0.28911820680905054</v>
-      </c>
-      <c r="AF40" s="20">
-        <f t="shared" si="33"/>
-        <v>0.62403890886022417</v>
-      </c>
-      <c r="AG40" s="20">
-        <f t="shared" si="33"/>
-        <v>0.6844491435821527</v>
-      </c>
-      <c r="AH40" s="20">
-        <f t="shared" si="33"/>
-        <v>0.64206386128145487</v>
-      </c>
-      <c r="AI40" s="20">
-        <f t="shared" si="33"/>
-        <v>0.71088179319094946</v>
-      </c>
-      <c r="AJ40" s="24">
-        <f t="shared" si="25"/>
-        <v>1.0968052374046111</v>
-      </c>
-      <c r="AK40" s="24">
-        <f t="shared" si="26"/>
-        <v>1.107182378668915</v>
-      </c>
-      <c r="AS40" s="17">
-        <f t="shared" si="27"/>
-        <v>0.55035773252614206</v>
-      </c>
-      <c r="AT40">
-        <f t="shared" si="28"/>
-        <v>40603.742432581181</v>
-      </c>
-      <c r="AU40">
-        <f t="shared" si="21"/>
-        <v>44534.397358282891</v>
-      </c>
-      <c r="AV40">
-        <f t="shared" si="21"/>
-        <v>41776.554760594394</v>
-      </c>
-      <c r="AW40">
-        <f t="shared" si="21"/>
-        <v>46254.265272427081</v>
-      </c>
-      <c r="BH40" s="17">
-        <f t="shared" si="29"/>
-        <v>0.85545934313675254</v>
-      </c>
-      <c r="BI40">
-        <f t="shared" si="30"/>
-        <v>34734.850830269781</v>
-      </c>
-      <c r="BJ40">
-        <f t="shared" si="22"/>
-        <v>38097.366311107813</v>
-      </c>
-      <c r="BK40">
-        <f t="shared" si="22"/>
-        <v>35738.144094014649</v>
-      </c>
-      <c r="BL40">
-        <f t="shared" si="22"/>
-        <v>39568.643387223572</v>
-      </c>
-      <c r="BM40" s="23">
-        <f t="shared" si="23"/>
-        <v>30492</v>
-      </c>
-      <c r="BN40" s="9">
-        <f t="shared" si="31"/>
-        <v>4242.850830269781</v>
       </c>
     </row>
     <row r="41" spans="1:66">
       <c r="E41">
+        <v>14</v>
+      </c>
+      <c r="F41" s="19">
+        <f t="shared" si="35"/>
+        <v>0.17497145273842249</v>
+      </c>
+      <c r="G41" s="19">
+        <f t="shared" si="45"/>
+        <v>7.6498202579826605E-2</v>
+      </c>
+      <c r="H41" s="19">
+        <f t="shared" si="45"/>
+        <v>5.5039120321421019E-2</v>
+      </c>
+      <c r="I41" s="19">
+        <f t="shared" si="45"/>
+        <v>3.1482342990061321E-2</v>
+      </c>
+      <c r="J41" s="19">
+        <f t="shared" si="45"/>
+        <v>1.9251427363078874E-2</v>
+      </c>
+      <c r="K41" s="19">
+        <f t="shared" si="45"/>
+        <v>1.7762740537111439E-4</v>
+      </c>
+      <c r="L41" s="19">
+        <f t="shared" si="45"/>
+        <v>1.8540917741594418E-2</v>
+      </c>
+      <c r="M41" s="19">
+        <f t="shared" si="45"/>
+        <v>0.15719179530556143</v>
+      </c>
+      <c r="N41" s="19">
+        <f t="shared" si="45"/>
+        <v>7.6498202579826605E-2</v>
+      </c>
+      <c r="O41" s="19">
+        <f t="shared" si="45"/>
+        <v>5.4861492916049907E-2</v>
+      </c>
+      <c r="P41" s="19">
+        <f t="shared" si="45"/>
+        <v>3.1414675407062803E-2</v>
+      </c>
+      <c r="Q41" s="19">
+        <f t="shared" si="45"/>
+        <v>0.12335800380630155</v>
+      </c>
+      <c r="R41" s="19">
+        <f t="shared" si="45"/>
+        <v>7.6498202579826605E-2</v>
+      </c>
+      <c r="S41" s="19">
+        <f t="shared" si="45"/>
+        <v>4.7384224994713467E-2</v>
+      </c>
+      <c r="T41" s="19">
+        <f t="shared" si="45"/>
+        <v>2.8217382110382744E-2</v>
+      </c>
+      <c r="U41" s="19">
+        <f t="shared" si="45"/>
+        <v>2.1188411926411504E-2</v>
+      </c>
+      <c r="V41" s="19">
+        <f t="shared" si="45"/>
+        <v>3.6371325861704379E-4</v>
+      </c>
+      <c r="W41" s="19">
+        <f t="shared" si="45"/>
+        <v>1.8540917741594418E-2</v>
+      </c>
+      <c r="X41" s="19">
+        <f t="shared" si="45"/>
+        <v>9.7348276591245508E-2</v>
+      </c>
+      <c r="Y41" s="19">
+        <f t="shared" si="45"/>
+        <v>7.6498202579826605E-2</v>
+      </c>
+      <c r="Z41" s="19">
+        <f t="shared" si="45"/>
+        <v>4.7096637766969762E-2</v>
+      </c>
+      <c r="AA41" s="19">
+        <f t="shared" si="45"/>
+        <v>2.8082046944385704E-2</v>
+      </c>
+      <c r="AB41" s="19">
+        <f t="shared" si="45"/>
+        <v>0.37596109113977583</v>
+      </c>
+      <c r="AC41" s="19">
+        <f t="shared" si="45"/>
+        <v>0.3155508564178473</v>
+      </c>
+      <c r="AD41" s="19">
+        <f t="shared" si="45"/>
+        <v>0.35793613871854513</v>
+      </c>
+      <c r="AE41" s="19">
+        <f t="shared" si="45"/>
+        <v>0.28911820680905054</v>
+      </c>
+      <c r="AF41" s="20">
+        <f t="shared" si="46"/>
+        <v>0.62403890886022417</v>
+      </c>
+      <c r="AG41" s="20">
+        <f t="shared" si="46"/>
+        <v>0.6844491435821527</v>
+      </c>
+      <c r="AH41" s="20">
+        <f t="shared" si="46"/>
+        <v>0.64206386128145487</v>
+      </c>
+      <c r="AI41" s="20">
+        <f t="shared" si="46"/>
+        <v>0.71088179319094946</v>
+      </c>
+      <c r="AJ41" s="24">
+        <f t="shared" si="40"/>
+        <v>1.0968052374046111</v>
+      </c>
+      <c r="AK41" s="24">
+        <f t="shared" si="41"/>
+        <v>1.107182378668915</v>
+      </c>
+      <c r="AS41" s="17">
+        <f t="shared" si="42"/>
+        <v>0.55035773252614206</v>
+      </c>
+      <c r="AT41">
+        <f>$AS41*AF17</f>
+        <v>40603.742432581181</v>
+      </c>
+      <c r="AU41">
+        <f>$AS41*AG17</f>
+        <v>44534.397358282891</v>
+      </c>
+      <c r="AV41">
+        <f>$AS41*AH17</f>
+        <v>41776.554760594394</v>
+      </c>
+      <c r="AW41">
+        <f>$AS41*AI17</f>
+        <v>46254.265272427081</v>
+      </c>
+      <c r="BH41" s="17">
+        <f t="shared" si="43"/>
+        <v>0.85545934313675254</v>
+      </c>
+      <c r="BI41">
+        <f>$BH41*AT17</f>
+        <v>34734.850830269781</v>
+      </c>
+      <c r="BJ41">
+        <f>$BH41*AU17</f>
+        <v>38097.366311107813</v>
+      </c>
+      <c r="BK41">
+        <f>$BH41*AV17</f>
+        <v>35738.144094014649</v>
+      </c>
+      <c r="BL41">
+        <f>$BH41*AW17</f>
+        <v>39568.643387223572</v>
+      </c>
+      <c r="BM41" s="23">
+        <f t="shared" si="38"/>
+        <v>30492</v>
+      </c>
+      <c r="BN41" s="9">
+        <f t="shared" si="44"/>
+        <v>4242.850830269781</v>
+      </c>
+    </row>
+    <row r="42" spans="1:66">
+      <c r="E42">
         <v>15</v>
       </c>
-      <c r="F41" s="19">
-        <f t="shared" si="18"/>
+      <c r="F42" s="19">
+        <f t="shared" si="35"/>
         <v>0.16626058228370844</v>
       </c>
-      <c r="G41" s="19">
-        <f t="shared" si="32"/>
+      <c r="G42" s="19">
+        <f t="shared" si="45"/>
         <v>7.6502168077637822E-2</v>
       </c>
-      <c r="H41" s="19">
-        <f t="shared" si="32"/>
+      <c r="H42" s="19">
+        <f t="shared" si="45"/>
         <v>2.725583316126368E-2</v>
       </c>
-      <c r="I41" s="19">
-        <f t="shared" si="32"/>
+      <c r="I42" s="19">
+        <f t="shared" si="45"/>
         <v>2.0782572785463554E-2</v>
       </c>
-      <c r="J41" s="19">
-        <f t="shared" si="32"/>
+      <c r="J42" s="19">
+        <f t="shared" si="45"/>
         <v>1.6116043774519927E-2</v>
       </c>
-      <c r="K41" s="19">
-        <f t="shared" si="32"/>
+      <c r="K42" s="19">
+        <f t="shared" si="45"/>
         <v>1.9306215155895107E-3</v>
       </c>
-      <c r="L41" s="19">
-        <f t="shared" si="32"/>
+      <c r="L42" s="19">
+        <f t="shared" si="45"/>
         <v>4.620070204418749E-2</v>
       </c>
-      <c r="M41" s="19">
-        <f t="shared" si="32"/>
+      <c r="M42" s="19">
+        <f t="shared" si="45"/>
         <v>0.13946933718769358</v>
       </c>
-      <c r="N41" s="19">
-        <f t="shared" si="32"/>
+      <c r="N42" s="19">
+        <f t="shared" si="45"/>
         <v>7.6502168077637822E-2</v>
       </c>
-      <c r="O41" s="19">
-        <f t="shared" si="32"/>
+      <c r="O42" s="19">
+        <f t="shared" si="45"/>
         <v>2.7049349576708653E-2</v>
       </c>
-      <c r="P41" s="19">
-        <f t="shared" si="32"/>
+      <c r="P42" s="19">
+        <f t="shared" si="45"/>
         <v>2.0782572785463554E-2</v>
       </c>
-      <c r="Q41" s="19">
-        <f t="shared" si="32"/>
+      <c r="Q42" s="19">
+        <f t="shared" si="45"/>
         <v>0.1004232913483378</v>
       </c>
-      <c r="R41" s="19">
-        <f t="shared" si="32"/>
+      <c r="R42" s="19">
+        <f t="shared" si="45"/>
         <v>7.6502168077637822E-2</v>
       </c>
-      <c r="S41" s="19">
-        <f t="shared" si="32"/>
+      <c r="S42" s="19">
+        <f t="shared" si="45"/>
         <v>2.6533140615321082E-2</v>
       </c>
-      <c r="T41" s="19">
-        <f t="shared" si="32"/>
+      <c r="T42" s="19">
+        <f t="shared" si="45"/>
         <v>2.0782572785463554E-2</v>
       </c>
-      <c r="U41" s="19">
-        <f t="shared" si="32"/>
+      <c r="U42" s="19">
+        <f t="shared" si="45"/>
         <v>1.7736939913276895E-2</v>
       </c>
-      <c r="V41" s="19">
-        <f t="shared" si="32"/>
+      <c r="V42" s="19">
+        <f t="shared" si="45"/>
         <v>3.8612430311790215E-3</v>
       </c>
-      <c r="W41" s="19">
-        <f t="shared" si="32"/>
+      <c r="W42" s="19">
+        <f t="shared" si="45"/>
         <v>4.620070204418749E-2</v>
       </c>
-      <c r="X41" s="19">
-        <f t="shared" si="32"/>
+      <c r="X42" s="19">
+        <f t="shared" si="45"/>
         <v>8.0136279165806318E-2</v>
       </c>
-      <c r="Y41" s="19">
-        <f t="shared" si="32"/>
+      <c r="Y42" s="19">
+        <f t="shared" si="45"/>
         <v>7.6502168077637822E-2</v>
       </c>
-      <c r="Z41" s="19">
-        <f t="shared" si="32"/>
+      <c r="Z42" s="19">
+        <f t="shared" si="45"/>
         <v>2.6316332851538303E-2</v>
       </c>
-      <c r="AA41" s="19">
-        <f t="shared" si="32"/>
+      <c r="AA42" s="19">
+        <f t="shared" si="45"/>
         <v>2.0782572785463554E-2</v>
       </c>
-      <c r="AB41" s="19">
-        <f t="shared" si="32"/>
+      <c r="AB42" s="19">
+        <f t="shared" si="45"/>
         <v>0.35504852364237044</v>
       </c>
-      <c r="AC41" s="19">
-        <f t="shared" si="32"/>
+      <c r="AC42" s="19">
+        <f t="shared" si="45"/>
         <v>0.29204005781540365</v>
       </c>
-      <c r="AD41" s="19">
-        <f t="shared" si="32"/>
+      <c r="AD42" s="19">
+        <f t="shared" si="45"/>
         <v>0.32805079496180056</v>
       </c>
-      <c r="AE41" s="19">
-        <f t="shared" si="32"/>
+      <c r="AE42" s="19">
+        <f t="shared" si="45"/>
         <v>0.27153623786908943</v>
       </c>
-      <c r="AF41" s="20">
-        <f t="shared" si="33"/>
+      <c r="AF42" s="20">
+        <f t="shared" si="46"/>
         <v>0.64495147635762962</v>
       </c>
-      <c r="AG41" s="20">
-        <f t="shared" si="33"/>
+      <c r="AG42" s="20">
+        <f t="shared" si="46"/>
         <v>0.70795994218459635</v>
       </c>
-      <c r="AH41" s="20">
-        <f t="shared" si="33"/>
+      <c r="AH42" s="20">
+        <f t="shared" si="46"/>
         <v>0.67194920503819944</v>
       </c>
-      <c r="AI41" s="20">
-        <f t="shared" si="33"/>
+      <c r="AI42" s="20">
+        <f t="shared" si="46"/>
         <v>0.72846376213091057</v>
       </c>
-      <c r="AJ41" s="24">
-        <f t="shared" si="25"/>
+      <c r="AJ42" s="24">
+        <f t="shared" si="40"/>
         <v>1.0976948935489035</v>
       </c>
-      <c r="AK41" s="24">
-        <f t="shared" si="26"/>
+      <c r="AK42" s="24">
+        <f t="shared" si="41"/>
         <v>1.0841054006299455</v>
       </c>
-      <c r="AS41" s="17">
-        <f t="shared" si="27"/>
+      <c r="AS42" s="17">
+        <f t="shared" si="42"/>
         <v>1.0660980810234542</v>
       </c>
-      <c r="AT41">
-        <f t="shared" si="28"/>
+      <c r="AT42">
+        <f>$AS42*AF18</f>
         <v>66599.147121535178</v>
       </c>
-      <c r="AU41">
-        <f t="shared" si="21"/>
+      <c r="AU42">
+        <f>$AS42*AG18</f>
         <v>73105.543710021317</v>
       </c>
-      <c r="AV41">
-        <f t="shared" si="21"/>
+      <c r="AV42">
+        <f>$AS42*AH18</f>
         <v>69386.993603411509</v>
       </c>
-      <c r="AW41">
-        <f t="shared" si="21"/>
+      <c r="AW42">
+        <f>$AS42*AI18</f>
         <v>75222.814498933905</v>
       </c>
-      <c r="BH41" s="17">
-        <f t="shared" si="29"/>
+      <c r="BH42" s="17">
+        <f t="shared" si="43"/>
         <v>0.91344786081628182</v>
       </c>
-      <c r="BI41">
-        <f t="shared" si="30"/>
+      <c r="BI42">
+        <f>$BH42*AT18</f>
         <v>60834.848470355144</v>
       </c>
-      <c r="BJ41">
-        <f t="shared" si="22"/>
+      <c r="BJ42">
+        <f>$BH42*AU18</f>
         <v>66778.102515730163</v>
       </c>
-      <c r="BK41">
-        <f t="shared" si="22"/>
+      <c r="BK42">
+        <f>$BH42*AV18</f>
         <v>63381.400875509287</v>
       </c>
-      <c r="BL41">
-        <f t="shared" si="22"/>
+      <c r="BL42">
+        <f>$BH42*AW18</f>
         <v>68712.118988631162</v>
       </c>
-      <c r="BM41" s="23">
-        <f t="shared" si="23"/>
+      <c r="BM42" s="23">
+        <f t="shared" si="38"/>
         <v>14868</v>
       </c>
-      <c r="BN41" s="9">
-        <f t="shared" si="31"/>
+      <c r="BN42" s="9">
+        <f t="shared" si="44"/>
         <v>45966.848470355144</v>
       </c>
     </row>
-    <row r="42" spans="1:66">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="E42">
+    <row r="43" spans="1:66">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="E43">
         <v>16</v>
       </c>
-      <c r="F42" s="19">
-        <f t="shared" si="18"/>
+      <c r="F43" s="19">
+        <f t="shared" si="35"/>
         <v>0.1785159577133123</v>
       </c>
-      <c r="G42" s="19">
-        <f t="shared" si="32"/>
+      <c r="G43" s="19">
+        <f t="shared" si="45"/>
         <v>7.6498488568231535E-2</v>
       </c>
-      <c r="H42" s="19">
-        <f t="shared" si="32"/>
+      <c r="H43" s="19">
+        <f t="shared" si="45"/>
         <v>7.7567346393439887E-2</v>
       </c>
-      <c r="I42" s="19">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="J42" s="19">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="K42" s="19">
-        <f t="shared" si="32"/>
+      <c r="I43" s="19">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="19">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="19">
+        <f t="shared" si="45"/>
         <v>1.7619453212418792E-3</v>
       </c>
-      <c r="L42" s="19">
-        <f t="shared" si="32"/>
+      <c r="L43" s="19">
+        <f t="shared" si="45"/>
         <v>2.2846836013828347E-2</v>
       </c>
-      <c r="M42" s="19">
-        <f t="shared" si="32"/>
+      <c r="M43" s="19">
+        <f t="shared" si="45"/>
         <v>0.15824106084139153</v>
       </c>
-      <c r="N42" s="19">
-        <f t="shared" si="32"/>
+      <c r="N43" s="19">
+        <f t="shared" si="45"/>
         <v>7.6498488568231535E-2</v>
       </c>
-      <c r="O42" s="19">
-        <f t="shared" si="32"/>
+      <c r="O43" s="19">
+        <f t="shared" si="45"/>
         <v>7.7492192327604917E-2</v>
       </c>
-      <c r="P42" s="19">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="Q42" s="19">
-        <f t="shared" si="32"/>
+      <c r="P43" s="19">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="19">
+        <f t="shared" si="45"/>
         <v>0.12497286103178182</v>
       </c>
-      <c r="R42" s="19">
-        <f t="shared" si="32"/>
+      <c r="R43" s="19">
+        <f t="shared" si="45"/>
         <v>7.6498488568231535E-2</v>
       </c>
-      <c r="S42" s="19">
-        <f t="shared" si="32"/>
+      <c r="S43" s="19">
+        <f t="shared" si="45"/>
         <v>7.3809643101691802E-2</v>
       </c>
-      <c r="T42" s="19">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="U42" s="19">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="V42" s="19">
-        <f t="shared" si="32"/>
+      <c r="T43" s="19">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="U43" s="19">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="V43" s="19">
+        <f t="shared" si="45"/>
         <v>3.5238906424837585E-3</v>
       </c>
-      <c r="W42" s="19">
-        <f t="shared" si="32"/>
+      <c r="W43" s="19">
+        <f t="shared" si="45"/>
         <v>2.2846836013828347E-2</v>
       </c>
-      <c r="X42" s="19">
-        <f t="shared" si="32"/>
+      <c r="X43" s="19">
+        <f t="shared" si="45"/>
         <v>9.8911101090568998E-2</v>
       </c>
-      <c r="Y42" s="19">
-        <f t="shared" si="32"/>
+      <c r="Y43" s="19">
+        <f t="shared" si="45"/>
         <v>7.6498488568231535E-2</v>
       </c>
-      <c r="Z42" s="19">
-        <f t="shared" si="32"/>
+      <c r="Z43" s="19">
+        <f t="shared" si="45"/>
         <v>7.3659334970021875E-2</v>
       </c>
-      <c r="AA42" s="19">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AB42" s="19">
-        <f t="shared" si="32"/>
+      <c r="AA43" s="19">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AB43" s="19">
+        <f t="shared" si="45"/>
         <v>0.35719057401005394</v>
       </c>
-      <c r="AC42" s="19">
-        <f t="shared" si="32"/>
+      <c r="AC43" s="19">
+        <f t="shared" si="45"/>
         <v>0.30165171935801727</v>
       </c>
-      <c r="AD42" s="19">
-        <f t="shared" si="32"/>
+      <c r="AD43" s="19">
+        <f t="shared" si="45"/>
         <v>0.33684052307229823</v>
       </c>
-      <c r="AE42" s="19">
-        <f t="shared" si="32"/>
+      <c r="AE43" s="19">
+        <f t="shared" si="45"/>
         <v>0.27543965128513453</v>
       </c>
-      <c r="AF42" s="20">
-        <f t="shared" si="33"/>
+      <c r="AF43" s="20">
+        <f t="shared" si="46"/>
         <v>0.64280942598994606</v>
       </c>
-      <c r="AG42" s="20">
-        <f t="shared" si="33"/>
+      <c r="AG43" s="20">
+        <f t="shared" si="46"/>
         <v>0.69834828064198273</v>
       </c>
-      <c r="AH42" s="20">
-        <f t="shared" si="33"/>
+      <c r="AH43" s="20">
+        <f t="shared" si="46"/>
         <v>0.66315947692770183</v>
       </c>
-      <c r="AI42" s="20">
-        <f t="shared" si="33"/>
+      <c r="AI43" s="20">
+        <f t="shared" si="46"/>
         <v>0.72456034871486552</v>
       </c>
-      <c r="AJ42" s="24">
-        <f t="shared" si="25"/>
+      <c r="AJ43" s="24">
+        <f t="shared" si="40"/>
         <v>1.0864001870640045</v>
       </c>
-      <c r="AK42" s="24">
-        <f t="shared" si="26"/>
+      <c r="AK43" s="24">
+        <f t="shared" si="41"/>
         <v>1.0925883952855848</v>
       </c>
-      <c r="AS42" s="17">
-        <f t="shared" si="27"/>
+      <c r="AS43" s="17">
+        <f t="shared" si="42"/>
         <v>0.89847259658580414</v>
       </c>
-      <c r="AT42">
-        <f t="shared" si="28"/>
+      <c r="AT43">
+        <f>$AS43*AF19</f>
         <v>69163.522012578615</v>
       </c>
-      <c r="AU42">
-        <f t="shared" si="21"/>
+      <c r="AU43">
+        <f>$AS43*AG19</f>
         <v>75139.263252470802</v>
       </c>
-      <c r="AV42">
-        <f t="shared" si="21"/>
+      <c r="AV43">
+        <f>$AS43*AH19</f>
         <v>71353.099730458227</v>
       </c>
-      <c r="AW42">
-        <f t="shared" si="21"/>
+      <c r="AW43">
+        <f>$AS43*AI19</f>
         <v>77959.568733153646</v>
       </c>
-      <c r="BH42" s="17">
-        <f t="shared" si="29"/>
+      <c r="BH43" s="17">
+        <f t="shared" si="43"/>
         <v>0.90307226308957156</v>
       </c>
-      <c r="BI42">
-        <f t="shared" si="30"/>
+      <c r="BI43">
+        <f>$BH43*AT19</f>
         <v>62459.658347144767</v>
       </c>
-      <c r="BJ42">
-        <f t="shared" si="22"/>
+      <c r="BJ43">
+        <f>$BH43*AU19</f>
         <v>67856.184512291889</v>
       </c>
-      <c r="BK42">
-        <f t="shared" si="22"/>
+      <c r="BK43">
+        <f>$BH43*AV19</f>
         <v>64437.005252040806</v>
       </c>
-      <c r="BL42">
-        <f t="shared" si="22"/>
+      <c r="BL43">
+        <f>$BH43*AW19</f>
         <v>70403.124165336063</v>
       </c>
-      <c r="BM42" s="23">
-        <f t="shared" si="23"/>
+      <c r="BM43" s="23">
+        <f t="shared" si="38"/>
         <v>21444</v>
       </c>
-      <c r="BN42" s="9">
-        <f t="shared" si="31"/>
+      <c r="BN43" s="9">
+        <f t="shared" si="44"/>
         <v>41015.658347144767</v>
       </c>
     </row>
-    <row r="43" spans="1:66">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="E43">
+    <row r="44" spans="1:66">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="E44">
         <v>17</v>
       </c>
-      <c r="F43" s="19">
-        <f t="shared" si="18"/>
+      <c r="F44" s="19">
+        <f t="shared" si="35"/>
         <v>0.165422314911366</v>
       </c>
-      <c r="G43" s="19">
-        <f t="shared" si="32"/>
+      <c r="G44" s="19">
+        <f t="shared" si="45"/>
         <v>7.6496350364963508E-2</v>
       </c>
-      <c r="H43" s="19">
-        <f t="shared" si="32"/>
+      <c r="H44" s="19">
+        <f t="shared" si="45"/>
         <v>2.9103232533889467E-2</v>
       </c>
-      <c r="I43" s="19">
-        <f t="shared" si="32"/>
+      <c r="I44" s="19">
+        <f t="shared" si="45"/>
         <v>9.4786235662148079E-3</v>
       </c>
-      <c r="J43" s="19">
-        <f t="shared" si="32"/>
+      <c r="J44" s="19">
+        <f t="shared" si="45"/>
         <v>1.6350364963503651E-2</v>
       </c>
-      <c r="K43" s="19">
-        <f t="shared" si="32"/>
+      <c r="K44" s="19">
+        <f t="shared" si="45"/>
         <v>2.5651720542231491E-3</v>
       </c>
-      <c r="L43" s="19">
-        <f t="shared" si="32"/>
+      <c r="L44" s="19">
+        <f t="shared" si="45"/>
         <v>5.4254431699687175E-2</v>
       </c>
-      <c r="M43" s="19">
-        <f t="shared" si="32"/>
+      <c r="M44" s="19">
+        <f t="shared" si="45"/>
         <v>0.1386652763295099</v>
       </c>
-      <c r="N43" s="19">
-        <f t="shared" si="32"/>
+      <c r="N44" s="19">
+        <f t="shared" si="45"/>
         <v>7.6496350364963508E-2</v>
       </c>
-      <c r="O43" s="19">
-        <f t="shared" si="32"/>
+      <c r="O44" s="19">
+        <f t="shared" si="45"/>
         <v>2.9103232533889467E-2</v>
       </c>
-      <c r="P43" s="19">
-        <f t="shared" si="32"/>
+      <c r="P44" s="19">
+        <f t="shared" si="45"/>
         <v>9.4786235662148079E-3</v>
       </c>
-      <c r="Q43" s="19">
-        <f t="shared" si="32"/>
+      <c r="Q44" s="19">
+        <f t="shared" si="45"/>
         <v>9.9927007299270079E-2</v>
       </c>
-      <c r="R43" s="19">
-        <f t="shared" si="32"/>
+      <c r="R44" s="19">
+        <f t="shared" si="45"/>
         <v>7.6496350364963508E-2</v>
       </c>
-      <c r="S43" s="19">
-        <f t="shared" si="32"/>
+      <c r="S44" s="19">
+        <f t="shared" si="45"/>
         <v>2.9103232533889467E-2</v>
       </c>
-      <c r="T43" s="19">
-        <f t="shared" si="32"/>
+      <c r="T44" s="19">
+        <f t="shared" si="45"/>
         <v>9.4786235662148079E-3</v>
       </c>
-      <c r="U43" s="19">
-        <f t="shared" si="32"/>
+      <c r="U44" s="19">
+        <f t="shared" si="45"/>
         <v>1.7956204379562045E-2</v>
       </c>
-      <c r="V43" s="19">
-        <f t="shared" si="32"/>
+      <c r="V44" s="19">
+        <f t="shared" si="45"/>
         <v>5.1407716371220024E-3</v>
       </c>
-      <c r="W43" s="19">
-        <f t="shared" si="32"/>
+      <c r="W44" s="19">
+        <f t="shared" si="45"/>
         <v>5.4254431699687175E-2</v>
       </c>
-      <c r="X43" s="19">
-        <f t="shared" si="32"/>
+      <c r="X44" s="19">
+        <f t="shared" si="45"/>
         <v>7.9739311783107406E-2</v>
       </c>
-      <c r="Y43" s="19">
-        <f t="shared" si="32"/>
+      <c r="Y44" s="19">
+        <f t="shared" si="45"/>
         <v>7.6496350364963508E-2</v>
       </c>
-      <c r="Z43" s="19">
-        <f t="shared" si="32"/>
+      <c r="Z44" s="19">
+        <f t="shared" si="45"/>
         <v>2.9103232533889467E-2</v>
       </c>
-      <c r="AA43" s="19">
-        <f t="shared" si="32"/>
+      <c r="AA44" s="19">
+        <f t="shared" si="45"/>
         <v>9.4786235662148079E-3</v>
       </c>
-      <c r="AB43" s="19">
-        <f t="shared" si="32"/>
+      <c r="AB44" s="19">
+        <f t="shared" si="45"/>
         <v>0.35367049009384777</v>
       </c>
-      <c r="AC43" s="19">
-        <f t="shared" si="32"/>
+      <c r="AC44" s="19">
+        <f t="shared" si="45"/>
         <v>0.29235662148070907</v>
       </c>
-      <c r="AD43" s="19">
-        <f t="shared" si="32"/>
+      <c r="AD44" s="19">
+        <f t="shared" si="45"/>
         <v>0.32691345151199164</v>
       </c>
-      <c r="AE43" s="19">
-        <f t="shared" si="32"/>
+      <c r="AE44" s="19">
+        <f t="shared" si="45"/>
         <v>0.27216892596454639</v>
       </c>
-      <c r="AF43" s="20">
-        <f t="shared" si="33"/>
+      <c r="AF44" s="20">
+        <f t="shared" si="46"/>
         <v>0.64632950990615223</v>
       </c>
-      <c r="AG43" s="20">
-        <f t="shared" si="33"/>
+      <c r="AG44" s="20">
+        <f t="shared" si="46"/>
         <v>0.70764337851929093</v>
       </c>
-      <c r="AH43" s="20">
-        <f t="shared" si="33"/>
+      <c r="AH44" s="20">
+        <f t="shared" si="46"/>
         <v>0.67308654848800831</v>
       </c>
-      <c r="AI43" s="20">
-        <f t="shared" si="33"/>
+      <c r="AI44" s="20">
+        <f t="shared" si="46"/>
         <v>0.72783107403545355</v>
       </c>
-      <c r="AJ43" s="24">
-        <f t="shared" si="25"/>
+      <c r="AJ44" s="24">
+        <f t="shared" si="40"/>
         <v>1.0948647209718794</v>
       </c>
-      <c r="AK43" s="24">
-        <f t="shared" si="26"/>
+      <c r="AK44" s="24">
+        <f t="shared" si="41"/>
         <v>1.0813335605508994</v>
       </c>
-      <c r="AS43" s="17">
-        <f t="shared" si="27"/>
+      <c r="AS44" s="17">
+        <f t="shared" si="42"/>
         <v>1.0928961748633881</v>
       </c>
-      <c r="AT43">
-        <f t="shared" si="28"/>
+      <c r="AT44">
+        <f>$AS44*AF20</f>
         <v>67740.983606557376</v>
       </c>
-      <c r="AU43">
-        <f t="shared" ref="AU43:AW46" si="34">$AS43*AG20</f>
+      <c r="AU44">
+        <f>$AS44*AG20</f>
         <v>74167.213114754108</v>
       </c>
-      <c r="AV43">
-        <f t="shared" si="34"/>
+      <c r="AV44">
+        <f>$AS44*AH20</f>
         <v>70545.355191256836</v>
       </c>
-      <c r="AW43">
-        <f t="shared" si="34"/>
+      <c r="AW44">
+        <f>$AS44*AI20</f>
         <v>76283.060109289625</v>
       </c>
-      <c r="BH43" s="17">
-        <f t="shared" si="29"/>
+      <c r="BH44" s="17">
+        <f t="shared" si="43"/>
         <v>0.91031023390218635</v>
       </c>
-      <c r="BI43">
-        <f t="shared" si="30"/>
+      <c r="BI44">
+        <f>$BH44*AT20</f>
         <v>61665.310631649416</v>
       </c>
-      <c r="BJ43">
-        <f t="shared" ref="BJ43:BL46" si="35">$BH43*AU20</f>
+      <c r="BJ44">
+        <f>$BH44*AU20</f>
         <v>67515.173118365099</v>
       </c>
-      <c r="BK43">
+      <c r="BK44">
+        <f>$BH44*AV20</f>
+        <v>64218.158784865816</v>
+      </c>
+      <c r="BL44">
+        <f>$BH44*AW20</f>
+        <v>69441.250290861964</v>
+      </c>
+      <c r="BM44" s="23">
+        <f t="shared" si="38"/>
+        <v>13116</v>
+      </c>
+      <c r="BN44" s="9">
+        <f t="shared" si="44"/>
+        <v>48549.310631649416</v>
+      </c>
+    </row>
+    <row r="45" spans="1:66">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="E45">
+        <v>18</v>
+      </c>
+      <c r="F45" s="19">
         <f t="shared" si="35"/>
-        <v>64218.158784865816</v>
-      </c>
-      <c r="BL43">
+        <v>0.1714885832373467</v>
+      </c>
+      <c r="G45" s="19">
+        <f t="shared" si="45"/>
+        <v>7.649569754048377E-2</v>
+      </c>
+      <c r="H45" s="19">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="19">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="19">
+        <f t="shared" si="45"/>
+        <v>2.0316901067629435E-2</v>
+      </c>
+      <c r="K45" s="19">
+        <f t="shared" si="45"/>
+        <v>1.6164471073340239E-3</v>
+      </c>
+      <c r="L45" s="19">
+        <f t="shared" si="45"/>
+        <v>4.5250839681356653E-2</v>
+      </c>
+      <c r="M45" s="19">
+        <f t="shared" si="45"/>
+        <v>0.14523825656016184</v>
+      </c>
+      <c r="N45" s="19">
+        <f t="shared" si="45"/>
+        <v>7.649569754048377E-2</v>
+      </c>
+      <c r="O45" s="19">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="P45" s="19">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="19">
+        <f t="shared" si="45"/>
+        <v>0.10507874130070756</v>
+      </c>
+      <c r="R45" s="19">
+        <f t="shared" si="45"/>
+        <v>7.649569754048377E-2</v>
+      </c>
+      <c r="S45" s="19">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="T45" s="19">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="U45" s="19">
+        <f t="shared" si="45"/>
+        <v>2.2233407218839835E-2</v>
+      </c>
+      <c r="V45" s="19">
+        <f t="shared" si="45"/>
+        <v>3.2328942146680477E-3</v>
+      </c>
+      <c r="W45" s="19">
+        <f t="shared" si="45"/>
+        <v>4.5250839681356653E-2</v>
+      </c>
+      <c r="X45" s="19">
+        <f t="shared" si="45"/>
+        <v>8.2632388953955457E-2</v>
+      </c>
+      <c r="Y45" s="19">
+        <f t="shared" si="45"/>
+        <v>7.649569754048377E-2</v>
+      </c>
+      <c r="Z45" s="19">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AA45" s="19">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AB45" s="19">
+        <f t="shared" si="45"/>
+        <v>0.3151684686341506</v>
+      </c>
+      <c r="AC45" s="19">
+        <f t="shared" si="45"/>
+        <v>0.25229157995605589</v>
+      </c>
+      <c r="AD45" s="19">
+        <f t="shared" si="45"/>
+        <v>0.28891814195696575</v>
+      </c>
+      <c r="AE45" s="19">
+        <f t="shared" si="45"/>
+        <v>0.22984522760930376</v>
+      </c>
+      <c r="AF45" s="20">
+        <f t="shared" si="46"/>
+        <v>0.6848315313658494</v>
+      </c>
+      <c r="AG45" s="20">
+        <f t="shared" si="46"/>
+        <v>0.74770842004394411</v>
+      </c>
+      <c r="AH45" s="20">
+        <f t="shared" si="46"/>
+        <v>0.71108185804303425</v>
+      </c>
+      <c r="AI45" s="20">
+        <f t="shared" si="46"/>
+        <v>0.77015477239069619</v>
+      </c>
+      <c r="AJ45" s="24">
+        <f t="shared" si="40"/>
+        <v>1.091813658977838</v>
+      </c>
+      <c r="AK45" s="24">
+        <f t="shared" si="41"/>
+        <v>1.0830747032560166</v>
+      </c>
+      <c r="AS45" s="17">
+        <f t="shared" si="42"/>
+        <v>1.0471204188481675</v>
+      </c>
+      <c r="AT45">
+        <f>$AS45*AF21</f>
+        <v>74085.863874345552</v>
+      </c>
+      <c r="AU45">
+        <f>$AS45*AG21</f>
+        <v>80887.958115183239</v>
+      </c>
+      <c r="AV45">
+        <f>$AS45*AH21</f>
+        <v>76925.654450261776</v>
+      </c>
+      <c r="AW45">
+        <f>$AS45*AI21</f>
+        <v>83316.230366492149</v>
+      </c>
+      <c r="BH45" s="17">
+        <f t="shared" si="43"/>
+        <v>0.90926914279490245</v>
+      </c>
+      <c r="BI45">
+        <f>$BH45*AT21</f>
+        <v>67363.989938246013</v>
+      </c>
+      <c r="BJ45">
+        <f>$BH45*AU21</f>
+        <v>73548.924337822638</v>
+      </c>
+      <c r="BK45">
+        <f>$BH45*AV21</f>
+        <v>69946.123880926403</v>
+      </c>
+      <c r="BL45">
+        <f>$BH45*AW21</f>
+        <v>75756.87736624293</v>
+      </c>
+      <c r="BM45" s="23">
+        <f t="shared" si="38"/>
+        <v>21180</v>
+      </c>
+      <c r="BN45" s="9">
+        <f t="shared" si="44"/>
+        <v>46183.989938246013</v>
+      </c>
+    </row>
+    <row r="46" spans="1:66">
+      <c r="E46">
+        <v>19</v>
+      </c>
+      <c r="F46" s="19">
         <f t="shared" si="35"/>
-        <v>69441.250290861964</v>
-      </c>
-      <c r="BM43" s="23">
-        <f t="shared" si="23"/>
-        <v>13116</v>
-      </c>
-      <c r="BN43" s="9">
-        <f t="shared" si="31"/>
-        <v>48549.310631649416</v>
-      </c>
-    </row>
-    <row r="44" spans="1:66">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="E44">
-        <v>18</v>
-      </c>
-      <c r="F44" s="19">
-        <f t="shared" si="18"/>
-        <v>0.1714885832373467</v>
-      </c>
-      <c r="G44" s="19">
-        <f t="shared" si="32"/>
-        <v>7.649569754048377E-2</v>
-      </c>
-      <c r="H44" s="19">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="19">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="J44" s="19">
-        <f t="shared" si="32"/>
-        <v>2.0316901067629435E-2</v>
-      </c>
-      <c r="K44" s="19">
-        <f t="shared" si="32"/>
-        <v>1.6164471073340239E-3</v>
-      </c>
-      <c r="L44" s="19">
-        <f t="shared" si="32"/>
-        <v>4.5250839681356653E-2</v>
-      </c>
-      <c r="M44" s="19">
-        <f t="shared" si="32"/>
-        <v>0.14523825656016184</v>
-      </c>
-      <c r="N44" s="19">
-        <f t="shared" si="32"/>
-        <v>7.649569754048377E-2</v>
-      </c>
-      <c r="O44" s="19">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="P44" s="19">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="Q44" s="19">
-        <f t="shared" si="32"/>
-        <v>0.10507874130070756</v>
-      </c>
-      <c r="R44" s="19">
-        <f t="shared" si="32"/>
-        <v>7.649569754048377E-2</v>
-      </c>
-      <c r="S44" s="19">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="T44" s="19">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="U44" s="19">
-        <f t="shared" si="32"/>
-        <v>2.2233407218839835E-2</v>
-      </c>
-      <c r="V44" s="19">
-        <f t="shared" si="32"/>
-        <v>3.2328942146680477E-3</v>
-      </c>
-      <c r="W44" s="19">
-        <f t="shared" si="32"/>
-        <v>4.5250839681356653E-2</v>
-      </c>
-      <c r="X44" s="19">
-        <f t="shared" si="32"/>
-        <v>8.2632388953955457E-2</v>
-      </c>
-      <c r="Y44" s="19">
-        <f t="shared" si="32"/>
-        <v>7.649569754048377E-2</v>
-      </c>
-      <c r="Z44" s="19">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AA44" s="19">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AB44" s="19">
-        <f t="shared" si="32"/>
-        <v>0.3151684686341506</v>
-      </c>
-      <c r="AC44" s="19">
-        <f t="shared" si="32"/>
-        <v>0.25229157995605589</v>
-      </c>
-      <c r="AD44" s="19">
-        <f t="shared" si="32"/>
-        <v>0.28891814195696575</v>
-      </c>
-      <c r="AE44" s="19">
-        <f t="shared" si="32"/>
-        <v>0.22984522760930376</v>
-      </c>
-      <c r="AF44" s="20">
-        <f t="shared" si="33"/>
-        <v>0.6848315313658494</v>
-      </c>
-      <c r="AG44" s="20">
-        <f t="shared" si="33"/>
-        <v>0.74770842004394411</v>
-      </c>
-      <c r="AH44" s="20">
-        <f t="shared" si="33"/>
-        <v>0.71108185804303425</v>
-      </c>
-      <c r="AI44" s="20">
-        <f t="shared" si="33"/>
-        <v>0.77015477239069619</v>
-      </c>
-      <c r="AJ44" s="24">
-        <f t="shared" si="25"/>
-        <v>1.091813658977838</v>
-      </c>
-      <c r="AK44" s="24">
-        <f t="shared" si="26"/>
-        <v>1.0830747032560166</v>
-      </c>
-      <c r="AS44" s="17">
-        <f t="shared" si="27"/>
-        <v>1.0471204188481675</v>
-      </c>
-      <c r="AT44">
-        <f t="shared" si="28"/>
-        <v>74085.863874345552</v>
-      </c>
-      <c r="AU44">
-        <f t="shared" si="34"/>
-        <v>80887.958115183239</v>
-      </c>
-      <c r="AV44">
-        <f t="shared" si="34"/>
-        <v>76925.654450261776</v>
-      </c>
-      <c r="AW44">
-        <f t="shared" si="34"/>
-        <v>83316.230366492149</v>
-      </c>
-      <c r="BH44" s="17">
-        <f t="shared" si="29"/>
-        <v>0.90926914279490245</v>
-      </c>
-      <c r="BI44">
-        <f t="shared" si="30"/>
-        <v>67363.989938246013</v>
-      </c>
-      <c r="BJ44">
+        <v>0.1703631704515331</v>
+      </c>
+      <c r="G46" s="19">
+        <f t="shared" si="45"/>
+        <v>7.6502410336465293E-2</v>
+      </c>
+      <c r="H46" s="19">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="19">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="J46" s="19">
+        <f t="shared" si="45"/>
+        <v>2.0333225334550776E-2</v>
+      </c>
+      <c r="K46" s="19">
+        <f t="shared" si="45"/>
+        <v>1.5512552403954718E-3</v>
+      </c>
+      <c r="L46" s="19">
+        <f t="shared" si="45"/>
+        <v>5.0671065162538165E-2</v>
+      </c>
+      <c r="M46" s="19">
+        <f t="shared" si="45"/>
+        <v>0.14387401451110915</v>
+      </c>
+      <c r="N46" s="19">
+        <f t="shared" si="45"/>
+        <v>7.6502410336465293E-2</v>
+      </c>
+      <c r="O46" s="19">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="P46" s="19">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="19">
+        <f t="shared" si="45"/>
+        <v>0.10300138434803098</v>
+      </c>
+      <c r="R46" s="19">
+        <f t="shared" si="45"/>
+        <v>7.6502410336465293E-2</v>
+      </c>
+      <c r="S46" s="19">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="T46" s="19">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="U46" s="19">
+        <f t="shared" si="45"/>
+        <v>2.2277203420615985E-2</v>
+      </c>
+      <c r="V46" s="19">
+        <f t="shared" si="45"/>
+        <v>3.0926924096492002E-3</v>
+      </c>
+      <c r="W46" s="19">
+        <f t="shared" si="45"/>
+        <v>5.0671065162538165E-2</v>
+      </c>
+      <c r="X46" s="19">
+        <f t="shared" si="45"/>
+        <v>8.2088892816117351E-2</v>
+      </c>
+      <c r="Y46" s="19">
+        <f t="shared" si="45"/>
+        <v>7.6502410336465293E-2</v>
+      </c>
+      <c r="Z46" s="19">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AA46" s="19">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AB46" s="19">
+        <f t="shared" si="45"/>
+        <v>0.31942112652548282</v>
+      </c>
+      <c r="AC46" s="19">
+        <f t="shared" si="45"/>
+        <v>0.25554475567729962</v>
+      </c>
+      <c r="AD46" s="19">
+        <f t="shared" si="45"/>
+        <v>0.29293197058505888</v>
+      </c>
+      <c r="AE46" s="19">
+        <f t="shared" si="45"/>
+        <v>0.23463226414538599</v>
+      </c>
+      <c r="AF46" s="20">
+        <f t="shared" si="46"/>
+        <v>0.68057887347451718</v>
+      </c>
+      <c r="AG46" s="20">
+        <f t="shared" si="46"/>
+        <v>0.74445524432270038</v>
+      </c>
+      <c r="AH46" s="20">
+        <f t="shared" si="46"/>
+        <v>0.70706802941494118</v>
+      </c>
+      <c r="AI46" s="20">
+        <f t="shared" si="46"/>
+        <v>0.76536773585461404</v>
+      </c>
+      <c r="AJ46" s="24">
+        <f t="shared" si="40"/>
+        <v>1.0938559413724953</v>
+      </c>
+      <c r="AK46" s="24">
+        <f t="shared" si="41"/>
+        <v>1.0824527542108113</v>
+      </c>
+      <c r="AS46" s="17">
+        <f t="shared" si="42"/>
+        <v>1.088139281828074</v>
+      </c>
+      <c r="AT46">
+        <f>$AS46*AF22</f>
+        <v>75428.726877040259</v>
+      </c>
+      <c r="AU46">
+        <f>$AS46*AG22</f>
+        <v>82508.161044613706</v>
+      </c>
+      <c r="AV46">
+        <f>$AS46*AH22</f>
+        <v>78364.526659412397</v>
+      </c>
+      <c r="AW46">
+        <f>$AS46*AI22</f>
+        <v>84825.897714907507</v>
+      </c>
+      <c r="BH46" s="17">
+        <f t="shared" si="43"/>
+        <v>0.90068511625397851</v>
+      </c>
+      <c r="BI46">
+        <f>$BH46*AT22</f>
+        <v>67937.531636136599</v>
+      </c>
+      <c r="BJ46">
+        <f>$BH46*AU22</f>
+        <v>74313.872622369876</v>
+      </c>
+      <c r="BK46">
+        <f>$BH46*AV22</f>
+        <v>70581.762804420854</v>
+      </c>
+      <c r="BL46">
+        <f>$BH46*AW22</f>
+        <v>76401.423544699559</v>
+      </c>
+      <c r="BM46" s="23">
+        <f t="shared" si="38"/>
+        <v>17880</v>
+      </c>
+      <c r="BN46" s="9">
+        <f t="shared" si="44"/>
+        <v>50057.531636136599</v>
+      </c>
+    </row>
+    <row r="47" spans="1:66">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="E47">
+        <v>20</v>
+      </c>
+      <c r="F47" s="19">
         <f t="shared" si="35"/>
-        <v>73548.924337822638</v>
-      </c>
-      <c r="BK44">
-        <f t="shared" si="35"/>
-        <v>69946.123880926403</v>
-      </c>
-      <c r="BL44">
-        <f t="shared" si="35"/>
-        <v>75756.87736624293</v>
-      </c>
-      <c r="BM44" s="23">
-        <f t="shared" si="23"/>
-        <v>21180</v>
-      </c>
-      <c r="BN44" s="9">
-        <f t="shared" si="31"/>
-        <v>46183.989938246013</v>
-      </c>
-    </row>
-    <row r="45" spans="1:66">
-      <c r="E45">
-        <v>19</v>
-      </c>
-      <c r="F45" s="19">
-        <f t="shared" si="18"/>
-        <v>0.1703631704515331</v>
-      </c>
-      <c r="G45" s="19">
-        <f t="shared" si="32"/>
-        <v>7.6502410336465293E-2</v>
-      </c>
-      <c r="H45" s="19">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="I45" s="19">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="J45" s="19">
-        <f t="shared" si="32"/>
-        <v>2.0333225334550776E-2</v>
-      </c>
-      <c r="K45" s="19">
-        <f t="shared" si="32"/>
-        <v>1.5512552403954718E-3</v>
-      </c>
-      <c r="L45" s="19">
-        <f t="shared" si="32"/>
-        <v>5.0671065162538165E-2</v>
-      </c>
-      <c r="M45" s="19">
-        <f t="shared" si="32"/>
-        <v>0.14387401451110915</v>
-      </c>
-      <c r="N45" s="19">
-        <f t="shared" si="32"/>
-        <v>7.6502410336465293E-2</v>
-      </c>
-      <c r="O45" s="19">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="P45" s="19">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="Q45" s="19">
-        <f t="shared" si="32"/>
-        <v>0.10300138434803098</v>
-      </c>
-      <c r="R45" s="19">
-        <f t="shared" si="32"/>
-        <v>7.6502410336465293E-2</v>
-      </c>
-      <c r="S45" s="19">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="T45" s="19">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="U45" s="19">
-        <f t="shared" si="32"/>
-        <v>2.2277203420615985E-2</v>
-      </c>
-      <c r="V45" s="19">
-        <f t="shared" si="32"/>
-        <v>3.0926924096492002E-3</v>
-      </c>
-      <c r="W45" s="19">
-        <f t="shared" si="32"/>
-        <v>5.0671065162538165E-2</v>
-      </c>
-      <c r="X45" s="19">
-        <f t="shared" si="32"/>
-        <v>8.2088892816117351E-2</v>
-      </c>
-      <c r="Y45" s="19">
-        <f t="shared" si="32"/>
-        <v>7.6502410336465293E-2</v>
-      </c>
-      <c r="Z45" s="19">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AA45" s="19">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AB45" s="19">
-        <f t="shared" si="32"/>
-        <v>0.31942112652548282</v>
-      </c>
-      <c r="AC45" s="19">
-        <f t="shared" si="32"/>
-        <v>0.25554475567729962</v>
-      </c>
-      <c r="AD45" s="19">
-        <f t="shared" si="32"/>
-        <v>0.29293197058505888</v>
-      </c>
-      <c r="AE45" s="19">
-        <f t="shared" si="32"/>
-        <v>0.23463226414538599</v>
-      </c>
-      <c r="AF45" s="20">
-        <f t="shared" si="33"/>
-        <v>0.68057887347451718</v>
-      </c>
-      <c r="AG45" s="20">
-        <f t="shared" si="33"/>
-        <v>0.74445524432270038</v>
-      </c>
-      <c r="AH45" s="20">
-        <f t="shared" si="33"/>
-        <v>0.70706802941494118</v>
-      </c>
-      <c r="AI45" s="20">
-        <f t="shared" si="33"/>
-        <v>0.76536773585461404</v>
-      </c>
-      <c r="AJ45" s="24">
-        <f t="shared" si="25"/>
-        <v>1.0938559413724953</v>
-      </c>
-      <c r="AK45" s="24">
-        <f t="shared" si="26"/>
-        <v>1.0824527542108113</v>
-      </c>
-      <c r="AS45" s="17">
-        <f t="shared" si="27"/>
-        <v>1.088139281828074</v>
-      </c>
-      <c r="AT45">
-        <f t="shared" si="28"/>
-        <v>75428.726877040259</v>
-      </c>
-      <c r="AU45">
-        <f t="shared" si="34"/>
-        <v>82508.161044613706</v>
-      </c>
-      <c r="AV45">
-        <f t="shared" si="34"/>
-        <v>78364.526659412397</v>
-      </c>
-      <c r="AW45">
-        <f t="shared" si="34"/>
-        <v>84825.897714907507</v>
-      </c>
-      <c r="BH45" s="17">
-        <f t="shared" si="29"/>
-        <v>0.90068511625397851</v>
-      </c>
-      <c r="BI45">
-        <f t="shared" si="30"/>
-        <v>67937.531636136599</v>
-      </c>
-      <c r="BJ45">
-        <f t="shared" si="35"/>
-        <v>74313.872622369876</v>
-      </c>
-      <c r="BK45">
-        <f t="shared" si="35"/>
-        <v>70581.762804420854</v>
-      </c>
-      <c r="BL45">
-        <f t="shared" si="35"/>
-        <v>76401.423544699559</v>
-      </c>
-      <c r="BM45" s="23">
-        <f t="shared" si="23"/>
-        <v>17880</v>
-      </c>
-      <c r="BN45" s="9">
-        <f t="shared" si="31"/>
-        <v>50057.531636136599</v>
-      </c>
-    </row>
-    <row r="46" spans="1:66">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="E46">
-        <v>20</v>
-      </c>
-      <c r="F46" s="19">
-        <f t="shared" si="18"/>
         <v>0.19358258588077368</v>
       </c>
-      <c r="G46" s="19">
-        <f t="shared" si="32"/>
+      <c r="G47" s="19">
+        <f t="shared" si="45"/>
         <v>7.4653731161144668E-2</v>
       </c>
-      <c r="H46" s="19">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="I46" s="19">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="J46" s="19">
-        <f t="shared" si="32"/>
+      <c r="H47" s="19">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="19">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="19">
+        <f t="shared" si="45"/>
         <v>2.3308316553786075E-2</v>
       </c>
-      <c r="K46" s="19">
-        <f t="shared" si="32"/>
+      <c r="K47" s="19">
+        <f t="shared" si="45"/>
         <v>1.7465983281469278E-3</v>
       </c>
-      <c r="L46" s="19">
-        <f t="shared" si="32"/>
+      <c r="L47" s="19">
+        <f t="shared" si="45"/>
         <v>1.8831228262859236E-2</v>
       </c>
-      <c r="M46" s="19">
-        <f t="shared" si="32"/>
+      <c r="M47" s="19">
+        <f t="shared" si="45"/>
         <v>0.16532430288608213</v>
       </c>
-      <c r="N46" s="19">
-        <f t="shared" si="32"/>
+      <c r="N47" s="19">
+        <f t="shared" si="45"/>
         <v>7.5218134114344984E-2</v>
       </c>
-      <c r="O46" s="19">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="P46" s="19">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="Q46" s="19">
-        <f t="shared" si="32"/>
+      <c r="O47" s="19">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="P47" s="19">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="19">
+        <f t="shared" si="45"/>
         <v>0.13580755384709256</v>
       </c>
-      <c r="R46" s="19">
-        <f t="shared" si="32"/>
+      <c r="R47" s="19">
+        <f t="shared" si="45"/>
         <v>7.4653731161144668E-2</v>
       </c>
-      <c r="S46" s="19">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="T46" s="19">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="U46" s="19">
-        <f t="shared" si="32"/>
+      <c r="S47" s="19">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="T47" s="19">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="U47" s="19">
+        <f t="shared" si="45"/>
         <v>2.5245591555311489E-2</v>
       </c>
-      <c r="V46" s="19">
-        <f t="shared" si="32"/>
+      <c r="V47" s="19">
+        <f t="shared" si="45"/>
         <v>3.5008237232289951E-3</v>
       </c>
-      <c r="W46" s="19">
-        <f t="shared" si="32"/>
+      <c r="W47" s="19">
+        <f t="shared" si="45"/>
         <v>1.8831228262859236E-2</v>
       </c>
-      <c r="X46" s="19">
-        <f t="shared" si="32"/>
+      <c r="X47" s="19">
+        <f t="shared" si="45"/>
         <v>0.10940264811763988</v>
       </c>
-      <c r="Y46" s="19">
-        <f t="shared" si="32"/>
+      <c r="Y47" s="19">
+        <f t="shared" si="45"/>
         <v>7.5218134114344984E-2</v>
       </c>
-      <c r="Z46" s="19">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AA46" s="19">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AB46" s="19">
-        <f t="shared" si="32"/>
+      <c r="Z47" s="19">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AA47" s="19">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AB47" s="19">
+        <f t="shared" si="45"/>
         <v>0.31212246018671058</v>
       </c>
-      <c r="AC46" s="19">
-        <f t="shared" si="32"/>
+      <c r="AC47" s="19">
+        <f t="shared" si="45"/>
         <v>0.25803892854963695</v>
       </c>
-      <c r="AD46" s="19">
-        <f t="shared" si="32"/>
+      <c r="AD47" s="19">
+        <f t="shared" si="45"/>
         <v>0.28442858014521938</v>
       </c>
-      <c r="AE46" s="19">
-        <f t="shared" si="32"/>
+      <c r="AE47" s="19">
+        <f t="shared" si="45"/>
         <v>0.23219842577338459</v>
       </c>
-      <c r="AF46" s="20">
-        <f t="shared" si="33"/>
+      <c r="AF47" s="20">
+        <f t="shared" si="46"/>
         <v>0.68787753981328936</v>
       </c>
-      <c r="AG46" s="20">
-        <f t="shared" si="33"/>
+      <c r="AG47" s="20">
+        <f t="shared" si="46"/>
         <v>0.74196107145036305</v>
       </c>
-      <c r="AH46" s="20">
-        <f t="shared" si="33"/>
+      <c r="AH47" s="20">
+        <f t="shared" si="46"/>
         <v>0.71557141985478068</v>
       </c>
-      <c r="AI46" s="20">
-        <f t="shared" si="33"/>
+      <c r="AI47" s="20">
+        <f t="shared" si="46"/>
         <v>0.76780157422661544</v>
       </c>
-      <c r="AJ46" s="24">
-        <f t="shared" si="25"/>
+      <c r="AJ47" s="24">
+        <f t="shared" si="40"/>
         <v>1.0786237789530875</v>
       </c>
-      <c r="AK46" s="24">
-        <f t="shared" si="26"/>
+      <c r="AK47" s="24">
+        <f t="shared" si="41"/>
         <v>1.0729908335109783</v>
       </c>
-      <c r="AS46" s="17">
-        <f t="shared" si="27"/>
+      <c r="AS47" s="17">
+        <f t="shared" si="42"/>
         <v>0.82372322899505768</v>
       </c>
-      <c r="AT46">
-        <f t="shared" si="28"/>
+      <c r="AT47">
+        <f>$AS47*AF23</f>
         <v>74290.774299835262</v>
       </c>
-      <c r="AU46">
-        <f t="shared" si="34"/>
+      <c r="AU47">
+        <f>$AS47*AG23</f>
         <v>80131.795716639215</v>
       </c>
-      <c r="AV46">
-        <f t="shared" si="34"/>
+      <c r="AV47">
+        <f>$AS47*AH23</f>
         <v>77281.713344316318</v>
       </c>
-      <c r="AW46">
-        <f t="shared" si="34"/>
+      <c r="AW47">
+        <f>$AS47*AI23</f>
         <v>82922.570016474463</v>
       </c>
-      <c r="BH46" s="17">
-        <f t="shared" si="29"/>
+      <c r="BH47" s="17">
+        <f t="shared" si="43"/>
         <v>0.89864901232574412</v>
       </c>
-      <c r="BI46">
-        <f t="shared" si="30"/>
+      <c r="BI47">
+        <f>$BH47*AT23</f>
         <v>66761.330949461713</v>
       </c>
-      <c r="BJ46">
-        <f t="shared" si="35"/>
+      <c r="BJ47">
+        <f>$BH47*AU23</f>
         <v>72010.359076646113</v>
       </c>
-      <c r="BK46">
-        <f t="shared" si="35"/>
+      <c r="BK47">
+        <f>$BH47*AV23</f>
         <v>69449.135367711133</v>
       </c>
-      <c r="BL46">
-        <f t="shared" si="35"/>
+      <c r="BL47">
+        <f>$BH47*AW23</f>
         <v>74518.285644817137</v>
       </c>
-      <c r="BM46" s="23">
-        <f t="shared" si="23"/>
+      <c r="BM47" s="23">
+        <f t="shared" si="38"/>
         <v>27780</v>
       </c>
-      <c r="BN46" s="9">
-        <f t="shared" si="31"/>
+      <c r="BN47" s="9">
+        <f t="shared" si="44"/>
         <v>38981.330949461713</v>
       </c>
-    </row>
-    <row r="47" spans="1:66">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="F47" s="18"/>
     </row>
     <row r="48" spans="1:66">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="F48" s="18"/>
     </row>
-    <row r="49" spans="6:6">
+    <row r="49" spans="1:6">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
       <c r="F49" s="18"/>
     </row>
-    <row r="50" spans="6:6">
+    <row r="50" spans="1:6">
       <c r="F50" s="18"/>
     </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-    </row>
-    <row r="72" spans="1:2" ht="23.25">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
+    <row r="51" spans="1:6">
+      <c r="F51" s="18"/>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+    </row>
+    <row r="73" spans="1:2" ht="23.25">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:CC23">
@@ -13026,8 +13298,8 @@
   <sortState ref="A2:A70">
     <sortCondition ref="A1"/>
   </sortState>
-  <conditionalFormatting sqref="C4:C25">
-    <cfRule type="colorScale" priority="55">
+  <conditionalFormatting sqref="C4:C26">
+    <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -13038,8 +13310,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D23">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="D4:D24">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -13050,8 +13322,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E23">
-    <cfRule type="colorScale" priority="52">
+  <conditionalFormatting sqref="E4:E24">
+    <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -13062,7 +13334,67 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ4:AJ25">
+  <conditionalFormatting sqref="AJ4:AJ26">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK4:AK24">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL4:AL24">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM4:AM26">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN4:AN26">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO4:AO24">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -13074,8 +13406,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK4:AK23">
-    <cfRule type="colorScale" priority="48">
+  <conditionalFormatting sqref="AP4:AP26">
+    <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -13086,55 +13418,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL4:AL23">
-    <cfRule type="colorScale" priority="47">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM4:AM25">
-    <cfRule type="colorScale" priority="46">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN4:AN25">
+  <conditionalFormatting sqref="AQ4:AQ24">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO4:AO23">
+  <conditionalFormatting sqref="AR4:AR24">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP4:AP25">
+  <conditionalFormatting sqref="AS4:AS23 AS25:AS26">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -13146,7 +13454,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ4:AQ23">
+  <conditionalFormatting sqref="AX4:AX23 AX25:AX26">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -13158,7 +13466,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR4:AR23">
+  <conditionalFormatting sqref="AY4:AY23 AY25:AY26">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -13170,7 +13478,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS4:AS25">
+  <conditionalFormatting sqref="AZ4:AZ23 AZ25:AZ26">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BA4:BA23 BA25:BA26">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -13182,7 +13502,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX4:AX25">
+  <conditionalFormatting sqref="BB4:BB23 BB25:BB26">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC4:BC23 BC25:BC26">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -13194,19 +13526,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY4:AY25">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AZ4:AZ25">
+  <conditionalFormatting sqref="BD4:BD23 BD25:BD26">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -13218,7 +13538,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA4:BA25">
+  <conditionalFormatting sqref="BE4:BE23 BE25:BE26">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -13230,7 +13550,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB4:BB25">
+  <conditionalFormatting sqref="BF4:BF23 BF25:BF26">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -13242,8 +13562,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC4:BC25">
-    <cfRule type="colorScale" priority="30">
+  <conditionalFormatting sqref="BG4:BG23">
+    <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -13254,19 +13574,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BD4:BD25">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BE4:BE25">
+  <conditionalFormatting sqref="BH4:BH26">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -13278,8 +13586,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF4:BF25">
-    <cfRule type="colorScale" priority="26">
+  <conditionalFormatting sqref="BR4:BR24">
+    <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -13290,43 +13598,67 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BG4:BG23">
+  <conditionalFormatting sqref="BS4:BS26">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BH4:BH25">
+  <conditionalFormatting sqref="BT4:BT26">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BU4:BU26">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BR4:BR23">
+  <conditionalFormatting sqref="BV4:BV26">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BW4:BW26">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BS4:BS25">
+  <conditionalFormatting sqref="BX4:BX26">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -13338,19 +13670,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BT4:BT25">
+  <conditionalFormatting sqref="BY4:BY26">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BU4:BU25">
+  <conditionalFormatting sqref="BZ4:BZ26">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -13362,7 +13694,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BV4:BV25">
+  <conditionalFormatting sqref="CA4:CA26">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -13374,7 +13706,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BW4:BW25">
+  <conditionalFormatting sqref="CB4:CB26">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -13386,7 +13718,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BX4:BX25">
+  <conditionalFormatting sqref="CC4:CC26">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -13398,20 +13730,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BY4:BY25">
+  <conditionalFormatting sqref="AF4:AI24">
     <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BZ4:BZ25">
-    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -13422,7 +13742,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CA4:CA25">
+  <conditionalFormatting sqref="AT4:AW24">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -13434,7 +13754,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CB4:CB25">
+  <conditionalFormatting sqref="BI4:BM24">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -13446,7 +13766,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CC4:CC25">
+  <conditionalFormatting sqref="BN4:BQ24">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -13458,55 +13778,67 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF4:AI23">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT4:AW23">
+  <conditionalFormatting sqref="AB4:AE24">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BI4:BM23">
+  <conditionalFormatting sqref="BS4:BS24">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BN4:BQ23">
+  <conditionalFormatting sqref="BT4:BT24">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB4:AE23">
+  <conditionalFormatting sqref="BU4:BU24">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BV4:BV24">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BW4:BW24">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -13518,8 +13850,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="CG5" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/hw8/MidtermProject_YaoQuaziLee_v19/hw8 data version 3.xlsx
+++ b/hw8/MidtermProject_YaoQuaziLee_v19/hw8 data version 3.xlsx
@@ -13,14 +13,14 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'city data'!$A$3:$CC$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'city data'!$A$3:$CG$23</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="420">
   <si>
     <t>https://www.datasciencecentral.com/profiles/blogs/the-10-best-cities-to-find-a-big-data-job</t>
   </si>
@@ -1397,6 +1397,9 @@
   </si>
   <si>
     <t>Miami</t>
+  </si>
+  <si>
+    <t>after rent</t>
   </si>
 </sst>
 </file>
@@ -3163,13 +3166,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CG74"/>
+  <dimension ref="A1:CK74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="BT4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="BO4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BN6" sqref="BN6"/>
+      <selection pane="bottomRight" activeCell="BU6" sqref="BU6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3207,23 +3210,23 @@
     <col min="60" max="60" width="20.28515625" customWidth="1"/>
     <col min="61" max="65" width="20.42578125" customWidth="1"/>
     <col min="66" max="66" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="67" max="69" width="16.85546875" customWidth="1"/>
-    <col min="70" max="70" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="14.5703125" customWidth="1"/>
-    <col min="73" max="73" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="12.28515625" customWidth="1"/>
-    <col min="81" max="81" width="15.140625" customWidth="1"/>
-    <col min="82" max="82" width="17.7109375" customWidth="1"/>
+    <col min="67" max="73" width="16.85546875" customWidth="1"/>
+    <col min="74" max="74" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="14.5703125" customWidth="1"/>
+    <col min="77" max="77" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="12.28515625" customWidth="1"/>
+    <col min="85" max="85" width="15.140625" customWidth="1"/>
+    <col min="86" max="86" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85">
+    <row r="1" spans="1:89">
       <c r="A1" s="4" t="s">
         <v>78</v>
       </c>
@@ -3355,7 +3358,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="2" spans="1:85">
+    <row r="2" spans="1:89">
       <c r="B2" t="s">
         <v>389</v>
       </c>
@@ -3548,35 +3551,27 @@
       <c r="BO2" s="4"/>
       <c r="BP2" s="4"/>
       <c r="BQ2" s="4"/>
-      <c r="BR2" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>388</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>388</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>388</v>
-      </c>
-      <c r="BV2" t="s">
+      <c r="BR2" s="4"/>
+      <c r="BS2" s="4"/>
+      <c r="BT2" s="4"/>
+      <c r="BU2" s="4"/>
+      <c r="BV2" s="7" t="s">
         <v>388</v>
       </c>
       <c r="BW2" t="s">
         <v>388</v>
       </c>
       <c r="BX2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="BY2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="BZ2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="CA2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="CB2" t="s">
         <v>386</v>
@@ -3584,8 +3579,20 @@
       <c r="CC2" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="3" spans="1:85">
+      <c r="CD2" t="s">
+        <v>386</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>386</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>386</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="3" spans="1:89">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -3791,47 +3798,59 @@
       <c r="BQ3" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="BR3" s="7" t="s">
+      <c r="BR3" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="BS3" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="BT3" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="BU3" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="BV3" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="BS3" t="s">
+      <c r="BW3" t="s">
         <v>380</v>
       </c>
-      <c r="BT3" t="s">
+      <c r="BX3" t="s">
         <v>379</v>
       </c>
-      <c r="BU3" t="s">
+      <c r="BY3" t="s">
         <v>378</v>
       </c>
-      <c r="BV3" t="s">
+      <c r="BZ3" t="s">
         <v>376</v>
       </c>
-      <c r="BW3" t="s">
+      <c r="CA3" t="s">
         <v>377</v>
       </c>
-      <c r="BX3" t="s">
+      <c r="CB3" t="s">
         <v>366</v>
       </c>
-      <c r="BY3" t="s">
+      <c r="CC3" t="s">
         <v>369</v>
       </c>
-      <c r="BZ3" t="s">
+      <c r="CD3" t="s">
         <v>370</v>
       </c>
-      <c r="CA3" t="s">
+      <c r="CE3" t="s">
         <v>371</v>
       </c>
-      <c r="CB3" t="s">
+      <c r="CF3" t="s">
         <v>367</v>
       </c>
-      <c r="CC3" t="s">
+      <c r="CG3" t="s">
         <v>368</v>
       </c>
-      <c r="CF3" t="s">
+      <c r="CJ3" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="4" spans="1:85">
+    <row r="4" spans="1:89">
       <c r="A4" s="7" t="s">
         <v>91</v>
       </c>
@@ -4057,51 +4076,67 @@
         <f>BL4-$BE4*12</f>
         <v>63438.450538420686</v>
       </c>
-      <c r="BR4" s="2">
+      <c r="BR4" s="14">
+        <f>BI4-12*$BF4</f>
+        <v>58946.992131533596</v>
+      </c>
+      <c r="BS4" s="14">
+        <f>BJ4-12*$BF4</f>
+        <v>66260.055518782014</v>
+      </c>
+      <c r="BT4" s="14">
+        <f>BK4-12*$BF4</f>
+        <v>61699.814453426807</v>
+      </c>
+      <c r="BU4" s="14">
+        <f>BL4-12*$BF4</f>
+        <v>68706.450538420686</v>
+      </c>
+      <c r="BV4" s="2">
         <v>128</v>
       </c>
-      <c r="BS4" s="2">
+      <c r="BW4" s="2">
         <v>142</v>
       </c>
-      <c r="BT4" s="2">
+      <c r="BX4" s="2">
         <v>137</v>
       </c>
-      <c r="BU4" s="2">
+      <c r="BY4" s="2">
         <v>79</v>
       </c>
-      <c r="BV4" s="2">
+      <c r="BZ4" s="2">
         <v>145</v>
       </c>
-      <c r="BW4" s="2">
+      <c r="CA4" s="2">
         <v>96</v>
       </c>
-      <c r="BX4">
+      <c r="CB4">
         <v>73.814300000000003</v>
       </c>
-      <c r="BY4">
+      <c r="CC4">
         <v>88.397099999999995</v>
       </c>
-      <c r="BZ4">
+      <c r="CD4">
         <v>23.2667</v>
       </c>
-      <c r="CA4">
+      <c r="CE4">
         <v>50</v>
       </c>
-      <c r="CB4">
+      <c r="CF4">
         <v>39.299999999999997</v>
       </c>
-      <c r="CC4">
+      <c r="CG4">
         <v>20</v>
       </c>
-      <c r="CD4" s="11"/>
-      <c r="CF4" t="s">
+      <c r="CH4" s="11"/>
+      <c r="CJ4" t="s">
         <v>110</v>
       </c>
-      <c r="CG4" t="s">
+      <c r="CK4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:85">
+    <row r="5" spans="1:89">
       <c r="A5" s="7" t="s">
         <v>84</v>
       </c>
@@ -4327,51 +4362,67 @@
         <f>BL5-$BE5*12</f>
         <v>58521.423544699559</v>
       </c>
-      <c r="BR5" s="2">
+      <c r="BR5" s="14">
+        <f>BI5-12*$BF5</f>
+        <v>57281.531636136599</v>
+      </c>
+      <c r="BS5" s="14">
+        <f>BJ5-12*$BF5</f>
+        <v>63657.87262236989</v>
+      </c>
+      <c r="BT5" s="14">
+        <f>BK5-12*$BF5</f>
+        <v>59925.762804420854</v>
+      </c>
+      <c r="BU5" s="14">
+        <f>BL5-12*$BF5</f>
+        <v>65745.423544699559</v>
+      </c>
+      <c r="BV5" s="2">
         <v>55</v>
       </c>
-      <c r="BS5" s="2">
+      <c r="BW5" s="2">
         <v>23</v>
       </c>
-      <c r="BT5" s="2">
+      <c r="BX5" s="2">
         <v>80</v>
       </c>
-      <c r="BU5" s="2">
+      <c r="BY5" s="2">
         <v>86</v>
       </c>
-      <c r="BV5" s="2">
+      <c r="BZ5" s="2">
         <v>62</v>
       </c>
-      <c r="BW5" s="2">
+      <c r="CA5" s="2">
         <v>73</v>
       </c>
-      <c r="BX5">
+      <c r="CB5">
         <v>53.691899999999997</v>
       </c>
-      <c r="BY5">
+      <c r="CC5">
         <v>94.914900000000003</v>
       </c>
-      <c r="BZ5">
+      <c r="CD5">
         <v>35.586100000000002</v>
       </c>
-      <c r="CA5">
+      <c r="CE5">
         <v>65</v>
       </c>
-      <c r="CB5">
+      <c r="CF5">
         <v>45.1</v>
       </c>
-      <c r="CC5">
+      <c r="CG5">
         <v>87</v>
       </c>
-      <c r="CD5" s="11"/>
-      <c r="CF5" t="s">
+      <c r="CH5" s="11"/>
+      <c r="CJ5" t="s">
         <v>290</v>
       </c>
-      <c r="CG5" s="25" t="s">
+      <c r="CK5" s="25" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="6" spans="1:85">
+    <row r="6" spans="1:89">
       <c r="A6" t="s">
         <v>92</v>
       </c>
@@ -4597,1125 +4648,1205 @@
         <f>BL6-$BE6*12</f>
         <v>57311.030948558735</v>
       </c>
-      <c r="BR6" s="2">
+      <c r="BR6" s="14">
+        <f>BI6-12*$BF6</f>
+        <v>55604.285202770479</v>
+      </c>
+      <c r="BS6" s="14">
+        <f>BJ6-12*$BF6</f>
+        <v>61413.669808427163</v>
+      </c>
+      <c r="BT6" s="14">
+        <f>BK6-12*$BF6</f>
+        <v>58147.060427690914</v>
+      </c>
+      <c r="BU6" s="14">
+        <f>BL6-12*$BF6</f>
+        <v>63335.030948558735</v>
+      </c>
+      <c r="BV6" s="2">
         <v>115</v>
       </c>
-      <c r="BS6" s="2">
+      <c r="BW6" s="2">
         <v>128</v>
       </c>
-      <c r="BT6" s="2">
+      <c r="BX6" s="2">
         <v>83</v>
       </c>
-      <c r="BU6" s="2">
+      <c r="BY6" s="2">
         <v>136</v>
       </c>
-      <c r="BV6" s="2">
+      <c r="BZ6" s="2">
         <v>107</v>
       </c>
-      <c r="BW6" s="2">
+      <c r="CA6" s="2">
         <v>101</v>
       </c>
-      <c r="BX6">
+      <c r="CB6">
         <v>67.52</v>
       </c>
-      <c r="BY6">
+      <c r="CC6">
         <v>90.781300000000002</v>
       </c>
-      <c r="BZ6">
+      <c r="CD6">
         <v>49.348100000000002</v>
       </c>
-      <c r="CA6">
+      <c r="CE6">
         <v>83</v>
       </c>
-      <c r="CB6">
+      <c r="CF6">
         <v>49.8</v>
       </c>
-      <c r="CC6">
+      <c r="CG6">
         <v>33</v>
       </c>
-      <c r="CD6" s="11"/>
-      <c r="CF6" t="s">
+      <c r="CH6" s="11"/>
+      <c r="CJ6" t="s">
         <v>293</v>
       </c>
-      <c r="CG6" t="s">
+      <c r="CK6" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="7" spans="1:85">
-      <c r="A7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" t="s">
-        <v>107</v>
+    <row r="7" spans="1:89">
+      <c r="A7" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="C7" s="6">
-        <v>95900</v>
+        <v>103313</v>
       </c>
       <c r="D7" s="2">
-        <v>128</v>
+        <v>342</v>
       </c>
       <c r="E7">
-        <v>7</v>
+        <v>8.25</v>
       </c>
       <c r="F7" s="9">
-        <v>15864</v>
+        <v>17717</v>
       </c>
       <c r="G7" s="9">
-        <v>7336</v>
+        <v>7903</v>
       </c>
       <c r="H7" s="9">
-        <v>2791</v>
+        <v>0</v>
       </c>
       <c r="I7" s="9">
-        <v>909</v>
+        <v>0</v>
       </c>
       <c r="J7" s="9">
-        <v>1568</v>
-      </c>
-      <c r="K7">
-        <v>246</v>
+        <v>2099</v>
+      </c>
+      <c r="K7" s="9">
+        <v>167</v>
       </c>
       <c r="L7" s="9">
-        <v>5203</v>
+        <v>4675</v>
       </c>
       <c r="M7" s="9">
-        <v>13298</v>
+        <v>15005</v>
       </c>
       <c r="N7" s="9">
-        <v>7336</v>
+        <v>7903</v>
       </c>
       <c r="O7" s="9">
-        <v>2791</v>
+        <v>0</v>
       </c>
       <c r="P7" s="9">
-        <v>909</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="9">
-        <v>9583</v>
+        <v>10856</v>
       </c>
       <c r="R7" s="9">
-        <v>7336</v>
+        <v>7903</v>
       </c>
       <c r="S7" s="9">
-        <v>2791</v>
+        <v>0</v>
       </c>
       <c r="T7" s="9">
-        <v>909</v>
+        <v>0</v>
       </c>
       <c r="U7" s="9">
-        <v>1722</v>
+        <v>2297</v>
       </c>
       <c r="V7" s="9">
-        <v>493</v>
+        <v>334</v>
       </c>
       <c r="W7" s="9">
-        <v>5203</v>
+        <v>4675</v>
       </c>
       <c r="X7" s="9">
-        <v>7647</v>
+        <v>8537</v>
       </c>
       <c r="Y7" s="9">
-        <v>7336</v>
+        <v>7903</v>
       </c>
       <c r="Z7" s="9">
-        <v>2791</v>
-      </c>
-      <c r="AA7">
-        <v>909</v>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="9">
+        <v>0</v>
       </c>
       <c r="AB7" s="9">
         <f>SUM(F7:L7)</f>
-        <v>33917</v>
+        <v>32561</v>
       </c>
       <c r="AC7" s="9">
         <f>SUM(Q7:W7)</f>
-        <v>28037</v>
+        <v>26065</v>
       </c>
       <c r="AD7" s="9">
         <f>SUM(J7:P7)</f>
-        <v>31351</v>
+        <v>29849</v>
       </c>
       <c r="AE7" s="9">
         <f>SUM(U7:AA7)</f>
-        <v>26101</v>
+        <v>23746</v>
       </c>
       <c r="AF7" s="16">
         <f>$C7-AB7</f>
-        <v>61983</v>
+        <v>70752</v>
       </c>
       <c r="AG7" s="16">
         <f>$C7-AC7</f>
-        <v>67863</v>
+        <v>77248</v>
       </c>
       <c r="AH7" s="16">
         <f>$C7-AD7</f>
-        <v>64549</v>
+        <v>73464</v>
       </c>
       <c r="AI7" s="16">
         <f>$C7-AE7</f>
-        <v>69799</v>
+        <v>79567</v>
       </c>
       <c r="AJ7" s="9">
-        <v>42450</v>
+        <v>60939</v>
       </c>
       <c r="AK7" s="10">
-        <v>303625</v>
+        <v>947890</v>
       </c>
       <c r="AL7" s="11">
-        <v>-7.0000000000000001E-3</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="AM7" s="11">
-        <v>8.5000000000000006E-3</v>
+        <v>3.0200000000000001E-2</v>
       </c>
       <c r="AN7" s="11">
-        <v>0.40699999999999997</v>
+        <v>0.47699999999999998</v>
       </c>
       <c r="AO7">
-        <v>114.97</v>
+        <v>140.01</v>
       </c>
       <c r="AP7" s="11">
-        <v>0.223</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="AQ7" s="13">
-        <v>7.06</v>
+        <v>3.72</v>
       </c>
       <c r="AR7" s="13">
-        <v>32.24</v>
+        <v>37.71</v>
       </c>
       <c r="AS7" s="6">
-        <v>91.5</v>
+        <v>95.5</v>
       </c>
       <c r="AT7" s="6">
         <f>AF7/$AS7*100</f>
-        <v>67740.983606557376</v>
+        <v>74085.863874345552</v>
       </c>
       <c r="AU7" s="6">
         <f>AG7/$AS7*100</f>
-        <v>74167.213114754093</v>
+        <v>80887.958115183239</v>
       </c>
       <c r="AV7" s="6">
         <f>AH7/$AS7*100</f>
-        <v>70545.355191256822</v>
+        <v>76925.654450261776</v>
       </c>
       <c r="AW7" s="6">
         <f>AI7/$AS7*100</f>
-        <v>76283.06010928961</v>
+        <v>83316.230366492135</v>
       </c>
       <c r="AX7" s="2">
-        <v>104.1</v>
+        <v>89.3</v>
       </c>
       <c r="AY7" s="2">
-        <v>74.400000000000006</v>
+        <v>85.1</v>
       </c>
       <c r="AZ7" s="2">
-        <v>97</v>
+        <v>110.7</v>
       </c>
       <c r="BA7" s="2">
-        <v>105.9</v>
+        <v>100.2</v>
       </c>
       <c r="BB7" s="2">
-        <v>90.1</v>
+        <v>100.3</v>
       </c>
       <c r="BC7" s="2">
-        <v>95.8</v>
+        <v>100.4</v>
       </c>
       <c r="BD7" s="9">
-        <v>100800</v>
+        <v>257800</v>
       </c>
       <c r="BE7" s="9">
-        <v>1093</v>
+        <v>1765</v>
       </c>
       <c r="BF7" s="9">
-        <v>844</v>
+        <v>1106</v>
       </c>
       <c r="BG7">
-        <v>2.81</v>
+        <v>2.2480000000000002</v>
       </c>
       <c r="BH7" s="4">
-        <v>47</v>
+        <v>47.6</v>
       </c>
       <c r="BI7" s="4">
         <f>AT7/(2087+$BH7/60*262.5)*2087</f>
-        <v>61665.310631649423</v>
+        <v>67363.989938246013</v>
       </c>
       <c r="BJ7" s="4">
         <f>AU7/(2087+$BH7/60*262.5)*2087</f>
-        <v>67515.173118365099</v>
+        <v>73548.924337822653</v>
       </c>
       <c r="BK7" s="4">
         <f>AV7/(2087+$BH7/60*262.5)*2087</f>
-        <v>64218.158784865809</v>
+        <v>69946.123880926403</v>
       </c>
       <c r="BL7" s="4">
         <f>AW7/(2087+$BH7/60*262.5)*2087</f>
-        <v>69441.250290861964</v>
+        <v>75756.87736624293</v>
       </c>
       <c r="BM7" s="4"/>
       <c r="BN7" s="14">
         <f>BI7-$BE7*12</f>
-        <v>48549.310631649423</v>
+        <v>46183.989938246013</v>
       </c>
       <c r="BO7" s="14">
         <f>BJ7-$BE7*12</f>
-        <v>54399.173118365099</v>
+        <v>52368.924337822653</v>
       </c>
       <c r="BP7" s="14">
         <f>BK7-$BE7*12</f>
-        <v>51102.158784865809</v>
+        <v>48766.123880926403</v>
       </c>
       <c r="BQ7" s="14">
         <f>BL7-$BE7*12</f>
-        <v>56325.250290861964</v>
-      </c>
-      <c r="BR7" s="2">
-        <v>62</v>
-      </c>
-      <c r="BS7" s="2">
-        <v>108</v>
-      </c>
-      <c r="BT7" s="2">
-        <v>62</v>
-      </c>
-      <c r="BU7" s="2">
-        <v>24</v>
+        <v>54576.87736624293</v>
+      </c>
+      <c r="BR7" s="14">
+        <f>BI7-12*$BF7</f>
+        <v>54091.989938246013</v>
+      </c>
+      <c r="BS7" s="14">
+        <f>BJ7-12*$BF7</f>
+        <v>60276.924337822653</v>
+      </c>
+      <c r="BT7" s="14">
+        <f>BK7-12*$BF7</f>
+        <v>56674.123880926403</v>
+      </c>
+      <c r="BU7" s="14">
+        <f>BL7-12*$BF7</f>
+        <v>62484.87736624293</v>
       </c>
       <c r="BV7" s="2">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="BW7" s="2">
+        <v>45</v>
+      </c>
+      <c r="BX7" s="2">
+        <v>100</v>
+      </c>
+      <c r="BY7" s="2">
+        <v>64</v>
+      </c>
+      <c r="BZ7" s="2">
+        <v>34</v>
+      </c>
+      <c r="CA7" s="2">
+        <v>60</v>
+      </c>
+      <c r="CB7">
+        <v>50.314300000000003</v>
+      </c>
+      <c r="CC7">
+        <v>95.0291</v>
+      </c>
+      <c r="CD7">
+        <v>38.447699999999998</v>
+      </c>
+      <c r="CE7">
+        <v>68</v>
+      </c>
+      <c r="CF7">
+        <v>57.8</v>
+      </c>
+      <c r="CG7">
         <v>80</v>
       </c>
-      <c r="BX7">
-        <v>80.290000000000006</v>
-      </c>
-      <c r="BY7">
-        <v>83.6511</v>
-      </c>
-      <c r="BZ7">
-        <v>21.533100000000001</v>
-      </c>
-      <c r="CA7">
-        <v>52</v>
-      </c>
-      <c r="CB7">
-        <v>39.200000000000003</v>
-      </c>
-      <c r="CC7">
-        <v>52</v>
-      </c>
-      <c r="CD7" s="11"/>
-    </row>
-    <row r="8" spans="1:85">
-      <c r="A8" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>108</v>
+      <c r="CH7" s="11"/>
+    </row>
+    <row r="8" spans="1:89">
+      <c r="A8" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" t="s">
+        <v>105</v>
       </c>
       <c r="C8" s="6">
-        <v>103313</v>
+        <v>96860</v>
       </c>
       <c r="D8" s="2">
-        <v>342</v>
+        <v>114</v>
       </c>
       <c r="E8">
-        <v>8.25</v>
+        <v>7</v>
       </c>
       <c r="F8" s="9">
-        <v>17717</v>
+        <v>16104</v>
       </c>
       <c r="G8" s="9">
-        <v>7903</v>
+        <v>7410</v>
       </c>
       <c r="H8" s="9">
-        <v>0</v>
+        <v>2640</v>
       </c>
       <c r="I8" s="9">
-        <v>0</v>
+        <v>2013</v>
       </c>
       <c r="J8" s="9">
-        <v>2099</v>
-      </c>
-      <c r="K8" s="9">
-        <v>167</v>
+        <v>1561</v>
+      </c>
+      <c r="K8">
+        <v>187</v>
       </c>
       <c r="L8" s="9">
-        <v>4675</v>
+        <v>4475</v>
       </c>
       <c r="M8" s="9">
-        <v>15005</v>
+        <v>13509</v>
       </c>
       <c r="N8" s="9">
-        <v>7903</v>
+        <v>7410</v>
       </c>
       <c r="O8" s="9">
-        <v>0</v>
+        <v>2620</v>
       </c>
       <c r="P8" s="9">
-        <v>0</v>
+        <v>2013</v>
       </c>
       <c r="Q8" s="9">
-        <v>10856</v>
+        <v>9727</v>
       </c>
       <c r="R8" s="9">
-        <v>7903</v>
+        <v>7410</v>
       </c>
       <c r="S8" s="9">
-        <v>0</v>
+        <v>2570</v>
       </c>
       <c r="T8" s="9">
-        <v>0</v>
+        <v>2013</v>
       </c>
       <c r="U8" s="9">
-        <v>2297</v>
-      </c>
-      <c r="V8" s="9">
-        <v>334</v>
+        <v>1718</v>
+      </c>
+      <c r="V8">
+        <v>374</v>
       </c>
       <c r="W8" s="9">
-        <v>4675</v>
+        <v>4475</v>
       </c>
       <c r="X8" s="9">
-        <v>8537</v>
+        <v>7762</v>
       </c>
       <c r="Y8" s="9">
-        <v>7903</v>
+        <v>7410</v>
       </c>
       <c r="Z8" s="9">
-        <v>0</v>
+        <v>2549</v>
       </c>
       <c r="AA8" s="9">
-        <v>0</v>
+        <v>2013</v>
       </c>
       <c r="AB8" s="9">
         <f>SUM(F8:L8)</f>
-        <v>32561</v>
+        <v>34390</v>
       </c>
       <c r="AC8" s="9">
         <f>SUM(Q8:W8)</f>
-        <v>26065</v>
+        <v>28287</v>
       </c>
       <c r="AD8" s="9">
         <f>SUM(J8:P8)</f>
-        <v>29849</v>
+        <v>31775</v>
       </c>
       <c r="AE8" s="9">
         <f>SUM(U8:AA8)</f>
-        <v>23746</v>
+        <v>26301</v>
       </c>
       <c r="AF8" s="16">
         <f>$C8-AB8</f>
-        <v>70752</v>
+        <v>62470</v>
       </c>
       <c r="AG8" s="16">
         <f>$C8-AC8</f>
-        <v>77248</v>
+        <v>68573</v>
       </c>
       <c r="AH8" s="16">
         <f>$C8-AD8</f>
-        <v>73464</v>
+        <v>65085</v>
       </c>
       <c r="AI8" s="16">
         <f>$C8-AE8</f>
-        <v>79567</v>
+        <v>70559</v>
       </c>
       <c r="AJ8" s="9">
-        <v>60939</v>
+        <v>34629</v>
       </c>
       <c r="AK8" s="10">
-        <v>947890</v>
+        <v>298800</v>
       </c>
       <c r="AL8" s="11">
-        <v>0.16900000000000001</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AM8" s="11">
-        <v>3.0200000000000001E-2</v>
+        <v>1.3100000000000001E-2</v>
       </c>
       <c r="AN8" s="11">
-        <v>0.47699999999999998</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="AO8">
-        <v>140.01</v>
+        <v>88.3</v>
       </c>
       <c r="AP8" s="11">
-        <v>0.16700000000000001</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="AQ8" s="13">
-        <v>3.72</v>
+        <v>9.25</v>
       </c>
       <c r="AR8" s="13">
-        <v>37.71</v>
+        <v>55.1</v>
       </c>
       <c r="AS8" s="6">
-        <v>95.5</v>
+        <v>93.8</v>
       </c>
       <c r="AT8" s="6">
         <f>AF8/$AS8*100</f>
-        <v>74085.863874345552</v>
+        <v>66599.147121535178</v>
       </c>
       <c r="AU8" s="6">
         <f>AG8/$AS8*100</f>
-        <v>80887.958115183239</v>
+        <v>73105.543710021317</v>
       </c>
       <c r="AV8" s="6">
         <f>AH8/$AS8*100</f>
-        <v>76925.654450261776</v>
+        <v>69386.993603411524</v>
       </c>
       <c r="AW8" s="6">
         <f>AI8/$AS8*100</f>
-        <v>83316.230366492135</v>
+        <v>75222.814498933905</v>
       </c>
       <c r="AX8" s="2">
-        <v>89.3</v>
+        <v>96.4</v>
       </c>
       <c r="AY8" s="2">
-        <v>85.1</v>
+        <v>81.900000000000006</v>
       </c>
       <c r="AZ8" s="2">
-        <v>110.7</v>
+        <v>103.8</v>
       </c>
       <c r="BA8" s="2">
-        <v>100.2</v>
+        <v>98</v>
       </c>
       <c r="BB8" s="2">
-        <v>100.3</v>
+        <v>95.8</v>
       </c>
       <c r="BC8" s="2">
-        <v>100.4</v>
+        <v>98.7</v>
       </c>
       <c r="BD8" s="9">
-        <v>257800</v>
+        <v>120300</v>
       </c>
       <c r="BE8" s="9">
-        <v>1765</v>
+        <v>1239</v>
       </c>
       <c r="BF8" s="9">
-        <v>1106</v>
+        <v>662</v>
       </c>
       <c r="BG8">
-        <v>2.2480000000000002</v>
+        <v>2.544</v>
       </c>
       <c r="BH8" s="4">
-        <v>47.6</v>
+        <v>45.2</v>
       </c>
       <c r="BI8" s="4">
         <f>AT8/(2087+$BH8/60*262.5)*2087</f>
-        <v>67363.989938246013</v>
+        <v>60834.848470355144</v>
       </c>
       <c r="BJ8" s="4">
         <f>AU8/(2087+$BH8/60*262.5)*2087</f>
-        <v>73548.924337822653</v>
+        <v>66778.102515730163</v>
       </c>
       <c r="BK8" s="4">
         <f>AV8/(2087+$BH8/60*262.5)*2087</f>
-        <v>69946.123880926403</v>
+        <v>63381.400875509287</v>
       </c>
       <c r="BL8" s="4">
         <f>AW8/(2087+$BH8/60*262.5)*2087</f>
-        <v>75756.87736624293</v>
+        <v>68712.118988631162</v>
       </c>
       <c r="BM8" s="4"/>
       <c r="BN8" s="14">
         <f>BI8-$BE8*12</f>
-        <v>46183.989938246013</v>
+        <v>45966.848470355144</v>
       </c>
       <c r="BO8" s="14">
         <f>BJ8-$BE8*12</f>
-        <v>52368.924337822653</v>
+        <v>51910.102515730163</v>
       </c>
       <c r="BP8" s="14">
         <f>BK8-$BE8*12</f>
-        <v>48766.123880926403</v>
+        <v>48513.400875509287</v>
       </c>
       <c r="BQ8" s="14">
         <f>BL8-$BE8*12</f>
-        <v>54576.87736624293</v>
-      </c>
-      <c r="BR8" s="2">
-        <v>46</v>
-      </c>
-      <c r="BS8" s="2">
-        <v>45</v>
-      </c>
-      <c r="BT8" s="2">
-        <v>100</v>
-      </c>
-      <c r="BU8" s="2">
-        <v>64</v>
+        <v>53844.118988631162</v>
+      </c>
+      <c r="BR8" s="14">
+        <f>BI8-12*$BF8</f>
+        <v>52890.848470355144</v>
+      </c>
+      <c r="BS8" s="14">
+        <f>BJ8-12*$BF8</f>
+        <v>58834.102515730163</v>
+      </c>
+      <c r="BT8" s="14">
+        <f>BK8-12*$BF8</f>
+        <v>55437.400875509287</v>
+      </c>
+      <c r="BU8" s="14">
+        <f>BL8-12*$BF8</f>
+        <v>60768.118988631162</v>
       </c>
       <c r="BV8" s="2">
-        <v>34</v>
+        <v>152</v>
       </c>
       <c r="BW8" s="2">
-        <v>60</v>
-      </c>
-      <c r="BX8">
-        <v>50.314300000000003</v>
-      </c>
-      <c r="BY8">
-        <v>95.0291</v>
-      </c>
-      <c r="BZ8">
-        <v>38.447699999999998</v>
-      </c>
-      <c r="CA8">
-        <v>68</v>
+        <v>156</v>
+      </c>
+      <c r="BX8" s="2">
+        <v>155</v>
+      </c>
+      <c r="BY8" s="2">
+        <v>80</v>
+      </c>
+      <c r="BZ8" s="2">
+        <v>119</v>
+      </c>
+      <c r="CA8" s="2">
+        <v>160</v>
       </c>
       <c r="CB8">
-        <v>57.8</v>
+        <v>81.587100000000007</v>
       </c>
       <c r="CC8">
-        <v>80</v>
-      </c>
-      <c r="CD8" s="11"/>
-      <c r="CF8" t="s">
+        <v>86.795900000000003</v>
+      </c>
+      <c r="CD8">
+        <v>23.5045</v>
+      </c>
+      <c r="CE8">
+        <v>50</v>
+      </c>
+      <c r="CF8">
+        <v>38.1</v>
+      </c>
+      <c r="CG8">
+        <v>28</v>
+      </c>
+      <c r="CH8" s="11"/>
+      <c r="CJ8" t="s">
         <v>295</v>
       </c>
-      <c r="CG8" t="s">
+      <c r="CK8" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="9" spans="1:85">
+    <row r="9" spans="1:89">
       <c r="A9" s="7" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C9" s="6">
-        <v>96860</v>
+        <v>131112</v>
       </c>
       <c r="D9" s="2">
-        <v>114</v>
+        <v>973</v>
       </c>
       <c r="E9">
-        <v>7</v>
+        <v>9.6</v>
       </c>
       <c r="F9" s="9">
-        <v>16104</v>
+        <v>25381</v>
       </c>
       <c r="G9" s="9">
-        <v>7410</v>
+        <v>9788</v>
       </c>
       <c r="H9" s="9">
-        <v>2640</v>
+        <v>0</v>
       </c>
       <c r="I9" s="9">
-        <v>2013</v>
+        <v>0</v>
       </c>
       <c r="J9" s="9">
-        <v>1561</v>
+        <v>3056</v>
       </c>
       <c r="K9">
-        <v>187</v>
+        <v>229</v>
       </c>
       <c r="L9" s="9">
-        <v>4475</v>
+        <v>2469</v>
       </c>
       <c r="M9" s="9">
-        <v>13509</v>
+        <v>21676</v>
       </c>
       <c r="N9" s="9">
-        <v>7410</v>
+        <v>9862</v>
       </c>
       <c r="O9" s="9">
-        <v>2620</v>
+        <v>0</v>
       </c>
       <c r="P9" s="9">
-        <v>2013</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="9">
-        <v>9727</v>
+        <v>17806</v>
       </c>
       <c r="R9" s="9">
-        <v>7410</v>
+        <v>9788</v>
       </c>
       <c r="S9" s="9">
-        <v>2570</v>
+        <v>0</v>
       </c>
       <c r="T9" s="9">
-        <v>2013</v>
+        <v>0</v>
       </c>
       <c r="U9" s="9">
-        <v>1718</v>
+        <v>3310</v>
       </c>
       <c r="V9">
-        <v>374</v>
+        <v>459</v>
       </c>
       <c r="W9" s="9">
-        <v>4475</v>
+        <v>2469</v>
       </c>
       <c r="X9" s="9">
-        <v>7762</v>
+        <v>14344</v>
       </c>
       <c r="Y9" s="9">
-        <v>7410</v>
+        <v>9862</v>
       </c>
       <c r="Z9" s="9">
-        <v>2549</v>
+        <v>0</v>
       </c>
       <c r="AA9" s="9">
-        <v>2013</v>
+        <v>0</v>
       </c>
       <c r="AB9" s="9">
         <f>SUM(F9:L9)</f>
-        <v>34390</v>
+        <v>40923</v>
       </c>
       <c r="AC9" s="9">
         <f>SUM(Q9:W9)</f>
-        <v>28287</v>
+        <v>33832</v>
       </c>
       <c r="AD9" s="9">
         <f>SUM(J9:P9)</f>
-        <v>31775</v>
+        <v>37292</v>
       </c>
       <c r="AE9" s="9">
         <f>SUM(U9:AA9)</f>
-        <v>26301</v>
+        <v>30444</v>
       </c>
       <c r="AF9" s="16">
         <f>$C9-AB9</f>
-        <v>62470</v>
+        <v>90189</v>
       </c>
       <c r="AG9" s="16">
         <f>$C9-AC9</f>
-        <v>68573</v>
+        <v>97280</v>
       </c>
       <c r="AH9" s="16">
         <f>$C9-AD9</f>
-        <v>65085</v>
+        <v>93820</v>
       </c>
       <c r="AI9" s="16">
         <f>$C9-AE9</f>
-        <v>70559</v>
+        <v>100668</v>
       </c>
       <c r="AJ9" s="9">
-        <v>34629</v>
+        <v>74458</v>
       </c>
       <c r="AK9" s="10">
-        <v>298800</v>
+        <v>704352</v>
       </c>
       <c r="AL9" s="11">
-        <v>6.0000000000000001E-3</v>
+        <v>0.157</v>
       </c>
       <c r="AM9" s="11">
-        <v>1.3100000000000001E-2</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="AN9" s="11">
-        <v>0.33800000000000002</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="AO9">
-        <v>88.3</v>
+        <v>141.69</v>
       </c>
       <c r="AP9" s="11">
-        <v>0.29899999999999999</v>
+        <v>0.13</v>
       </c>
       <c r="AQ9" s="13">
-        <v>9.25</v>
+        <v>5.98</v>
       </c>
       <c r="AR9" s="13">
-        <v>55.1</v>
+        <v>55.22</v>
       </c>
       <c r="AS9" s="6">
-        <v>93.8</v>
+        <v>121.4</v>
       </c>
       <c r="AT9" s="6">
         <f>AF9/$AS9*100</f>
-        <v>66599.147121535178</v>
+        <v>74290.774299835248</v>
       </c>
       <c r="AU9" s="6">
         <f>AG9/$AS9*100</f>
-        <v>73105.543710021317</v>
+        <v>80131.795716639201</v>
       </c>
       <c r="AV9" s="6">
         <f>AH9/$AS9*100</f>
-        <v>69386.993603411524</v>
+        <v>77281.713344316304</v>
       </c>
       <c r="AW9" s="6">
         <f>AI9/$AS9*100</f>
-        <v>75222.814498933905</v>
+        <v>82922.570016474463</v>
       </c>
       <c r="AX9" s="2">
-        <v>96.4</v>
+        <v>115.1</v>
       </c>
       <c r="AY9" s="2">
-        <v>81.900000000000006</v>
+        <v>140.30000000000001</v>
       </c>
       <c r="AZ9" s="2">
-        <v>103.8</v>
+        <v>85.7</v>
       </c>
       <c r="BA9" s="2">
-        <v>98</v>
+        <v>118.8</v>
       </c>
       <c r="BB9" s="2">
-        <v>95.8</v>
+        <v>119.9</v>
       </c>
       <c r="BC9" s="2">
-        <v>98.7</v>
+        <v>119.1</v>
       </c>
       <c r="BD9" s="9">
-        <v>120300</v>
+        <v>484600</v>
       </c>
       <c r="BE9" s="9">
-        <v>1239</v>
+        <v>2315</v>
       </c>
       <c r="BF9" s="9">
-        <v>662</v>
+        <v>1266</v>
       </c>
       <c r="BG9">
-        <v>2.544</v>
+        <v>3.1070000000000002</v>
       </c>
       <c r="BH9" s="4">
-        <v>45.2</v>
+        <v>53.8</v>
       </c>
       <c r="BI9" s="4">
         <f>AT9/(2087+$BH9/60*262.5)*2087</f>
-        <v>60834.848470355144</v>
+        <v>66761.330949461713</v>
       </c>
       <c r="BJ9" s="4">
         <f>AU9/(2087+$BH9/60*262.5)*2087</f>
-        <v>66778.102515730163</v>
+        <v>72010.359076646098</v>
       </c>
       <c r="BK9" s="4">
         <f>AV9/(2087+$BH9/60*262.5)*2087</f>
-        <v>63381.400875509287</v>
+        <v>69449.135367711133</v>
       </c>
       <c r="BL9" s="4">
         <f>AW9/(2087+$BH9/60*262.5)*2087</f>
-        <v>68712.118988631162</v>
+        <v>74518.285644817137</v>
       </c>
       <c r="BM9" s="4"/>
       <c r="BN9" s="14">
         <f>BI9-$BE9*12</f>
-        <v>45966.848470355144</v>
+        <v>38981.330949461713</v>
       </c>
       <c r="BO9" s="14">
         <f>BJ9-$BE9*12</f>
-        <v>51910.102515730163</v>
+        <v>44230.359076646098</v>
       </c>
       <c r="BP9" s="14">
         <f>BK9-$BE9*12</f>
-        <v>48513.400875509287</v>
+        <v>41669.135367711133</v>
       </c>
       <c r="BQ9" s="14">
         <f>BL9-$BE9*12</f>
-        <v>53844.118988631162</v>
-      </c>
-      <c r="BR9" s="2">
-        <v>152</v>
-      </c>
-      <c r="BS9" s="2">
-        <v>156</v>
-      </c>
-      <c r="BT9" s="2">
-        <v>155</v>
-      </c>
-      <c r="BU9" s="2">
-        <v>80</v>
+        <v>46738.285644817137</v>
+      </c>
+      <c r="BR9" s="14">
+        <f>BI9-12*$BF9</f>
+        <v>51569.330949461713</v>
+      </c>
+      <c r="BS9" s="14">
+        <f>BJ9-12*$BF9</f>
+        <v>56818.359076646098</v>
+      </c>
+      <c r="BT9" s="14">
+        <f>BK9-12*$BF9</f>
+        <v>54257.135367711133</v>
+      </c>
+      <c r="BU9" s="14">
+        <f>BL9-12*$BF9</f>
+        <v>59326.285644817137</v>
       </c>
       <c r="BV9" s="2">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="BW9" s="2">
-        <v>160</v>
-      </c>
-      <c r="BX9">
-        <v>81.587100000000007</v>
-      </c>
-      <c r="BY9">
-        <v>86.795900000000003</v>
-      </c>
-      <c r="BZ9">
-        <v>23.5045</v>
-      </c>
-      <c r="CA9">
-        <v>50</v>
+        <v>139</v>
+      </c>
+      <c r="BX9" s="2">
+        <v>118</v>
+      </c>
+      <c r="BY9" s="2">
+        <v>40</v>
+      </c>
+      <c r="BZ9" s="2">
+        <v>111</v>
+      </c>
+      <c r="CA9" s="2">
+        <v>65</v>
       </c>
       <c r="CB9">
-        <v>38.1</v>
+        <v>92.160700000000006</v>
       </c>
       <c r="CC9">
-        <v>28</v>
-      </c>
-      <c r="CD9" s="11"/>
-      <c r="CF9" t="s">
+        <v>74.761399999999995</v>
+      </c>
+      <c r="CD9">
+        <v>36.982399999999998</v>
+      </c>
+      <c r="CE9">
+        <v>79</v>
+      </c>
+      <c r="CF9">
+        <v>14.7</v>
+      </c>
+      <c r="CG9">
+        <v>60</v>
+      </c>
+      <c r="CH9" s="11"/>
+      <c r="CJ9" t="s">
         <v>297</v>
       </c>
-      <c r="CG9" t="s">
+      <c r="CK9" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="10" spans="1:85">
-      <c r="A10" s="7" t="s">
-        <v>90</v>
+    <row r="10" spans="1:89">
+      <c r="A10" t="s">
+        <v>88</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C10" s="6">
-        <v>97731</v>
+        <v>95900</v>
       </c>
       <c r="D10" s="2">
-        <v>355</v>
+        <v>128</v>
       </c>
       <c r="E10">
-        <v>6.75</v>
+        <v>7</v>
       </c>
       <c r="F10" s="9">
-        <v>16322</v>
+        <v>15864</v>
       </c>
       <c r="G10" s="9">
-        <v>7476</v>
+        <v>7336</v>
       </c>
       <c r="H10" s="9">
-        <v>4646</v>
+        <v>2791</v>
       </c>
       <c r="I10" s="9">
-        <v>0</v>
-      </c>
-      <c r="J10" s="10">
-        <v>1519</v>
+        <v>909</v>
+      </c>
+      <c r="J10" s="9">
+        <v>1568</v>
       </c>
       <c r="K10">
-        <v>275</v>
-      </c>
-      <c r="L10" s="10">
-        <v>2170</v>
+        <v>246</v>
+      </c>
+      <c r="L10" s="9">
+        <v>5203</v>
       </c>
       <c r="M10" s="9">
-        <v>13700</v>
+        <v>13298</v>
       </c>
       <c r="N10" s="9">
-        <v>7476</v>
+        <v>7336</v>
       </c>
       <c r="O10" s="9">
-        <v>4637</v>
+        <v>2791</v>
       </c>
       <c r="P10" s="9">
-        <v>0</v>
+        <v>909</v>
       </c>
       <c r="Q10" s="9">
-        <v>9857</v>
+        <v>9583</v>
       </c>
       <c r="R10" s="9">
-        <v>7476</v>
+        <v>7336</v>
       </c>
       <c r="S10" s="9">
-        <v>4192</v>
+        <v>2791</v>
       </c>
       <c r="T10" s="9">
-        <v>0</v>
+        <v>909</v>
       </c>
       <c r="U10" s="9">
-        <v>1682</v>
-      </c>
-      <c r="V10">
-        <v>551</v>
+        <v>1722</v>
+      </c>
+      <c r="V10" s="9">
+        <v>493</v>
       </c>
       <c r="W10" s="9">
-        <v>2170</v>
+        <v>5203</v>
       </c>
       <c r="X10" s="9">
-        <v>7867</v>
+        <v>7647</v>
       </c>
       <c r="Y10" s="9">
-        <v>7476</v>
+        <v>7336</v>
       </c>
       <c r="Z10" s="9">
-        <v>4174</v>
-      </c>
-      <c r="AA10" s="9">
-        <v>0</v>
+        <v>2791</v>
+      </c>
+      <c r="AA10">
+        <v>909</v>
       </c>
       <c r="AB10" s="9">
         <f>SUM(F10:L10)</f>
-        <v>32408</v>
+        <v>33917</v>
       </c>
       <c r="AC10" s="9">
         <f>SUM(Q10:W10)</f>
-        <v>25928</v>
+        <v>28037</v>
       </c>
       <c r="AD10" s="9">
         <f>SUM(J10:P10)</f>
-        <v>29777</v>
+        <v>31351</v>
       </c>
       <c r="AE10" s="9">
         <f>SUM(U10:AA10)</f>
-        <v>23920</v>
+        <v>26101</v>
       </c>
       <c r="AF10" s="16">
         <f>$C10-AB10</f>
-        <v>65323</v>
+        <v>61983</v>
       </c>
       <c r="AG10" s="16">
         <f>$C10-AC10</f>
-        <v>71803</v>
+        <v>67863</v>
       </c>
       <c r="AH10" s="16">
         <f>$C10-AD10</f>
-        <v>67954</v>
+        <v>64549</v>
       </c>
       <c r="AI10" s="16">
         <f>$C10-AE10</f>
-        <v>73811</v>
+        <v>69799</v>
       </c>
       <c r="AJ10" s="9">
-        <v>58641</v>
+        <v>42450</v>
       </c>
       <c r="AK10" s="10">
-        <v>458880</v>
+        <v>303625</v>
       </c>
       <c r="AL10" s="11">
-        <v>0.13600000000000001</v>
+        <v>-7.0000000000000001E-3</v>
       </c>
       <c r="AM10" s="11">
-        <v>3.4799999999999998E-2</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="AN10" s="11">
-        <v>0.49199999999999999</v>
+        <v>0.40699999999999997</v>
       </c>
       <c r="AO10">
-        <v>148.36000000000001</v>
+        <v>114.97</v>
       </c>
       <c r="AP10" s="11">
-        <v>0.14899999999999999</v>
+        <v>0.223</v>
       </c>
       <c r="AQ10" s="13">
-        <v>3.92</v>
+        <v>7.06</v>
       </c>
       <c r="AR10" s="13">
-        <v>30.63</v>
+        <v>32.24</v>
       </c>
       <c r="AS10" s="6">
-        <v>98.2</v>
+        <v>91.5</v>
       </c>
       <c r="AT10" s="6">
         <f>AF10/$AS10*100</f>
-        <v>66520.366598777997</v>
+        <v>67740.983606557376</v>
       </c>
       <c r="AU10" s="6">
         <f>AG10/$AS10*100</f>
-        <v>73119.144602851331</v>
+        <v>74167.213114754093</v>
       </c>
       <c r="AV10" s="6">
         <f>AH10/$AS10*100</f>
-        <v>69199.59266802443</v>
+        <v>70545.355191256822</v>
       </c>
       <c r="AW10" s="6">
         <f>AI10/$AS10*100</f>
-        <v>75163.951120162921</v>
+        <v>76283.06010928961</v>
       </c>
       <c r="AX10" s="2">
-        <v>104.2</v>
+        <v>104.1</v>
       </c>
       <c r="AY10" s="2">
-        <v>88.8</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="AZ10" s="2">
-        <v>105.6</v>
+        <v>97</v>
       </c>
       <c r="BA10" s="2">
-        <v>96.7</v>
+        <v>105.9</v>
       </c>
       <c r="BB10" s="2">
-        <v>101</v>
+        <v>90.1</v>
       </c>
       <c r="BC10" s="2">
-        <v>101.9</v>
+        <v>95.8</v>
       </c>
       <c r="BD10" s="9">
-        <v>218200</v>
+        <v>100800</v>
       </c>
       <c r="BE10" s="9">
-        <v>1432</v>
+        <v>1093</v>
       </c>
       <c r="BF10" s="9">
-        <v>966</v>
+        <v>844</v>
       </c>
       <c r="BG10">
-        <v>2.4329999999999998</v>
+        <v>2.81</v>
       </c>
       <c r="BH10" s="4">
-        <v>45.4</v>
+        <v>47</v>
       </c>
       <c r="BI10" s="4">
         <f>AT10/(2087+$BH10/60*262.5)*2087</f>
-        <v>60739.624869193191</v>
+        <v>61665.310631649423</v>
       </c>
       <c r="BJ10" s="4">
         <f>AU10/(2087+$BH10/60*262.5)*2087</f>
-        <v>66764.956975072782</v>
+        <v>67515.173118365099</v>
       </c>
       <c r="BK10" s="4">
         <f>AV10/(2087+$BH10/60*262.5)*2087</f>
-        <v>63186.02128440448</v>
+        <v>64218.158784865809</v>
       </c>
       <c r="BL10" s="4">
         <f>AW10/(2087+$BH10/60*262.5)*2087</f>
-        <v>68632.066059734221</v>
+        <v>69441.250290861964</v>
       </c>
       <c r="BM10" s="4"/>
       <c r="BN10" s="14">
         <f>BI10-$BE10*12</f>
-        <v>43555.624869193191</v>
+        <v>48549.310631649423</v>
       </c>
       <c r="BO10" s="14">
         <f>BJ10-$BE10*12</f>
-        <v>49580.956975072782</v>
+        <v>54399.173118365099</v>
       </c>
       <c r="BP10" s="14">
         <f>BK10-$BE10*12</f>
-        <v>46002.02128440448</v>
+        <v>51102.158784865809</v>
       </c>
       <c r="BQ10" s="14">
         <f>BL10-$BE10*12</f>
-        <v>51448.066059734221</v>
-      </c>
-      <c r="BR10" s="2">
-        <v>48</v>
-      </c>
-      <c r="BS10" s="2">
+        <v>56325.250290861964</v>
+      </c>
+      <c r="BR10" s="14">
+        <f>BI10-12*$BF10</f>
+        <v>51537.310631649423</v>
+      </c>
+      <c r="BS10" s="14">
+        <f>BJ10-12*$BF10</f>
+        <v>57387.173118365099</v>
+      </c>
+      <c r="BT10" s="14">
+        <f>BK10-12*$BF10</f>
+        <v>54090.158784865809</v>
+      </c>
+      <c r="BU10" s="14">
+        <f>BL10-12*$BF10</f>
+        <v>59313.250290861964</v>
+      </c>
+      <c r="BV10" s="2">
+        <v>62</v>
+      </c>
+      <c r="BW10" s="2">
+        <v>108</v>
+      </c>
+      <c r="BX10" s="2">
+        <v>62</v>
+      </c>
+      <c r="BY10" s="2">
+        <v>24</v>
+      </c>
+      <c r="BZ10" s="2">
         <v>81</v>
       </c>
-      <c r="BT10" s="2">
-        <v>66</v>
-      </c>
-      <c r="BU10" s="2">
-        <v>65</v>
-      </c>
-      <c r="BV10" s="2">
-        <v>37</v>
-      </c>
-      <c r="BW10" s="2">
-        <v>61</v>
-      </c>
-      <c r="BX10">
-        <v>74.28</v>
-      </c>
-      <c r="BY10">
-        <v>89.305099999999996</v>
-      </c>
-      <c r="BZ10">
-        <v>29.232600000000001</v>
-      </c>
-      <c r="CA10">
-        <v>63</v>
+      <c r="CA10" s="2">
+        <v>80</v>
       </c>
       <c r="CB10">
-        <v>50.1</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="CC10">
-        <v>90</v>
-      </c>
-      <c r="CD10" s="11"/>
-      <c r="CF10" t="s">
+        <v>83.6511</v>
+      </c>
+      <c r="CD10">
+        <v>21.533100000000001</v>
+      </c>
+      <c r="CE10">
+        <v>52</v>
+      </c>
+      <c r="CF10">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="CG10">
+        <v>52</v>
+      </c>
+      <c r="CH10" s="11"/>
+      <c r="CJ10" t="s">
         <v>333</v>
       </c>
-      <c r="CG10" t="s">
+      <c r="CK10" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="11" spans="1:85">
+    <row r="11" spans="1:89">
       <c r="A11" s="7" t="s">
         <v>89</v>
       </c>
@@ -5941,51 +6072,67 @@
         <f>BL11-$BE11*12</f>
         <v>48959.124165336078</v>
       </c>
-      <c r="BR11" s="2">
+      <c r="BR11" s="14">
+        <f>BI11-12*$BF11</f>
+        <v>50159.658347144767</v>
+      </c>
+      <c r="BS11" s="14">
+        <f>BJ11-12*$BF11</f>
+        <v>55556.184512291889</v>
+      </c>
+      <c r="BT11" s="14">
+        <f>BK11-12*$BF11</f>
+        <v>52137.005252040814</v>
+      </c>
+      <c r="BU11" s="14">
+        <f>BL11-12*$BF11</f>
+        <v>58103.124165336078</v>
+      </c>
+      <c r="BV11" s="2">
         <v>75</v>
       </c>
-      <c r="BS11" s="2">
+      <c r="BW11" s="2">
         <v>136</v>
       </c>
-      <c r="BT11" s="2">
+      <c r="BX11" s="2">
         <v>90</v>
       </c>
-      <c r="BU11" s="2">
+      <c r="BY11" s="2">
         <v>78</v>
       </c>
-      <c r="BV11" s="2">
+      <c r="BZ11" s="2">
         <v>72</v>
       </c>
-      <c r="BW11" s="2">
+      <c r="CA11" s="2">
         <v>79</v>
       </c>
-      <c r="BX11">
+      <c r="CB11">
         <v>99.548599999999993</v>
       </c>
-      <c r="BY11">
+      <c r="CC11">
         <v>79.789699999999996</v>
       </c>
-      <c r="BZ11">
+      <c r="CD11">
         <v>35.076599999999999</v>
       </c>
-      <c r="CA11">
+      <c r="CE11">
         <v>79</v>
       </c>
-      <c r="CB11">
+      <c r="CF11">
         <v>20.6</v>
       </c>
-      <c r="CC11">
+      <c r="CG11">
         <v>52</v>
       </c>
-      <c r="CD11" s="11"/>
-      <c r="CF11" t="s">
+      <c r="CH11" s="11"/>
+      <c r="CJ11" t="s">
         <v>342</v>
       </c>
-      <c r="CG11" t="s">
+      <c r="CK11" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="12" spans="1:85">
+    <row r="12" spans="1:89">
       <c r="A12" s="7" t="s">
         <v>81</v>
       </c>
@@ -6211,591 +6358,639 @@
         <f>BL12-$BE12*12</f>
         <v>48803.255108008234</v>
       </c>
-      <c r="BR12" s="2">
+      <c r="BR12" s="14">
+        <f>BI12-12*$BF12</f>
+        <v>49782.894322857333</v>
+      </c>
+      <c r="BS12" s="14">
+        <f>BJ12-12*$BF12</f>
+        <v>55811.720789203391</v>
+      </c>
+      <c r="BT12" s="14">
+        <f>BK12-12*$BF12</f>
+        <v>52315.435642601566</v>
+      </c>
+      <c r="BU12" s="14">
+        <f>BL12-12*$BF12</f>
+        <v>57755.255108008234</v>
+      </c>
+      <c r="BV12" s="2">
         <v>83</v>
       </c>
-      <c r="BS12" s="2">
+      <c r="BW12" s="2">
         <v>92</v>
       </c>
-      <c r="BT12" s="2">
+      <c r="BX12" s="2">
         <v>68</v>
       </c>
-      <c r="BU12" s="2">
+      <c r="BY12" s="2">
         <v>150</v>
       </c>
-      <c r="BV12" s="2">
+      <c r="BZ12" s="2">
         <v>129</v>
       </c>
-      <c r="BW12" s="2">
+      <c r="CA12" s="2">
         <v>58</v>
       </c>
-      <c r="BX12">
+      <c r="CB12">
         <v>78.2607</v>
       </c>
-      <c r="BY12">
+      <c r="CC12">
         <v>88.761200000000002</v>
       </c>
-      <c r="BZ12">
+      <c r="CD12">
         <v>31.843599999999999</v>
       </c>
-      <c r="CA12">
+      <c r="CE12">
         <v>66</v>
       </c>
-      <c r="CB12">
+      <c r="CF12">
         <v>31.8</v>
       </c>
-      <c r="CC12">
+      <c r="CG12">
         <v>48</v>
       </c>
-      <c r="CD12" s="11"/>
-      <c r="CF12" t="s">
+      <c r="CH12" s="11"/>
+      <c r="CJ12" t="s">
         <v>346</v>
       </c>
-      <c r="CG12" t="s">
+      <c r="CK12" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="13" spans="1:85">
+    <row r="13" spans="1:89">
       <c r="A13" s="7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C13" s="6">
-        <v>100221</v>
+        <v>97731</v>
       </c>
       <c r="D13" s="2">
-        <v>298</v>
+        <v>355</v>
       </c>
       <c r="E13">
-        <v>7.65</v>
+        <v>6.75</v>
       </c>
       <c r="F13" s="9">
-        <v>16944</v>
+        <v>16322</v>
       </c>
       <c r="G13" s="9">
-        <v>7667</v>
+        <v>7476</v>
       </c>
       <c r="H13" s="9">
-        <v>4409</v>
+        <v>4646</v>
       </c>
       <c r="I13" s="9">
         <v>0</v>
       </c>
       <c r="J13" s="10">
-        <v>1854</v>
+        <v>1519</v>
       </c>
       <c r="K13">
-        <v>165</v>
+        <v>275</v>
       </c>
       <c r="L13" s="10">
-        <v>1603</v>
+        <v>2170</v>
       </c>
       <c r="M13" s="9">
-        <v>14263</v>
+        <v>13700</v>
       </c>
       <c r="N13" s="9">
-        <v>7667</v>
+        <v>7476</v>
       </c>
       <c r="O13" s="9">
-        <v>4409</v>
+        <v>4637</v>
       </c>
       <c r="P13" s="9">
         <v>0</v>
       </c>
       <c r="Q13" s="9">
-        <v>10231</v>
+        <v>9857</v>
       </c>
       <c r="R13" s="9">
-        <v>7667</v>
+        <v>7476</v>
       </c>
       <c r="S13" s="9">
-        <v>4409</v>
+        <v>4192</v>
       </c>
       <c r="T13" s="9">
         <v>0</v>
       </c>
       <c r="U13" s="9">
-        <v>2042</v>
+        <v>1682</v>
       </c>
       <c r="V13">
-        <v>329</v>
+        <v>551</v>
       </c>
       <c r="W13" s="9">
-        <v>1603</v>
+        <v>2170</v>
       </c>
       <c r="X13" s="9">
-        <v>8166</v>
+        <v>7867</v>
       </c>
       <c r="Y13" s="9">
-        <v>7667</v>
+        <v>7476</v>
       </c>
       <c r="Z13" s="9">
-        <v>4409</v>
+        <v>4174</v>
       </c>
       <c r="AA13" s="9">
         <v>0</v>
       </c>
       <c r="AB13" s="9">
         <f>SUM(F13:L13)</f>
-        <v>32642</v>
+        <v>32408</v>
       </c>
       <c r="AC13" s="9">
         <f>SUM(Q13:W13)</f>
-        <v>26281</v>
+        <v>25928</v>
       </c>
       <c r="AD13" s="9">
         <f>SUM(J13:P13)</f>
-        <v>29961</v>
+        <v>29777</v>
       </c>
       <c r="AE13" s="9">
         <f>SUM(U13:AA13)</f>
-        <v>24216</v>
+        <v>23920</v>
       </c>
       <c r="AF13" s="16">
         <f>$C13-AB13</f>
-        <v>67579</v>
+        <v>65323</v>
       </c>
       <c r="AG13" s="16">
         <f>$C13-AC13</f>
-        <v>73940</v>
+        <v>71803</v>
       </c>
       <c r="AH13" s="16">
         <f>$C13-AD13</f>
-        <v>70260</v>
+        <v>67954</v>
       </c>
       <c r="AI13" s="16">
         <f>$C13-AE13</f>
-        <v>76005</v>
+        <v>73811</v>
       </c>
       <c r="AJ13" s="9">
-        <v>56258</v>
+        <v>58641</v>
       </c>
       <c r="AK13" s="10">
-        <v>693060</v>
+        <v>458880</v>
       </c>
       <c r="AL13" s="11">
-        <v>0.155</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="AM13" s="11">
-        <v>1.84E-2</v>
+        <v>3.4799999999999998E-2</v>
       </c>
       <c r="AN13" s="11">
-        <v>0.45700000000000002</v>
+        <v>0.49199999999999999</v>
       </c>
       <c r="AO13">
-        <v>146.69999999999999</v>
+        <v>148.36000000000001</v>
       </c>
       <c r="AP13" s="11">
-        <v>0.16400000000000001</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="AQ13" s="13">
-        <v>6.73</v>
+        <v>3.92</v>
       </c>
       <c r="AR13" s="13">
-        <v>35.29</v>
+        <v>30.63</v>
       </c>
       <c r="AS13" s="6">
-        <v>103.2</v>
+        <v>98.2</v>
       </c>
       <c r="AT13" s="6">
         <f>AF13/$AS13*100</f>
-        <v>65483.527131782947</v>
+        <v>66520.366598777997</v>
       </c>
       <c r="AU13" s="6">
         <f>AG13/$AS13*100</f>
-        <v>71647.28682170542</v>
+        <v>73119.144602851331</v>
       </c>
       <c r="AV13" s="6">
         <f>AH13/$AS13*100</f>
-        <v>68081.395348837206</v>
+        <v>69199.59266802443</v>
       </c>
       <c r="AW13" s="6">
         <f>AI13/$AS13*100</f>
-        <v>73648.255813953481</v>
+        <v>75163.951120162921</v>
       </c>
       <c r="AX13" s="2">
+        <v>104.2</v>
+      </c>
+      <c r="AY13" s="2">
+        <v>88.8</v>
+      </c>
+      <c r="AZ13" s="2">
+        <v>105.6</v>
+      </c>
+      <c r="BA13" s="2">
+        <v>96.7</v>
+      </c>
+      <c r="BB13" s="2">
         <v>101</v>
       </c>
-      <c r="AY13" s="2">
-        <v>107.5</v>
-      </c>
-      <c r="AZ13" s="2">
+      <c r="BC13" s="2">
         <v>101.9</v>
       </c>
-      <c r="BA13" s="2">
-        <v>95.4</v>
-      </c>
-      <c r="BB13" s="2">
-        <v>105.9</v>
-      </c>
-      <c r="BC13" s="2">
-        <v>102.7</v>
-      </c>
       <c r="BD13" s="9">
-        <v>292700</v>
+        <v>218200</v>
       </c>
       <c r="BE13" s="9">
-        <v>1583</v>
+        <v>1432</v>
       </c>
       <c r="BF13" s="9">
-        <v>1035</v>
+        <v>966</v>
       </c>
       <c r="BG13">
-        <v>2.3239999999999998</v>
+        <v>2.4329999999999998</v>
       </c>
       <c r="BH13" s="4">
-        <v>50.2</v>
+        <v>45.4</v>
       </c>
       <c r="BI13" s="4">
         <f>AT13/(2087+$BH13/60*262.5)*2087</f>
-        <v>59248.52159498445</v>
+        <v>60739.624869193191</v>
       </c>
       <c r="BJ13" s="4">
         <f>AU13/(2087+$BH13/60*262.5)*2087</f>
-        <v>64825.399706020362</v>
+        <v>66764.956975072782</v>
       </c>
       <c r="BK13" s="4">
         <f>AV13/(2087+$BH13/60*262.5)*2087</f>
-        <v>61599.034126927108</v>
+        <v>63186.02128440448</v>
       </c>
       <c r="BL13" s="4">
         <f>AW13/(2087+$BH13/60*262.5)*2087</f>
-        <v>66635.846695375672</v>
+        <v>68632.066059734221</v>
       </c>
       <c r="BM13" s="4"/>
       <c r="BN13" s="14">
         <f>BI13-$BE13*12</f>
-        <v>40252.52159498445</v>
+        <v>43555.624869193191</v>
       </c>
       <c r="BO13" s="14">
         <f>BJ13-$BE13*12</f>
-        <v>45829.399706020362</v>
+        <v>49580.956975072782</v>
       </c>
       <c r="BP13" s="14">
         <f>BK13-$BE13*12</f>
-        <v>42603.034126927108</v>
+        <v>46002.02128440448</v>
       </c>
       <c r="BQ13" s="14">
         <f>BL13-$BE13*12</f>
-        <v>47639.846695375672</v>
-      </c>
-      <c r="BR13" s="2">
-        <v>57</v>
-      </c>
-      <c r="BS13" s="2">
-        <v>114</v>
-      </c>
-      <c r="BT13" s="2">
-        <v>148</v>
-      </c>
-      <c r="BU13" s="2">
+        <v>51448.066059734221</v>
+      </c>
+      <c r="BR13" s="14">
+        <f>BI13-12*$BF13</f>
+        <v>49147.624869193191</v>
+      </c>
+      <c r="BS13" s="14">
+        <f>BJ13-12*$BF13</f>
+        <v>55172.956975072782</v>
+      </c>
+      <c r="BT13" s="14">
+        <f>BK13-12*$BF13</f>
+        <v>51594.02128440448</v>
+      </c>
+      <c r="BU13" s="14">
+        <f>BL13-12*$BF13</f>
+        <v>57040.066059734221</v>
+      </c>
+      <c r="BV13" s="2">
+        <v>48</v>
+      </c>
+      <c r="BW13" s="2">
+        <v>81</v>
+      </c>
+      <c r="BX13" s="2">
+        <v>66</v>
+      </c>
+      <c r="BY13" s="2">
+        <v>65</v>
+      </c>
+      <c r="BZ13" s="2">
+        <v>37</v>
+      </c>
+      <c r="CA13" s="2">
+        <v>61</v>
+      </c>
+      <c r="CB13">
+        <v>74.28</v>
+      </c>
+      <c r="CC13">
+        <v>89.305099999999996</v>
+      </c>
+      <c r="CD13">
+        <v>29.232600000000001</v>
+      </c>
+      <c r="CE13">
+        <v>63</v>
+      </c>
+      <c r="CF13">
+        <v>50.1</v>
+      </c>
+      <c r="CG13">
+        <v>90</v>
+      </c>
+      <c r="CH13" s="11"/>
+      <c r="CJ13" t="s">
+        <v>349</v>
+      </c>
+      <c r="CK13" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="14" spans="1:89">
+      <c r="A14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" t="s">
         <v>96</v>
       </c>
-      <c r="BV13" s="2">
-        <v>55</v>
-      </c>
-      <c r="BW13" s="2">
-        <v>24</v>
-      </c>
-      <c r="BX13">
-        <v>39.941699999999997</v>
-      </c>
-      <c r="BY13">
-        <v>88.310900000000004</v>
-      </c>
-      <c r="BZ13">
-        <v>18.580200000000001</v>
-      </c>
-      <c r="CA13">
-        <v>72</v>
-      </c>
-      <c r="CB13">
-        <v>30.8</v>
-      </c>
-      <c r="CC13">
-        <v>88</v>
-      </c>
-      <c r="CD13" s="11"/>
-      <c r="CF13" t="s">
-        <v>349</v>
-      </c>
-      <c r="CG13" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="14" spans="1:85">
-      <c r="A14" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" t="s">
-        <v>109</v>
-      </c>
       <c r="C14" s="6">
-        <v>131112</v>
+        <v>100221</v>
       </c>
       <c r="D14" s="2">
-        <v>973</v>
+        <v>298</v>
       </c>
       <c r="E14">
-        <v>9.6</v>
+        <v>7.65</v>
       </c>
       <c r="F14" s="9">
-        <v>25381</v>
+        <v>16944</v>
       </c>
       <c r="G14" s="9">
-        <v>9788</v>
+        <v>7667</v>
       </c>
       <c r="H14" s="9">
-        <v>0</v>
+        <v>4409</v>
       </c>
       <c r="I14" s="9">
         <v>0</v>
       </c>
-      <c r="J14" s="9">
-        <v>3056</v>
+      <c r="J14" s="10">
+        <v>1854</v>
       </c>
       <c r="K14">
-        <v>229</v>
-      </c>
-      <c r="L14" s="9">
-        <v>2469</v>
+        <v>165</v>
+      </c>
+      <c r="L14" s="10">
+        <v>1603</v>
       </c>
       <c r="M14" s="9">
-        <v>21676</v>
+        <v>14263</v>
       </c>
       <c r="N14" s="9">
-        <v>9862</v>
+        <v>7667</v>
       </c>
       <c r="O14" s="9">
-        <v>0</v>
+        <v>4409</v>
       </c>
       <c r="P14" s="9">
         <v>0</v>
       </c>
       <c r="Q14" s="9">
-        <v>17806</v>
+        <v>10231</v>
       </c>
       <c r="R14" s="9">
-        <v>9788</v>
+        <v>7667</v>
       </c>
       <c r="S14" s="9">
-        <v>0</v>
+        <v>4409</v>
       </c>
       <c r="T14" s="9">
         <v>0</v>
       </c>
       <c r="U14" s="9">
-        <v>3310</v>
+        <v>2042</v>
       </c>
       <c r="V14">
-        <v>459</v>
+        <v>329</v>
       </c>
       <c r="W14" s="9">
-        <v>2469</v>
+        <v>1603</v>
       </c>
       <c r="X14" s="9">
-        <v>14344</v>
+        <v>8166</v>
       </c>
       <c r="Y14" s="9">
-        <v>9862</v>
+        <v>7667</v>
       </c>
       <c r="Z14" s="9">
-        <v>0</v>
+        <v>4409</v>
       </c>
       <c r="AA14" s="9">
         <v>0</v>
       </c>
       <c r="AB14" s="9">
         <f>SUM(F14:L14)</f>
-        <v>40923</v>
+        <v>32642</v>
       </c>
       <c r="AC14" s="9">
         <f>SUM(Q14:W14)</f>
-        <v>33832</v>
+        <v>26281</v>
       </c>
       <c r="AD14" s="9">
         <f>SUM(J14:P14)</f>
-        <v>37292</v>
+        <v>29961</v>
       </c>
       <c r="AE14" s="9">
         <f>SUM(U14:AA14)</f>
-        <v>30444</v>
+        <v>24216</v>
       </c>
       <c r="AF14" s="16">
         <f>$C14-AB14</f>
-        <v>90189</v>
+        <v>67579</v>
       </c>
       <c r="AG14" s="16">
         <f>$C14-AC14</f>
-        <v>97280</v>
+        <v>73940</v>
       </c>
       <c r="AH14" s="16">
         <f>$C14-AD14</f>
-        <v>93820</v>
+        <v>70260</v>
       </c>
       <c r="AI14" s="16">
         <f>$C14-AE14</f>
-        <v>100668</v>
+        <v>76005</v>
       </c>
       <c r="AJ14" s="9">
-        <v>74458</v>
+        <v>56258</v>
       </c>
       <c r="AK14" s="10">
-        <v>704352</v>
+        <v>693060</v>
       </c>
       <c r="AL14" s="11">
-        <v>0.157</v>
+        <v>0.155</v>
       </c>
       <c r="AM14" s="11">
-        <v>1.6899999999999998E-2</v>
+        <v>1.84E-2</v>
       </c>
       <c r="AN14" s="11">
-        <v>0.60399999999999998</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="AO14">
-        <v>141.69</v>
+        <v>146.69999999999999</v>
       </c>
       <c r="AP14" s="11">
-        <v>0.13</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="AQ14" s="13">
-        <v>5.98</v>
+        <v>6.73</v>
       </c>
       <c r="AR14" s="13">
-        <v>55.22</v>
+        <v>35.29</v>
       </c>
       <c r="AS14" s="6">
-        <v>121.4</v>
+        <v>103.2</v>
       </c>
       <c r="AT14" s="6">
         <f>AF14/$AS14*100</f>
-        <v>74290.774299835248</v>
+        <v>65483.527131782947</v>
       </c>
       <c r="AU14" s="6">
         <f>AG14/$AS14*100</f>
-        <v>80131.795716639201</v>
+        <v>71647.28682170542</v>
       </c>
       <c r="AV14" s="6">
         <f>AH14/$AS14*100</f>
-        <v>77281.713344316304</v>
+        <v>68081.395348837206</v>
       </c>
       <c r="AW14" s="6">
         <f>AI14/$AS14*100</f>
-        <v>82922.570016474463</v>
+        <v>73648.255813953481</v>
       </c>
       <c r="AX14" s="2">
-        <v>115.1</v>
+        <v>101</v>
       </c>
       <c r="AY14" s="2">
-        <v>140.30000000000001</v>
+        <v>107.5</v>
       </c>
       <c r="AZ14" s="2">
-        <v>85.7</v>
+        <v>101.9</v>
       </c>
       <c r="BA14" s="2">
-        <v>118.8</v>
+        <v>95.4</v>
       </c>
       <c r="BB14" s="2">
-        <v>119.9</v>
+        <v>105.9</v>
       </c>
       <c r="BC14" s="2">
-        <v>119.1</v>
+        <v>102.7</v>
       </c>
       <c r="BD14" s="9">
-        <v>484600</v>
+        <v>292700</v>
       </c>
       <c r="BE14" s="9">
-        <v>2315</v>
+        <v>1583</v>
       </c>
       <c r="BF14" s="9">
-        <v>1266</v>
+        <v>1035</v>
       </c>
       <c r="BG14">
-        <v>3.1070000000000002</v>
+        <v>2.3239999999999998</v>
       </c>
       <c r="BH14" s="4">
-        <v>53.8</v>
+        <v>50.2</v>
       </c>
       <c r="BI14" s="4">
         <f>AT14/(2087+$BH14/60*262.5)*2087</f>
-        <v>66761.330949461713</v>
+        <v>59248.52159498445</v>
       </c>
       <c r="BJ14" s="4">
         <f>AU14/(2087+$BH14/60*262.5)*2087</f>
-        <v>72010.359076646098</v>
+        <v>64825.399706020362</v>
       </c>
       <c r="BK14" s="4">
         <f>AV14/(2087+$BH14/60*262.5)*2087</f>
-        <v>69449.135367711133</v>
+        <v>61599.034126927108</v>
       </c>
       <c r="BL14" s="4">
         <f>AW14/(2087+$BH14/60*262.5)*2087</f>
-        <v>74518.285644817137</v>
+        <v>66635.846695375672</v>
       </c>
       <c r="BM14" s="4"/>
       <c r="BN14" s="14">
         <f>BI14-$BE14*12</f>
-        <v>38981.330949461713</v>
+        <v>40252.52159498445</v>
       </c>
       <c r="BO14" s="14">
         <f>BJ14-$BE14*12</f>
-        <v>44230.359076646098</v>
+        <v>45829.399706020362</v>
       </c>
       <c r="BP14" s="14">
         <f>BK14-$BE14*12</f>
-        <v>41669.135367711133</v>
+        <v>42603.034126927108</v>
       </c>
       <c r="BQ14" s="14">
         <f>BL14-$BE14*12</f>
-        <v>46738.285644817137</v>
-      </c>
-      <c r="BR14" s="2">
-        <v>78</v>
-      </c>
-      <c r="BS14" s="2">
-        <v>139</v>
-      </c>
-      <c r="BT14" s="2">
-        <v>118</v>
-      </c>
-      <c r="BU14" s="2">
-        <v>40</v>
+        <v>47639.846695375672</v>
+      </c>
+      <c r="BR14" s="14">
+        <f>BI14-12*$BF14</f>
+        <v>46828.52159498445</v>
+      </c>
+      <c r="BS14" s="14">
+        <f>BJ14-12*$BF14</f>
+        <v>52405.399706020362</v>
+      </c>
+      <c r="BT14" s="14">
+        <f>BK14-12*$BF14</f>
+        <v>49179.034126927108</v>
+      </c>
+      <c r="BU14" s="14">
+        <f>BL14-12*$BF14</f>
+        <v>54215.846695375672</v>
       </c>
       <c r="BV14" s="2">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="BW14" s="2">
-        <v>65</v>
-      </c>
-      <c r="BX14">
-        <v>92.160700000000006</v>
-      </c>
-      <c r="BY14">
-        <v>74.761399999999995</v>
-      </c>
-      <c r="BZ14">
-        <v>36.982399999999998</v>
-      </c>
-      <c r="CA14">
-        <v>79</v>
+        <v>114</v>
+      </c>
+      <c r="BX14" s="2">
+        <v>148</v>
+      </c>
+      <c r="BY14" s="2">
+        <v>96</v>
+      </c>
+      <c r="BZ14" s="2">
+        <v>55</v>
+      </c>
+      <c r="CA14" s="2">
+        <v>24</v>
       </c>
       <c r="CB14">
-        <v>14.7</v>
+        <v>39.941699999999997</v>
       </c>
       <c r="CC14">
-        <v>60</v>
-      </c>
-      <c r="CD14" s="11"/>
-      <c r="CF14" t="s">
+        <v>88.310900000000004</v>
+      </c>
+      <c r="CD14">
+        <v>18.580200000000001</v>
+      </c>
+      <c r="CE14">
+        <v>72</v>
+      </c>
+      <c r="CF14">
+        <v>30.8</v>
+      </c>
+      <c r="CG14">
+        <v>88</v>
+      </c>
+      <c r="CH14" s="11"/>
+      <c r="CJ14" t="s">
         <v>359</v>
       </c>
-      <c r="CG14" t="s">
+      <c r="CK14" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="15" spans="1:85">
+    <row r="15" spans="1:89">
       <c r="A15" s="7" t="s">
         <v>86</v>
       </c>
@@ -7021,51 +7216,67 @@
         <f>BL15-$BE15*12</f>
         <v>38558.342137012347</v>
       </c>
-      <c r="BR15" s="2">
+      <c r="BR15" s="14">
+        <f>BI15-12*$BF15</f>
+        <v>39045.430435914423</v>
+      </c>
+      <c r="BS15" s="14">
+        <f>BJ15-12*$BF15</f>
+        <v>44245.658610648461</v>
+      </c>
+      <c r="BT15" s="14">
+        <f>BK15-12*$BF15</f>
+        <v>41098.704049706699</v>
+      </c>
+      <c r="BU15" s="14">
+        <f>BL15-12*$BF15</f>
+        <v>46166.342137012347</v>
+      </c>
+      <c r="BV15" s="2">
         <v>92</v>
       </c>
-      <c r="BS15" s="2">
+      <c r="BW15" s="2">
         <v>166</v>
       </c>
-      <c r="BT15" s="2">
+      <c r="BX15" s="2">
         <v>106</v>
       </c>
-      <c r="BU15" s="2">
+      <c r="BY15" s="2">
         <v>35</v>
       </c>
-      <c r="BV15" s="2">
+      <c r="BZ15" s="2">
         <v>146</v>
       </c>
-      <c r="BW15" s="2">
+      <c r="CA15" s="2">
         <v>55</v>
       </c>
-      <c r="BX15">
+      <c r="CB15">
         <v>75.666700000000006</v>
       </c>
-      <c r="BY15">
+      <c r="CC15">
         <v>83.868899999999996</v>
       </c>
-      <c r="BZ15">
+      <c r="CD15">
         <v>17.833600000000001</v>
       </c>
-      <c r="CA15">
+      <c r="CE15">
         <v>45</v>
       </c>
-      <c r="CB15">
+      <c r="CF15">
         <v>50.6</v>
       </c>
-      <c r="CC15">
+      <c r="CG15">
         <v>52</v>
       </c>
-      <c r="CD15" s="11"/>
-      <c r="CF15" t="s">
+      <c r="CH15" s="11"/>
+      <c r="CJ15" t="s">
         <v>372</v>
       </c>
-      <c r="CG15" t="s">
+      <c r="CK15" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="16" spans="1:85">
+    <row r="16" spans="1:89">
       <c r="A16" s="7" t="s">
         <v>418</v>
       </c>
@@ -7291,51 +7502,67 @@
         <f>BL16-$BE16*12</f>
         <v>36231.05202905347</v>
       </c>
-      <c r="BR16" s="2">
+      <c r="BR16" s="14">
+        <f>BI16-12*$BF16</f>
+        <v>39226.423964682872</v>
+      </c>
+      <c r="BS16" s="14">
+        <f>BJ16-12*$BF16</f>
+        <v>43978.224943158195</v>
+      </c>
+      <c r="BT16" s="14">
+        <f>BK16-12*$BF16</f>
+        <v>41241.175762830324</v>
+      </c>
+      <c r="BU16" s="14">
+        <f>BL16-12*$BF16</f>
+        <v>45843.05202905347</v>
+      </c>
+      <c r="BV16" s="2">
         <v>78</v>
       </c>
-      <c r="BS16" s="2">
+      <c r="BW16" s="2">
         <v>17</v>
       </c>
-      <c r="BT16" s="2">
+      <c r="BX16" s="2">
         <v>27</v>
       </c>
-      <c r="BU16" s="2">
+      <c r="BY16" s="2">
         <v>162</v>
       </c>
-      <c r="BV16" s="2">
+      <c r="BZ16" s="2">
         <v>73</v>
       </c>
-      <c r="BW16" s="2">
+      <c r="CA16" s="2">
         <v>11</v>
       </c>
-      <c r="BX16">
+      <c r="CB16">
         <v>92.160700000000006</v>
       </c>
-      <c r="BY16">
+      <c r="CC16">
         <v>74.761399999999995</v>
       </c>
-      <c r="BZ16">
+      <c r="CD16">
         <v>36.982399999999998</v>
       </c>
-      <c r="CA16">
+      <c r="CE16">
         <v>79</v>
       </c>
-      <c r="CB16">
+      <c r="CF16">
         <v>52.7</v>
       </c>
-      <c r="CC16">
+      <c r="CG16">
         <v>50</v>
       </c>
-      <c r="CD16" s="11"/>
-      <c r="CF16" t="s">
+      <c r="CH16" s="11"/>
+      <c r="CJ16" t="s">
         <v>383</v>
       </c>
-      <c r="CG16" t="s">
+      <c r="CK16" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="17" spans="1:85">
+    <row r="17" spans="1:89">
       <c r="A17" s="7" t="s">
         <v>82</v>
       </c>
@@ -7561,321 +7788,353 @@
         <f>BL17-$BE17*12</f>
         <v>33483.412282398589</v>
       </c>
-      <c r="BR17" s="2">
+      <c r="BR17" s="14">
+        <f>BI17-12*$BF17</f>
+        <v>37100.363964103373</v>
+      </c>
+      <c r="BS17" s="14">
+        <f>BJ17-12*$BF17</f>
+        <v>42029.339824299706</v>
+      </c>
+      <c r="BT17" s="14">
+        <f>BK17-12*$BF17</f>
+        <v>39132.360989435336</v>
+      </c>
+      <c r="BU17" s="14">
+        <f>BL17-12*$BF17</f>
+        <v>43803.412282398589</v>
+      </c>
+      <c r="BV17" s="2">
         <v>93</v>
       </c>
-      <c r="BS17" s="2">
+      <c r="BW17" s="2">
         <v>112</v>
       </c>
-      <c r="BT17" s="2">
+      <c r="BX17" s="2">
         <v>121</v>
       </c>
-      <c r="BU17" s="2">
+      <c r="BY17" s="2">
         <v>92</v>
       </c>
-      <c r="BV17" s="2">
+      <c r="BZ17" s="2">
         <v>149</v>
       </c>
-      <c r="BW17" s="2">
+      <c r="CA17" s="2">
         <v>52</v>
       </c>
-      <c r="BX17">
+      <c r="CB17">
         <v>73.111500000000007</v>
       </c>
-      <c r="BY17">
+      <c r="CC17">
         <v>82.433800000000005</v>
       </c>
-      <c r="BZ17">
+      <c r="CD17">
         <v>18.842400000000001</v>
       </c>
-      <c r="CA17">
+      <c r="CE17">
         <v>46</v>
       </c>
-      <c r="CB17">
+      <c r="CF17">
         <v>47.6</v>
       </c>
-      <c r="CC17">
+      <c r="CG17">
         <v>31</v>
       </c>
-      <c r="CD17" s="11"/>
-      <c r="CF17" t="s">
+      <c r="CH17" s="11"/>
+      <c r="CJ17" t="s">
         <v>384</v>
       </c>
-      <c r="CG17" t="s">
+      <c r="CK17" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="18" spans="1:85">
-      <c r="A18" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" t="s">
-        <v>101</v>
+    <row r="18" spans="1:89">
+      <c r="A18" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="C18" s="6">
-        <v>112468</v>
+        <v>120774</v>
       </c>
       <c r="D18" s="2">
-        <v>1696</v>
+        <v>827</v>
       </c>
       <c r="E18">
-        <v>6.25</v>
+        <v>9.25</v>
       </c>
       <c r="F18" s="9">
-        <v>20161</v>
+        <v>22079</v>
       </c>
       <c r="G18" s="9">
-        <v>8604</v>
+        <v>9239</v>
       </c>
       <c r="H18" s="9">
-        <v>5256</v>
+        <v>7806</v>
       </c>
       <c r="I18" s="9">
         <v>0</v>
       </c>
       <c r="J18" s="9">
-        <v>1607</v>
+        <v>2414</v>
       </c>
       <c r="K18" s="9">
-        <v>101</v>
+        <v>255</v>
       </c>
       <c r="L18" s="9">
-        <v>2095</v>
+        <v>1921</v>
       </c>
       <c r="M18" s="9">
-        <v>17202</v>
+        <v>19195</v>
       </c>
       <c r="N18" s="9">
-        <v>8604</v>
+        <v>9239</v>
       </c>
       <c r="O18" s="9">
-        <v>5252</v>
+        <v>7747</v>
       </c>
       <c r="P18" s="9">
         <v>0</v>
       </c>
       <c r="Q18" s="9">
-        <v>13145</v>
+        <v>15221</v>
       </c>
       <c r="R18" s="9">
-        <v>8604</v>
+        <v>9239</v>
       </c>
       <c r="S18" s="9">
-        <v>5032</v>
+        <v>4846</v>
       </c>
       <c r="T18" s="9">
         <v>0</v>
       </c>
-      <c r="U18" s="10">
-        <v>1765</v>
-      </c>
-      <c r="V18">
-        <v>201</v>
-      </c>
-      <c r="W18" s="10">
-        <v>2095</v>
+      <c r="U18" s="9">
+        <v>2724</v>
+      </c>
+      <c r="V18" s="9">
+        <v>511</v>
+      </c>
+      <c r="W18" s="9">
+        <v>1921</v>
       </c>
       <c r="X18" s="9">
-        <v>10242</v>
+        <v>12069</v>
       </c>
       <c r="Y18" s="9">
-        <v>8604</v>
+        <v>9239</v>
       </c>
       <c r="Z18" s="9">
-        <v>5023</v>
+        <v>4728</v>
       </c>
       <c r="AA18" s="9">
         <v>0</v>
       </c>
       <c r="AB18" s="9">
         <f>SUM(F18:L18)</f>
-        <v>37824</v>
+        <v>43714</v>
       </c>
       <c r="AC18" s="9">
         <f>SUM(Q18:W18)</f>
-        <v>30842</v>
+        <v>34462</v>
       </c>
       <c r="AD18" s="9">
         <f>SUM(J18:P18)</f>
-        <v>34861</v>
+        <v>40771</v>
       </c>
       <c r="AE18" s="9">
         <f>SUM(U18:AA18)</f>
-        <v>27930</v>
+        <v>31192</v>
       </c>
       <c r="AF18" s="16">
         <f>$C18-AB18</f>
-        <v>74644</v>
+        <v>77060</v>
       </c>
       <c r="AG18" s="16">
         <f>$C18-AC18</f>
-        <v>81626</v>
+        <v>86312</v>
       </c>
       <c r="AH18" s="16">
         <f>$C18-AD18</f>
-        <v>77607</v>
+        <v>80003</v>
       </c>
       <c r="AI18" s="16">
         <f>$C18-AE18</f>
-        <v>84538</v>
+        <v>89582</v>
       </c>
       <c r="AJ18" s="9">
-        <v>58516</v>
+        <v>51538</v>
       </c>
       <c r="AK18" s="10">
-        <v>673184</v>
+        <v>3976322</v>
       </c>
       <c r="AL18" s="11">
-        <v>0.09</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="AM18" s="11">
-        <v>1.4500000000000001E-2</v>
+        <v>1.37E-2</v>
       </c>
       <c r="AN18" s="11">
-        <v>0.46400000000000002</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="AO18">
-        <v>176.68</v>
+        <v>96.68</v>
       </c>
       <c r="AP18" s="11">
-        <v>0.21099999999999999</v>
+        <v>0.215</v>
       </c>
       <c r="AQ18" s="13">
-        <v>7.06</v>
+        <v>6.34</v>
       </c>
       <c r="AR18" s="13">
-        <v>23.16</v>
+        <v>23.59</v>
       </c>
       <c r="AS18" s="6">
-        <v>132.5</v>
+        <v>136.4</v>
       </c>
       <c r="AT18" s="6">
         <f>AF18/$AS18*100</f>
-        <v>56335.094339622643</v>
+        <v>56495.601173020521</v>
       </c>
       <c r="AU18" s="6">
         <f>AG18/$AS18*100</f>
-        <v>61604.528301886799</v>
+        <v>63278.592375366563</v>
       </c>
       <c r="AV18" s="6">
         <f>AH18/$AS18*100</f>
-        <v>58571.320754716973</v>
+        <v>58653.225806451606</v>
       </c>
       <c r="AW18" s="6">
         <f>AI18/$AS18*100</f>
-        <v>63802.264150943389</v>
+        <v>65675.953079178886</v>
       </c>
       <c r="AX18" s="2">
-        <v>116.7</v>
+        <v>106</v>
       </c>
       <c r="AY18" s="2">
-        <v>152.69999999999999</v>
+        <v>207.1</v>
       </c>
       <c r="AZ18" s="2">
-        <v>138.6</v>
+        <v>101.7</v>
       </c>
       <c r="BA18" s="2">
-        <v>104.5</v>
+        <v>113.6</v>
       </c>
       <c r="BB18" s="2">
-        <v>123.5</v>
+        <v>109.1</v>
       </c>
       <c r="BC18" s="2">
-        <v>128.6</v>
+        <v>107</v>
       </c>
       <c r="BD18" s="9">
-        <v>423200</v>
+        <v>496300</v>
       </c>
       <c r="BE18" s="9">
-        <v>2243</v>
+        <v>2464</v>
       </c>
       <c r="BF18" s="9">
-        <v>1369</v>
+        <v>1241</v>
       </c>
       <c r="BG18">
-        <v>2.5910000000000002</v>
+        <v>3.4359999999999999</v>
       </c>
       <c r="BH18" s="4">
-        <v>60.6</v>
+        <v>61</v>
       </c>
       <c r="BI18" s="4">
         <f>AT18/(2087+$BH18/60*262.5)*2087</f>
-        <v>49985.15890388158</v>
+        <v>50090.306260142883</v>
       </c>
       <c r="BJ18" s="4">
         <f>AU18/(2087+$BH18/60*262.5)*2087</f>
-        <v>54660.636898990379</v>
+        <v>56104.263092725829</v>
       </c>
       <c r="BK18" s="4">
         <f>AV18/(2087+$BH18/60*262.5)*2087</f>
-        <v>51969.324085707318</v>
+        <v>52003.306147550109</v>
       </c>
       <c r="BL18" s="4">
         <f>AW18/(2087+$BH18/60*262.5)*2087</f>
-        <v>56610.650064524147</v>
+        <v>58229.818523178306</v>
       </c>
       <c r="BM18" s="4"/>
       <c r="BN18" s="14">
         <f>BI18-$BE18*12</f>
-        <v>23069.15890388158</v>
+        <v>20522.306260142883</v>
       </c>
       <c r="BO18" s="14">
         <f>BJ18-$BE18*12</f>
-        <v>27744.636898990379</v>
+        <v>26536.263092725829</v>
       </c>
       <c r="BP18" s="14">
         <f>BK18-$BE18*12</f>
-        <v>25053.324085707318</v>
+        <v>22435.306147550109</v>
       </c>
       <c r="BQ18" s="14">
         <f>BL18-$BE18*12</f>
-        <v>29694.650064524147</v>
-      </c>
-      <c r="BR18" s="2">
-        <v>58</v>
-      </c>
-      <c r="BS18" s="2">
-        <v>154</v>
-      </c>
-      <c r="BT18" s="2">
-        <v>74</v>
-      </c>
-      <c r="BU18" s="2">
-        <v>37</v>
+        <v>28661.818523178306</v>
+      </c>
+      <c r="BR18" s="14">
+        <f>BI18-12*$BF18</f>
+        <v>35198.306260142883</v>
+      </c>
+      <c r="BS18" s="14">
+        <f>BJ18-12*$BF18</f>
+        <v>41212.263092725829</v>
+      </c>
+      <c r="BT18" s="14">
+        <f>BK18-12*$BF18</f>
+        <v>37111.306147550109</v>
+      </c>
+      <c r="BU18" s="14">
+        <f>BL18-12*$BF18</f>
+        <v>43337.818523178306</v>
       </c>
       <c r="BV18" s="2">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="BW18" s="2">
-        <v>31</v>
-      </c>
-      <c r="BX18">
-        <v>79</v>
-      </c>
-      <c r="BY18">
-        <v>82.325900000000004</v>
-      </c>
-      <c r="BZ18">
-        <v>19.164400000000001</v>
-      </c>
-      <c r="CA18">
-        <v>50</v>
+        <v>42</v>
+      </c>
+      <c r="BX18" s="2">
+        <v>73</v>
+      </c>
+      <c r="BY18" s="2">
+        <v>95</v>
+      </c>
+      <c r="BZ18" s="2">
+        <v>114</v>
+      </c>
+      <c r="CA18" s="2">
+        <v>18</v>
       </c>
       <c r="CB18">
-        <v>43.3</v>
+        <v>22.785599999999999</v>
       </c>
       <c r="CC18">
-        <v>1</v>
-      </c>
-      <c r="CD18" s="11"/>
-      <c r="CF18" t="s">
+        <v>83.7042</v>
+      </c>
+      <c r="CD18">
+        <v>46.722099999999998</v>
+      </c>
+      <c r="CE18">
+        <v>87</v>
+      </c>
+      <c r="CF18">
+        <v>35.5</v>
+      </c>
+      <c r="CG18">
+        <v>52</v>
+      </c>
+      <c r="CH18" s="11"/>
+      <c r="CJ18" t="s">
         <v>385</v>
       </c>
-      <c r="CG18" t="s">
+      <c r="CK18" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="19" spans="1:85">
+    <row r="19" spans="1:89">
       <c r="A19" s="7" t="s">
         <v>47</v>
       </c>
@@ -8101,315 +8360,347 @@
         <f>BL19-$BE19*12</f>
         <v>31141.358685584491</v>
       </c>
-      <c r="BR19" s="2">
+      <c r="BR19" s="14">
+        <f>BI19-12*$BF19</f>
+        <v>33557.5050708747</v>
+      </c>
+      <c r="BS19" s="14">
+        <f>BJ19-12*$BF19</f>
+        <v>39882.200210730261</v>
+      </c>
+      <c r="BT19" s="14">
+        <f>BK19-12*$BF19</f>
+        <v>35519.178900697181</v>
+      </c>
+      <c r="BU19" s="14">
+        <f>BL19-12*$BF19</f>
+        <v>41977.358685584491</v>
+      </c>
+      <c r="BV19" s="2">
         <v>22</v>
       </c>
-      <c r="BS19" s="2">
+      <c r="BW19" s="2">
         <v>54</v>
       </c>
-      <c r="BT19" s="2">
+      <c r="BX19" s="2">
         <v>72</v>
       </c>
-      <c r="BU19" s="2">
+      <c r="BY19" s="2">
         <v>50</v>
       </c>
-      <c r="BV19" s="2">
+      <c r="BZ19" s="2">
         <v>45</v>
       </c>
-      <c r="BW19" s="2">
+      <c r="CA19" s="2">
         <v>13</v>
       </c>
-      <c r="BX19">
+      <c r="CB19">
         <v>22.953199999999999</v>
       </c>
-      <c r="BY19">
+      <c r="CC19">
         <v>78.920100000000005</v>
       </c>
-      <c r="BZ19">
+      <c r="CD19">
         <v>45.194299999999998</v>
       </c>
-      <c r="CA19">
+      <c r="CE19">
         <v>85</v>
       </c>
-      <c r="CB19">
+      <c r="CF19">
         <v>58.8</v>
       </c>
-      <c r="CC19">
+      <c r="CG19">
         <v>75</v>
       </c>
-      <c r="CD19" s="11"/>
-      <c r="CF19" t="s">
+      <c r="CH19" s="11"/>
+      <c r="CJ19" t="s">
         <v>397</v>
       </c>
-      <c r="CG19" t="s">
+      <c r="CK19" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="20" spans="1:85">
-      <c r="A20" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>94</v>
+    <row r="20" spans="1:89">
+      <c r="A20" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" t="s">
+        <v>101</v>
       </c>
       <c r="C20" s="6">
-        <v>120774</v>
+        <v>112468</v>
       </c>
       <c r="D20" s="2">
-        <v>827</v>
+        <v>1696</v>
       </c>
       <c r="E20">
-        <v>9.25</v>
+        <v>6.25</v>
       </c>
       <c r="F20" s="9">
-        <v>22079</v>
+        <v>20161</v>
       </c>
       <c r="G20" s="9">
-        <v>9239</v>
+        <v>8604</v>
       </c>
       <c r="H20" s="9">
-        <v>7806</v>
+        <v>5256</v>
       </c>
       <c r="I20" s="9">
         <v>0</v>
       </c>
       <c r="J20" s="9">
-        <v>2414</v>
+        <v>1607</v>
       </c>
       <c r="K20" s="9">
-        <v>255</v>
+        <v>101</v>
       </c>
       <c r="L20" s="9">
-        <v>1921</v>
+        <v>2095</v>
       </c>
       <c r="M20" s="9">
-        <v>19195</v>
+        <v>17202</v>
       </c>
       <c r="N20" s="9">
-        <v>9239</v>
+        <v>8604</v>
       </c>
       <c r="O20" s="9">
-        <v>7747</v>
+        <v>5252</v>
       </c>
       <c r="P20" s="9">
         <v>0</v>
       </c>
       <c r="Q20" s="9">
-        <v>15221</v>
+        <v>13145</v>
       </c>
       <c r="R20" s="9">
-        <v>9239</v>
+        <v>8604</v>
       </c>
       <c r="S20" s="9">
-        <v>4846</v>
+        <v>5032</v>
       </c>
       <c r="T20" s="9">
         <v>0</v>
       </c>
-      <c r="U20" s="9">
-        <v>2724</v>
-      </c>
-      <c r="V20" s="9">
-        <v>511</v>
-      </c>
-      <c r="W20" s="9">
-        <v>1921</v>
+      <c r="U20" s="10">
+        <v>1765</v>
+      </c>
+      <c r="V20">
+        <v>201</v>
+      </c>
+      <c r="W20" s="10">
+        <v>2095</v>
       </c>
       <c r="X20" s="9">
-        <v>12069</v>
+        <v>10242</v>
       </c>
       <c r="Y20" s="9">
-        <v>9239</v>
+        <v>8604</v>
       </c>
       <c r="Z20" s="9">
-        <v>4728</v>
+        <v>5023</v>
       </c>
       <c r="AA20" s="9">
         <v>0</v>
       </c>
       <c r="AB20" s="9">
         <f>SUM(F20:L20)</f>
-        <v>43714</v>
+        <v>37824</v>
       </c>
       <c r="AC20" s="9">
         <f>SUM(Q20:W20)</f>
-        <v>34462</v>
+        <v>30842</v>
       </c>
       <c r="AD20" s="9">
         <f>SUM(J20:P20)</f>
-        <v>40771</v>
+        <v>34861</v>
       </c>
       <c r="AE20" s="9">
         <f>SUM(U20:AA20)</f>
-        <v>31192</v>
+        <v>27930</v>
       </c>
       <c r="AF20" s="16">
         <f>$C20-AB20</f>
-        <v>77060</v>
+        <v>74644</v>
       </c>
       <c r="AG20" s="16">
         <f>$C20-AC20</f>
-        <v>86312</v>
+        <v>81626</v>
       </c>
       <c r="AH20" s="16">
         <f>$C20-AD20</f>
-        <v>80003</v>
+        <v>77607</v>
       </c>
       <c r="AI20" s="16">
         <f>$C20-AE20</f>
-        <v>89582</v>
+        <v>84538</v>
       </c>
       <c r="AJ20" s="9">
-        <v>51538</v>
+        <v>58516</v>
       </c>
       <c r="AK20" s="10">
-        <v>3976322</v>
+        <v>673184</v>
       </c>
       <c r="AL20" s="11">
-        <v>4.8000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="AM20" s="11">
-        <v>1.37E-2</v>
+        <v>1.4500000000000001E-2</v>
       </c>
       <c r="AN20" s="11">
-        <v>0.32500000000000001</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="AO20">
-        <v>96.68</v>
+        <v>176.68</v>
       </c>
       <c r="AP20" s="11">
-        <v>0.215</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="AQ20" s="13">
-        <v>6.34</v>
+        <v>7.06</v>
       </c>
       <c r="AR20" s="13">
-        <v>23.59</v>
+        <v>23.16</v>
       </c>
       <c r="AS20" s="6">
-        <v>136.4</v>
+        <v>132.5</v>
       </c>
       <c r="AT20" s="6">
         <f>AF20/$AS20*100</f>
-        <v>56495.601173020521</v>
+        <v>56335.094339622643</v>
       </c>
       <c r="AU20" s="6">
         <f>AG20/$AS20*100</f>
-        <v>63278.592375366563</v>
+        <v>61604.528301886799</v>
       </c>
       <c r="AV20" s="6">
         <f>AH20/$AS20*100</f>
-        <v>58653.225806451606</v>
+        <v>58571.320754716973</v>
       </c>
       <c r="AW20" s="6">
         <f>AI20/$AS20*100</f>
-        <v>65675.953079178886</v>
+        <v>63802.264150943389</v>
       </c>
       <c r="AX20" s="2">
-        <v>106</v>
+        <v>116.7</v>
       </c>
       <c r="AY20" s="2">
-        <v>207.1</v>
+        <v>152.69999999999999</v>
       </c>
       <c r="AZ20" s="2">
-        <v>101.7</v>
+        <v>138.6</v>
       </c>
       <c r="BA20" s="2">
-        <v>113.6</v>
+        <v>104.5</v>
       </c>
       <c r="BB20" s="2">
-        <v>109.1</v>
+        <v>123.5</v>
       </c>
       <c r="BC20" s="2">
-        <v>107</v>
+        <v>128.6</v>
       </c>
       <c r="BD20" s="9">
-        <v>496300</v>
+        <v>423200</v>
       </c>
       <c r="BE20" s="9">
-        <v>2464</v>
+        <v>2243</v>
       </c>
       <c r="BF20" s="9">
-        <v>1241</v>
+        <v>1369</v>
       </c>
       <c r="BG20">
-        <v>3.4359999999999999</v>
+        <v>2.5910000000000002</v>
       </c>
       <c r="BH20" s="4">
-        <v>61</v>
+        <v>60.6</v>
       </c>
       <c r="BI20" s="4">
         <f>AT20/(2087+$BH20/60*262.5)*2087</f>
-        <v>50090.306260142883</v>
+        <v>49985.15890388158</v>
       </c>
       <c r="BJ20" s="4">
         <f>AU20/(2087+$BH20/60*262.5)*2087</f>
-        <v>56104.263092725829</v>
+        <v>54660.636898990379</v>
       </c>
       <c r="BK20" s="4">
         <f>AV20/(2087+$BH20/60*262.5)*2087</f>
-        <v>52003.306147550109</v>
+        <v>51969.324085707318</v>
       </c>
       <c r="BL20" s="4">
         <f>AW20/(2087+$BH20/60*262.5)*2087</f>
-        <v>58229.818523178306</v>
+        <v>56610.650064524147</v>
       </c>
       <c r="BM20" s="4"/>
       <c r="BN20" s="14">
         <f>BI20-$BE20*12</f>
-        <v>20522.306260142883</v>
+        <v>23069.15890388158</v>
       </c>
       <c r="BO20" s="14">
         <f>BJ20-$BE20*12</f>
-        <v>26536.263092725829</v>
+        <v>27744.636898990379</v>
       </c>
       <c r="BP20" s="14">
         <f>BK20-$BE20*12</f>
-        <v>22435.306147550109</v>
+        <v>25053.324085707318</v>
       </c>
       <c r="BQ20" s="14">
         <f>BL20-$BE20*12</f>
-        <v>28661.818523178306</v>
-      </c>
-      <c r="BR20" s="2">
-        <v>53</v>
-      </c>
-      <c r="BS20" s="2">
-        <v>42</v>
-      </c>
-      <c r="BT20" s="2">
-        <v>73</v>
-      </c>
-      <c r="BU20" s="2">
-        <v>95</v>
+        <v>29694.650064524147</v>
+      </c>
+      <c r="BR20" s="14">
+        <f>BI20-12*$BF20</f>
+        <v>33557.15890388158</v>
+      </c>
+      <c r="BS20" s="14">
+        <f>BJ20-12*$BF20</f>
+        <v>38232.636898990379</v>
+      </c>
+      <c r="BT20" s="14">
+        <f>BK20-12*$BF20</f>
+        <v>35541.324085707318</v>
+      </c>
+      <c r="BU20" s="14">
+        <f>BL20-12*$BF20</f>
+        <v>40182.650064524147</v>
       </c>
       <c r="BV20" s="2">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="BW20" s="2">
-        <v>18</v>
-      </c>
-      <c r="BX20">
-        <v>22.785599999999999</v>
-      </c>
-      <c r="BY20">
-        <v>83.7042</v>
-      </c>
-      <c r="BZ20">
-        <v>46.722099999999998</v>
-      </c>
-      <c r="CA20">
-        <v>87</v>
+        <v>154</v>
+      </c>
+      <c r="BX20" s="2">
+        <v>74</v>
+      </c>
+      <c r="BY20" s="2">
+        <v>37</v>
+      </c>
+      <c r="BZ20" s="2">
+        <v>63</v>
+      </c>
+      <c r="CA20" s="2">
+        <v>31</v>
       </c>
       <c r="CB20">
-        <v>35.5</v>
+        <v>79</v>
       </c>
       <c r="CC20">
-        <v>52</v>
-      </c>
-      <c r="CD20" s="11"/>
-    </row>
-    <row r="21" spans="1:85">
+        <v>82.325900000000004</v>
+      </c>
+      <c r="CD20">
+        <v>19.164400000000001</v>
+      </c>
+      <c r="CE20">
+        <v>50</v>
+      </c>
+      <c r="CF20">
+        <v>43.3</v>
+      </c>
+      <c r="CG20">
+        <v>1</v>
+      </c>
+      <c r="CH20" s="11"/>
+    </row>
+    <row r="21" spans="1:89">
       <c r="A21" s="8" t="s">
         <v>45</v>
       </c>
@@ -8635,573 +8926,621 @@
         <f>BL21-$BE21*12</f>
         <v>25373.336572727276</v>
       </c>
-      <c r="BR21" s="2">
+      <c r="BR21" s="14">
+        <f>BI21-12*$BF21</f>
+        <v>30904.418657645125</v>
+      </c>
+      <c r="BS21" s="14">
+        <f>BJ21-12*$BF21</f>
+        <v>36235.963803110921</v>
+      </c>
+      <c r="BT21" s="14">
+        <f>BK21-12*$BF21</f>
+        <v>32709.258561991919</v>
+      </c>
+      <c r="BU21" s="14">
+        <f>BL21-12*$BF21</f>
+        <v>38417.336572727276</v>
+      </c>
+      <c r="BV21" s="2">
         <v>39</v>
       </c>
-      <c r="BS21" s="2">
+      <c r="BW21" s="2">
         <v>82</v>
       </c>
-      <c r="BT21" s="2">
+      <c r="BX21" s="2">
         <v>77</v>
       </c>
-      <c r="BU21" s="2">
+      <c r="BY21" s="2">
         <v>12</v>
       </c>
-      <c r="BV21" s="2">
+      <c r="BZ21" s="2">
         <v>101</v>
       </c>
-      <c r="BW21" s="2">
+      <c r="CA21" s="2">
         <v>15</v>
       </c>
-      <c r="BX21">
+      <c r="CB21">
         <v>38.345700000000001</v>
       </c>
-      <c r="BY21">
+      <c r="CC21">
         <v>83.043999999999997</v>
       </c>
-      <c r="BZ21">
+      <c r="CD21">
         <v>40.678100000000001</v>
       </c>
-      <c r="CA21">
+      <c r="CE21">
         <v>82</v>
       </c>
-      <c r="CB21">
+      <c r="CF21">
         <v>45</v>
       </c>
-      <c r="CC21">
+      <c r="CG21">
         <v>40</v>
       </c>
-      <c r="CD21" s="11"/>
-    </row>
-    <row r="22" spans="1:85">
-      <c r="A22" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>95</v>
+      <c r="CH21" s="11"/>
+    </row>
+    <row r="22" spans="1:89">
+      <c r="A22" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="C22" s="6">
-        <v>105613</v>
+        <v>142729</v>
       </c>
       <c r="D22" s="2">
-        <v>1881</v>
+        <v>1998</v>
       </c>
       <c r="E22">
-        <v>5.75</v>
+        <v>8.5</v>
       </c>
       <c r="F22" s="9">
-        <v>18290</v>
+        <v>27654</v>
       </c>
       <c r="G22" s="9">
-        <v>8079</v>
+        <v>9956</v>
       </c>
       <c r="H22" s="9">
-        <v>6359</v>
+        <v>9848</v>
       </c>
       <c r="I22" s="9">
         <v>0</v>
       </c>
       <c r="J22" s="10">
-        <v>1366</v>
-      </c>
-      <c r="K22">
-        <v>91</v>
-      </c>
-      <c r="L22" s="10">
-        <v>1389</v>
+        <v>2765</v>
+      </c>
+      <c r="K22" s="9">
+        <v>155</v>
+      </c>
+      <c r="L22" s="9">
+        <v>1665</v>
       </c>
       <c r="M22" s="9">
-        <v>15557</v>
+        <v>24464</v>
       </c>
       <c r="N22" s="9">
-        <v>8079</v>
+        <v>10030</v>
       </c>
       <c r="O22" s="9">
-        <v>6315</v>
+        <v>9789</v>
       </c>
       <c r="P22" s="9">
         <v>0</v>
       </c>
       <c r="Q22" s="9">
-        <v>11431</v>
+        <v>20710</v>
       </c>
       <c r="R22" s="9">
-        <v>8079</v>
+        <v>9956</v>
       </c>
       <c r="S22" s="9">
-        <v>5941</v>
+        <v>6888</v>
       </c>
       <c r="T22" s="9">
         <v>0</v>
       </c>
       <c r="U22" s="9">
-        <v>1513</v>
-      </c>
-      <c r="V22">
-        <v>183</v>
+        <v>3068</v>
+      </c>
+      <c r="V22" s="9">
+        <v>310</v>
       </c>
       <c r="W22" s="9">
-        <v>1389</v>
+        <v>1665</v>
       </c>
       <c r="X22" s="9">
-        <v>8813</v>
+        <v>16899</v>
       </c>
       <c r="Y22" s="9">
-        <v>8079</v>
+        <v>10030</v>
       </c>
       <c r="Z22" s="9">
-        <v>5888</v>
+        <v>6769</v>
       </c>
       <c r="AA22" s="9">
         <v>0</v>
       </c>
       <c r="AB22" s="9">
         <f>SUM(F22:L22)</f>
-        <v>35574</v>
+        <v>52043</v>
       </c>
       <c r="AC22" s="9">
         <f>SUM(Q22:W22)</f>
-        <v>28536</v>
+        <v>42597</v>
       </c>
       <c r="AD22" s="9">
         <f>SUM(J22:P22)</f>
-        <v>32797</v>
+        <v>48868</v>
       </c>
       <c r="AE22" s="9">
         <f>SUM(U22:AA22)</f>
-        <v>25865</v>
+        <v>38741</v>
       </c>
       <c r="AF22" s="16">
         <f>$C22-AB22</f>
-        <v>70039</v>
+        <v>90686</v>
       </c>
       <c r="AG22" s="16">
         <f>$C22-AC22</f>
-        <v>77077</v>
+        <v>100132</v>
       </c>
       <c r="AH22" s="16">
         <f>$C22-AD22</f>
-        <v>72816</v>
+        <v>93861</v>
       </c>
       <c r="AI22" s="16">
         <f>$C22-AE22</f>
-        <v>79748</v>
+        <v>103988</v>
       </c>
       <c r="AJ22" s="9">
-        <v>72935</v>
+        <v>87701</v>
       </c>
       <c r="AK22" s="10">
-        <v>681170</v>
+        <v>870887</v>
       </c>
       <c r="AL22" s="11">
-        <v>0.13200000000000001</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="AM22" s="11">
-        <v>3.6700000000000003E-2</v>
+        <v>3.85E-2</v>
       </c>
       <c r="AN22" s="11">
-        <v>0.55400000000000005</v>
+        <v>0.54800000000000004</v>
       </c>
       <c r="AO22">
-        <v>130.05000000000001</v>
+        <v>156.69</v>
       </c>
       <c r="AP22" s="11">
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="AQ22" s="13">
-        <v>12.02</v>
-      </c>
-      <c r="AR22" s="13">
-        <v>45.16</v>
+        <v>0.125</v>
+      </c>
+      <c r="AQ22">
+        <v>7.76</v>
+      </c>
+      <c r="AR22">
+        <v>61.38</v>
       </c>
       <c r="AS22" s="6">
-        <v>140.1</v>
+        <v>164</v>
       </c>
       <c r="AT22" s="6">
         <f>AF22/$AS22*100</f>
-        <v>49992.14846538187</v>
+        <v>55296.341463414639</v>
       </c>
       <c r="AU22" s="6">
         <f>AG22/$AS22*100</f>
-        <v>55015.70306923626</v>
+        <v>61056.097560975606</v>
       </c>
       <c r="AV22" s="6">
         <f>AH22/$AS22*100</f>
-        <v>51974.304068522484</v>
+        <v>57232.317073170736</v>
       </c>
       <c r="AW22" s="6">
         <f>AI22/$AS22*100</f>
-        <v>56922.198429693082</v>
+        <v>63407.317073170736</v>
       </c>
       <c r="AX22" s="2">
-        <v>107.9</v>
+        <v>111.9</v>
       </c>
       <c r="AY22" s="2">
-        <v>226.4</v>
+        <v>281</v>
       </c>
       <c r="AZ22" s="2">
-        <v>97.3</v>
+        <v>94.5</v>
       </c>
       <c r="BA22" s="2">
-        <v>109.3</v>
+        <v>113</v>
       </c>
       <c r="BB22" s="2">
-        <v>103.4</v>
+        <v>117</v>
       </c>
       <c r="BC22" s="2">
-        <v>103.7</v>
+        <v>124.3</v>
       </c>
       <c r="BD22" s="9">
-        <v>506100</v>
+        <v>858800</v>
       </c>
       <c r="BE22" s="9">
-        <v>2336</v>
+        <v>3217</v>
       </c>
       <c r="BF22" s="9">
-        <v>1362</v>
+        <v>1632</v>
       </c>
       <c r="BG22">
-        <v>2.7629999999999999</v>
+        <v>3.4689999999999999</v>
       </c>
       <c r="BH22" s="4">
-        <v>59.8</v>
+        <v>64.8</v>
       </c>
       <c r="BI22" s="4">
         <f>AT22/(2087+$BH22/60*262.5)*2087</f>
-        <v>44423.274829848087</v>
+        <v>48683.174281436979</v>
       </c>
       <c r="BJ22" s="4">
         <f>AU22/(2087+$BH22/60*262.5)*2087</f>
-        <v>48887.230743731365</v>
+        <v>53754.092220947517</v>
       </c>
       <c r="BK22" s="4">
         <f>AV22/(2087+$BH22/60*262.5)*2087</f>
-        <v>46184.628278676428</v>
+        <v>50387.616845267803</v>
       </c>
       <c r="BL22" s="4">
         <f>AW22/(2087+$BH22/60*262.5)*2087</f>
-        <v>50581.3521199721</v>
+        <v>55824.117583508676</v>
       </c>
       <c r="BM22" s="4"/>
       <c r="BN22" s="14">
         <f>BI22-$BE22*12</f>
-        <v>16391.274829848087</v>
+        <v>10079.174281436979</v>
       </c>
       <c r="BO22" s="14">
         <f>BJ22-$BE22*12</f>
-        <v>20855.230743731365</v>
+        <v>15150.092220947517</v>
       </c>
       <c r="BP22" s="14">
         <f>BK22-$BE22*12</f>
-        <v>18152.628278676428</v>
+        <v>11783.616845267803</v>
       </c>
       <c r="BQ22" s="14">
         <f>BL22-$BE22*12</f>
-        <v>22549.3521199721</v>
-      </c>
-      <c r="BR22" s="2">
-        <v>44</v>
-      </c>
-      <c r="BS22" s="2">
-        <v>62</v>
-      </c>
-      <c r="BT22" s="2">
-        <v>40</v>
-      </c>
-      <c r="BU22" s="2">
-        <v>22</v>
+        <v>17220.117583508676</v>
+      </c>
+      <c r="BR22" s="14">
+        <f>BI22-12*$BF22</f>
+        <v>29099.174281436979</v>
+      </c>
+      <c r="BS22" s="14">
+        <f>BJ22-12*$BF22</f>
+        <v>34170.092220947517</v>
+      </c>
+      <c r="BT22" s="14">
+        <f>BK22-12*$BF22</f>
+        <v>30803.616845267803</v>
+      </c>
+      <c r="BU22" s="14">
+        <f>BL22-12*$BF22</f>
+        <v>36240.117583508676</v>
       </c>
       <c r="BV22" s="2">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="BW22" s="2">
-        <v>27</v>
-      </c>
-      <c r="BX22">
-        <v>73.832300000000004</v>
-      </c>
-      <c r="BY22">
-        <v>88.310400000000001</v>
-      </c>
-      <c r="BZ22">
-        <v>26.493400000000001</v>
-      </c>
-      <c r="CA22">
-        <v>58</v>
+        <v>110</v>
+      </c>
+      <c r="BX22" s="2">
+        <v>51</v>
+      </c>
+      <c r="BY22" s="2">
+        <v>13</v>
+      </c>
+      <c r="BZ22" s="2">
+        <v>82</v>
+      </c>
+      <c r="CA22" s="2">
+        <v>16</v>
       </c>
       <c r="CB22">
-        <v>26.6</v>
+        <v>44.677799999999998</v>
       </c>
       <c r="CC22">
-        <v>40</v>
-      </c>
-      <c r="CD22" s="11"/>
-    </row>
-    <row r="23" spans="1:85">
-      <c r="A23" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>94</v>
+        <v>68.588999999999999</v>
+      </c>
+      <c r="CD22">
+        <v>45.015799999999999</v>
+      </c>
+      <c r="CE22">
+        <v>84</v>
+      </c>
+      <c r="CF22">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="CG22">
+        <v>47</v>
+      </c>
+      <c r="CH22" s="11"/>
+    </row>
+    <row r="23" spans="1:89">
+      <c r="A23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="C23" s="6">
-        <v>142729</v>
+        <v>105613</v>
       </c>
       <c r="D23" s="2">
-        <v>1998</v>
+        <v>1881</v>
       </c>
       <c r="E23">
-        <v>8.5</v>
+        <v>5.75</v>
       </c>
       <c r="F23" s="9">
-        <v>27654</v>
+        <v>18290</v>
       </c>
       <c r="G23" s="9">
-        <v>9956</v>
+        <v>8079</v>
       </c>
       <c r="H23" s="9">
-        <v>9848</v>
+        <v>6359</v>
       </c>
       <c r="I23" s="9">
         <v>0</v>
       </c>
       <c r="J23" s="10">
-        <v>2765</v>
-      </c>
-      <c r="K23" s="9">
-        <v>155</v>
-      </c>
-      <c r="L23" s="9">
-        <v>1665</v>
+        <v>1366</v>
+      </c>
+      <c r="K23">
+        <v>91</v>
+      </c>
+      <c r="L23" s="10">
+        <v>1389</v>
       </c>
       <c r="M23" s="9">
-        <v>24464</v>
+        <v>15557</v>
       </c>
       <c r="N23" s="9">
-        <v>10030</v>
+        <v>8079</v>
       </c>
       <c r="O23" s="9">
-        <v>9789</v>
+        <v>6315</v>
       </c>
       <c r="P23" s="9">
         <v>0</v>
       </c>
       <c r="Q23" s="9">
-        <v>20710</v>
+        <v>11431</v>
       </c>
       <c r="R23" s="9">
-        <v>9956</v>
+        <v>8079</v>
       </c>
       <c r="S23" s="9">
-        <v>6888</v>
+        <v>5941</v>
       </c>
       <c r="T23" s="9">
         <v>0</v>
       </c>
       <c r="U23" s="9">
-        <v>3068</v>
-      </c>
-      <c r="V23" s="9">
-        <v>310</v>
+        <v>1513</v>
+      </c>
+      <c r="V23">
+        <v>183</v>
       </c>
       <c r="W23" s="9">
-        <v>1665</v>
+        <v>1389</v>
       </c>
       <c r="X23" s="9">
-        <v>16899</v>
+        <v>8813</v>
       </c>
       <c r="Y23" s="9">
-        <v>10030</v>
+        <v>8079</v>
       </c>
       <c r="Z23" s="9">
-        <v>6769</v>
+        <v>5888</v>
       </c>
       <c r="AA23" s="9">
         <v>0</v>
       </c>
       <c r="AB23" s="9">
         <f>SUM(F23:L23)</f>
-        <v>52043</v>
+        <v>35574</v>
       </c>
       <c r="AC23" s="9">
         <f>SUM(Q23:W23)</f>
-        <v>42597</v>
+        <v>28536</v>
       </c>
       <c r="AD23" s="9">
         <f>SUM(J23:P23)</f>
-        <v>48868</v>
+        <v>32797</v>
       </c>
       <c r="AE23" s="9">
         <f>SUM(U23:AA23)</f>
-        <v>38741</v>
+        <v>25865</v>
       </c>
       <c r="AF23" s="16">
         <f>$C23-AB23</f>
-        <v>90686</v>
+        <v>70039</v>
       </c>
       <c r="AG23" s="16">
         <f>$C23-AC23</f>
-        <v>100132</v>
+        <v>77077</v>
       </c>
       <c r="AH23" s="16">
         <f>$C23-AD23</f>
-        <v>93861</v>
+        <v>72816</v>
       </c>
       <c r="AI23" s="16">
         <f>$C23-AE23</f>
-        <v>103988</v>
+        <v>79748</v>
       </c>
       <c r="AJ23" s="9">
-        <v>87701</v>
+        <v>72935</v>
       </c>
       <c r="AK23" s="10">
-        <v>870887</v>
+        <v>681170</v>
       </c>
       <c r="AL23" s="11">
-        <v>8.2000000000000003E-2</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="AM23" s="11">
-        <v>3.85E-2</v>
+        <v>3.6700000000000003E-2</v>
       </c>
       <c r="AN23" s="11">
-        <v>0.54800000000000004</v>
+        <v>0.55400000000000005</v>
       </c>
       <c r="AO23">
-        <v>156.69</v>
+        <v>130.05000000000001</v>
       </c>
       <c r="AP23" s="11">
-        <v>0.125</v>
-      </c>
-      <c r="AQ23">
-        <v>7.76</v>
-      </c>
-      <c r="AR23">
-        <v>61.38</v>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="AQ23" s="13">
+        <v>12.02</v>
+      </c>
+      <c r="AR23" s="13">
+        <v>45.16</v>
       </c>
       <c r="AS23" s="6">
-        <v>164</v>
+        <v>140.1</v>
       </c>
       <c r="AT23" s="6">
         <f>AF23/$AS23*100</f>
-        <v>55296.341463414639</v>
+        <v>49992.14846538187</v>
       </c>
       <c r="AU23" s="6">
         <f>AG23/$AS23*100</f>
-        <v>61056.097560975606</v>
+        <v>55015.70306923626</v>
       </c>
       <c r="AV23" s="6">
         <f>AH23/$AS23*100</f>
-        <v>57232.317073170736</v>
+        <v>51974.304068522484</v>
       </c>
       <c r="AW23" s="6">
         <f>AI23/$AS23*100</f>
-        <v>63407.317073170736</v>
+        <v>56922.198429693082</v>
       </c>
       <c r="AX23" s="2">
-        <v>111.9</v>
+        <v>107.9</v>
       </c>
       <c r="AY23" s="2">
-        <v>281</v>
+        <v>226.4</v>
       </c>
       <c r="AZ23" s="2">
-        <v>94.5</v>
+        <v>97.3</v>
       </c>
       <c r="BA23" s="2">
-        <v>113</v>
+        <v>109.3</v>
       </c>
       <c r="BB23" s="2">
-        <v>117</v>
+        <v>103.4</v>
       </c>
       <c r="BC23" s="2">
-        <v>124.3</v>
+        <v>103.7</v>
       </c>
       <c r="BD23" s="9">
-        <v>858800</v>
+        <v>506100</v>
       </c>
       <c r="BE23" s="9">
-        <v>3217</v>
+        <v>2336</v>
       </c>
       <c r="BF23" s="9">
-        <v>1632</v>
+        <v>1362</v>
       </c>
       <c r="BG23">
-        <v>3.4689999999999999</v>
+        <v>2.7629999999999999</v>
       </c>
       <c r="BH23" s="4">
-        <v>64.8</v>
+        <v>59.8</v>
       </c>
       <c r="BI23" s="4">
         <f>AT23/(2087+$BH23/60*262.5)*2087</f>
-        <v>48683.174281436979</v>
+        <v>44423.274829848087</v>
       </c>
       <c r="BJ23" s="4">
         <f>AU23/(2087+$BH23/60*262.5)*2087</f>
-        <v>53754.092220947517</v>
+        <v>48887.230743731365</v>
       </c>
       <c r="BK23" s="4">
         <f>AV23/(2087+$BH23/60*262.5)*2087</f>
-        <v>50387.616845267803</v>
+        <v>46184.628278676428</v>
       </c>
       <c r="BL23" s="4">
         <f>AW23/(2087+$BH23/60*262.5)*2087</f>
-        <v>55824.117583508676</v>
+        <v>50581.3521199721</v>
       </c>
       <c r="BM23" s="4"/>
       <c r="BN23" s="14">
         <f>BI23-$BE23*12</f>
-        <v>10079.174281436979</v>
+        <v>16391.274829848087</v>
       </c>
       <c r="BO23" s="14">
         <f>BJ23-$BE23*12</f>
-        <v>15150.092220947517</v>
+        <v>20855.230743731365</v>
       </c>
       <c r="BP23" s="14">
         <f>BK23-$BE23*12</f>
-        <v>11783.616845267803</v>
+        <v>18152.628278676428</v>
       </c>
       <c r="BQ23" s="14">
         <f>BL23-$BE23*12</f>
-        <v>17220.117583508676</v>
-      </c>
-      <c r="BR23" s="2">
-        <v>31</v>
-      </c>
-      <c r="BS23" s="2">
-        <v>110</v>
-      </c>
-      <c r="BT23" s="2">
-        <v>51</v>
-      </c>
-      <c r="BU23" s="2">
-        <v>13</v>
+        <v>22549.3521199721</v>
+      </c>
+      <c r="BR23" s="14">
+        <f>BI23-12*$BF23</f>
+        <v>28079.274829848087</v>
+      </c>
+      <c r="BS23" s="14">
+        <f>BJ23-12*$BF23</f>
+        <v>32543.230743731365</v>
+      </c>
+      <c r="BT23" s="14">
+        <f>BK23-12*$BF23</f>
+        <v>29840.628278676428</v>
+      </c>
+      <c r="BU23" s="14">
+        <f>BL23-12*$BF23</f>
+        <v>34237.3521199721</v>
       </c>
       <c r="BV23" s="2">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="BW23" s="2">
-        <v>16</v>
-      </c>
-      <c r="BX23">
-        <v>44.677799999999998</v>
-      </c>
-      <c r="BY23">
-        <v>68.588999999999999</v>
-      </c>
-      <c r="BZ23">
-        <v>45.015799999999999</v>
-      </c>
-      <c r="CA23">
-        <v>84</v>
+        <v>62</v>
+      </c>
+      <c r="BX23" s="2">
+        <v>40</v>
+      </c>
+      <c r="BY23" s="2">
+        <v>22</v>
+      </c>
+      <c r="BZ23" s="2">
+        <v>86</v>
+      </c>
+      <c r="CA23" s="2">
+        <v>27</v>
       </c>
       <c r="CB23">
-        <v>36.799999999999997</v>
+        <v>73.832300000000004</v>
       </c>
       <c r="CC23">
-        <v>47</v>
-      </c>
-      <c r="CD23" s="11"/>
-    </row>
-    <row r="24" spans="1:85">
+        <v>88.310400000000001</v>
+      </c>
+      <c r="CD23">
+        <v>26.493400000000001</v>
+      </c>
+      <c r="CE23">
+        <v>58</v>
+      </c>
+      <c r="CF23">
+        <v>26.6</v>
+      </c>
+      <c r="CG23">
+        <v>40</v>
+      </c>
+      <c r="CH23" s="11"/>
+    </row>
+    <row r="24" spans="1:89">
       <c r="A24" s="2" t="s">
         <v>87</v>
       </c>
@@ -9427,44 +9766,60 @@
         <f>BL24-$BE24*12</f>
         <v>9076.6433872235721</v>
       </c>
-      <c r="BR24" s="2">
+      <c r="BR24" s="14">
+        <f>BI24-12*$BF24</f>
+        <v>19206.850830269788</v>
+      </c>
+      <c r="BS24" s="14">
+        <f>BJ24-12*$BF24</f>
+        <v>22569.366311107813</v>
+      </c>
+      <c r="BT24" s="14">
+        <f>BK24-12*$BF24</f>
+        <v>20210.144094014649</v>
+      </c>
+      <c r="BU24" s="14">
+        <f>BL24-12*$BF24</f>
+        <v>24040.643387223572</v>
+      </c>
+      <c r="BV24" s="2">
         <v>101</v>
       </c>
-      <c r="BS24" s="2">
+      <c r="BW24" s="2">
         <v>152</v>
       </c>
-      <c r="BT24" s="2">
+      <c r="BX24" s="2">
         <v>99</v>
       </c>
-      <c r="BU24" s="2">
+      <c r="BY24" s="2">
         <v>123</v>
       </c>
-      <c r="BV24" s="2">
+      <c r="BZ24" s="2">
         <v>142</v>
       </c>
-      <c r="BW24" s="2">
+      <c r="CA24" s="2">
         <v>41</v>
       </c>
-      <c r="BX24">
+      <c r="CB24">
         <v>75.349199999999996</v>
       </c>
-      <c r="BY24">
+      <c r="CC24">
         <v>84.41</v>
       </c>
-      <c r="BZ24">
+      <c r="CD24">
         <v>25.764099999999999</v>
       </c>
-      <c r="CA24">
+      <c r="CE24">
         <v>60</v>
       </c>
-      <c r="CB24">
+      <c r="CF24">
         <v>23.8</v>
       </c>
-      <c r="CC24">
+      <c r="CG24">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:85">
+    <row r="25" spans="1:89">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="4"/>
@@ -9489,8 +9844,12 @@
       <c r="BO25" s="4"/>
       <c r="BP25" s="4"/>
       <c r="BQ25" s="4"/>
-    </row>
-    <row r="26" spans="1:85">
+      <c r="BR25" s="4"/>
+      <c r="BS25" s="4"/>
+      <c r="BT25" s="4"/>
+      <c r="BU25" s="4"/>
+    </row>
+    <row r="26" spans="1:89">
       <c r="A26" s="4" t="s">
         <v>337</v>
       </c>
@@ -9565,31 +9924,35 @@
       <c r="BO26" s="4"/>
       <c r="BP26" s="4"/>
       <c r="BQ26" s="4"/>
-      <c r="BS26" s="2"/>
-      <c r="BT26" s="2"/>
-      <c r="BU26" s="2"/>
-      <c r="BV26" s="2"/>
+      <c r="BR26" s="4"/>
+      <c r="BS26" s="4"/>
+      <c r="BT26" s="4"/>
+      <c r="BU26" s="4"/>
       <c r="BW26" s="2"/>
-      <c r="BX26">
+      <c r="BX26" s="2"/>
+      <c r="BY26" s="2"/>
+      <c r="BZ26" s="2"/>
+      <c r="CA26" s="2"/>
+      <c r="CB26">
         <v>102</v>
       </c>
-      <c r="BY26">
+      <c r="CC26">
         <v>86.1</v>
       </c>
-      <c r="BZ26">
+      <c r="CD26">
         <v>22.6</v>
       </c>
-      <c r="CA26">
+      <c r="CE26">
         <v>54</v>
       </c>
-      <c r="CB26">
+      <c r="CF26">
         <v>58.4</v>
       </c>
-      <c r="CC26">
+      <c r="CG26">
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:85" s="17" customFormat="1">
+    <row r="27" spans="1:89" s="17" customFormat="1">
       <c r="A27" s="21"/>
       <c r="B27" s="21"/>
       <c r="F27" s="17" t="s">
@@ -9613,7 +9976,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="28" spans="1:85">
+    <row r="28" spans="1:89">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="E28">
@@ -9796,7 +10159,7 @@
         <v>53678.992131533596</v>
       </c>
     </row>
-    <row r="29" spans="1:85">
+    <row r="29" spans="1:89">
       <c r="E29">
         <v>2</v>
       </c>
@@ -9977,7 +10340,7 @@
         <v>50057.531636136599</v>
       </c>
     </row>
-    <row r="30" spans="1:85">
+    <row r="30" spans="1:89">
       <c r="E30">
         <v>3</v>
       </c>
@@ -10158,7 +10521,7 @@
         <v>49580.285202770479</v>
       </c>
     </row>
-    <row r="31" spans="1:85">
+    <row r="31" spans="1:89">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="E31">
@@ -10166,182 +10529,182 @@
       </c>
       <c r="F31" s="19">
         <f t="shared" si="0"/>
-        <v>0.165422314911366</v>
+        <v>0.1714885832373467</v>
       </c>
       <c r="G31" s="19">
         <f t="shared" si="1"/>
-        <v>7.6496350364963508E-2</v>
+        <v>7.649569754048377E-2</v>
       </c>
       <c r="H31" s="19">
         <f t="shared" si="1"/>
-        <v>2.9103232533889467E-2</v>
+        <v>0</v>
       </c>
       <c r="I31" s="19">
         <f t="shared" si="1"/>
-        <v>9.4786235662148079E-3</v>
+        <v>0</v>
       </c>
       <c r="J31" s="19">
         <f t="shared" si="1"/>
-        <v>1.6350364963503651E-2</v>
+        <v>2.0316901067629435E-2</v>
       </c>
       <c r="K31" s="19">
         <f t="shared" si="1"/>
-        <v>2.5651720542231491E-3</v>
+        <v>1.6164471073340239E-3</v>
       </c>
       <c r="L31" s="19">
         <f t="shared" si="1"/>
-        <v>5.4254431699687175E-2</v>
+        <v>4.5250839681356653E-2</v>
       </c>
       <c r="M31" s="19">
         <f t="shared" si="1"/>
-        <v>0.1386652763295099</v>
+        <v>0.14523825656016184</v>
       </c>
       <c r="N31" s="19">
         <f t="shared" si="1"/>
-        <v>7.6496350364963508E-2</v>
+        <v>7.649569754048377E-2</v>
       </c>
       <c r="O31" s="19">
         <f t="shared" si="1"/>
-        <v>2.9103232533889467E-2</v>
+        <v>0</v>
       </c>
       <c r="P31" s="19">
         <f t="shared" si="1"/>
-        <v>9.4786235662148079E-3</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="19">
         <f t="shared" si="1"/>
-        <v>9.9927007299270079E-2</v>
+        <v>0.10507874130070756</v>
       </c>
       <c r="R31" s="19">
         <f t="shared" si="1"/>
-        <v>7.6496350364963508E-2</v>
+        <v>7.649569754048377E-2</v>
       </c>
       <c r="S31" s="19">
         <f t="shared" si="1"/>
-        <v>2.9103232533889467E-2</v>
+        <v>0</v>
       </c>
       <c r="T31" s="19">
         <f t="shared" si="1"/>
-        <v>9.4786235662148079E-3</v>
+        <v>0</v>
       </c>
       <c r="U31" s="19">
         <f t="shared" si="1"/>
-        <v>1.7956204379562045E-2</v>
+        <v>2.2233407218839835E-2</v>
       </c>
       <c r="V31" s="19">
         <f t="shared" si="1"/>
-        <v>5.1407716371220024E-3</v>
+        <v>3.2328942146680477E-3</v>
       </c>
       <c r="W31" s="19">
         <f t="shared" si="1"/>
-        <v>5.4254431699687175E-2</v>
+        <v>4.5250839681356653E-2</v>
       </c>
       <c r="X31" s="19">
         <f t="shared" si="1"/>
-        <v>7.9739311783107406E-2</v>
+        <v>8.2632388953955457E-2</v>
       </c>
       <c r="Y31" s="19">
         <f t="shared" si="1"/>
-        <v>7.6496350364963508E-2</v>
+        <v>7.649569754048377E-2</v>
       </c>
       <c r="Z31" s="19">
         <f t="shared" si="1"/>
-        <v>2.9103232533889467E-2</v>
+        <v>0</v>
       </c>
       <c r="AA31" s="19">
         <f t="shared" si="1"/>
-        <v>9.4786235662148079E-3</v>
+        <v>0</v>
       </c>
       <c r="AB31" s="19">
         <f t="shared" si="1"/>
-        <v>0.35367049009384777</v>
+        <v>0.3151684686341506</v>
       </c>
       <c r="AC31" s="19">
         <f t="shared" si="1"/>
-        <v>0.29235662148070907</v>
+        <v>0.25229157995605589</v>
       </c>
       <c r="AD31" s="19">
         <f t="shared" si="1"/>
-        <v>0.32691345151199164</v>
+        <v>0.28891814195696575</v>
       </c>
       <c r="AE31" s="19">
         <f t="shared" si="1"/>
-        <v>0.27216892596454639</v>
+        <v>0.22984522760930376</v>
       </c>
       <c r="AF31" s="20">
         <f t="shared" si="2"/>
-        <v>0.64632950990615223</v>
+        <v>0.6848315313658494</v>
       </c>
       <c r="AG31" s="20">
         <f t="shared" si="2"/>
-        <v>0.70764337851929093</v>
+        <v>0.74770842004394411</v>
       </c>
       <c r="AH31" s="20">
         <f t="shared" si="2"/>
-        <v>0.67308654848800831</v>
+        <v>0.71108185804303425</v>
       </c>
       <c r="AI31" s="20">
         <f t="shared" si="2"/>
-        <v>0.72783107403545355</v>
+        <v>0.77015477239069619</v>
       </c>
       <c r="AJ31" s="24">
         <f t="shared" si="13"/>
-        <v>1.0948647209718794</v>
+        <v>1.091813658977838</v>
       </c>
       <c r="AK31" s="24">
         <f t="shared" si="14"/>
-        <v>1.0813335605508994</v>
+        <v>1.0830747032560166</v>
       </c>
       <c r="AS31" s="17">
         <f t="shared" si="15"/>
-        <v>1.0928961748633881</v>
+        <v>1.0471204188481675</v>
       </c>
       <c r="AT31">
         <f t="shared" si="3"/>
-        <v>67740.983606557376</v>
+        <v>74085.863874345552</v>
       </c>
       <c r="AU31">
         <f t="shared" si="4"/>
-        <v>74167.213114754108</v>
+        <v>80887.958115183239</v>
       </c>
       <c r="AV31">
         <f t="shared" si="5"/>
-        <v>70545.355191256836</v>
+        <v>76925.654450261776</v>
       </c>
       <c r="AW31">
         <f t="shared" si="6"/>
-        <v>76283.060109289625</v>
+        <v>83316.230366492149</v>
       </c>
       <c r="BH31" s="17">
         <f t="shared" si="16"/>
-        <v>0.91031023390218635</v>
+        <v>0.90926914279490245</v>
       </c>
       <c r="BI31">
         <f t="shared" si="7"/>
-        <v>61665.310631649416</v>
+        <v>67363.989938246013</v>
       </c>
       <c r="BJ31">
         <f t="shared" si="8"/>
-        <v>67515.173118365099</v>
+        <v>73548.924337822638</v>
       </c>
       <c r="BK31">
         <f t="shared" si="9"/>
-        <v>64218.158784865816</v>
+        <v>69946.123880926403</v>
       </c>
       <c r="BL31">
         <f t="shared" si="10"/>
-        <v>69441.250290861964</v>
+        <v>75756.87736624293</v>
       </c>
       <c r="BM31" s="23">
         <f t="shared" si="11"/>
-        <v>13116</v>
+        <v>21180</v>
       </c>
       <c r="BN31" s="9">
         <f t="shared" si="17"/>
-        <v>48549.310631649416</v>
-      </c>
-    </row>
-    <row r="32" spans="1:85">
+        <v>46183.989938246013</v>
+      </c>
+    </row>
+    <row r="32" spans="1:89">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="E32">
@@ -10349,179 +10712,179 @@
       </c>
       <c r="F32" s="19">
         <f t="shared" si="0"/>
-        <v>0.1714885832373467</v>
+        <v>0.16626058228370844</v>
       </c>
       <c r="G32" s="19">
         <f t="shared" si="1"/>
-        <v>7.649569754048377E-2</v>
+        <v>7.6502168077637822E-2</v>
       </c>
       <c r="H32" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.725583316126368E-2</v>
       </c>
       <c r="I32" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.0782572785463554E-2</v>
       </c>
       <c r="J32" s="19">
         <f t="shared" si="1"/>
-        <v>2.0316901067629435E-2</v>
+        <v>1.6116043774519927E-2</v>
       </c>
       <c r="K32" s="19">
         <f t="shared" si="1"/>
-        <v>1.6164471073340239E-3</v>
+        <v>1.9306215155895107E-3</v>
       </c>
       <c r="L32" s="19">
         <f t="shared" si="1"/>
-        <v>4.5250839681356653E-2</v>
+        <v>4.620070204418749E-2</v>
       </c>
       <c r="M32" s="19">
         <f t="shared" si="1"/>
-        <v>0.14523825656016184</v>
+        <v>0.13946933718769358</v>
       </c>
       <c r="N32" s="19">
         <f t="shared" si="1"/>
-        <v>7.649569754048377E-2</v>
+        <v>7.6502168077637822E-2</v>
       </c>
       <c r="O32" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.7049349576708653E-2</v>
       </c>
       <c r="P32" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.0782572785463554E-2</v>
       </c>
       <c r="Q32" s="19">
         <f t="shared" si="1"/>
-        <v>0.10507874130070756</v>
+        <v>0.1004232913483378</v>
       </c>
       <c r="R32" s="19">
         <f t="shared" si="1"/>
-        <v>7.649569754048377E-2</v>
+        <v>7.6502168077637822E-2</v>
       </c>
       <c r="S32" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.6533140615321082E-2</v>
       </c>
       <c r="T32" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.0782572785463554E-2</v>
       </c>
       <c r="U32" s="19">
         <f t="shared" si="1"/>
-        <v>2.2233407218839835E-2</v>
+        <v>1.7736939913276895E-2</v>
       </c>
       <c r="V32" s="19">
         <f t="shared" si="1"/>
-        <v>3.2328942146680477E-3</v>
+        <v>3.8612430311790215E-3</v>
       </c>
       <c r="W32" s="19">
         <f t="shared" si="1"/>
-        <v>4.5250839681356653E-2</v>
+        <v>4.620070204418749E-2</v>
       </c>
       <c r="X32" s="19">
         <f t="shared" si="1"/>
-        <v>8.2632388953955457E-2</v>
+        <v>8.0136279165806318E-2</v>
       </c>
       <c r="Y32" s="19">
         <f t="shared" si="1"/>
-        <v>7.649569754048377E-2</v>
+        <v>7.6502168077637822E-2</v>
       </c>
       <c r="Z32" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.6316332851538303E-2</v>
       </c>
       <c r="AA32" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.0782572785463554E-2</v>
       </c>
       <c r="AB32" s="19">
         <f t="shared" si="1"/>
-        <v>0.3151684686341506</v>
+        <v>0.35504852364237044</v>
       </c>
       <c r="AC32" s="19">
         <f t="shared" si="1"/>
-        <v>0.25229157995605589</v>
+        <v>0.29204005781540365</v>
       </c>
       <c r="AD32" s="19">
         <f t="shared" si="1"/>
-        <v>0.28891814195696575</v>
+        <v>0.32805079496180056</v>
       </c>
       <c r="AE32" s="19">
         <f t="shared" si="1"/>
-        <v>0.22984522760930376</v>
+        <v>0.27153623786908943</v>
       </c>
       <c r="AF32" s="20">
         <f t="shared" si="2"/>
-        <v>0.6848315313658494</v>
+        <v>0.64495147635762962</v>
       </c>
       <c r="AG32" s="20">
         <f t="shared" si="2"/>
-        <v>0.74770842004394411</v>
+        <v>0.70795994218459635</v>
       </c>
       <c r="AH32" s="20">
         <f t="shared" si="2"/>
-        <v>0.71108185804303425</v>
+        <v>0.67194920503819944</v>
       </c>
       <c r="AI32" s="20">
         <f t="shared" si="2"/>
-        <v>0.77015477239069619</v>
+        <v>0.72846376213091057</v>
       </c>
       <c r="AJ32" s="24">
         <f t="shared" si="13"/>
-        <v>1.091813658977838</v>
+        <v>1.0976948935489035</v>
       </c>
       <c r="AK32" s="24">
         <f t="shared" si="14"/>
-        <v>1.0830747032560166</v>
+        <v>1.0841054006299455</v>
       </c>
       <c r="AS32" s="17">
         <f t="shared" si="15"/>
-        <v>1.0471204188481675</v>
+        <v>1.0660980810234542</v>
       </c>
       <c r="AT32">
         <f t="shared" si="3"/>
-        <v>74085.863874345552</v>
+        <v>66599.147121535178</v>
       </c>
       <c r="AU32">
         <f t="shared" si="4"/>
-        <v>80887.958115183239</v>
+        <v>73105.543710021317</v>
       </c>
       <c r="AV32">
         <f t="shared" si="5"/>
-        <v>76925.654450261776</v>
+        <v>69386.993603411509</v>
       </c>
       <c r="AW32">
         <f t="shared" si="6"/>
-        <v>83316.230366492149</v>
+        <v>75222.814498933905</v>
       </c>
       <c r="BH32" s="17">
         <f t="shared" si="16"/>
-        <v>0.90926914279490245</v>
+        <v>0.91344786081628182</v>
       </c>
       <c r="BI32">
         <f t="shared" si="7"/>
-        <v>67363.989938246013</v>
+        <v>60834.848470355144</v>
       </c>
       <c r="BJ32">
         <f t="shared" si="8"/>
-        <v>73548.924337822638</v>
+        <v>66778.102515730163</v>
       </c>
       <c r="BK32">
         <f t="shared" si="9"/>
-        <v>69946.123880926403</v>
+        <v>63381.400875509287</v>
       </c>
       <c r="BL32">
         <f t="shared" si="10"/>
-        <v>75756.87736624293</v>
+        <v>68712.118988631162</v>
       </c>
       <c r="BM32" s="23">
         <f t="shared" si="11"/>
-        <v>21180</v>
+        <v>14868</v>
       </c>
       <c r="BN32" s="9">
         <f t="shared" si="17"/>
-        <v>46183.989938246013</v>
+        <v>45966.848470355144</v>
       </c>
     </row>
     <row r="33" spans="1:66">
@@ -10532,179 +10895,179 @@
       </c>
       <c r="F33" s="19">
         <f t="shared" si="0"/>
-        <v>0.16626058228370844</v>
+        <v>0.19358258588077368</v>
       </c>
       <c r="G33" s="19">
         <f t="shared" si="1"/>
-        <v>7.6502168077637822E-2</v>
+        <v>7.4653731161144668E-2</v>
       </c>
       <c r="H33" s="19">
         <f t="shared" si="1"/>
-        <v>2.725583316126368E-2</v>
+        <v>0</v>
       </c>
       <c r="I33" s="19">
         <f t="shared" si="1"/>
-        <v>2.0782572785463554E-2</v>
+        <v>0</v>
       </c>
       <c r="J33" s="19">
         <f t="shared" si="1"/>
-        <v>1.6116043774519927E-2</v>
+        <v>2.3308316553786075E-2</v>
       </c>
       <c r="K33" s="19">
         <f t="shared" si="1"/>
-        <v>1.9306215155895107E-3</v>
+        <v>1.7465983281469278E-3</v>
       </c>
       <c r="L33" s="19">
         <f t="shared" si="1"/>
-        <v>4.620070204418749E-2</v>
+        <v>1.8831228262859236E-2</v>
       </c>
       <c r="M33" s="19">
         <f t="shared" si="1"/>
-        <v>0.13946933718769358</v>
+        <v>0.16532430288608213</v>
       </c>
       <c r="N33" s="19">
         <f t="shared" si="1"/>
-        <v>7.6502168077637822E-2</v>
+        <v>7.5218134114344984E-2</v>
       </c>
       <c r="O33" s="19">
         <f t="shared" si="1"/>
-        <v>2.7049349576708653E-2</v>
+        <v>0</v>
       </c>
       <c r="P33" s="19">
         <f t="shared" si="1"/>
-        <v>2.0782572785463554E-2</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="19">
         <f t="shared" si="1"/>
-        <v>0.1004232913483378</v>
+        <v>0.13580755384709256</v>
       </c>
       <c r="R33" s="19">
         <f t="shared" si="1"/>
-        <v>7.6502168077637822E-2</v>
+        <v>7.4653731161144668E-2</v>
       </c>
       <c r="S33" s="19">
         <f t="shared" si="1"/>
-        <v>2.6533140615321082E-2</v>
+        <v>0</v>
       </c>
       <c r="T33" s="19">
         <f t="shared" si="1"/>
-        <v>2.0782572785463554E-2</v>
+        <v>0</v>
       </c>
       <c r="U33" s="19">
         <f t="shared" si="1"/>
-        <v>1.7736939913276895E-2</v>
+        <v>2.5245591555311489E-2</v>
       </c>
       <c r="V33" s="19">
         <f t="shared" si="1"/>
-        <v>3.8612430311790215E-3</v>
+        <v>3.5008237232289951E-3</v>
       </c>
       <c r="W33" s="19">
         <f t="shared" si="1"/>
-        <v>4.620070204418749E-2</v>
+        <v>1.8831228262859236E-2</v>
       </c>
       <c r="X33" s="19">
         <f t="shared" si="1"/>
-        <v>8.0136279165806318E-2</v>
+        <v>0.10940264811763988</v>
       </c>
       <c r="Y33" s="19">
         <f t="shared" si="1"/>
-        <v>7.6502168077637822E-2</v>
+        <v>7.5218134114344984E-2</v>
       </c>
       <c r="Z33" s="19">
         <f t="shared" si="1"/>
-        <v>2.6316332851538303E-2</v>
+        <v>0</v>
       </c>
       <c r="AA33" s="19">
         <f t="shared" si="1"/>
-        <v>2.0782572785463554E-2</v>
+        <v>0</v>
       </c>
       <c r="AB33" s="19">
         <f t="shared" si="1"/>
-        <v>0.35504852364237044</v>
+        <v>0.31212246018671058</v>
       </c>
       <c r="AC33" s="19">
         <f t="shared" si="1"/>
-        <v>0.29204005781540365</v>
+        <v>0.25803892854963695</v>
       </c>
       <c r="AD33" s="19">
         <f t="shared" si="1"/>
-        <v>0.32805079496180056</v>
+        <v>0.28442858014521938</v>
       </c>
       <c r="AE33" s="19">
         <f t="shared" si="1"/>
-        <v>0.27153623786908943</v>
+        <v>0.23219842577338459</v>
       </c>
       <c r="AF33" s="20">
         <f t="shared" si="2"/>
-        <v>0.64495147635762962</v>
+        <v>0.68787753981328936</v>
       </c>
       <c r="AG33" s="20">
         <f t="shared" si="2"/>
-        <v>0.70795994218459635</v>
+        <v>0.74196107145036305</v>
       </c>
       <c r="AH33" s="20">
         <f t="shared" si="2"/>
-        <v>0.67194920503819944</v>
+        <v>0.71557141985478068</v>
       </c>
       <c r="AI33" s="20">
         <f t="shared" si="2"/>
-        <v>0.72846376213091057</v>
+        <v>0.76780157422661544</v>
       </c>
       <c r="AJ33" s="24">
         <f t="shared" si="13"/>
-        <v>1.0976948935489035</v>
+        <v>1.0786237789530875</v>
       </c>
       <c r="AK33" s="24">
         <f t="shared" si="14"/>
-        <v>1.0841054006299455</v>
+        <v>1.0729908335109783</v>
       </c>
       <c r="AS33" s="17">
         <f t="shared" si="15"/>
-        <v>1.0660980810234542</v>
+        <v>0.82372322899505768</v>
       </c>
       <c r="AT33">
         <f t="shared" si="3"/>
-        <v>66599.147121535178</v>
+        <v>74290.774299835262</v>
       </c>
       <c r="AU33">
         <f t="shared" si="4"/>
-        <v>73105.543710021317</v>
+        <v>80131.795716639215</v>
       </c>
       <c r="AV33">
         <f t="shared" si="5"/>
-        <v>69386.993603411509</v>
+        <v>77281.713344316318</v>
       </c>
       <c r="AW33">
         <f t="shared" si="6"/>
-        <v>75222.814498933905</v>
+        <v>82922.570016474463</v>
       </c>
       <c r="BH33" s="17">
         <f t="shared" si="16"/>
-        <v>0.91344786081628182</v>
+        <v>0.89864901232574412</v>
       </c>
       <c r="BI33">
         <f t="shared" si="7"/>
-        <v>60834.848470355144</v>
+        <v>66761.330949461713</v>
       </c>
       <c r="BJ33">
         <f t="shared" si="8"/>
-        <v>66778.102515730163</v>
+        <v>72010.359076646113</v>
       </c>
       <c r="BK33">
         <f t="shared" si="9"/>
-        <v>63381.400875509287</v>
+        <v>69449.135367711133</v>
       </c>
       <c r="BL33">
         <f t="shared" si="10"/>
-        <v>68712.118988631162</v>
+        <v>74518.285644817137</v>
       </c>
       <c r="BM33" s="23">
         <f t="shared" si="11"/>
-        <v>14868</v>
+        <v>27780</v>
       </c>
       <c r="BN33" s="9">
         <f t="shared" si="17"/>
-        <v>45966.848470355144</v>
+        <v>38981.330949461713</v>
       </c>
     </row>
     <row r="34" spans="1:66">
@@ -10715,179 +11078,179 @@
       </c>
       <c r="F34" s="19">
         <f t="shared" si="0"/>
-        <v>0.16700944429096193</v>
+        <v>0.165422314911366</v>
       </c>
       <c r="G34" s="19">
         <f t="shared" si="1"/>
-        <v>7.6495687141234614E-2</v>
+        <v>7.6496350364963508E-2</v>
       </c>
       <c r="H34" s="19">
         <f t="shared" si="1"/>
-        <v>4.7538652014202251E-2</v>
+        <v>2.9103232533889467E-2</v>
       </c>
       <c r="I34" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.4786235662148079E-3</v>
       </c>
       <c r="J34" s="19">
         <f t="shared" si="1"/>
-        <v>1.5542663024014898E-2</v>
+        <v>1.6350364963503651E-2</v>
       </c>
       <c r="K34" s="19">
         <f t="shared" si="1"/>
-        <v>2.8138461695879505E-3</v>
+        <v>2.5651720542231491E-3</v>
       </c>
       <c r="L34" s="19">
         <f t="shared" si="1"/>
-        <v>2.2203804320021284E-2</v>
+        <v>5.4254431699687175E-2</v>
       </c>
       <c r="M34" s="19">
         <f t="shared" si="1"/>
-        <v>0.140180700084927</v>
+        <v>0.1386652763295099</v>
       </c>
       <c r="N34" s="19">
         <f t="shared" si="1"/>
-        <v>7.6495687141234614E-2</v>
+        <v>7.6496350364963508E-2</v>
       </c>
       <c r="O34" s="19">
         <f t="shared" si="1"/>
-        <v>4.7446562503197551E-2</v>
+        <v>2.9103232533889467E-2</v>
       </c>
       <c r="P34" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.4786235662148079E-3</v>
       </c>
       <c r="Q34" s="19">
         <f t="shared" si="1"/>
-        <v>0.10085847888592156</v>
+        <v>9.9927007299270079E-2</v>
       </c>
       <c r="R34" s="19">
         <f t="shared" si="1"/>
-        <v>7.6495687141234614E-2</v>
+        <v>7.6496350364963508E-2</v>
       </c>
       <c r="S34" s="19">
         <f t="shared" si="1"/>
-        <v>4.2893247792409779E-2</v>
+        <v>2.9103232533889467E-2</v>
       </c>
       <c r="T34" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.4786235662148079E-3</v>
       </c>
       <c r="U34" s="19">
         <f t="shared" si="1"/>
-        <v>1.7210506389988847E-2</v>
+        <v>1.7956204379562045E-2</v>
       </c>
       <c r="V34" s="19">
         <f t="shared" si="1"/>
-        <v>5.6379245070653115E-3</v>
+        <v>5.1407716371220024E-3</v>
       </c>
       <c r="W34" s="19">
         <f t="shared" si="1"/>
-        <v>2.2203804320021284E-2</v>
+        <v>5.4254431699687175E-2</v>
       </c>
       <c r="X34" s="19">
         <f t="shared" si="1"/>
-        <v>8.0496464785994204E-2</v>
+        <v>7.9739311783107406E-2</v>
       </c>
       <c r="Y34" s="19">
         <f t="shared" si="1"/>
-        <v>7.6495687141234614E-2</v>
+        <v>7.6496350364963508E-2</v>
       </c>
       <c r="Z34" s="19">
         <f t="shared" si="1"/>
-        <v>4.2709068770400385E-2</v>
+        <v>2.9103232533889467E-2</v>
       </c>
       <c r="AA34" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.4786235662148079E-3</v>
       </c>
       <c r="AB34" s="19">
         <f t="shared" si="1"/>
-        <v>0.33160409696002291</v>
+        <v>0.35367049009384777</v>
       </c>
       <c r="AC34" s="19">
         <f t="shared" si="1"/>
-        <v>0.26529964903664138</v>
+        <v>0.29235662148070907</v>
       </c>
       <c r="AD34" s="19">
         <f t="shared" si="1"/>
-        <v>0.30468326324298328</v>
+        <v>0.32691345151199164</v>
       </c>
       <c r="AE34" s="19">
         <f t="shared" si="1"/>
-        <v>0.24475345591470465</v>
+        <v>0.27216892596454639</v>
       </c>
       <c r="AF34" s="20">
         <f t="shared" si="2"/>
-        <v>0.66839590303997709</v>
+        <v>0.64632950990615223</v>
       </c>
       <c r="AG34" s="20">
         <f t="shared" si="2"/>
-        <v>0.73470035096335862</v>
+        <v>0.70764337851929093</v>
       </c>
       <c r="AH34" s="20">
         <f t="shared" si="2"/>
-        <v>0.69531673675701666</v>
+        <v>0.67308654848800831</v>
       </c>
       <c r="AI34" s="20">
         <f t="shared" si="2"/>
-        <v>0.75524654408529535</v>
+        <v>0.72783107403545355</v>
       </c>
       <c r="AJ34" s="24">
         <f t="shared" si="13"/>
-        <v>1.0991993631645822</v>
+        <v>1.0948647209718794</v>
       </c>
       <c r="AK34" s="24">
         <f t="shared" si="14"/>
-        <v>1.0861906583865557</v>
+        <v>1.0813335605508994</v>
       </c>
       <c r="AS34" s="17">
         <f t="shared" si="15"/>
-        <v>1.0183299389002036</v>
+        <v>1.0928961748633881</v>
       </c>
       <c r="AT34">
         <f t="shared" si="3"/>
-        <v>66520.366598777997</v>
+        <v>67740.983606557376</v>
       </c>
       <c r="AU34">
         <f t="shared" si="4"/>
-        <v>73119.144602851316</v>
+        <v>74167.213114754108</v>
       </c>
       <c r="AV34">
         <f t="shared" si="5"/>
-        <v>69199.59266802443</v>
+        <v>70545.355191256836</v>
       </c>
       <c r="AW34">
         <f t="shared" si="6"/>
-        <v>75163.951120162936</v>
+        <v>76283.060109289625</v>
       </c>
       <c r="BH34" s="17">
         <f t="shared" si="16"/>
-        <v>0.91309816789718345</v>
+        <v>0.91031023390218635</v>
       </c>
       <c r="BI34">
         <f t="shared" si="7"/>
-        <v>60739.624869193183</v>
+        <v>61665.310631649416</v>
       </c>
       <c r="BJ34">
         <f t="shared" si="8"/>
-        <v>66764.956975072782</v>
+        <v>67515.173118365099</v>
       </c>
       <c r="BK34">
         <f t="shared" si="9"/>
-        <v>63186.021284404473</v>
+        <v>64218.158784865816</v>
       </c>
       <c r="BL34">
         <f t="shared" si="10"/>
-        <v>68632.066059734207</v>
+        <v>69441.250290861964</v>
       </c>
       <c r="BM34" s="23">
         <f t="shared" si="11"/>
-        <v>17184</v>
+        <v>13116</v>
       </c>
       <c r="BN34" s="9">
         <f t="shared" si="17"/>
-        <v>43555.624869193183</v>
+        <v>48549.310631649416</v>
       </c>
     </row>
     <row r="35" spans="1:66">
@@ -11262,15 +11625,15 @@
       </c>
       <c r="F37" s="19">
         <f t="shared" si="0"/>
-        <v>0.16906636333702518</v>
+        <v>0.16700944429096193</v>
       </c>
       <c r="G37" s="19">
         <f t="shared" si="1"/>
-        <v>7.6500932938206562E-2</v>
+        <v>7.6495687141234614E-2</v>
       </c>
       <c r="H37" s="19">
         <f t="shared" si="1"/>
-        <v>4.3992775965117088E-2</v>
+        <v>4.7538652014202251E-2</v>
       </c>
       <c r="I37" s="19">
         <f t="shared" si="1"/>
@@ -11278,27 +11641,27 @@
       </c>
       <c r="J37" s="19">
         <f t="shared" si="1"/>
-        <v>1.8499116951537102E-2</v>
+        <v>1.5542663024014898E-2</v>
       </c>
       <c r="K37" s="19">
         <f t="shared" si="1"/>
-        <v>1.6463615409944023E-3</v>
+        <v>2.8138461695879505E-3</v>
       </c>
       <c r="L37" s="19">
         <f t="shared" si="1"/>
-        <v>1.5994651819478952E-2</v>
+        <v>2.2203804320021284E-2</v>
       </c>
       <c r="M37" s="19">
         <f t="shared" si="1"/>
-        <v>0.14231548278304945</v>
+        <v>0.140180700084927</v>
       </c>
       <c r="N37" s="19">
         <f t="shared" si="1"/>
-        <v>7.6500932938206562E-2</v>
+        <v>7.6495687141234614E-2</v>
       </c>
       <c r="O37" s="19">
         <f t="shared" si="1"/>
-        <v>4.3992775965117088E-2</v>
+        <v>4.7446562503197551E-2</v>
       </c>
       <c r="P37" s="19">
         <f t="shared" si="1"/>
@@ -11306,15 +11669,15 @@
       </c>
       <c r="Q37" s="19">
         <f t="shared" si="1"/>
-        <v>0.10208439349038624</v>
+        <v>0.10085847888592156</v>
       </c>
       <c r="R37" s="19">
         <f t="shared" si="1"/>
-        <v>7.6500932938206562E-2</v>
+        <v>7.6495687141234614E-2</v>
       </c>
       <c r="S37" s="19">
         <f t="shared" si="1"/>
-        <v>4.3992775965117088E-2</v>
+        <v>4.2893247792409779E-2</v>
       </c>
       <c r="T37" s="19">
         <f t="shared" si="1"/>
@@ -11322,27 +11685,27 @@
       </c>
       <c r="U37" s="19">
         <f t="shared" si="1"/>
-        <v>2.037497131339739E-2</v>
+        <v>1.7210506389988847E-2</v>
       </c>
       <c r="V37" s="19">
         <f t="shared" si="1"/>
-        <v>3.2827451332555053E-3</v>
+        <v>5.6379245070653115E-3</v>
       </c>
       <c r="W37" s="19">
         <f t="shared" si="1"/>
-        <v>1.5994651819478952E-2</v>
+        <v>2.2203804320021284E-2</v>
       </c>
       <c r="X37" s="19">
         <f t="shared" si="1"/>
-        <v>8.1479929356122971E-2</v>
+        <v>8.0496464785994204E-2</v>
       </c>
       <c r="Y37" s="19">
         <f t="shared" si="1"/>
-        <v>7.6500932938206562E-2</v>
+        <v>7.6495687141234614E-2</v>
       </c>
       <c r="Z37" s="19">
         <f t="shared" si="1"/>
-        <v>4.3992775965117088E-2</v>
+        <v>4.2709068770400385E-2</v>
       </c>
       <c r="AA37" s="19">
         <f t="shared" si="1"/>
@@ -11350,91 +11713,91 @@
       </c>
       <c r="AB37" s="19">
         <f t="shared" si="1"/>
-        <v>0.32570020255235926</v>
+        <v>0.33160409696002291</v>
       </c>
       <c r="AC37" s="19">
         <f t="shared" si="1"/>
-        <v>0.26223047065984173</v>
+        <v>0.26529964903664138</v>
       </c>
       <c r="AD37" s="19">
         <f t="shared" si="1"/>
-        <v>0.29894932199838359</v>
+        <v>0.30468326324298328</v>
       </c>
       <c r="AE37" s="19">
         <f t="shared" si="1"/>
-        <v>0.24162600652557847</v>
+        <v>0.24475345591470465</v>
       </c>
       <c r="AF37" s="20">
         <f t="shared" si="2"/>
-        <v>0.67429979744764068</v>
+        <v>0.66839590303997709</v>
       </c>
       <c r="AG37" s="20">
         <f t="shared" si="2"/>
-        <v>0.73776952934015827</v>
+        <v>0.73470035096335862</v>
       </c>
       <c r="AH37" s="20">
         <f t="shared" si="2"/>
-        <v>0.70105067800161647</v>
+        <v>0.69531673675701666</v>
       </c>
       <c r="AI37" s="20">
         <f t="shared" si="2"/>
-        <v>0.75837399347442158</v>
+        <v>0.75524654408529535</v>
       </c>
       <c r="AJ37" s="24">
         <f t="shared" si="13"/>
-        <v>1.0941268737329644</v>
+        <v>1.0991993631645822</v>
       </c>
       <c r="AK37" s="24">
         <f t="shared" si="14"/>
-        <v>1.0817677198975235</v>
+        <v>1.0861906583865557</v>
       </c>
       <c r="AS37" s="17">
         <f t="shared" si="15"/>
-        <v>0.96899224806201545</v>
+        <v>1.0183299389002036</v>
       </c>
       <c r="AT37">
         <f t="shared" si="3"/>
-        <v>65483.527131782939</v>
+        <v>66520.366598777997</v>
       </c>
       <c r="AU37">
         <f t="shared" si="4"/>
-        <v>71647.28682170542</v>
+        <v>73119.144602851316</v>
       </c>
       <c r="AV37">
         <f t="shared" si="5"/>
-        <v>68081.395348837206</v>
+        <v>69199.59266802443</v>
       </c>
       <c r="AW37">
         <f t="shared" si="6"/>
-        <v>73648.255813953481</v>
+        <v>75163.951120162936</v>
       </c>
       <c r="BH37" s="17">
         <f t="shared" si="16"/>
-        <v>0.90478512978919412</v>
+        <v>0.91309816789718345</v>
       </c>
       <c r="BI37">
         <f t="shared" si="7"/>
-        <v>59248.52159498445</v>
+        <v>60739.624869193183</v>
       </c>
       <c r="BJ37">
         <f t="shared" si="8"/>
-        <v>64825.399706020355</v>
+        <v>66764.956975072782</v>
       </c>
       <c r="BK37">
         <f t="shared" si="9"/>
-        <v>61599.034126927108</v>
+        <v>63186.021284404473</v>
       </c>
       <c r="BL37">
         <f t="shared" si="10"/>
-        <v>66635.846695375672</v>
+        <v>68632.066059734207</v>
       </c>
       <c r="BM37" s="23">
         <f t="shared" si="11"/>
-        <v>18996</v>
+        <v>17184</v>
       </c>
       <c r="BN37" s="9">
         <f t="shared" si="17"/>
-        <v>40252.52159498445</v>
+        <v>43555.624869193183</v>
       </c>
     </row>
     <row r="38" spans="1:66">
@@ -11445,15 +11808,15 @@
       </c>
       <c r="F38" s="19">
         <f t="shared" si="0"/>
-        <v>0.19358258588077368</v>
+        <v>0.16906636333702518</v>
       </c>
       <c r="G38" s="19">
         <f t="shared" si="1"/>
-        <v>7.4653731161144668E-2</v>
+        <v>7.6500932938206562E-2</v>
       </c>
       <c r="H38" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.3992775965117088E-2</v>
       </c>
       <c r="I38" s="19">
         <f t="shared" si="1"/>
@@ -11461,27 +11824,27 @@
       </c>
       <c r="J38" s="19">
         <f t="shared" si="1"/>
-        <v>2.3308316553786075E-2</v>
+        <v>1.8499116951537102E-2</v>
       </c>
       <c r="K38" s="19">
         <f t="shared" si="1"/>
-        <v>1.7465983281469278E-3</v>
+        <v>1.6463615409944023E-3</v>
       </c>
       <c r="L38" s="19">
         <f t="shared" si="1"/>
-        <v>1.8831228262859236E-2</v>
+        <v>1.5994651819478952E-2</v>
       </c>
       <c r="M38" s="19">
         <f t="shared" si="1"/>
-        <v>0.16532430288608213</v>
+        <v>0.14231548278304945</v>
       </c>
       <c r="N38" s="19">
         <f t="shared" si="1"/>
-        <v>7.5218134114344984E-2</v>
+        <v>7.6500932938206562E-2</v>
       </c>
       <c r="O38" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.3992775965117088E-2</v>
       </c>
       <c r="P38" s="19">
         <f t="shared" si="1"/>
@@ -11489,15 +11852,15 @@
       </c>
       <c r="Q38" s="19">
         <f t="shared" si="1"/>
-        <v>0.13580755384709256</v>
+        <v>0.10208439349038624</v>
       </c>
       <c r="R38" s="19">
         <f t="shared" si="1"/>
-        <v>7.4653731161144668E-2</v>
+        <v>7.6500932938206562E-2</v>
       </c>
       <c r="S38" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.3992775965117088E-2</v>
       </c>
       <c r="T38" s="19">
         <f t="shared" si="1"/>
@@ -11505,27 +11868,27 @@
       </c>
       <c r="U38" s="19">
         <f t="shared" si="1"/>
-        <v>2.5245591555311489E-2</v>
+        <v>2.037497131339739E-2</v>
       </c>
       <c r="V38" s="19">
         <f t="shared" si="1"/>
-        <v>3.5008237232289951E-3</v>
+        <v>3.2827451332555053E-3</v>
       </c>
       <c r="W38" s="19">
         <f t="shared" si="1"/>
-        <v>1.8831228262859236E-2</v>
+        <v>1.5994651819478952E-2</v>
       </c>
       <c r="X38" s="19">
         <f t="shared" si="1"/>
-        <v>0.10940264811763988</v>
+        <v>8.1479929356122971E-2</v>
       </c>
       <c r="Y38" s="19">
         <f t="shared" si="1"/>
-        <v>7.5218134114344984E-2</v>
+        <v>7.6500932938206562E-2</v>
       </c>
       <c r="Z38" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.3992775965117088E-2</v>
       </c>
       <c r="AA38" s="19">
         <f t="shared" ref="G38:AE47" si="18">AA14/$C14</f>
@@ -11533,91 +11896,91 @@
       </c>
       <c r="AB38" s="19">
         <f t="shared" si="18"/>
-        <v>0.31212246018671058</v>
+        <v>0.32570020255235926</v>
       </c>
       <c r="AC38" s="19">
         <f t="shared" si="18"/>
-        <v>0.25803892854963695</v>
+        <v>0.26223047065984173</v>
       </c>
       <c r="AD38" s="19">
         <f t="shared" si="18"/>
-        <v>0.28442858014521938</v>
+        <v>0.29894932199838359</v>
       </c>
       <c r="AE38" s="19">
         <f t="shared" si="18"/>
-        <v>0.23219842577338459</v>
+        <v>0.24162600652557847</v>
       </c>
       <c r="AF38" s="20">
         <f t="shared" ref="AF38:AI47" si="19">AF14/$C14</f>
-        <v>0.68787753981328936</v>
+        <v>0.67429979744764068</v>
       </c>
       <c r="AG38" s="20">
         <f t="shared" si="19"/>
-        <v>0.74196107145036305</v>
+        <v>0.73776952934015827</v>
       </c>
       <c r="AH38" s="20">
         <f t="shared" si="19"/>
-        <v>0.71557141985478068</v>
+        <v>0.70105067800161647</v>
       </c>
       <c r="AI38" s="20">
         <f t="shared" si="19"/>
-        <v>0.76780157422661544</v>
+        <v>0.75837399347442158</v>
       </c>
       <c r="AJ38" s="24">
         <f t="shared" si="13"/>
-        <v>1.0786237789530875</v>
+        <v>1.0941268737329644</v>
       </c>
       <c r="AK38" s="24">
         <f t="shared" si="14"/>
-        <v>1.0729908335109783</v>
+        <v>1.0817677198975235</v>
       </c>
       <c r="AS38" s="17">
         <f t="shared" si="15"/>
-        <v>0.82372322899505768</v>
+        <v>0.96899224806201545</v>
       </c>
       <c r="AT38">
         <f t="shared" si="3"/>
-        <v>74290.774299835262</v>
+        <v>65483.527131782939</v>
       </c>
       <c r="AU38">
         <f t="shared" si="4"/>
-        <v>80131.795716639215</v>
+        <v>71647.28682170542</v>
       </c>
       <c r="AV38">
         <f t="shared" si="5"/>
-        <v>77281.713344316318</v>
+        <v>68081.395348837206</v>
       </c>
       <c r="AW38">
         <f t="shared" si="6"/>
-        <v>82922.570016474463</v>
+        <v>73648.255813953481</v>
       </c>
       <c r="BH38" s="17">
         <f t="shared" si="16"/>
-        <v>0.89864901232574412</v>
+        <v>0.90478512978919412</v>
       </c>
       <c r="BI38">
         <f t="shared" si="7"/>
-        <v>66761.330949461713</v>
+        <v>59248.52159498445</v>
       </c>
       <c r="BJ38">
         <f t="shared" si="8"/>
-        <v>72010.359076646113</v>
+        <v>64825.399706020355</v>
       </c>
       <c r="BK38">
         <f t="shared" si="9"/>
-        <v>69449.135367711133</v>
+        <v>61599.034126927108</v>
       </c>
       <c r="BL38">
         <f t="shared" si="10"/>
-        <v>74518.285644817137</v>
+        <v>66635.846695375672</v>
       </c>
       <c r="BM38" s="23">
         <f t="shared" si="11"/>
-        <v>27780</v>
+        <v>18996</v>
       </c>
       <c r="BN38" s="9">
         <f t="shared" si="17"/>
-        <v>38981.330949461713</v>
+        <v>40252.52159498445</v>
       </c>
     </row>
     <row r="39" spans="1:66">
@@ -12173,15 +12536,15 @@
       </c>
       <c r="F42" s="19">
         <f t="shared" si="0"/>
-        <v>0.17925987836540172</v>
+        <v>0.18281252587477437</v>
       </c>
       <c r="G42" s="19">
         <f t="shared" si="18"/>
-        <v>7.6501760500764668E-2</v>
+        <v>7.6498252935234407E-2</v>
       </c>
       <c r="H42" s="19">
         <f t="shared" si="18"/>
-        <v>4.673329302557172E-2</v>
+        <v>6.4633116399225005E-2</v>
       </c>
       <c r="I42" s="19">
         <f t="shared" si="18"/>
@@ -12189,27 +12552,27 @@
       </c>
       <c r="J42" s="19">
         <f t="shared" si="18"/>
-        <v>1.428850873137248E-2</v>
+        <v>1.9987745706857435E-2</v>
       </c>
       <c r="K42" s="19">
         <f t="shared" si="18"/>
-        <v>8.9803321833766046E-4</v>
+        <v>2.1113815887525461E-3</v>
       </c>
       <c r="L42" s="19">
         <f t="shared" si="18"/>
-        <v>1.8627520717003947E-2</v>
+        <v>1.5905741301935845E-2</v>
       </c>
       <c r="M42" s="19">
         <f t="shared" si="18"/>
-        <v>0.15295017249350926</v>
+        <v>0.15893321410237302</v>
       </c>
       <c r="N42" s="19">
         <f t="shared" si="18"/>
-        <v>7.6501760500764668E-2</v>
+        <v>7.6498252935234407E-2</v>
       </c>
       <c r="O42" s="19">
         <f t="shared" si="18"/>
-        <v>4.6697727353558344E-2</v>
+        <v>6.4144600659082257E-2</v>
       </c>
       <c r="P42" s="19">
         <f t="shared" si="18"/>
@@ -12217,15 +12580,15 @@
       </c>
       <c r="Q42" s="19">
         <f t="shared" si="18"/>
-        <v>0.11687768965394602</v>
+        <v>0.12602878102902942</v>
       </c>
       <c r="R42" s="19">
         <f t="shared" si="18"/>
-        <v>7.6501760500764668E-2</v>
+        <v>7.6498252935234407E-2</v>
       </c>
       <c r="S42" s="19">
         <f t="shared" si="18"/>
-        <v>4.4741615392822849E-2</v>
+        <v>4.0124530114097404E-2</v>
       </c>
       <c r="T42" s="19">
         <f t="shared" si="18"/>
@@ -12233,27 +12596,27 @@
       </c>
       <c r="U42" s="19">
         <f t="shared" si="18"/>
-        <v>1.5693352775900702E-2</v>
+        <v>2.2554523324556611E-2</v>
       </c>
       <c r="V42" s="19">
         <f t="shared" si="18"/>
-        <v>1.7871750186719778E-3</v>
+        <v>4.2310431053041216E-3</v>
       </c>
       <c r="W42" s="19">
         <f t="shared" si="18"/>
-        <v>1.8627520717003947E-2</v>
+        <v>1.5905741301935845E-2</v>
       </c>
       <c r="X42" s="19">
         <f t="shared" si="18"/>
-        <v>9.1065903190240785E-2</v>
+        <v>9.9930448606488156E-2</v>
       </c>
       <c r="Y42" s="19">
         <f t="shared" si="18"/>
-        <v>7.6501760500764668E-2</v>
+        <v>7.6498252935234407E-2</v>
       </c>
       <c r="Z42" s="19">
         <f t="shared" si="18"/>
-        <v>4.4661592630792758E-2</v>
+        <v>3.9147498633811915E-2</v>
       </c>
       <c r="AA42" s="19">
         <f t="shared" si="18"/>
@@ -12261,91 +12624,91 @@
       </c>
       <c r="AB42" s="19">
         <f t="shared" si="18"/>
-        <v>0.3363089945584522</v>
+        <v>0.36194876380677959</v>
       </c>
       <c r="AC42" s="19">
         <f t="shared" si="18"/>
-        <v>0.27422911405911016</v>
+        <v>0.28534287181015783</v>
       </c>
       <c r="AD42" s="19">
         <f t="shared" si="18"/>
-        <v>0.30996372301454633</v>
+        <v>0.33758093629423552</v>
       </c>
       <c r="AE42" s="19">
         <f t="shared" si="18"/>
-        <v>0.24833730483337482</v>
+        <v>0.25826750790733105</v>
       </c>
       <c r="AF42" s="20">
         <f t="shared" si="19"/>
-        <v>0.6636910054415478</v>
+        <v>0.63805123619322035</v>
       </c>
       <c r="AG42" s="20">
         <f t="shared" si="19"/>
-        <v>0.7257708859408899</v>
+        <v>0.71465712818984217</v>
       </c>
       <c r="AH42" s="20">
         <f t="shared" si="19"/>
-        <v>0.69003627698545367</v>
+        <v>0.66241906370576453</v>
       </c>
       <c r="AI42" s="20">
         <f t="shared" si="19"/>
-        <v>0.75166269516662521</v>
+        <v>0.741732492092669</v>
       </c>
       <c r="AJ42" s="24">
         <f t="shared" si="13"/>
-        <v>1.0935373238304487</v>
+        <v>1.1200622891253569</v>
       </c>
       <c r="AK42" s="24">
         <f t="shared" si="14"/>
-        <v>1.0893089540891929</v>
+        <v>1.1197330100121246</v>
       </c>
       <c r="AS42" s="17">
         <f t="shared" si="15"/>
-        <v>0.75471698113207553</v>
+        <v>0.73313782991202348</v>
       </c>
       <c r="AT42">
         <f t="shared" si="3"/>
-        <v>56335.094339622643</v>
+        <v>56495.601173020528</v>
       </c>
       <c r="AU42">
         <f t="shared" si="4"/>
-        <v>61604.528301886799</v>
+        <v>63278.59237536657</v>
       </c>
       <c r="AV42">
         <f t="shared" si="5"/>
-        <v>58571.320754716988</v>
+        <v>58653.225806451614</v>
       </c>
       <c r="AW42">
         <f t="shared" si="6"/>
-        <v>63802.264150943403</v>
+        <v>65675.953079178886</v>
       </c>
       <c r="BH42" s="17">
         <f t="shared" si="16"/>
-        <v>0.88728277621299889</v>
+        <v>0.88662312144867506</v>
       </c>
       <c r="BI42">
         <f t="shared" si="7"/>
-        <v>49985.15890388158</v>
+        <v>50090.306260142883</v>
       </c>
       <c r="BJ42">
         <f t="shared" si="8"/>
-        <v>54660.636898990379</v>
+        <v>56104.263092725829</v>
       </c>
       <c r="BK42">
         <f t="shared" si="9"/>
-        <v>51969.324085707318</v>
+        <v>52003.306147550102</v>
       </c>
       <c r="BL42">
         <f t="shared" si="10"/>
-        <v>56610.650064524147</v>
+        <v>58229.818523178306</v>
       </c>
       <c r="BM42" s="23">
         <f t="shared" si="11"/>
-        <v>26916</v>
+        <v>29568</v>
       </c>
       <c r="BN42" s="9">
         <f t="shared" si="17"/>
-        <v>23069.15890388158</v>
+        <v>20522.306260142883</v>
       </c>
     </row>
     <row r="43" spans="1:66">
@@ -12539,15 +12902,15 @@
       </c>
       <c r="F44" s="19">
         <f t="shared" si="0"/>
-        <v>0.18281252587477437</v>
+        <v>0.17925987836540172</v>
       </c>
       <c r="G44" s="19">
         <f t="shared" si="18"/>
-        <v>7.6498252935234407E-2</v>
+        <v>7.6501760500764668E-2</v>
       </c>
       <c r="H44" s="19">
         <f t="shared" si="18"/>
-        <v>6.4633116399225005E-2</v>
+        <v>4.673329302557172E-2</v>
       </c>
       <c r="I44" s="19">
         <f t="shared" si="18"/>
@@ -12555,27 +12918,27 @@
       </c>
       <c r="J44" s="19">
         <f t="shared" si="18"/>
-        <v>1.9987745706857435E-2</v>
+        <v>1.428850873137248E-2</v>
       </c>
       <c r="K44" s="19">
         <f t="shared" si="18"/>
-        <v>2.1113815887525461E-3</v>
+        <v>8.9803321833766046E-4</v>
       </c>
       <c r="L44" s="19">
         <f t="shared" si="18"/>
-        <v>1.5905741301935845E-2</v>
+        <v>1.8627520717003947E-2</v>
       </c>
       <c r="M44" s="19">
         <f t="shared" si="18"/>
-        <v>0.15893321410237302</v>
+        <v>0.15295017249350926</v>
       </c>
       <c r="N44" s="19">
         <f t="shared" si="18"/>
-        <v>7.6498252935234407E-2</v>
+        <v>7.6501760500764668E-2</v>
       </c>
       <c r="O44" s="19">
         <f t="shared" si="18"/>
-        <v>6.4144600659082257E-2</v>
+        <v>4.6697727353558344E-2</v>
       </c>
       <c r="P44" s="19">
         <f t="shared" si="18"/>
@@ -12583,15 +12946,15 @@
       </c>
       <c r="Q44" s="19">
         <f t="shared" si="18"/>
-        <v>0.12602878102902942</v>
+        <v>0.11687768965394602</v>
       </c>
       <c r="R44" s="19">
         <f t="shared" si="18"/>
-        <v>7.6498252935234407E-2</v>
+        <v>7.6501760500764668E-2</v>
       </c>
       <c r="S44" s="19">
         <f t="shared" si="18"/>
-        <v>4.0124530114097404E-2</v>
+        <v>4.4741615392822849E-2</v>
       </c>
       <c r="T44" s="19">
         <f t="shared" si="18"/>
@@ -12599,27 +12962,27 @@
       </c>
       <c r="U44" s="19">
         <f t="shared" si="18"/>
-        <v>2.2554523324556611E-2</v>
+        <v>1.5693352775900702E-2</v>
       </c>
       <c r="V44" s="19">
         <f t="shared" si="18"/>
-        <v>4.2310431053041216E-3</v>
+        <v>1.7871750186719778E-3</v>
       </c>
       <c r="W44" s="19">
         <f t="shared" si="18"/>
-        <v>1.5905741301935845E-2</v>
+        <v>1.8627520717003947E-2</v>
       </c>
       <c r="X44" s="19">
         <f t="shared" si="18"/>
-        <v>9.9930448606488156E-2</v>
+        <v>9.1065903190240785E-2</v>
       </c>
       <c r="Y44" s="19">
         <f t="shared" si="18"/>
-        <v>7.6498252935234407E-2</v>
+        <v>7.6501760500764668E-2</v>
       </c>
       <c r="Z44" s="19">
         <f t="shared" si="18"/>
-        <v>3.9147498633811915E-2</v>
+        <v>4.4661592630792758E-2</v>
       </c>
       <c r="AA44" s="19">
         <f t="shared" si="18"/>
@@ -12627,91 +12990,91 @@
       </c>
       <c r="AB44" s="19">
         <f t="shared" si="18"/>
-        <v>0.36194876380677959</v>
+        <v>0.3363089945584522</v>
       </c>
       <c r="AC44" s="19">
         <f t="shared" si="18"/>
-        <v>0.28534287181015783</v>
+        <v>0.27422911405911016</v>
       </c>
       <c r="AD44" s="19">
         <f t="shared" si="18"/>
-        <v>0.33758093629423552</v>
+        <v>0.30996372301454633</v>
       </c>
       <c r="AE44" s="19">
         <f t="shared" si="18"/>
-        <v>0.25826750790733105</v>
+        <v>0.24833730483337482</v>
       </c>
       <c r="AF44" s="20">
         <f t="shared" si="19"/>
-        <v>0.63805123619322035</v>
+        <v>0.6636910054415478</v>
       </c>
       <c r="AG44" s="20">
         <f t="shared" si="19"/>
-        <v>0.71465712818984217</v>
+        <v>0.7257708859408899</v>
       </c>
       <c r="AH44" s="20">
         <f t="shared" si="19"/>
-        <v>0.66241906370576453</v>
+        <v>0.69003627698545367</v>
       </c>
       <c r="AI44" s="20">
         <f t="shared" si="19"/>
-        <v>0.741732492092669</v>
+        <v>0.75166269516662521</v>
       </c>
       <c r="AJ44" s="24">
         <f t="shared" si="13"/>
-        <v>1.1200622891253569</v>
+        <v>1.0935373238304487</v>
       </c>
       <c r="AK44" s="24">
         <f t="shared" si="14"/>
-        <v>1.1197330100121246</v>
+        <v>1.0893089540891929</v>
       </c>
       <c r="AS44" s="17">
         <f t="shared" si="15"/>
-        <v>0.73313782991202348</v>
+        <v>0.75471698113207553</v>
       </c>
       <c r="AT44">
         <f t="shared" si="3"/>
-        <v>56495.601173020528</v>
+        <v>56335.094339622643</v>
       </c>
       <c r="AU44">
         <f t="shared" si="4"/>
-        <v>63278.59237536657</v>
+        <v>61604.528301886799</v>
       </c>
       <c r="AV44">
         <f t="shared" si="5"/>
-        <v>58653.225806451614</v>
+        <v>58571.320754716988</v>
       </c>
       <c r="AW44">
         <f t="shared" si="6"/>
-        <v>65675.953079178886</v>
+        <v>63802.264150943403</v>
       </c>
       <c r="BH44" s="17">
         <f t="shared" si="16"/>
-        <v>0.88662312144867506</v>
+        <v>0.88728277621299889</v>
       </c>
       <c r="BI44">
         <f t="shared" si="7"/>
-        <v>50090.306260142883</v>
+        <v>49985.15890388158</v>
       </c>
       <c r="BJ44">
         <f t="shared" si="8"/>
-        <v>56104.263092725829</v>
+        <v>54660.636898990379</v>
       </c>
       <c r="BK44">
         <f t="shared" si="9"/>
-        <v>52003.306147550102</v>
+        <v>51969.324085707318</v>
       </c>
       <c r="BL44">
         <f t="shared" si="10"/>
-        <v>58229.818523178306</v>
+        <v>56610.650064524147</v>
       </c>
       <c r="BM44" s="23">
         <f t="shared" si="11"/>
-        <v>29568</v>
+        <v>26916</v>
       </c>
       <c r="BN44" s="9">
         <f t="shared" si="17"/>
-        <v>20522.306260142883</v>
+        <v>23069.15890388158</v>
       </c>
     </row>
     <row r="45" spans="1:66">
@@ -12903,15 +13266,15 @@
       </c>
       <c r="F46" s="19">
         <f t="shared" si="0"/>
-        <v>0.17317943813735051</v>
+        <v>0.19375179536043832</v>
       </c>
       <c r="G46" s="19">
         <f t="shared" si="18"/>
-        <v>7.64962646643879E-2</v>
+        <v>6.9754569849154693E-2</v>
       </c>
       <c r="H46" s="19">
         <f t="shared" si="18"/>
-        <v>6.0210390766288244E-2</v>
+        <v>6.8997891108324161E-2</v>
       </c>
       <c r="I46" s="19">
         <f t="shared" si="18"/>
@@ -12919,27 +13282,27 @@
       </c>
       <c r="J46" s="19">
         <f t="shared" si="18"/>
-        <v>1.2934013805118688E-2</v>
+        <v>1.9372377022188903E-2</v>
       </c>
       <c r="K46" s="19">
         <f t="shared" si="18"/>
-        <v>8.6163635158550554E-4</v>
+        <v>1.0859741187845497E-3</v>
       </c>
       <c r="L46" s="19">
         <f t="shared" si="18"/>
-        <v>1.315179002584909E-2</v>
+        <v>1.1665463921137259E-2</v>
       </c>
       <c r="M46" s="19">
         <f t="shared" si="18"/>
-        <v>0.14730194199577704</v>
+        <v>0.17140174736738856</v>
       </c>
       <c r="N46" s="19">
         <f t="shared" si="18"/>
-        <v>7.64962646643879E-2</v>
+        <v>7.0273034912316346E-2</v>
       </c>
       <c r="O46" s="19">
         <f t="shared" si="18"/>
-        <v>5.9793775387499644E-2</v>
+        <v>6.85845203147223E-2</v>
       </c>
       <c r="P46" s="19">
         <f t="shared" si="18"/>
@@ -12947,15 +13310,15 @@
       </c>
       <c r="Q46" s="19">
         <f t="shared" si="18"/>
-        <v>0.10823478170301004</v>
+        <v>0.14510015483889049</v>
       </c>
       <c r="R46" s="19">
         <f t="shared" si="18"/>
-        <v>7.64962646643879E-2</v>
+        <v>6.9754569849154693E-2</v>
       </c>
       <c r="S46" s="19">
         <f t="shared" si="18"/>
-        <v>5.6252544667796577E-2</v>
+        <v>4.8259288581857927E-2</v>
       </c>
       <c r="T46" s="19">
         <f t="shared" si="18"/>
@@ -12963,27 +13326,27 @@
       </c>
       <c r="U46" s="19">
         <f t="shared" si="18"/>
-        <v>1.4325887911526043E-2</v>
+        <v>2.1495281267296766E-2</v>
       </c>
       <c r="V46" s="19">
         <f t="shared" si="18"/>
-        <v>1.7327412345071156E-3</v>
+        <v>2.1719482375690993E-3</v>
       </c>
       <c r="W46" s="19">
         <f t="shared" si="18"/>
-        <v>1.315179002584909E-2</v>
+        <v>1.1665463921137259E-2</v>
       </c>
       <c r="X46" s="19">
         <f t="shared" si="18"/>
-        <v>8.3446166665088584E-2</v>
+        <v>0.1183992040860652</v>
       </c>
       <c r="Y46" s="19">
         <f t="shared" si="18"/>
-        <v>7.64962646643879E-2</v>
+        <v>7.0273034912316346E-2</v>
       </c>
       <c r="Z46" s="19">
         <f t="shared" si="18"/>
-        <v>5.575071250698304E-2</v>
+        <v>4.7425540710016888E-2</v>
       </c>
       <c r="AA46" s="19">
         <f t="shared" si="18"/>
@@ -12991,91 +13354,91 @@
       </c>
       <c r="AB46" s="19">
         <f t="shared" si="18"/>
-        <v>0.33683353375057995</v>
+        <v>0.3646280713800279</v>
       </c>
       <c r="AC46" s="19">
         <f t="shared" si="18"/>
-        <v>0.27019401020707678</v>
+        <v>0.29844670669590623</v>
       </c>
       <c r="AD46" s="19">
         <f t="shared" si="18"/>
-        <v>0.31053942223021785</v>
+        <v>0.34238311765653789</v>
       </c>
       <c r="AE46" s="19">
         <f t="shared" si="18"/>
-        <v>0.24490356300834176</v>
+        <v>0.27143047313440155</v>
       </c>
       <c r="AF46" s="20">
         <f t="shared" si="19"/>
-        <v>0.66316646624942011</v>
+        <v>0.63537192861997216</v>
       </c>
       <c r="AG46" s="20">
         <f t="shared" si="19"/>
-        <v>0.72980598979292322</v>
+        <v>0.70155329330409377</v>
       </c>
       <c r="AH46" s="20">
         <f t="shared" si="19"/>
-        <v>0.68946057776978209</v>
+        <v>0.65761688234346205</v>
       </c>
       <c r="AI46" s="20">
         <f t="shared" si="19"/>
-        <v>0.75509643699165818</v>
+        <v>0.72856952686559839</v>
       </c>
       <c r="AJ46" s="24">
         <f t="shared" si="13"/>
-        <v>1.1004868716001084</v>
+        <v>1.1041616125973137</v>
       </c>
       <c r="AK46" s="24">
         <f t="shared" si="14"/>
-        <v>1.0951988573939793</v>
+        <v>1.1078935873259395</v>
       </c>
       <c r="AS46" s="17">
         <f t="shared" si="15"/>
-        <v>0.7137758743754461</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="AT46">
         <f t="shared" si="3"/>
-        <v>49992.14846538187</v>
+        <v>55296.341463414632</v>
       </c>
       <c r="AU46">
         <f t="shared" si="4"/>
-        <v>55015.70306923626</v>
+        <v>61056.097560975606</v>
       </c>
       <c r="AV46">
         <f t="shared" si="5"/>
-        <v>51974.304068522484</v>
+        <v>57232.317073170729</v>
       </c>
       <c r="AW46">
         <f t="shared" si="6"/>
-        <v>56922.198429693075</v>
+        <v>63407.317073170729</v>
       </c>
       <c r="BH46" s="17">
         <f t="shared" si="16"/>
-        <v>0.88860503486082287</v>
+        <v>0.88040497785277372</v>
       </c>
       <c r="BI46">
         <f t="shared" si="7"/>
-        <v>44423.274829848087</v>
+        <v>48683.174281436979</v>
       </c>
       <c r="BJ46">
         <f t="shared" si="8"/>
-        <v>48887.230743731365</v>
+        <v>53754.092220947517</v>
       </c>
       <c r="BK46">
         <f t="shared" si="9"/>
-        <v>46184.628278676428</v>
+        <v>50387.616845267803</v>
       </c>
       <c r="BL46">
         <f t="shared" si="10"/>
-        <v>50581.3521199721</v>
+        <v>55824.117583508683</v>
       </c>
       <c r="BM46" s="23">
         <f t="shared" si="11"/>
-        <v>28032</v>
+        <v>38604</v>
       </c>
       <c r="BN46" s="9">
         <f t="shared" si="17"/>
-        <v>16391.274829848087</v>
+        <v>10079.174281436979</v>
       </c>
     </row>
     <row r="47" spans="1:66">
@@ -13086,15 +13449,15 @@
       </c>
       <c r="F47" s="19">
         <f t="shared" si="0"/>
-        <v>0.19375179536043832</v>
+        <v>0.17317943813735051</v>
       </c>
       <c r="G47" s="19">
         <f t="shared" si="18"/>
-        <v>6.9754569849154693E-2</v>
+        <v>7.64962646643879E-2</v>
       </c>
       <c r="H47" s="19">
         <f t="shared" si="18"/>
-        <v>6.8997891108324161E-2</v>
+        <v>6.0210390766288244E-2</v>
       </c>
       <c r="I47" s="19">
         <f t="shared" si="18"/>
@@ -13102,27 +13465,27 @@
       </c>
       <c r="J47" s="19">
         <f t="shared" si="18"/>
-        <v>1.9372377022188903E-2</v>
+        <v>1.2934013805118688E-2</v>
       </c>
       <c r="K47" s="19">
         <f t="shared" si="18"/>
-        <v>1.0859741187845497E-3</v>
+        <v>8.6163635158550554E-4</v>
       </c>
       <c r="L47" s="19">
         <f t="shared" si="18"/>
-        <v>1.1665463921137259E-2</v>
+        <v>1.315179002584909E-2</v>
       </c>
       <c r="M47" s="19">
         <f t="shared" si="18"/>
-        <v>0.17140174736738856</v>
+        <v>0.14730194199577704</v>
       </c>
       <c r="N47" s="19">
         <f t="shared" si="18"/>
-        <v>7.0273034912316346E-2</v>
+        <v>7.64962646643879E-2</v>
       </c>
       <c r="O47" s="19">
         <f t="shared" si="18"/>
-        <v>6.85845203147223E-2</v>
+        <v>5.9793775387499644E-2</v>
       </c>
       <c r="P47" s="19">
         <f t="shared" si="18"/>
@@ -13130,15 +13493,15 @@
       </c>
       <c r="Q47" s="19">
         <f t="shared" si="18"/>
-        <v>0.14510015483889049</v>
+        <v>0.10823478170301004</v>
       </c>
       <c r="R47" s="19">
         <f t="shared" si="18"/>
-        <v>6.9754569849154693E-2</v>
+        <v>7.64962646643879E-2</v>
       </c>
       <c r="S47" s="19">
         <f t="shared" si="18"/>
-        <v>4.8259288581857927E-2</v>
+        <v>5.6252544667796577E-2</v>
       </c>
       <c r="T47" s="19">
         <f t="shared" si="18"/>
@@ -13146,27 +13509,27 @@
       </c>
       <c r="U47" s="19">
         <f t="shared" si="18"/>
-        <v>2.1495281267296766E-2</v>
+        <v>1.4325887911526043E-2</v>
       </c>
       <c r="V47" s="19">
         <f t="shared" si="18"/>
-        <v>2.1719482375690993E-3</v>
+        <v>1.7327412345071156E-3</v>
       </c>
       <c r="W47" s="19">
         <f t="shared" si="18"/>
-        <v>1.1665463921137259E-2</v>
+        <v>1.315179002584909E-2</v>
       </c>
       <c r="X47" s="19">
         <f t="shared" si="18"/>
-        <v>0.1183992040860652</v>
+        <v>8.3446166665088584E-2</v>
       </c>
       <c r="Y47" s="19">
         <f t="shared" si="18"/>
-        <v>7.0273034912316346E-2</v>
+        <v>7.64962646643879E-2</v>
       </c>
       <c r="Z47" s="19">
         <f t="shared" si="18"/>
-        <v>4.7425540710016888E-2</v>
+        <v>5.575071250698304E-2</v>
       </c>
       <c r="AA47" s="19">
         <f t="shared" si="18"/>
@@ -13174,91 +13537,91 @@
       </c>
       <c r="AB47" s="19">
         <f t="shared" si="18"/>
-        <v>0.3646280713800279</v>
+        <v>0.33683353375057995</v>
       </c>
       <c r="AC47" s="19">
         <f t="shared" si="18"/>
-        <v>0.29844670669590623</v>
+        <v>0.27019401020707678</v>
       </c>
       <c r="AD47" s="19">
         <f t="shared" si="18"/>
-        <v>0.34238311765653789</v>
+        <v>0.31053942223021785</v>
       </c>
       <c r="AE47" s="19">
         <f t="shared" si="18"/>
-        <v>0.27143047313440155</v>
+        <v>0.24490356300834176</v>
       </c>
       <c r="AF47" s="20">
         <f t="shared" si="19"/>
-        <v>0.63537192861997216</v>
+        <v>0.66316646624942011</v>
       </c>
       <c r="AG47" s="20">
         <f t="shared" si="19"/>
-        <v>0.70155329330409377</v>
+        <v>0.72980598979292322</v>
       </c>
       <c r="AH47" s="20">
         <f t="shared" si="19"/>
-        <v>0.65761688234346205</v>
+        <v>0.68946057776978209</v>
       </c>
       <c r="AI47" s="20">
         <f t="shared" si="19"/>
-        <v>0.72856952686559839</v>
+        <v>0.75509643699165818</v>
       </c>
       <c r="AJ47" s="24">
         <f t="shared" si="13"/>
-        <v>1.1041616125973137</v>
+        <v>1.1004868716001084</v>
       </c>
       <c r="AK47" s="24">
         <f t="shared" si="14"/>
-        <v>1.1078935873259395</v>
+        <v>1.0951988573939793</v>
       </c>
       <c r="AS47" s="17">
         <f t="shared" si="15"/>
-        <v>0.6097560975609756</v>
+        <v>0.7137758743754461</v>
       </c>
       <c r="AT47">
         <f t="shared" si="3"/>
-        <v>55296.341463414632</v>
+        <v>49992.14846538187</v>
       </c>
       <c r="AU47">
         <f t="shared" si="4"/>
-        <v>61056.097560975606</v>
+        <v>55015.70306923626</v>
       </c>
       <c r="AV47">
         <f t="shared" si="5"/>
-        <v>57232.317073170729</v>
+        <v>51974.304068522484</v>
       </c>
       <c r="AW47">
         <f t="shared" si="6"/>
-        <v>63407.317073170729</v>
+        <v>56922.198429693075</v>
       </c>
       <c r="BH47" s="17">
         <f t="shared" si="16"/>
-        <v>0.88040497785277372</v>
+        <v>0.88860503486082287</v>
       </c>
       <c r="BI47">
         <f t="shared" si="7"/>
-        <v>48683.174281436979</v>
+        <v>44423.274829848087</v>
       </c>
       <c r="BJ47">
         <f t="shared" si="8"/>
-        <v>53754.092220947517</v>
+        <v>48887.230743731365</v>
       </c>
       <c r="BK47">
         <f t="shared" si="9"/>
-        <v>50387.616845267803</v>
+        <v>46184.628278676428</v>
       </c>
       <c r="BL47">
         <f t="shared" si="10"/>
-        <v>55824.117583508683</v>
+        <v>50581.3521199721</v>
       </c>
       <c r="BM47" s="23">
         <f t="shared" si="11"/>
-        <v>38604</v>
+        <v>28032</v>
       </c>
       <c r="BN47" s="9">
         <f t="shared" si="17"/>
-        <v>10079.174281436979</v>
+        <v>16391.274829848087</v>
       </c>
     </row>
     <row r="48" spans="1:66">
@@ -13290,9 +13653,13 @@
       <c r="B74" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:CC23">
-    <sortState ref="A4:CC24">
-      <sortCondition descending="1" ref="BN3:BN23"/>
+  <autoFilter ref="A3:CG23">
+    <filterColumn colId="69"/>
+    <filterColumn colId="70"/>
+    <filterColumn colId="71"/>
+    <filterColumn colId="72"/>
+    <sortState ref="A4:CG24">
+      <sortCondition descending="1" ref="BU3:BU23"/>
     </sortState>
   </autoFilter>
   <sortState ref="A2:A70">
@@ -13586,7 +13953,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BR4:BR24">
+  <conditionalFormatting sqref="BV4:BV24">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -13598,7 +13965,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BS4:BS26">
+  <conditionalFormatting sqref="BW4:BW26">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -13610,7 +13977,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BT4:BT26">
+  <conditionalFormatting sqref="BX4:BX26">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -13622,7 +13989,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BU4:BU26">
+  <conditionalFormatting sqref="BY4:BY26">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -13634,7 +14001,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BV4:BV26">
+  <conditionalFormatting sqref="BZ4:BZ26">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -13646,7 +14013,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BW4:BW26">
+  <conditionalFormatting sqref="CA4:CA26">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -13658,7 +14025,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BX4:BX26">
+  <conditionalFormatting sqref="CB4:CB26">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -13670,7 +14037,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BY4:BY26">
+  <conditionalFormatting sqref="CC4:CC26">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -13682,7 +14049,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BZ4:BZ26">
+  <conditionalFormatting sqref="CD4:CD26">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -13694,7 +14061,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CA4:CA26">
+  <conditionalFormatting sqref="CE4:CE26">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -13706,7 +14073,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CB4:CB26">
+  <conditionalFormatting sqref="CF4:CF26">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -13718,7 +14085,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CC4:CC26">
+  <conditionalFormatting sqref="CG4:CG26">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -13766,7 +14133,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BN4:BQ24">
+  <conditionalFormatting sqref="BN4:BU24">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -13790,7 +14157,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BS4:BS24">
+  <conditionalFormatting sqref="BW4:BW24">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -13802,7 +14169,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BT4:BT24">
+  <conditionalFormatting sqref="BX4:BX24">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -13814,7 +14181,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BU4:BU24">
+  <conditionalFormatting sqref="BY4:BY24">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -13826,7 +14193,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BV4:BV24">
+  <conditionalFormatting sqref="BZ4:BZ24">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -13838,7 +14205,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BW4:BW24">
+  <conditionalFormatting sqref="CA4:CA24">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -13851,7 +14218,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="CG5" r:id="rId1"/>
+    <hyperlink ref="CK5" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
